--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -1459,7 +1459,7 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1878,6 +1878,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,24 +1911,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2228,40 +2229,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="193" customWidth="1"/>
-    <col min="3" max="3" width="18" style="193" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="193" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="193" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="193" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="193" customWidth="1"/>
-    <col min="8" max="9" width="8" style="193"/>
-    <col min="10" max="11" width="2.7109375" style="193" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="193" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="193" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="193" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="193"/>
+    <col min="1" max="2" width="2.7109375" style="188" customWidth="1"/>
+    <col min="3" max="3" width="18" style="188" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="188" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="188" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="188" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="188" customWidth="1"/>
+    <col min="8" max="9" width="8" style="188"/>
+    <col min="10" max="11" width="2.7109375" style="188" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="188" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="188" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="188"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="str">
+      <c r="B1" s="188" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="204"/>
-      <c r="K2" s="201" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="199"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2284,10 +2285,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="191" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="197"/>
+      <c r="I4" s="192"/>
       <c r="K4" s="124"/>
       <c r="L4" s="123" t="s">
         <v>169</v>
@@ -2307,10 +2308,10 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="195" t="s">
+      <c r="I5" s="190" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="124"/>
@@ -2334,10 +2335,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="194" t="s">
+      <c r="H6" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="195"/>
+      <c r="I6" s="190"/>
       <c r="K6" s="124"/>
       <c r="L6" s="123" t="s">
         <v>167</v>
@@ -2358,10 +2359,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="194" t="s">
+      <c r="H7" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="195"/>
+      <c r="I7" s="190"/>
       <c r="K7" s="121"/>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
@@ -2378,16 +2379,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="198" t="s">
+      <c r="H8" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="199" t="s">
+      <c r="I8" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
@@ -2400,12 +2401,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="201" t="s">
+      <c r="K9" s="196" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="203"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="199"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2428,7 +2429,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="80">
-        <v>41652.214004629626</v>
+        <v>41662.585243055553</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2482,7 +2483,7 @@
       </c>
       <c r="D14" s="77" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC1Y#0007</v>
+        <v>_EURYC1Y#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2617,7 +2618,7 @@
       <c r="B24" s="61"/>
       <c r="C24" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="D24" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2630,11 +2631,11 @@
       <c r="B25" s="61"/>
       <c r="C25" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
       <c r="D25" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18965145752856208</v>
+        <v>0.18963625795342623</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="57"/>
@@ -2725,11 +2726,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="202"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -2859,11 +2860,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2898,11 +2899,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41661</v>
+        <v>41667</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2937,11 +2938,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2976,11 +2977,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3015,11 +3016,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3054,11 +3055,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3087,11 +3088,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3120,11 +3121,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="M11" s="1">
         <v>7</v>
@@ -3156,11 +3157,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3189,11 +3190,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3222,11 +3223,11 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41866</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3255,11 +3256,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41897</v>
+        <v>41904</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3288,11 +3289,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3321,11 +3322,11 @@
       </c>
       <c r="K17" s="11">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L17" s="10">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3354,11 +3355,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41988</v>
+        <v>41995</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3387,11 +3388,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3425,11 +3426,11 @@
       </c>
       <c r="K20" s="19">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L20" s="18">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3463,11 +3464,11 @@
       </c>
       <c r="K21" s="4">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="L21" s="3">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42020</v>
+        <v>42026</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3501,11 +3502,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42052</v>
+        <v>42058</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3539,11 +3540,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42080</v>
+        <v>42086</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3577,11 +3578,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42109</v>
+        <v>42116</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3615,11 +3616,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42139</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3653,11 +3654,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42171</v>
+        <v>42178</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3691,11 +3692,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3729,11 +3730,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41866</v>
+        <v>41872</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42233</v>
+        <v>42237</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3767,11 +3768,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41897</v>
+        <v>41904</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42262</v>
+        <v>42269</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3805,11 +3806,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3843,11 +3844,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42325</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3881,11 +3882,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41988</v>
+        <v>41995</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42353</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3919,11 +3920,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3957,11 +3958,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42051</v>
+        <v>42058</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42416</v>
+        <v>42423</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3995,11 +3996,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42445</v>
+        <v>42452</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4033,11 +4034,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42475</v>
+        <v>42481</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4071,11 +4072,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42139</v>
+        <v>42145</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42506</v>
+        <v>42513</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4109,11 +4110,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42170</v>
+        <v>42177</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42536</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4147,11 +4148,11 @@
       </c>
       <c r="K39" s="4">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42566</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4165,11 +4166,11 @@
       </c>
       <c r="D40" s="14" t="str">
         <f t="array" ref="D40:D81">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A40:$A81)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YF4</v>
+        <v>EUR_YC1YRH_FUT1YG4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4207,11 +4208,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YG4</v>
+        <v>EUR_YC1YRH_FUT1YH4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4249,11 +4250,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YH4</v>
+        <v>EUR_YC1YRH_FUT1YJ4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4291,11 +4292,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YJ4</v>
+        <v>EUR_YC1YRH_FUT1YK4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4333,11 +4334,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YK4</v>
+        <v>EUR_YC1YRH_FUT1YM4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4375,11 +4376,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YM4</v>
+        <v>EUR_YC1YRH_FUT1YN4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4417,11 +4418,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YN4</v>
+        <v>EUR_YC1YRH_FUT1YQ4</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4459,11 +4460,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YQ4</v>
+        <v>EUR_YC1YRH_FUT1YU4</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4501,11 +4502,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YU4</v>
+        <v>EUR_YC1YRH_FUT1YV4</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4543,11 +4544,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YV4</v>
+        <v>EUR_YC1YRH_FUT1YX4</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4585,11 +4586,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YX4</v>
+        <v>EUR_YC1YRH_FUT1YZ4</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4627,11 +4628,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YZ4</v>
+        <v>EUR_YC1YRH_FUT1YF5</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -8343,11 +8344,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8385,11 +8386,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8427,11 +8428,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8469,11 +8470,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8511,11 +8512,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8553,11 +8554,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>42751</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8595,11 +8596,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8637,11 +8638,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>43480</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8679,11 +8680,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>43845</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8721,11 +8722,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>44211</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8763,11 +8764,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8805,11 +8806,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>44942</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8847,11 +8848,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8889,11 +8890,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>45672</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8931,11 +8932,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46037</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8973,11 +8974,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>46402</v>
+        <v>46408</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9015,11 +9016,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>46769</v>
+        <v>46773</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9057,11 +9058,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47133</v>
+        <v>47140</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9099,11 +9100,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>47498</v>
+        <v>47504</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9141,11 +9142,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>47863</v>
+        <v>47869</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9183,11 +9184,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>48228</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9225,11 +9226,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>48596</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9267,11 +9268,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>48960</v>
+        <v>48967</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9309,11 +9310,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>49324</v>
+        <v>49331</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9351,11 +9352,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>49689</v>
+        <v>49695</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9393,11 +9394,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50055</v>
+        <v>50061</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9435,11 +9436,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>50420</v>
+        <v>50426</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9477,11 +9478,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>50787</v>
+        <v>50791</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9519,11 +9520,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>51151</v>
+        <v>51158</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9561,11 +9562,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>51516</v>
+        <v>51522</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9603,11 +9604,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>51881</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9645,11 +9646,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>52246</v>
+        <v>52252</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9687,11 +9688,11 @@
       </c>
       <c r="K169" s="11">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L169" s="10">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>52611</v>
+        <v>52617</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9729,11 +9730,11 @@
       </c>
       <c r="K170" s="11">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L170" s="10">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>54438</v>
+        <v>54444</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9771,11 +9772,11 @@
       </c>
       <c r="K171" s="11">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L171" s="10">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>56264</v>
+        <v>56270</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -9813,11 +9814,11 @@
       </c>
       <c r="K172" s="11">
         <f>_xll.qlRateHelperEarliestDate($E172,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L172" s="10">
         <f>_xll.qlRateHelperLatestDate($E172,Trigger)</f>
-        <v>59916</v>
+        <v>59922</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.2">
@@ -9855,11 +9856,11 @@
       </c>
       <c r="K173" s="4">
         <f>_xll.qlRateHelperEarliestDate($E173,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L173" s="3">
         <f>_xll.qlRateHelperLatestDate($E173,Trigger)</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
     </row>
   </sheetData>
@@ -9899,10 +9900,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="192"/>
+      <c r="B1" s="204"/>
       <c r="D1" s="53" t="s">
         <v>87</v>
       </c>
@@ -9942,20 +9943,20 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="I2" s="34">
-        <v>0.9996144153994998</v>
-      </c>
-      <c r="K2" s="32" t="s">
+        <v>0.99963777569843248</v>
+      </c>
+      <c r="K2" s="205" t="s">
         <v>117</v>
       </c>
       <c r="L2" s="86">
-        <v>4.2079999999999999E-3</v>
+        <v>5.8869999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9978,20 +9979,20 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="I3" s="34">
-        <v>0.9988994625171721</v>
-      </c>
-      <c r="K3" s="32" t="s">
+        <v>0.99888724792986683</v>
+      </c>
+      <c r="K3" s="205" t="s">
         <v>118</v>
       </c>
       <c r="L3" s="86">
-        <v>4.4070000000000003E-3</v>
+        <v>5.855E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -10014,20 +10015,20 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99766503426960573</v>
-      </c>
-      <c r="K4" s="32" t="s">
+        <v>0.99766503426960518</v>
+      </c>
+      <c r="K4" s="205" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="86">
-        <v>4.6550000000000003E-3</v>
+        <v>5.7489999999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10050,20 +10051,20 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
       <c r="I5" s="34">
         <v>0.9962362030212093</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="205" t="s">
         <v>120</v>
       </c>
       <c r="L5" s="86">
-        <v>4.9820000000000003E-3</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10087,26 +10088,26 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="I6" s="34">
         <v>0.99460495879641742</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="205" t="s">
         <v>121</v>
       </c>
       <c r="L6" s="86">
-        <v>5.3499999999999997E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_RateHelpersSelected#0007</v>
+        <v>EUR_YC1YRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10125,20 +10126,20 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42109</v>
+        <v>42116</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99268850010615362</v>
-      </c>
-      <c r="K7" s="32" t="s">
+        <v>0.99267636146677463</v>
+      </c>
+      <c r="K7" s="205" t="s">
         <v>122</v>
       </c>
       <c r="L7" s="86">
-        <v>6.1710000000000003E-3</v>
+        <v>5.6899999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -10155,20 +10156,20 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="I8" s="34">
-        <v>0.9906193231268744</v>
-      </c>
-      <c r="K8" s="32" t="s">
+        <v>0.99061932312687395</v>
+      </c>
+      <c r="K8" s="205" t="s">
         <v>123</v>
       </c>
       <c r="L8" s="86">
-        <v>7.0150000000000004E-3</v>
+        <v>5.8389999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -10185,20 +10186,20 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
       <c r="I9" s="34">
-        <v>0.98837073498482875</v>
-      </c>
-      <c r="K9" s="32" t="s">
+        <v>0.98837073498482864</v>
+      </c>
+      <c r="K9" s="205" t="s">
         <v>124</v>
       </c>
       <c r="L9" s="86">
-        <v>7.8490000000000001E-3</v>
+        <v>6.1720000000000004E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -10215,20 +10216,20 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
       <c r="I10" s="34">
-        <v>0.98596788016616188</v>
-      </c>
-      <c r="K10" s="32" t="s">
+        <v>0.98596788016616199</v>
+      </c>
+      <c r="K10" s="205" t="s">
         <v>125</v>
       </c>
       <c r="L10" s="86">
-        <v>8.6199999999999992E-3</v>
+        <v>6.7400000000000003E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -10245,20 +10246,20 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42475</v>
+        <v>42481</v>
       </c>
       <c r="I11" s="34">
-        <v>0.9833231988505412</v>
-      </c>
-      <c r="K11" s="32" t="s">
+        <v>0.98333321174830712</v>
+      </c>
+      <c r="K11" s="205" t="s">
         <v>126</v>
       </c>
       <c r="L11" s="86">
-        <v>9.3679999999999996E-3</v>
+        <v>7.5030000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -10275,20 +10276,20 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42566</v>
+        <v>42572</v>
       </c>
       <c r="I12" s="34">
-        <v>0.98049149959703663</v>
-      </c>
-      <c r="K12" s="32" t="s">
+        <v>0.9804914995970363</v>
+      </c>
+      <c r="K12" s="205" t="s">
         <v>127</v>
       </c>
       <c r="L12" s="86">
-        <v>1.0160000000000001E-2</v>
+        <v>8.5360000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -10305,20 +10306,20 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42751</v>
+        <v>42758</v>
       </c>
       <c r="I13" s="34">
-        <v>0.97403478939675248</v>
-      </c>
-      <c r="K13" s="32" t="s">
+        <v>0.974011241668163</v>
+      </c>
+      <c r="K13" s="205" t="s">
         <v>128</v>
       </c>
       <c r="L13" s="86">
-        <v>8.7799999999999996E-3</v>
+        <v>7.9900000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -10335,20 +10336,20 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="I14" s="34">
-        <v>0.95720426641032685</v>
-      </c>
-      <c r="K14" s="32" t="s">
+        <v>0.95717524226085116</v>
+      </c>
+      <c r="K14" s="205" t="s">
         <v>129</v>
       </c>
       <c r="L14" s="86">
-        <v>1.093E-2</v>
+        <v>1.027E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -10365,20 +10366,20 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43480</v>
+        <v>43486</v>
       </c>
       <c r="I15" s="34">
-        <v>0.93615170369163214</v>
-      </c>
-      <c r="K15" s="32" t="s">
+        <v>0.93615101981644078</v>
+      </c>
+      <c r="K15" s="205" t="s">
         <v>130</v>
       </c>
       <c r="L15" s="86">
-        <v>1.3169999999999999E-2</v>
+        <v>1.261E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -10395,20 +10396,20 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="I16" s="34">
-        <v>0.91295186099319192</v>
-      </c>
-      <c r="K16" s="32" t="s">
+        <v>0.91295108805915437</v>
+      </c>
+      <c r="K16" s="205" t="s">
         <v>131</v>
       </c>
       <c r="L16" s="86">
-        <v>1.511E-2</v>
+        <v>1.4789999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -10425,20 +10426,20 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44211</v>
+        <v>44217</v>
       </c>
       <c r="I17" s="34">
-        <v>0.88816173522603858</v>
-      </c>
-      <c r="K17" s="32" t="s">
+        <v>0.88816088905164303</v>
+      </c>
+      <c r="K17" s="205" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="86">
-        <v>1.6820000000000002E-2</v>
+        <v>1.677E-2</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
@@ -10455,20 +10456,20 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="I18" s="34">
-        <v>0.86230289696187312</v>
-      </c>
-      <c r="K18" s="32" t="s">
+        <v>0.86238817628151543</v>
+      </c>
+      <c r="K18" s="205" t="s">
         <v>133</v>
       </c>
       <c r="L18" s="86">
-        <v>1.8319999999999999E-2</v>
+        <v>1.8540000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
@@ -10485,20 +10486,20 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44942</v>
+        <v>44949</v>
       </c>
       <c r="I19" s="34">
-        <v>0.83551656198146551</v>
-      </c>
-      <c r="K19" s="32" t="s">
+        <v>0.83547198427074776</v>
+      </c>
+      <c r="K19" s="205" t="s">
         <v>134</v>
       </c>
       <c r="L19" s="86">
-        <v>1.9689999999999999E-2</v>
+        <v>2.0109999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
@@ -10515,20 +10516,20 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="I20" s="34">
-        <v>0.80819513989607716</v>
-      </c>
-      <c r="K20" s="32" t="s">
+        <v>0.80814870378462667</v>
+      </c>
+      <c r="K20" s="205" t="s">
         <v>135</v>
       </c>
       <c r="L20" s="86">
-        <v>2.095E-2</v>
+        <v>2.147E-2</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
@@ -10545,20 +10546,20 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="I21" s="34">
-        <v>0.75484775228193013</v>
-      </c>
-      <c r="K21" s="32" t="s">
+        <v>0.75484656526061478</v>
+      </c>
+      <c r="K21" s="205" t="s">
         <v>136</v>
       </c>
       <c r="L21" s="86">
-        <v>2.2929999999999999E-2</v>
+        <v>2.3640000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
@@ -10575,20 +10576,20 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47133</v>
+        <v>47140</v>
       </c>
       <c r="I22" s="34">
-        <v>0.6824755050852418</v>
-      </c>
-      <c r="K22" s="32" t="s">
+        <v>0.68242811770428691</v>
+      </c>
+      <c r="K22" s="205" t="s">
         <v>137</v>
       </c>
       <c r="L22" s="86">
-        <v>2.479E-2</v>
+        <v>2.5739999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
@@ -10605,20 +10606,20 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>48960</v>
+        <v>48967</v>
       </c>
       <c r="I23" s="34">
-        <v>0.58928885272232778</v>
-      </c>
-      <c r="K23" s="32" t="s">
+        <v>0.58924492568067754</v>
+      </c>
+      <c r="K23" s="205" t="s">
         <v>138</v>
       </c>
       <c r="L23" s="86">
-        <v>2.5780000000000001E-2</v>
+        <v>2.7119999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
@@ -10635,20 +10636,20 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>50787</v>
+        <v>50791</v>
       </c>
       <c r="I24" s="34">
-        <v>0.5178665323851469</v>
-      </c>
-      <c r="K24" s="32" t="s">
+        <v>0.51793636352298589</v>
+      </c>
+      <c r="K24" s="205" t="s">
         <v>139</v>
       </c>
       <c r="L24" s="86">
-        <v>2.5839999999999998E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
@@ -10665,20 +10666,20 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52611</v>
+        <v>52617</v>
       </c>
       <c r="I25" s="34">
-        <v>0.45862727600330727</v>
-      </c>
-      <c r="K25" s="32" t="s">
+        <v>0.45862468881727603</v>
+      </c>
+      <c r="K25" s="205" t="s">
         <v>140</v>
       </c>
       <c r="L25" s="86">
-        <v>2.5700000000000001E-2</v>
+        <v>2.7390000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
@@ -10695,20 +10696,20 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>54438</v>
+        <v>54444</v>
       </c>
       <c r="I26" s="34">
-        <v>0.40090729723577334</v>
-      </c>
-      <c r="K26" s="32" t="s">
+        <v>0.40090502699153735</v>
+      </c>
+      <c r="K26" s="205" t="s">
         <v>141</v>
       </c>
       <c r="L26" s="86">
-        <v>2.5839999999999998E-2</v>
+        <v>2.7470000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
@@ -10725,20 +10726,20 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56264</v>
+        <v>56270</v>
       </c>
       <c r="I27" s="34">
-        <v>0.34638624376658073</v>
-      </c>
-      <c r="K27" s="32" t="s">
+        <v>0.34638421660524282</v>
+      </c>
+      <c r="K27" s="205" t="s">
         <v>142</v>
       </c>
       <c r="L27" s="86">
-        <v>2.6120000000000001E-2</v>
+        <v>2.7629999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
@@ -10755,20 +10756,20 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>59916</v>
+        <v>59922</v>
       </c>
       <c r="I28" s="34">
-        <v>0.25699027216548093</v>
-      </c>
-      <c r="K28" s="32" t="s">
+        <v>0.25698872120505739</v>
+      </c>
+      <c r="K28" s="205" t="s">
         <v>143</v>
       </c>
       <c r="L28" s="86">
-        <v>2.656E-2</v>
+        <v>2.7820000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
@@ -10785,20 +10786,20 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
       <c r="I29" s="34">
-        <v>0.18965145752856208</v>
-      </c>
-      <c r="K29" s="32" t="s">
+        <v>0.18963625795342623</v>
+      </c>
+      <c r="K29" s="205" t="s">
         <v>144</v>
       </c>
       <c r="L29" s="86">
-        <v>2.6870000000000002E-2</v>
+        <v>2.7949999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
@@ -13221,7 +13222,7 @@
       </c>
       <c r="F3" s="99" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0009</v>
+        <v>EUR_YC1YRH_SND#0000</v>
       </c>
       <c r="G3" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13248,7 +13249,7 @@
       </c>
       <c r="F4" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0009</v>
+        <v>EUR_YC1YRH_SWD#0000</v>
       </c>
       <c r="G4" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13275,7 +13276,7 @@
       </c>
       <c r="F5" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0009</v>
+        <v>EUR_YC1YRH_2WD#0000</v>
       </c>
       <c r="G5" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13302,7 +13303,7 @@
       </c>
       <c r="F6" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3WD#0009</v>
+        <v>EUR_YC1YRH_3WD#0000</v>
       </c>
       <c r="G6" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13329,7 +13330,7 @@
       </c>
       <c r="F7" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0009</v>
+        <v>EUR_YC1YRH_1MD#0000</v>
       </c>
       <c r="G7" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F8" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0009</v>
+        <v>EUR_YC1YRH_2MD#0000</v>
       </c>
       <c r="G8" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13383,7 +13384,7 @@
       </c>
       <c r="F9" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0009</v>
+        <v>EUR_YC1YRH_3MD#0000</v>
       </c>
       <c r="G9" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13410,7 +13411,7 @@
       </c>
       <c r="F10" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4MD#0009</v>
+        <v>EUR_YC1YRH_4MD#0000</v>
       </c>
       <c r="G10" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13437,7 +13438,7 @@
       </c>
       <c r="F11" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5MD#0009</v>
+        <v>EUR_YC1YRH_5MD#0000</v>
       </c>
       <c r="G11" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13464,7 +13465,7 @@
       </c>
       <c r="F12" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0009</v>
+        <v>EUR_YC1YRH_6MD#0000</v>
       </c>
       <c r="G12" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13491,7 +13492,7 @@
       </c>
       <c r="F13" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7MD#0009</v>
+        <v>EUR_YC1YRH_7MD#0000</v>
       </c>
       <c r="G13" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13518,7 +13519,7 @@
       </c>
       <c r="F14" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8MD#0009</v>
+        <v>EUR_YC1YRH_8MD#0000</v>
       </c>
       <c r="G14" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13545,7 +13546,7 @@
       </c>
       <c r="F15" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0009</v>
+        <v>EUR_YC1YRH_9MD#0000</v>
       </c>
       <c r="G15" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13572,7 +13573,7 @@
       </c>
       <c r="F16" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10MD#0009</v>
+        <v>EUR_YC1YRH_10MD#0000</v>
       </c>
       <c r="G16" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13599,7 +13600,7 @@
       </c>
       <c r="F17" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11MD#0009</v>
+        <v>EUR_YC1YRH_11MD#0000</v>
       </c>
       <c r="G17" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F18" s="93" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0009</v>
+        <v>EUR_YC1YRH_1YD#0000</v>
       </c>
       <c r="G18" s="92" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -13752,7 +13753,7 @@
       </c>
       <c r="I3" s="140" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_T12F1#0009</v>
+        <v>EUR_YC1YRH_T12F1#0000</v>
       </c>
       <c r="J3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13789,7 +13790,7 @@
       </c>
       <c r="I4" s="131" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_TOM12F1#0009</v>
+        <v>EUR_YC1YRH_TOM12F1#0000</v>
       </c>
       <c r="J4" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13827,7 +13828,7 @@
       </c>
       <c r="I5" s="135" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1x13F#0009</v>
+        <v>EUR_YC1YRH_1x13F#0000</v>
       </c>
       <c r="J5" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13865,7 +13866,7 @@
       </c>
       <c r="I6" s="135" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2x14F#0009</v>
+        <v>EUR_YC1YRH_2x14F#0000</v>
       </c>
       <c r="J6" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13903,7 +13904,7 @@
       </c>
       <c r="I7" s="135" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3x15F#0009</v>
+        <v>EUR_YC1YRH_3x15F#0000</v>
       </c>
       <c r="J7" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13941,7 +13942,7 @@
       </c>
       <c r="I8" s="135" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4x16F#0009</v>
+        <v>EUR_YC1YRH_4x16F#0000</v>
       </c>
       <c r="J8" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13979,7 +13980,7 @@
       </c>
       <c r="I9" s="135" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5x17F#0009</v>
+        <v>EUR_YC1YRH_5x17F#0000</v>
       </c>
       <c r="J9" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14017,7 +14018,7 @@
       </c>
       <c r="I10" s="135" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6x18F#0009</v>
+        <v>EUR_YC1YRH_6x18F#0000</v>
       </c>
       <c r="J10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14055,7 +14056,7 @@
       </c>
       <c r="I11" s="135" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7x19F#0009</v>
+        <v>EUR_YC1YRH_7x19F#0000</v>
       </c>
       <c r="J11" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14093,7 +14094,7 @@
       </c>
       <c r="I12" s="135" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8x20F#0009</v>
+        <v>EUR_YC1YRH_8x20F#0000</v>
       </c>
       <c r="J12" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14131,7 +14132,7 @@
       </c>
       <c r="I13" s="135" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9x21F#0009</v>
+        <v>EUR_YC1YRH_9x21F#0000</v>
       </c>
       <c r="J13" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14169,7 +14170,7 @@
       </c>
       <c r="I14" s="135" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10x22F#0009</v>
+        <v>EUR_YC1YRH_10x22F#0000</v>
       </c>
       <c r="J14" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14207,7 +14208,7 @@
       </c>
       <c r="I15" s="135" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11x23F#0009</v>
+        <v>EUR_YC1YRH_11x23F#0000</v>
       </c>
       <c r="J15" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14245,7 +14246,7 @@
       </c>
       <c r="I16" s="145" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_12x24F#0009</v>
+        <v>EUR_YC1YRH_12x24F#0000</v>
       </c>
       <c r="J16" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14283,7 +14284,7 @@
       </c>
       <c r="I17" s="140" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_13x25F#0009</v>
+        <v>EUR_YC1YRH_13x25F#0000</v>
       </c>
       <c r="J17" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14321,7 +14322,7 @@
       </c>
       <c r="I18" s="135" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_14x26F#0009</v>
+        <v>EUR_YC1YRH_14x26F#0000</v>
       </c>
       <c r="J18" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14359,7 +14360,7 @@
       </c>
       <c r="I19" s="135" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_15x27F#0009</v>
+        <v>EUR_YC1YRH_15x27F#0000</v>
       </c>
       <c r="J19" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14397,7 +14398,7 @@
       </c>
       <c r="I20" s="135" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_16x28F#0009</v>
+        <v>EUR_YC1YRH_16x28F#0000</v>
       </c>
       <c r="J20" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14435,7 +14436,7 @@
       </c>
       <c r="I21" s="135" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_17x29F#0009</v>
+        <v>EUR_YC1YRH_17x29F#0000</v>
       </c>
       <c r="J21" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14473,7 +14474,7 @@
       </c>
       <c r="I22" s="135" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_18x30F#0009</v>
+        <v>EUR_YC1YRH_18x30F#0000</v>
       </c>
       <c r="J22" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14511,7 +14512,7 @@
       </c>
       <c r="I23" s="135" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_19x31F#0009</v>
+        <v>EUR_YC1YRH_19x31F#0000</v>
       </c>
       <c r="J23" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14549,7 +14550,7 @@
       </c>
       <c r="I24" s="135" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_20x32F#0009</v>
+        <v>EUR_YC1YRH_20x32F#0000</v>
       </c>
       <c r="J24" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14587,7 +14588,7 @@
       </c>
       <c r="I25" s="135" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_21x33F#0009</v>
+        <v>EUR_YC1YRH_21x33F#0000</v>
       </c>
       <c r="J25" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14625,7 +14626,7 @@
       </c>
       <c r="I26" s="135" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_22x34F#0009</v>
+        <v>EUR_YC1YRH_22x34F#0000</v>
       </c>
       <c r="J26" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14663,7 +14664,7 @@
       </c>
       <c r="I27" s="131" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_23x35F#0009</v>
+        <v>EUR_YC1YRH_23x35F#0000</v>
       </c>
       <c r="J27" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14701,7 +14702,7 @@
       </c>
       <c r="I28" s="140" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_25x37F#0009</v>
+        <v>EUR_YC1YRH_25x37F#0000</v>
       </c>
       <c r="J28" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14739,7 +14740,7 @@
       </c>
       <c r="I29" s="135" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_26x38F#0009</v>
+        <v>EUR_YC1YRH_26x38F#0000</v>
       </c>
       <c r="J29" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14777,7 +14778,7 @@
       </c>
       <c r="I30" s="135" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_27x39F#0009</v>
+        <v>EUR_YC1YRH_27x39F#0000</v>
       </c>
       <c r="J30" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14815,7 +14816,7 @@
       </c>
       <c r="I31" s="135" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_28x40F#0009</v>
+        <v>EUR_YC1YRH_28x40F#0000</v>
       </c>
       <c r="J31" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14853,7 +14854,7 @@
       </c>
       <c r="I32" s="135" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_29x41F#0009</v>
+        <v>EUR_YC1YRH_29x41F#0000</v>
       </c>
       <c r="J32" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14891,7 +14892,7 @@
       </c>
       <c r="I33" s="135" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_30x42F#0009</v>
+        <v>EUR_YC1YRH_30x42F#0000</v>
       </c>
       <c r="J33" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14929,7 +14930,7 @@
       </c>
       <c r="I34" s="135" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_31x43F#0009</v>
+        <v>EUR_YC1YRH_31x43F#0000</v>
       </c>
       <c r="J34" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14967,7 +14968,7 @@
       </c>
       <c r="I35" s="135" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_32x44F#0009</v>
+        <v>EUR_YC1YRH_32x44F#0000</v>
       </c>
       <c r="J35" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15005,7 +15006,7 @@
       </c>
       <c r="I36" s="135" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_33x45F#0009</v>
+        <v>EUR_YC1YRH_33x45F#0000</v>
       </c>
       <c r="J36" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15043,7 +15044,7 @@
       </c>
       <c r="I37" s="135" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_34x46F#0009</v>
+        <v>EUR_YC1YRH_34x46F#0000</v>
       </c>
       <c r="J37" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15081,7 +15082,7 @@
       </c>
       <c r="I38" s="131" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_35x47F#0009</v>
+        <v>EUR_YC1YRH_35x47F#0000</v>
       </c>
       <c r="J38" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15119,7 +15120,7 @@
       </c>
       <c r="I39" s="135" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_37x49F#0009</v>
+        <v>EUR_YC1YRH_37x49F#0000</v>
       </c>
       <c r="J39" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15157,7 +15158,7 @@
       </c>
       <c r="I40" s="135" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_38x50F#0009</v>
+        <v>EUR_YC1YRH_38x50F#0000</v>
       </c>
       <c r="J40" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15195,7 +15196,7 @@
       </c>
       <c r="I41" s="135" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_39x51F#0009</v>
+        <v>EUR_YC1YRH_39x51F#0000</v>
       </c>
       <c r="J41" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15233,7 +15234,7 @@
       </c>
       <c r="I42" s="135" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_40x52F#0009</v>
+        <v>EUR_YC1YRH_40x52F#0000</v>
       </c>
       <c r="J42" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15271,7 +15272,7 @@
       </c>
       <c r="I43" s="135" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_41x53F#0009</v>
+        <v>EUR_YC1YRH_41x53F#0000</v>
       </c>
       <c r="J43" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15309,7 +15310,7 @@
       </c>
       <c r="I44" s="135" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_42x54F#0009</v>
+        <v>EUR_YC1YRH_42x54F#0000</v>
       </c>
       <c r="J44" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15347,7 +15348,7 @@
       </c>
       <c r="I45" s="135" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_43x55F#0009</v>
+        <v>EUR_YC1YRH_43x55F#0000</v>
       </c>
       <c r="J45" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -15385,7 +15386,7 @@
       </c>
       <c r="I46" s="135" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_44x56F#0009</v>
+        <v>EUR_YC1YRH_44x56F#0000</v>
       </c>
       <c r="J46" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -15423,7 +15424,7 @@
       </c>
       <c r="I47" s="135" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_45x57F#0009</v>
+        <v>EUR_YC1YRH_45x57F#0000</v>
       </c>
       <c r="J47" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -15461,7 +15462,7 @@
       </c>
       <c r="I48" s="135" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_46x58F#0009</v>
+        <v>EUR_YC1YRH_46x58F#0000</v>
       </c>
       <c r="J48" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -15499,7 +15500,7 @@
       </c>
       <c r="I49" s="131" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_47x59F#0009</v>
+        <v>EUR_YC1YRH_47x59F#0000</v>
       </c>
       <c r="J49" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -15659,7 +15660,7 @@
       </c>
       <c r="L4" s="182" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0009</v>
+        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0000</v>
       </c>
       <c r="M4" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15723,7 +15724,7 @@
       </c>
       <c r="L6" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS1Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS1Y#0000</v>
       </c>
       <c r="M6" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15772,7 +15773,7 @@
       </c>
       <c r="L7" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15M#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS15M#0000</v>
       </c>
       <c r="M7" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15821,7 +15822,7 @@
       </c>
       <c r="L8" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18M#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS18M#0000</v>
       </c>
       <c r="M8" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15870,7 +15871,7 @@
       </c>
       <c r="L9" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21M#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS21M#0000</v>
       </c>
       <c r="M9" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15919,7 +15920,7 @@
       </c>
       <c r="L10" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS2Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS2Y#0000</v>
       </c>
       <c r="M10" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15977,7 +15978,7 @@
       </c>
       <c r="L11" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS3Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS3Y#0000</v>
       </c>
       <c r="M11" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16035,7 +16036,7 @@
       </c>
       <c r="L12" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS4Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS4Y#0000</v>
       </c>
       <c r="M12" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16093,7 +16094,7 @@
       </c>
       <c r="L13" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS5Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS5Y#0000</v>
       </c>
       <c r="M13" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16151,7 +16152,7 @@
       </c>
       <c r="L14" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS6Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS6Y#0000</v>
       </c>
       <c r="M14" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16209,7 +16210,7 @@
       </c>
       <c r="L15" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS7Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS7Y#0000</v>
       </c>
       <c r="M15" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16261,7 +16262,7 @@
       </c>
       <c r="L16" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS8Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS8Y#0000</v>
       </c>
       <c r="M16" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16310,7 +16311,7 @@
       </c>
       <c r="L17" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS9Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS9Y#0000</v>
       </c>
       <c r="M17" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16359,7 +16360,7 @@
       </c>
       <c r="L18" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS10Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS10Y#0000</v>
       </c>
       <c r="M18" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16408,7 +16409,7 @@
       </c>
       <c r="L19" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS11Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS11Y#0000</v>
       </c>
       <c r="M19" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16457,7 +16458,7 @@
       </c>
       <c r="L20" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS12Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS12Y#0000</v>
       </c>
       <c r="M20" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="L21" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS13Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS13Y#0000</v>
       </c>
       <c r="M21" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16555,7 +16556,7 @@
       </c>
       <c r="L22" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS14Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS14Y#0000</v>
       </c>
       <c r="M22" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16604,7 +16605,7 @@
       </c>
       <c r="L23" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS15Y#0000</v>
       </c>
       <c r="M23" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16653,7 +16654,7 @@
       </c>
       <c r="L24" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS16Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS16Y#0000</v>
       </c>
       <c r="M24" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16702,7 +16703,7 @@
       </c>
       <c r="L25" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS17Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS17Y#0000</v>
       </c>
       <c r="M25" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16751,7 +16752,7 @@
       </c>
       <c r="L26" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS18Y#0000</v>
       </c>
       <c r="M26" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16800,7 +16801,7 @@
       </c>
       <c r="L27" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS19Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS19Y#0000</v>
       </c>
       <c r="M27" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16849,7 +16850,7 @@
       </c>
       <c r="L28" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS20Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS20Y#0000</v>
       </c>
       <c r="M28" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16898,7 +16899,7 @@
       </c>
       <c r="L29" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS21Y#0000</v>
       </c>
       <c r="M29" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16947,7 +16948,7 @@
       </c>
       <c r="L30" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS22Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS22Y#0000</v>
       </c>
       <c r="M30" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16996,7 +16997,7 @@
       </c>
       <c r="L31" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS23Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS23Y#0000</v>
       </c>
       <c r="M31" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17045,7 +17046,7 @@
       </c>
       <c r="L32" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS24Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS24Y#0000</v>
       </c>
       <c r="M32" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17094,7 +17095,7 @@
       </c>
       <c r="L33" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS25Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS25Y#0000</v>
       </c>
       <c r="M33" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17143,7 +17144,7 @@
       </c>
       <c r="L34" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS26Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS26Y#0000</v>
       </c>
       <c r="M34" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17192,7 +17193,7 @@
       </c>
       <c r="L35" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS27Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS27Y#0000</v>
       </c>
       <c r="M35" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17241,7 +17242,7 @@
       </c>
       <c r="L36" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS28Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS28Y#0000</v>
       </c>
       <c r="M36" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17290,7 +17291,7 @@
       </c>
       <c r="L37" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS29Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS29Y#0000</v>
       </c>
       <c r="M37" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17339,7 +17340,7 @@
       </c>
       <c r="L38" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS30Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS30Y#0000</v>
       </c>
       <c r="M38" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17388,7 +17389,7 @@
       </c>
       <c r="L39" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS35Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS35Y#0000</v>
       </c>
       <c r="M39" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17437,7 +17438,7 @@
       </c>
       <c r="L40" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS40Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS40Y#0000</v>
       </c>
       <c r="M40" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17486,7 +17487,7 @@
       </c>
       <c r="L41" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS50Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS50Y#0000</v>
       </c>
       <c r="M41" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17535,7 +17536,7 @@
       </c>
       <c r="L42" s="167" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS60Y#0008</v>
+        <v>EUR_YC1YRH_AB12EBASIS60Y#0000</v>
       </c>
       <c r="M42" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -815,7 +815,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +929,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1445,7 +1452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1458,6 +1465,7 @@
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1664,7 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1886,6 +1893,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1911,15 +1919,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
     <cellStyle name="Migliaia_AZIONI" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="3"/>
     <cellStyle name="Normale_AZIONI" xfId="6"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="2"/>
     <cellStyle name="result" xfId="7"/>
     <cellStyle name="Valuta (0)_AZIONI" xfId="8"/>
@@ -2229,22 +2238,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="188" customWidth="1"/>
-    <col min="3" max="3" width="18" style="188" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="188" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="188" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="188" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="188" customWidth="1"/>
-    <col min="8" max="9" width="8" style="188"/>
-    <col min="10" max="11" width="2.7109375" style="188" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="188" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="188" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="188"/>
+    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
+    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="187" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="187" customWidth="1"/>
+    <col min="8" max="9" width="8" style="187"/>
+    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="187"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="str">
+      <c r="B1" s="187" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
@@ -2270,10 +2279,10 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="126"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="125"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
@@ -2285,18 +2294,18 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="192"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="123" t="s">
+      <c r="I4" s="191"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="M4" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="122"/>
+      <c r="M4" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="121"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="61"/>
@@ -2308,21 +2317,21 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="189" t="s">
+      <c r="H5" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="I5" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="123" t="s">
+      <c r="K5" s="123"/>
+      <c r="L5" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="125" t="str">
+      <c r="M5" s="124" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
         <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
       </c>
-      <c r="N5" s="122"/>
+      <c r="N5" s="121"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
@@ -2335,18 +2344,18 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="123" t="s">
+      <c r="I6" s="189"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="114" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="122"/>
+      <c r="M6" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="121"/>
     </row>
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
@@ -2359,14 +2368,14 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="189" t="s">
+      <c r="H7" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="190"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="119"/>
+      <c r="I7" s="189"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="118"/>
     </row>
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
@@ -2379,16 +2388,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="193" t="s">
+      <c r="H8" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="194" t="s">
+      <c r="I8" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
@@ -2418,10 +2427,10 @@
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="113"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="112"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
@@ -2429,18 +2438,18 @@
         <v>101</v>
       </c>
       <c r="D11" s="80">
-        <v>41662.585243055553</v>
+        <v>41663.63590277778</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="115" t="s">
+      <c r="K11" s="115"/>
+      <c r="L11" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="117" t="s">
+      <c r="M11" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="113"/>
+      <c r="N11" s="112"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
@@ -2452,14 +2461,14 @@
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="115" t="s">
+      <c r="K12" s="115"/>
+      <c r="L12" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="113"/>
+      <c r="N12" s="112"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="61"/>
@@ -2467,14 +2476,14 @@
       <c r="D13" s="66"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="115" t="s">
+      <c r="K13" s="115"/>
+      <c r="L13" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="M13" s="117" t="s">
+      <c r="M13" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="N13" s="113"/>
+      <c r="N13" s="112"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
@@ -2483,18 +2492,18 @@
       </c>
       <c r="D14" s="77" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC1Y#0000</v>
+        <v>_EURYC1Y#0002</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="115" t="s">
+      <c r="K14" s="115"/>
+      <c r="L14" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="M14" s="117" t="s">
+      <c r="M14" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="N14" s="113"/>
+      <c r="N14" s="112"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="61"/>
@@ -2507,15 +2516,15 @@
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="115" t="s">
+      <c r="K15" s="115"/>
+      <c r="L15" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="M15" s="114" t="str">
+      <c r="M15" s="113" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
         <v>EurYC</v>
       </c>
-      <c r="N15" s="113"/>
+      <c r="N15" s="112"/>
     </row>
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
@@ -2528,15 +2537,15 @@
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115" t="s">
+      <c r="K16" s="115"/>
+      <c r="L16" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="114" t="str">
+      <c r="M16" s="113" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
         <v>EurYCSTD</v>
       </c>
-      <c r="N16" s="113"/>
+      <c r="N16" s="112"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61"/>
@@ -2548,10 +2557,10 @@
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="110"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="109"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="D25" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18963625795342623</v>
+        <v>0.18144476455874109</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="57"/>
@@ -2846,7 +2855,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>4.0990000000000002E-3</v>
+        <v>6.411E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2885,7 +2894,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>4.1859999999999996E-3</v>
+        <v>5.9040000000000004E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2924,7 +2933,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>4.1780000000000003E-3</v>
+        <v>6.0169999999999998E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2963,7 +2972,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>4.1900000000000001E-3</v>
+        <v>5.9610000000000002E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -3002,7 +3011,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>4.2079999999999999E-3</v>
+        <v>5.8869999999999999E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -3041,7 +3050,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>4.3119999999999999E-3</v>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -3074,7 +3083,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>4.4070000000000003E-3</v>
+        <v>5.855E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -3107,7 +3116,7 @@
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>4.4770000000000001E-3</v>
+        <v>5.8089999999999999E-3</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="12" t="b">
@@ -3143,7 +3152,7 @@
       </c>
       <c r="F12" s="13">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>4.5510000000000004E-3</v>
+        <v>5.7749999999999998E-3</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="12" t="b">
@@ -3176,7 +3185,7 @@
       </c>
       <c r="F13" s="13">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>4.6550000000000003E-3</v>
+        <v>5.7489999999999998E-3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="b">
@@ -3209,7 +3218,7 @@
       </c>
       <c r="F14" s="13">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>4.7470000000000004E-3</v>
+        <v>5.7349999999999996E-3</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12" t="b">
@@ -3242,7 +3251,7 @@
       </c>
       <c r="F15" s="13">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>4.8450000000000003E-3</v>
+        <v>5.7200000000000003E-3</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="12" t="b">
@@ -3275,7 +3284,7 @@
       </c>
       <c r="F16" s="13">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>4.9820000000000003E-3</v>
+        <v>5.705E-3</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12" t="b">
@@ -3308,7 +3317,7 @@
       </c>
       <c r="F17" s="13">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>5.1009999999999996E-3</v>
+        <v>5.7010000000000003E-3</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="12" t="b">
@@ -3341,7 +3350,7 @@
       </c>
       <c r="F18" s="13">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>5.2249999999999996E-3</v>
+        <v>5.6950000000000004E-3</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="b">
@@ -3374,7 +3383,7 @@
       </c>
       <c r="F19" s="6">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>5.3499999999999997E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="b">
@@ -3488,7 +3497,7 @@
       </c>
       <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>5.6109999999999997E-3</v>
+        <v>5.6839999999999998E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3526,7 +3535,7 @@
       </c>
       <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>5.8840000000000003E-3</v>
+        <v>5.6810000000000003E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3564,7 +3573,7 @@
       </c>
       <c r="F24" s="13">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>6.1710000000000003E-3</v>
+        <v>5.6899999999999997E-3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="12" t="b">
@@ -3602,7 +3611,7 @@
       </c>
       <c r="F25" s="13">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>6.4380000000000001E-3</v>
+        <v>5.7210000000000004E-3</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="12" t="b">
@@ -3640,7 +3649,7 @@
       </c>
       <c r="F26" s="13">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>6.7359999999999998E-3</v>
+        <v>5.7720000000000002E-3</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="b">
@@ -3678,7 +3687,7 @@
       </c>
       <c r="F27" s="13">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>7.0150000000000004E-3</v>
+        <v>5.8389999999999996E-3</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12" t="b">
@@ -3716,7 +3725,7 @@
       </c>
       <c r="F28" s="13">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>5.9329999999999999E-3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="b">
@@ -3754,7 +3763,7 @@
       </c>
       <c r="F29" s="13">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>7.5599999999999999E-3</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="b">
@@ -3792,7 +3801,7 @@
       </c>
       <c r="F30" s="13">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>7.8490000000000001E-3</v>
+        <v>6.1720000000000004E-3</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="b">
@@ -3830,7 +3839,7 @@
       </c>
       <c r="F31" s="13">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>8.0859999999999994E-3</v>
+        <v>6.326E-3</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="b">
@@ -3868,7 +3877,7 @@
       </c>
       <c r="F32" s="13">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>8.3490000000000005E-3</v>
+        <v>6.4809999999999998E-3</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12" t="b">
@@ -3906,7 +3915,7 @@
       </c>
       <c r="F33" s="13">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>8.6400000000000001E-3</v>
+        <v>6.7400000000000003E-3</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="b">
@@ -3944,7 +3953,7 @@
       </c>
       <c r="F34" s="13">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>8.8590000000000006E-3</v>
+        <v>6.9760000000000004E-3</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="b">
@@ -3982,7 +3991,7 @@
       </c>
       <c r="F35" s="13">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>9.1210000000000006E-3</v>
+        <v>7.2179999999999996E-3</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="12" t="b">
@@ -4020,7 +4029,7 @@
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>9.3679999999999996E-3</v>
+        <v>7.5030000000000001E-3</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="12" t="b">
@@ -4058,7 +4067,7 @@
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>9.6220000000000003E-3</v>
+        <v>7.8230000000000001E-3</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="12" t="b">
@@ -4096,7 +4105,7 @@
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>9.9100000000000004E-3</v>
+        <v>8.1709999999999994E-3</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="12" t="b">
@@ -4134,7 +4143,7 @@
       </c>
       <c r="F39" s="6">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>1.0160000000000001E-2</v>
+        <v>8.5360000000000002E-3</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="5" t="b">
@@ -8327,7 +8336,7 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>5.4199999999999995E-3</v>
+        <v>5.7800000000000004E-3</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8369,7 +8378,7 @@
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>5.7249999999999992E-3</v>
+        <v>5.5640000000000004E-3</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8411,7 +8420,7 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>6.2979999999999998E-3</v>
+        <v>5.8820000000000001E-3</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8453,7 +8462,7 @@
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>6.5890000000000002E-3</v>
+        <v>5.8760000000000001E-3</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8495,7 +8504,7 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>7.0800000000000004E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8537,7 +8546,7 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>8.7799999999999996E-3</v>
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8579,7 +8588,7 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>1.094E-2</v>
+        <v>1.027E-2</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8621,7 +8630,7 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.3170000000000001E-2</v>
+        <v>1.2610000000000001E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8663,7 +8672,7 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.511E-2</v>
+        <v>1.4789999999999999E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8705,7 +8714,7 @@
       </c>
       <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>1.6819999999999998E-2</v>
+        <v>1.677E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8747,7 +8756,7 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>1.8319999999999999E-2</v>
+        <v>1.8540000000000001E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8789,7 +8798,7 @@
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>1.9700000000000002E-2</v>
+        <v>2.0110000000000003E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8831,7 +8840,7 @@
       </c>
       <c r="F149" s="13">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.095E-2</v>
+        <v>2.147E-2</v>
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8873,7 +8882,7 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.2020000000000001E-2</v>
+        <v>2.2639999999999997E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8915,7 +8924,7 @@
       </c>
       <c r="F151" s="13">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.2929999999999999E-2</v>
+        <v>2.3640000000000001E-2</v>
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8957,7 +8966,7 @@
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.3692999999999999E-2</v>
+        <v>2.4482E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8999,7 +9008,7 @@
       </c>
       <c r="F153" s="13">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.4310000000000002E-2</v>
+        <v>2.5179E-2</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -9041,7 +9050,7 @@
       </c>
       <c r="F154" s="13">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.479E-2</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9083,7 +9092,7 @@
       </c>
       <c r="F155" s="13">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.5152000000000001E-2</v>
+        <v>2.6185999999999997E-2</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9125,7 +9134,7 @@
       </c>
       <c r="F156" s="13">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.5416000000000001E-2</v>
+        <v>2.6527000000000002E-2</v>
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9167,7 +9176,7 @@
       </c>
       <c r="F157" s="13">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.5592E-2</v>
+        <v>2.6781000000000003E-2</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9209,7 +9218,7 @@
       </c>
       <c r="F158" s="13">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.5710000000000004E-2</v>
+        <v>2.6979E-2</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9251,7 +9260,7 @@
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.5780000000000001E-2</v>
+        <v>2.7120000000000002E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9293,7 +9302,7 @@
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.5820999999999997E-2</v>
+        <v>2.7243E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9335,7 +9344,7 @@
       </c>
       <c r="F161" s="13">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.5854000000000002E-2</v>
+        <v>2.7318000000000002E-2</v>
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9377,7 +9386,7 @@
       </c>
       <c r="F162" s="13">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.5868999999999996E-2</v>
+        <v>2.7384000000000002E-2</v>
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9419,7 +9428,7 @@
       </c>
       <c r="F163" s="13">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>2.5853999999999999E-2</v>
+        <v>2.7421999999999998E-2</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9461,7 +9470,7 @@
       </c>
       <c r="F164" s="13">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>2.5839999999999998E-2</v>
+        <v>2.7440000000000003E-2</v>
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9503,7 +9512,7 @@
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.5817E-2</v>
+        <v>2.7439000000000002E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9545,7 +9554,7 @@
       </c>
       <c r="F166" s="13">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>2.5784000000000001E-2</v>
+        <v>2.7438999999999998E-2</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9587,7 +9596,7 @@
       </c>
       <c r="F167" s="13">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>2.5742000000000001E-2</v>
+        <v>2.7419000000000002E-2</v>
       </c>
       <c r="G167" s="13">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9629,7 +9638,7 @@
       </c>
       <c r="F168" s="13">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>2.5720999999999997E-2</v>
+        <v>2.7399000000000003E-2</v>
       </c>
       <c r="G168" s="13">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9671,7 +9680,7 @@
       </c>
       <c r="F169" s="13">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>2.5699999999999997E-2</v>
+        <v>2.7390000000000001E-2</v>
       </c>
       <c r="G169" s="13">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9713,7 +9722,7 @@
       </c>
       <c r="F170" s="13">
         <f>_xll.qlRateHelperQuoteValue($E170,Trigger)</f>
-        <v>2.5840000000000002E-2</v>
+        <v>2.7470000000000001E-2</v>
       </c>
       <c r="G170" s="13">
         <f>_xll.qlSwapRateHelperSpread($E170,Trigger)</f>
@@ -9755,7 +9764,7 @@
       </c>
       <c r="F171" s="13">
         <f>_xll.qlRateHelperQuoteValue($E171,Trigger)</f>
-        <v>2.6120000000000001E-2</v>
+        <v>2.7630000000000002E-2</v>
       </c>
       <c r="G171" s="13">
         <f>_xll.qlSwapRateHelperSpread($E171,Trigger)</f>
@@ -9797,7 +9806,7 @@
       </c>
       <c r="F172" s="13">
         <f>_xll.qlRateHelperQuoteValue($E172,Trigger)</f>
-        <v>2.656E-2</v>
+        <v>2.7819999999999998E-2</v>
       </c>
       <c r="G172" s="13">
         <f>_xll.qlSwapRateHelperSpread($E172,Trigger)</f>
@@ -9839,7 +9848,7 @@
       </c>
       <c r="F173" s="6">
         <f>_xll.qlRateHelperQuoteValue($E173,Trigger)</f>
-        <v>2.6869999999999998E-2</v>
+        <v>2.7950000000000003E-2</v>
       </c>
       <c r="G173" s="6">
         <f>_xll.qlSwapRateHelperSpread($E173,Trigger)</f>
@@ -9895,7 +9904,7 @@
     <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="32" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="205" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
@@ -9935,7 +9944,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.2079999999999999E-3</v>
+        <v>5.8869999999999999E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9950,12 +9959,12 @@
         <v>41691</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99963777569843248</v>
-      </c>
-      <c r="K2" s="205" t="s">
+        <v>0.99949332074290109</v>
+      </c>
+      <c r="K2" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="86">
+      <c r="L2" s="205">
         <v>5.8869999999999999E-3</v>
       </c>
     </row>
@@ -9971,7 +9980,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.4070000000000003E-3</v>
+        <v>5.855E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9986,12 +9995,12 @@
         <v>41751</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99888724792986683</v>
-      </c>
-      <c r="K3" s="205" t="s">
+        <v>0.99852217331513005</v>
+      </c>
+      <c r="K3" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="205">
         <v>5.855E-3</v>
       </c>
     </row>
@@ -10007,7 +10016,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.6550000000000003E-3</v>
+        <v>5.7489999999999998E-3</v>
       </c>
       <c r="F4" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10022,12 +10031,12 @@
         <v>41841</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99766503426960518</v>
-      </c>
-      <c r="K4" s="205" t="s">
+        <v>0.99711786128943303</v>
+      </c>
+      <c r="K4" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="205">
         <v>5.7489999999999998E-3</v>
       </c>
     </row>
@@ -10043,7 +10052,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.9820000000000003E-3</v>
+        <v>5.705E-3</v>
       </c>
       <c r="F5" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10058,12 +10067,12 @@
         <v>41933</v>
       </c>
       <c r="I5" s="34">
-        <v>0.9962362030212093</v>
-      </c>
-      <c r="K5" s="205" t="s">
+        <v>0.99569234450739386</v>
+      </c>
+      <c r="K5" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="205">
         <v>5.705E-3</v>
       </c>
     </row>
@@ -10080,7 +10089,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.3499999999999997E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F6" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10095,19 +10104,19 @@
         <v>42025</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99460495879641742</v>
-      </c>
-      <c r="K6" s="205" t="s">
+        <v>0.99425404019271957</v>
+      </c>
+      <c r="K6" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="205">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_RateHelpersSelected#0000</v>
+        <v>EUR_YC1YRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10118,7 +10127,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>6.1710000000000003E-3</v>
+        <v>5.6899999999999997E-3</v>
       </c>
       <c r="F7" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10133,12 +10142,12 @@
         <v>42116</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99267636146677463</v>
-      </c>
-      <c r="K7" s="205" t="s">
+        <v>0.99279471303798339</v>
+      </c>
+      <c r="K7" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="205">
         <v>5.6899999999999997E-3</v>
       </c>
     </row>
@@ -10148,7 +10157,7 @@
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>7.0150000000000004E-3</v>
+        <v>5.8389999999999996E-3</v>
       </c>
       <c r="F8" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10163,12 +10172,12 @@
         <v>42206</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99061932312687395</v>
-      </c>
-      <c r="K8" s="205" t="s">
+        <v>0.99124956747849724</v>
+      </c>
+      <c r="K8" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="205">
         <v>5.8389999999999996E-3</v>
       </c>
     </row>
@@ -10178,7 +10187,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>7.8490000000000001E-3</v>
+        <v>6.1720000000000004E-3</v>
       </c>
       <c r="F9" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10193,12 +10202,12 @@
         <v>42298</v>
       </c>
       <c r="I9" s="34">
-        <v>0.98837073498482864</v>
-      </c>
-      <c r="K9" s="205" t="s">
+        <v>0.98950032632669438</v>
+      </c>
+      <c r="K9" s="195" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="205">
         <v>6.1720000000000004E-3</v>
       </c>
     </row>
@@ -10208,7 +10217,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>8.6400000000000001E-3</v>
+        <v>6.7400000000000003E-3</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10223,12 +10232,12 @@
         <v>42390</v>
       </c>
       <c r="I10" s="34">
-        <v>0.98596788016616199</v>
-      </c>
-      <c r="K10" s="205" t="s">
+        <v>0.9875058095204936</v>
+      </c>
+      <c r="K10" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="205">
         <v>6.7400000000000003E-3</v>
       </c>
     </row>
@@ -10238,7 +10247,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>9.3679999999999996E-3</v>
+        <v>7.5030000000000001E-3</v>
       </c>
       <c r="F11" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10253,12 +10262,12 @@
         <v>42481</v>
       </c>
       <c r="I11" s="34">
-        <v>0.98333321174830712</v>
-      </c>
-      <c r="K11" s="205" t="s">
+        <v>0.98529531120414693</v>
+      </c>
+      <c r="K11" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="205">
         <v>7.5030000000000001E-3</v>
       </c>
     </row>
@@ -10268,7 +10277,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.0160000000000001E-2</v>
+        <v>8.5360000000000002E-3</v>
       </c>
       <c r="F12" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10283,12 +10292,12 @@
         <v>42572</v>
       </c>
       <c r="I12" s="34">
-        <v>0.9804914995970363</v>
-      </c>
-      <c r="K12" s="205" t="s">
+        <v>0.9827212504084526</v>
+      </c>
+      <c r="K12" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="205">
         <v>8.5360000000000002E-3</v>
       </c>
     </row>
@@ -10298,7 +10307,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.7799999999999996E-3</v>
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10313,12 +10322,12 @@
         <v>42758</v>
       </c>
       <c r="I13" s="34">
-        <v>0.974011241668163</v>
-      </c>
-      <c r="K13" s="205" t="s">
+        <v>0.97632159145442765</v>
+      </c>
+      <c r="K13" s="195" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="205">
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
@@ -10328,7 +10337,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.094E-2</v>
+        <v>1.027E-2</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10343,12 +10352,12 @@
         <v>43122</v>
       </c>
       <c r="I14" s="34">
-        <v>0.95717524226085116</v>
-      </c>
-      <c r="K14" s="205" t="s">
+        <v>0.95973569259205038</v>
+      </c>
+      <c r="K14" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="205">
         <v>1.027E-2</v>
       </c>
     </row>
@@ -10358,7 +10367,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.3170000000000001E-2</v>
+        <v>1.2610000000000001E-2</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10373,12 +10382,12 @@
         <v>43486</v>
       </c>
       <c r="I15" s="34">
-        <v>0.93615101981644078</v>
-      </c>
-      <c r="K15" s="205" t="s">
+        <v>0.93875670708534265</v>
+      </c>
+      <c r="K15" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="86">
+      <c r="L15" s="205">
         <v>1.261E-2</v>
       </c>
     </row>
@@ -10388,7 +10397,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.511E-2</v>
+        <v>1.4789999999999999E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10403,12 +10412,12 @@
         <v>43851</v>
       </c>
       <c r="I16" s="34">
-        <v>0.91295108805915437</v>
-      </c>
-      <c r="K16" s="205" t="s">
+        <v>0.91464150040818726</v>
+      </c>
+      <c r="K16" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="86">
+      <c r="L16" s="205">
         <v>1.4789999999999999E-2</v>
       </c>
     </row>
@@ -10418,7 +10427,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.6819999999999998E-2</v>
+        <v>1.677E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10433,12 +10442,12 @@
         <v>44217</v>
       </c>
       <c r="I17" s="34">
-        <v>0.88816088905164303</v>
-      </c>
-      <c r="K17" s="205" t="s">
+        <v>0.88831711813212222</v>
+      </c>
+      <c r="K17" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="86">
+      <c r="L17" s="205">
         <v>1.677E-2</v>
       </c>
     </row>
@@ -10448,7 +10457,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.8319999999999999E-2</v>
+        <v>1.8540000000000001E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10463,12 +10472,12 @@
         <v>44582</v>
       </c>
       <c r="I18" s="34">
-        <v>0.86238817628151543</v>
-      </c>
-      <c r="K18" s="205" t="s">
+        <v>0.86057442951446128</v>
+      </c>
+      <c r="K18" s="195" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="86">
+      <c r="L18" s="205">
         <v>1.8540000000000001E-2</v>
       </c>
     </row>
@@ -10478,7 +10487,7 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.9700000000000002E-2</v>
+        <v>2.0110000000000003E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10493,12 +10502,12 @@
         <v>44949</v>
       </c>
       <c r="I19" s="34">
-        <v>0.83547198427074776</v>
-      </c>
-      <c r="K19" s="205" t="s">
+        <v>0.83194427941853755</v>
+      </c>
+      <c r="K19" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="86">
+      <c r="L19" s="205">
         <v>2.0109999999999999E-2</v>
       </c>
     </row>
@@ -10508,7 +10517,7 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.095E-2</v>
+        <v>2.147E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10523,12 +10532,12 @@
         <v>45313</v>
       </c>
       <c r="I20" s="34">
-        <v>0.80814870378462667</v>
-      </c>
-      <c r="K20" s="205" t="s">
+        <v>0.80337837827113301</v>
+      </c>
+      <c r="K20" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="86">
+      <c r="L20" s="205">
         <v>2.147E-2</v>
       </c>
     </row>
@@ -10538,7 +10547,7 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.2929999999999999E-2</v>
+        <v>2.3640000000000001E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10553,12 +10562,12 @@
         <v>46043</v>
       </c>
       <c r="I21" s="34">
-        <v>0.75484656526061478</v>
-      </c>
-      <c r="K21" s="205" t="s">
+        <v>0.74756039279109254</v>
+      </c>
+      <c r="K21" s="195" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="86">
+      <c r="L21" s="205">
         <v>2.3640000000000001E-2</v>
       </c>
     </row>
@@ -10568,7 +10577,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.479E-2</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10583,12 +10592,12 @@
         <v>47140</v>
       </c>
       <c r="I22" s="34">
-        <v>0.68242811770428691</v>
-      </c>
-      <c r="K22" s="205" t="s">
+        <v>0.67134728871348237</v>
+      </c>
+      <c r="K22" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="205">
         <v>2.5739999999999999E-2</v>
       </c>
     </row>
@@ -10598,7 +10607,7 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.5780000000000001E-2</v>
+        <v>2.7120000000000002E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10613,12 +10622,12 @@
         <v>48967</v>
       </c>
       <c r="I23" s="34">
-        <v>0.58924492568067754</v>
-      </c>
-      <c r="K23" s="205" t="s">
+        <v>0.57111895972384097</v>
+      </c>
+      <c r="K23" s="195" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="205">
         <v>2.7119999999999998E-2</v>
       </c>
     </row>
@@ -10628,7 +10637,7 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.5839999999999998E-2</v>
+        <v>2.7440000000000003E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10643,12 +10652,12 @@
         <v>50791</v>
       </c>
       <c r="I24" s="34">
-        <v>0.51793636352298589</v>
-      </c>
-      <c r="K24" s="205" t="s">
+        <v>0.49431460686813716</v>
+      </c>
+      <c r="K24" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="86">
+      <c r="L24" s="205">
         <v>2.7439999999999999E-2</v>
       </c>
     </row>
@@ -10658,7 +10667,7 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.5699999999999997E-2</v>
+        <v>2.7390000000000001E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10673,12 +10682,12 @@
         <v>52617</v>
       </c>
       <c r="I25" s="34">
-        <v>0.45862468881727603</v>
-      </c>
-      <c r="K25" s="205" t="s">
+        <v>0.43270532318276994</v>
+      </c>
+      <c r="K25" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="205">
         <v>2.7390000000000001E-2</v>
       </c>
     </row>
@@ -10688,7 +10697,7 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.5840000000000002E-2</v>
+        <v>2.7470000000000001E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10703,12 +10712,12 @@
         <v>54444</v>
       </c>
       <c r="I26" s="34">
-        <v>0.40090502699153735</v>
-      </c>
-      <c r="K26" s="205" t="s">
+        <v>0.37630612437389549</v>
+      </c>
+      <c r="K26" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="205">
         <v>2.7470000000000001E-2</v>
       </c>
     </row>
@@ -10718,7 +10727,7 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.6120000000000001E-2</v>
+        <v>2.7630000000000002E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10733,12 +10742,12 @@
         <v>56270</v>
       </c>
       <c r="I27" s="34">
-        <v>0.34638421660524282</v>
-      </c>
-      <c r="K27" s="205" t="s">
+        <v>0.32501075414799202</v>
+      </c>
+      <c r="K27" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L27" s="205">
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
@@ -10748,7 +10757,7 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.656E-2</v>
+        <v>2.7819999999999998E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10763,12 +10772,12 @@
         <v>59922</v>
       </c>
       <c r="I28" s="34">
-        <v>0.25698872120505739</v>
-      </c>
-      <c r="K28" s="205" t="s">
+        <v>0.2430595474612193</v>
+      </c>
+      <c r="K28" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="86">
+      <c r="L28" s="205">
         <v>2.7820000000000001E-2</v>
       </c>
     </row>
@@ -10778,7 +10787,7 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.6869999999999998E-2</v>
+        <v>2.7950000000000003E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10793,12 +10802,12 @@
         <v>63576</v>
       </c>
       <c r="I29" s="34">
-        <v>0.18963625795342623</v>
-      </c>
-      <c r="K29" s="205" t="s">
+        <v>0.18144476455874109</v>
+      </c>
+      <c r="K29" s="195" t="s">
         <v>144</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="205">
         <v>2.7949999999999999E-2</v>
       </c>
     </row>
@@ -13155,495 +13164,495 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="87" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="87" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="3" style="86" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="86" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="107" t="str">
+      <c r="E1" s="106" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>EUR_YC1YRH</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="91"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="104" t="str">
+      <c r="E2" s="103" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="103">
+      <c r="F2" s="102">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>16</v>
       </c>
-      <c r="G2" s="102" t="str">
+      <c r="G2" s="101" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="95" t="str">
+      <c r="C3" s="99"/>
+      <c r="D3" s="94" t="str">
         <f t="shared" ref="D3:D18" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>EURSND_SYNTH1Y_Quote</v>
       </c>
-      <c r="E3" s="94" t="str">
+      <c r="E3" s="93" t="str">
         <f t="shared" ref="E3:E18" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>EUR_YC1YRH_SND</v>
       </c>
-      <c r="F3" s="99" t="str">
+      <c r="F3" s="98" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0000</v>
-      </c>
-      <c r="G3" s="92" t="str">
+        <v>EUR_YC1YRH_SND#0002</v>
+      </c>
+      <c r="G3" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="96" t="str">
+      <c r="C4" s="95" t="str">
         <f t="shared" ref="C4:C18" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
         <v>EuriborSW</v>
       </c>
-      <c r="D4" s="95" t="str">
+      <c r="D4" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EURSWD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E4" s="94" t="str">
+      <c r="E4" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_SWD</v>
       </c>
-      <c r="F4" s="93" t="str">
+      <c r="F4" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0000</v>
-      </c>
-      <c r="G4" s="92" t="str">
+        <v>EUR_YC1YRH_SWD#0002</v>
+      </c>
+      <c r="G4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="96" t="str">
+      <c r="C5" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor2W</v>
       </c>
-      <c r="D5" s="95" t="str">
+      <c r="D5" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR2WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E5" s="94" t="str">
+      <c r="E5" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_2WD</v>
       </c>
-      <c r="F5" s="93" t="str">
+      <c r="F5" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0000</v>
-      </c>
-      <c r="G5" s="92" t="str">
+        <v>EUR_YC1YRH_2WD#0002</v>
+      </c>
+      <c r="G5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="96" t="str">
+      <c r="C6" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor3W</v>
       </c>
-      <c r="D6" s="95" t="str">
+      <c r="D6" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR3WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E6" s="94" t="str">
+      <c r="E6" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_3WD</v>
       </c>
-      <c r="F6" s="93" t="str">
+      <c r="F6" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3WD#0000</v>
-      </c>
-      <c r="G6" s="92" t="str">
+        <v>EUR_YC1YRH_3WD#0002</v>
+      </c>
+      <c r="G6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="97" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="96" t="str">
+      <c r="C7" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor1M</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR1MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E7" s="94" t="str">
+      <c r="E7" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_1MD</v>
       </c>
-      <c r="F7" s="93" t="str">
+      <c r="F7" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0000</v>
-      </c>
-      <c r="G7" s="92" t="str">
+        <v>EUR_YC1YRH_1MD#0002</v>
+      </c>
+      <c r="G7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="97" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="96" t="str">
+      <c r="C8" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor2M</v>
       </c>
-      <c r="D8" s="95" t="str">
+      <c r="D8" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR2MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E8" s="94" t="str">
+      <c r="E8" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_2MD</v>
       </c>
-      <c r="F8" s="93" t="str">
+      <c r="F8" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0000</v>
-      </c>
-      <c r="G8" s="92" t="str">
+        <v>EUR_YC1YRH_2MD#0002</v>
+      </c>
+      <c r="G8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="90"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
-      <c r="B9" s="97" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="96" t="str">
+      <c r="C9" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor3M</v>
       </c>
-      <c r="D9" s="95" t="str">
+      <c r="D9" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR3MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E9" s="94" t="str">
+      <c r="E9" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_3MD</v>
       </c>
-      <c r="F9" s="93" t="str">
+      <c r="F9" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0000</v>
-      </c>
-      <c r="G9" s="92" t="str">
+        <v>EUR_YC1YRH_3MD#0002</v>
+      </c>
+      <c r="G9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="97" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="96" t="str">
+      <c r="C10" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor4M</v>
       </c>
-      <c r="D10" s="95" t="str">
+      <c r="D10" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR4MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E10" s="94" t="str">
+      <c r="E10" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_4MD</v>
       </c>
-      <c r="F10" s="93" t="str">
+      <c r="F10" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4MD#0000</v>
-      </c>
-      <c r="G10" s="92" t="str">
+        <v>EUR_YC1YRH_4MD#0002</v>
+      </c>
+      <c r="G10" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="97" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="96" t="str">
+      <c r="C11" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor5M</v>
       </c>
-      <c r="D11" s="95" t="str">
+      <c r="D11" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR5MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E11" s="94" t="str">
+      <c r="E11" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_5MD</v>
       </c>
-      <c r="F11" s="93" t="str">
+      <c r="F11" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5MD#0000</v>
-      </c>
-      <c r="G11" s="92" t="str">
+        <v>EUR_YC1YRH_5MD#0002</v>
+      </c>
+      <c r="G11" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
         <v/>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="97" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="96" t="str">
+      <c r="C12" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
-      <c r="D12" s="95" t="str">
+      <c r="D12" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR6MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E12" s="94" t="str">
+      <c r="E12" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_6MD</v>
       </c>
-      <c r="F12" s="93" t="str">
+      <c r="F12" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0000</v>
-      </c>
-      <c r="G12" s="92" t="str">
+        <v>EUR_YC1YRH_6MD#0002</v>
+      </c>
+      <c r="G12" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
         <v/>
       </c>
-      <c r="H12" s="91"/>
+      <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="97" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="96" t="str">
+      <c r="C13" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor7M</v>
       </c>
-      <c r="D13" s="95" t="str">
+      <c r="D13" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR7MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E13" s="94" t="str">
+      <c r="E13" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_7MD</v>
       </c>
-      <c r="F13" s="93" t="str">
+      <c r="F13" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7MD#0000</v>
-      </c>
-      <c r="G13" s="92" t="str">
+        <v>EUR_YC1YRH_7MD#0002</v>
+      </c>
+      <c r="G13" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
         <v/>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="97" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="96" t="str">
+      <c r="C14" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor8M</v>
       </c>
-      <c r="D14" s="95" t="str">
+      <c r="D14" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR8MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E14" s="94" t="str">
+      <c r="E14" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_8MD</v>
       </c>
-      <c r="F14" s="93" t="str">
+      <c r="F14" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8MD#0000</v>
-      </c>
-      <c r="G14" s="92" t="str">
+        <v>EUR_YC1YRH_8MD#0002</v>
+      </c>
+      <c r="G14" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
         <v/>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="96" t="str">
+      <c r="C15" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor9M</v>
       </c>
-      <c r="D15" s="95" t="str">
+      <c r="D15" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR9MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E15" s="94" t="str">
+      <c r="E15" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_9MD</v>
       </c>
-      <c r="F15" s="93" t="str">
+      <c r="F15" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0000</v>
-      </c>
-      <c r="G15" s="92" t="str">
+        <v>EUR_YC1YRH_9MD#0002</v>
+      </c>
+      <c r="G15" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
         <v/>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="97" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="96" t="str">
+      <c r="C16" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor10M</v>
       </c>
-      <c r="D16" s="95" t="str">
+      <c r="D16" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR10MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E16" s="94" t="str">
+      <c r="E16" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_10MD</v>
       </c>
-      <c r="F16" s="93" t="str">
+      <c r="F16" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10MD#0000</v>
-      </c>
-      <c r="G16" s="92" t="str">
+        <v>EUR_YC1YRH_10MD#0002</v>
+      </c>
+      <c r="G16" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
         <v/>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="97" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="96" t="str">
+      <c r="C17" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor11M</v>
       </c>
-      <c r="D17" s="95" t="str">
+      <c r="D17" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR11MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E17" s="94" t="str">
+      <c r="E17" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_11MD</v>
       </c>
-      <c r="F17" s="93" t="str">
+      <c r="F17" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11MD#0000</v>
-      </c>
-      <c r="G17" s="92" t="str">
+        <v>EUR_YC1YRH_11MD#0002</v>
+      </c>
+      <c r="G17" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
         <v/>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="96" t="str">
+      <c r="C18" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="94" t="str">
         <f t="shared" si="0"/>
         <v>EUR1YD_SYNTH1Y_Quote</v>
       </c>
-      <c r="E18" s="94" t="str">
+      <c r="E18" s="93" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC1YRH_1YD</v>
       </c>
-      <c r="F18" s="93" t="str">
+      <c r="F18" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0000</v>
-      </c>
-      <c r="G18" s="92" t="str">
+        <v>EUR_YC1YRH_1YD#0002</v>
+      </c>
+      <c r="G18" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
         <v/>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13661,1871 +13670,1871 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" style="105" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="105" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="128" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" style="106" customWidth="1"/>
-    <col min="11" max="11" width="3" style="106" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="106"/>
+    <col min="7" max="7" width="22.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" style="105" customWidth="1"/>
+    <col min="11" max="11" width="3" style="105" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="186" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163">
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162">
         <v>12</v>
       </c>
-      <c r="E1" s="162" t="str">
+      <c r="E1" s="161" t="str">
         <f>_xll.qlPeriodEquivalent(D1&amp;"M")</f>
         <v>1Y</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="H1" s="161" t="str">
+      <c r="H1" s="160" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
         <v>EUR_YC1YRH</v>
       </c>
-      <c r="I1" s="160"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="158"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="157"/>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="154" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="153" t="str">
+      <c r="H2" s="152" t="str">
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="152">
+      <c r="I2" s="151">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>47</v>
       </c>
-      <c r="J2" s="151" t="str">
+      <c r="J2" s="150" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
-      <c r="K2" s="91"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="140" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="143" t="str">
+      <c r="C3" s="142" t="str">
         <f>"T"&amp;D1</f>
         <v>T12</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="140" t="str">
+      <c r="E3" s="139" t="str">
         <f t="shared" ref="E3:E49" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>Euribor1Y</v>
       </c>
-      <c r="F3" s="141" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="140" t="str">
+      <c r="F3" s="140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="139" t="str">
         <f t="shared" ref="G3:G49" si="1">Currency&amp;C3&amp;D3&amp;IF(F3,"_SYNTH"&amp;$E$1,"")&amp;"_Quote"</f>
         <v>EURT12F1_Quote</v>
       </c>
-      <c r="H3" s="140" t="str">
+      <c r="H3" s="139" t="str">
         <f t="shared" ref="H3:H49" si="2">$H$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>EUR_YC1YRH_T12F1</v>
       </c>
-      <c r="I3" s="140" t="str">
+      <c r="I3" s="139" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_T12F1#0000</v>
-      </c>
-      <c r="J3" s="150" t="str">
+        <v>EUR_YC1YRH_T12F1#0002</v>
+      </c>
+      <c r="J3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
         <v/>
       </c>
-      <c r="K3" s="91"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="131" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="133" t="str">
+      <c r="C4" s="132" t="str">
         <f>"TOM"&amp;D1</f>
         <v>TOM12</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="131" t="str">
+      <c r="E4" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F4" s="132" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="131" t="str">
+      <c r="F4" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="130" t="str">
         <f t="shared" si="1"/>
         <v>EURTOM12F1_Quote</v>
       </c>
-      <c r="H4" s="131" t="str">
+      <c r="H4" s="130" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_TOM12F1</v>
       </c>
-      <c r="I4" s="131" t="str">
+      <c r="I4" s="130" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_TOM12F1#0000</v>
-      </c>
-      <c r="J4" s="149" t="str">
+        <v>EUR_YC1YRH_TOM12F1#0002</v>
+      </c>
+      <c r="J4" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
         <v/>
       </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="135" t="str">
+      <c r="A5" s="97"/>
+      <c r="B5" s="134" t="str">
         <f t="shared" ref="B5:B49" si="3">C5&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C5" s="138">
-        <v>1</v>
-      </c>
-      <c r="D5" s="137" t="str">
+      <c r="C5" s="137">
+        <v>1</v>
+      </c>
+      <c r="D5" s="136" t="str">
         <f t="shared" ref="D5:D49" si="4">"x"&amp;C5+$D$1&amp;"F"</f>
         <v>x13F</v>
       </c>
-      <c r="E5" s="135" t="str">
+      <c r="E5" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F5" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="135" t="str">
+      <c r="F5" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR1x13F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H5" s="135" t="str">
+      <c r="H5" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_1x13F</v>
       </c>
-      <c r="I5" s="135" t="str">
+      <c r="I5" s="134" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1x13F#0000</v>
-      </c>
-      <c r="J5" s="134" t="str">
+        <v>EUR_YC1YRH_1x13F#0002</v>
+      </c>
+      <c r="J5" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
         <v/>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="135" t="str">
+      <c r="A6" s="97"/>
+      <c r="B6" s="134" t="str">
         <f t="shared" si="3"/>
         <v>2M</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="137">
         <v>2</v>
       </c>
-      <c r="D6" s="137" t="str">
+      <c r="D6" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x14F</v>
       </c>
-      <c r="E6" s="135" t="str">
+      <c r="E6" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F6" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="135" t="str">
+      <c r="F6" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR2x14F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H6" s="135" t="str">
+      <c r="H6" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_2x14F</v>
       </c>
-      <c r="I6" s="135" t="str">
+      <c r="I6" s="134" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2x14F#0000</v>
-      </c>
-      <c r="J6" s="134" t="str">
+        <v>EUR_YC1YRH_2x14F#0002</v>
+      </c>
+      <c r="J6" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
         <v/>
       </c>
-      <c r="K6" s="91"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="135" t="str">
+      <c r="A7" s="97"/>
+      <c r="B7" s="134" t="str">
         <f t="shared" si="3"/>
         <v>3M</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="137">
         <v>3</v>
       </c>
-      <c r="D7" s="137" t="str">
+      <c r="D7" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x15F</v>
       </c>
-      <c r="E7" s="135" t="str">
+      <c r="E7" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F7" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="135" t="str">
+      <c r="F7" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR3x15F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H7" s="135" t="str">
+      <c r="H7" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_3x15F</v>
       </c>
-      <c r="I7" s="135" t="str">
+      <c r="I7" s="134" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3x15F#0000</v>
-      </c>
-      <c r="J7" s="134" t="str">
+        <v>EUR_YC1YRH_3x15F#0002</v>
+      </c>
+      <c r="J7" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
         <v/>
       </c>
-      <c r="K7" s="91"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="135" t="str">
+      <c r="A8" s="97"/>
+      <c r="B8" s="134" t="str">
         <f t="shared" si="3"/>
         <v>4M</v>
       </c>
-      <c r="C8" s="138">
+      <c r="C8" s="137">
         <v>4</v>
       </c>
-      <c r="D8" s="137" t="str">
+      <c r="D8" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x16F</v>
       </c>
-      <c r="E8" s="135" t="str">
+      <c r="E8" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F8" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="135" t="str">
+      <c r="F8" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR4x16F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H8" s="135" t="str">
+      <c r="H8" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_4x16F</v>
       </c>
-      <c r="I8" s="135" t="str">
+      <c r="I8" s="134" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4x16F#0000</v>
-      </c>
-      <c r="J8" s="134" t="str">
+        <v>EUR_YC1YRH_4x16F#0002</v>
+      </c>
+      <c r="J8" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="K8" s="91"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
-      <c r="B9" s="135" t="str">
+      <c r="A9" s="97"/>
+      <c r="B9" s="134" t="str">
         <f t="shared" si="3"/>
         <v>5M</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="137">
         <v>5</v>
       </c>
-      <c r="D9" s="137" t="str">
+      <c r="D9" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x17F</v>
       </c>
-      <c r="E9" s="135" t="str">
+      <c r="E9" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F9" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="135" t="str">
+      <c r="F9" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR5x17F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H9" s="135" t="str">
+      <c r="H9" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_5x17F</v>
       </c>
-      <c r="I9" s="135" t="str">
+      <c r="I9" s="134" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5x17F#0000</v>
-      </c>
-      <c r="J9" s="134" t="str">
+        <v>EUR_YC1YRH_5x17F#0002</v>
+      </c>
+      <c r="J9" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
-      <c r="K9" s="91"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="135" t="str">
+      <c r="A10" s="97"/>
+      <c r="B10" s="134" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="137">
         <v>6</v>
       </c>
-      <c r="D10" s="137" t="str">
+      <c r="D10" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x18F</v>
       </c>
-      <c r="E10" s="135" t="str">
+      <c r="E10" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F10" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="135" t="str">
+      <c r="F10" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR6x18F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H10" s="135" t="str">
+      <c r="H10" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_6x18F</v>
       </c>
-      <c r="I10" s="135" t="str">
+      <c r="I10" s="134" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6x18F#0000</v>
-      </c>
-      <c r="J10" s="134" t="str">
+        <v>EUR_YC1YRH_6x18F#0002</v>
+      </c>
+      <c r="J10" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
-      <c r="K10" s="91"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="135" t="str">
+      <c r="A11" s="97"/>
+      <c r="B11" s="134" t="str">
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="137">
         <v>7</v>
       </c>
-      <c r="D11" s="137" t="str">
+      <c r="D11" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x19F</v>
       </c>
-      <c r="E11" s="135" t="str">
+      <c r="E11" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F11" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="135" t="str">
+      <c r="F11" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR7x19F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H11" s="135" t="str">
+      <c r="H11" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_7x19F</v>
       </c>
-      <c r="I11" s="135" t="str">
+      <c r="I11" s="134" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7x19F#0000</v>
-      </c>
-      <c r="J11" s="134" t="str">
+        <v>EUR_YC1YRH_7x19F#0002</v>
+      </c>
+      <c r="J11" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
         <v/>
       </c>
-      <c r="K11" s="91"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="135" t="str">
+      <c r="A12" s="97"/>
+      <c r="B12" s="134" t="str">
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="137">
         <v>8</v>
       </c>
-      <c r="D12" s="137" t="str">
+      <c r="D12" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x20F</v>
       </c>
-      <c r="E12" s="135" t="str">
+      <c r="E12" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F12" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="135" t="str">
+      <c r="F12" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR8x20F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H12" s="135" t="str">
+      <c r="H12" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_8x20F</v>
       </c>
-      <c r="I12" s="135" t="str">
+      <c r="I12" s="134" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8x20F#0000</v>
-      </c>
-      <c r="J12" s="134" t="str">
+        <v>EUR_YC1YRH_8x20F#0002</v>
+      </c>
+      <c r="J12" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
         <v/>
       </c>
-      <c r="K12" s="91"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="135" t="str">
+      <c r="A13" s="97"/>
+      <c r="B13" s="134" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
-      <c r="C13" s="138">
+      <c r="C13" s="137">
         <v>9</v>
       </c>
-      <c r="D13" s="137" t="str">
+      <c r="D13" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x21F</v>
       </c>
-      <c r="E13" s="135" t="str">
+      <c r="E13" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F13" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="135" t="str">
+      <c r="F13" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR9x21F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H13" s="135" t="str">
+      <c r="H13" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_9x21F</v>
       </c>
-      <c r="I13" s="135" t="str">
+      <c r="I13" s="134" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9x21F#0000</v>
-      </c>
-      <c r="J13" s="134" t="str">
+        <v>EUR_YC1YRH_9x21F#0002</v>
+      </c>
+      <c r="J13" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
         <v/>
       </c>
-      <c r="K13" s="91"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="135" t="str">
+      <c r="A14" s="97"/>
+      <c r="B14" s="134" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="137">
         <v>10</v>
       </c>
-      <c r="D14" s="137" t="str">
+      <c r="D14" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x22F</v>
       </c>
-      <c r="E14" s="135" t="str">
+      <c r="E14" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F14" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="135" t="str">
+      <c r="F14" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR10x22F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H14" s="135" t="str">
+      <c r="H14" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_10x22F</v>
       </c>
-      <c r="I14" s="135" t="str">
+      <c r="I14" s="134" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10x22F#0000</v>
-      </c>
-      <c r="J14" s="134" t="str">
+        <v>EUR_YC1YRH_10x22F#0002</v>
+      </c>
+      <c r="J14" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
         <v/>
       </c>
-      <c r="K14" s="91"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="135" t="str">
+      <c r="A15" s="97"/>
+      <c r="B15" s="134" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="137">
         <v>11</v>
       </c>
-      <c r="D15" s="137" t="str">
+      <c r="D15" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x23F</v>
       </c>
-      <c r="E15" s="135" t="str">
+      <c r="E15" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F15" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="135" t="str">
+      <c r="F15" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR11x23F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H15" s="135" t="str">
+      <c r="H15" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_11x23F</v>
       </c>
-      <c r="I15" s="135" t="str">
+      <c r="I15" s="134" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11x23F#0000</v>
-      </c>
-      <c r="J15" s="134" t="str">
+        <v>EUR_YC1YRH_11x23F#0002</v>
+      </c>
+      <c r="J15" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
         <v/>
       </c>
-      <c r="K15" s="91"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="145" t="str">
+      <c r="A16" s="97"/>
+      <c r="B16" s="144" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
-      <c r="C16" s="148">
+      <c r="C16" s="147">
         <v>12</v>
       </c>
-      <c r="D16" s="147" t="str">
+      <c r="D16" s="146" t="str">
         <f t="shared" si="4"/>
         <v>x24F</v>
       </c>
-      <c r="E16" s="145" t="str">
+      <c r="E16" s="144" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F16" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="145" t="str">
+      <c r="F16" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="144" t="str">
         <f t="shared" si="1"/>
         <v>EUR12x24F_Quote</v>
       </c>
-      <c r="H16" s="145" t="str">
+      <c r="H16" s="144" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_12x24F</v>
       </c>
-      <c r="I16" s="145" t="str">
+      <c r="I16" s="144" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_12x24F#0000</v>
-      </c>
-      <c r="J16" s="144" t="str">
+        <v>EUR_YC1YRH_12x24F#0002</v>
+      </c>
+      <c r="J16" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
         <v/>
       </c>
-      <c r="K16" s="91"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="140" t="str">
+      <c r="A17" s="97"/>
+      <c r="B17" s="139" t="str">
         <f t="shared" si="3"/>
         <v>13M</v>
       </c>
-      <c r="C17" s="143">
+      <c r="C17" s="142">
         <v>13</v>
       </c>
-      <c r="D17" s="142" t="str">
+      <c r="D17" s="141" t="str">
         <f t="shared" si="4"/>
         <v>x25F</v>
       </c>
-      <c r="E17" s="140" t="str">
+      <c r="E17" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F17" s="141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="140" t="str">
+      <c r="F17" s="140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="139" t="str">
         <f t="shared" si="1"/>
         <v>EUR13x25F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H17" s="140" t="str">
+      <c r="H17" s="139" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_13x25F</v>
       </c>
-      <c r="I17" s="140" t="str">
+      <c r="I17" s="139" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_13x25F#0000</v>
-      </c>
-      <c r="J17" s="139" t="str">
+        <v>EUR_YC1YRH_13x25F#0002</v>
+      </c>
+      <c r="J17" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
         <v/>
       </c>
-      <c r="K17" s="91"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="135" t="str">
+      <c r="A18" s="97"/>
+      <c r="B18" s="134" t="str">
         <f t="shared" si="3"/>
         <v>14M</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="137">
         <v>14</v>
       </c>
-      <c r="D18" s="137" t="str">
+      <c r="D18" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x26F</v>
       </c>
-      <c r="E18" s="135" t="str">
+      <c r="E18" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F18" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="135" t="str">
+      <c r="F18" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR14x26F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H18" s="135" t="str">
+      <c r="H18" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_14x26F</v>
       </c>
-      <c r="I18" s="135" t="str">
+      <c r="I18" s="134" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_14x26F#0000</v>
-      </c>
-      <c r="J18" s="134" t="str">
+        <v>EUR_YC1YRH_14x26F#0002</v>
+      </c>
+      <c r="J18" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
         <v/>
       </c>
-      <c r="K18" s="91"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="135" t="str">
+      <c r="A19" s="97"/>
+      <c r="B19" s="134" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="137">
         <v>15</v>
       </c>
-      <c r="D19" s="137" t="str">
+      <c r="D19" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x27F</v>
       </c>
-      <c r="E19" s="135" t="str">
+      <c r="E19" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F19" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="135" t="str">
+      <c r="F19" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR15x27F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H19" s="135" t="str">
+      <c r="H19" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_15x27F</v>
       </c>
-      <c r="I19" s="135" t="str">
+      <c r="I19" s="134" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_15x27F#0000</v>
-      </c>
-      <c r="J19" s="134" t="str">
+        <v>EUR_YC1YRH_15x27F#0002</v>
+      </c>
+      <c r="J19" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
         <v/>
       </c>
-      <c r="K19" s="91"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="135" t="str">
+      <c r="A20" s="97"/>
+      <c r="B20" s="134" t="str">
         <f t="shared" si="3"/>
         <v>16M</v>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="137">
         <v>16</v>
       </c>
-      <c r="D20" s="137" t="str">
+      <c r="D20" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x28F</v>
       </c>
-      <c r="E20" s="135" t="str">
+      <c r="E20" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F20" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="135" t="str">
+      <c r="F20" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR16x28F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H20" s="135" t="str">
+      <c r="H20" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_16x28F</v>
       </c>
-      <c r="I20" s="135" t="str">
+      <c r="I20" s="134" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_16x28F#0000</v>
-      </c>
-      <c r="J20" s="134" t="str">
+        <v>EUR_YC1YRH_16x28F#0002</v>
+      </c>
+      <c r="J20" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
         <v/>
       </c>
-      <c r="K20" s="91"/>
+      <c r="K20" s="90"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="135" t="str">
+      <c r="A21" s="97"/>
+      <c r="B21" s="134" t="str">
         <f t="shared" si="3"/>
         <v>17M</v>
       </c>
-      <c r="C21" s="138">
+      <c r="C21" s="137">
         <v>17</v>
       </c>
-      <c r="D21" s="137" t="str">
+      <c r="D21" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x29F</v>
       </c>
-      <c r="E21" s="135" t="str">
+      <c r="E21" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F21" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="135" t="str">
+      <c r="F21" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR17x29F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H21" s="135" t="str">
+      <c r="H21" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_17x29F</v>
       </c>
-      <c r="I21" s="135" t="str">
+      <c r="I21" s="134" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_17x29F#0000</v>
-      </c>
-      <c r="J21" s="134" t="str">
+        <v>EUR_YC1YRH_17x29F#0002</v>
+      </c>
+      <c r="J21" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
         <v/>
       </c>
-      <c r="K21" s="91"/>
+      <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="135" t="str">
+      <c r="A22" s="97"/>
+      <c r="B22" s="134" t="str">
         <f t="shared" si="3"/>
         <v>18M</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="137">
         <v>18</v>
       </c>
-      <c r="D22" s="137" t="str">
+      <c r="D22" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x30F</v>
       </c>
-      <c r="E22" s="135" t="str">
+      <c r="E22" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F22" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="135" t="str">
+      <c r="F22" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR18x30F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H22" s="135" t="str">
+      <c r="H22" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_18x30F</v>
       </c>
-      <c r="I22" s="135" t="str">
+      <c r="I22" s="134" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_18x30F#0000</v>
-      </c>
-      <c r="J22" s="134" t="str">
+        <v>EUR_YC1YRH_18x30F#0002</v>
+      </c>
+      <c r="J22" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
         <v/>
       </c>
-      <c r="K22" s="91"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="135" t="str">
+      <c r="A23" s="97"/>
+      <c r="B23" s="134" t="str">
         <f t="shared" si="3"/>
         <v>19M</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="137">
         <v>19</v>
       </c>
-      <c r="D23" s="137" t="str">
+      <c r="D23" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x31F</v>
       </c>
-      <c r="E23" s="135" t="str">
+      <c r="E23" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F23" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="135" t="str">
+      <c r="F23" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR19x31F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H23" s="135" t="str">
+      <c r="H23" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_19x31F</v>
       </c>
-      <c r="I23" s="135" t="str">
+      <c r="I23" s="134" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_19x31F#0000</v>
-      </c>
-      <c r="J23" s="134" t="str">
+        <v>EUR_YC1YRH_19x31F#0002</v>
+      </c>
+      <c r="J23" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
         <v/>
       </c>
-      <c r="K23" s="91"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="135" t="str">
+      <c r="A24" s="97"/>
+      <c r="B24" s="134" t="str">
         <f t="shared" si="3"/>
         <v>20M</v>
       </c>
-      <c r="C24" s="138">
+      <c r="C24" s="137">
         <v>20</v>
       </c>
-      <c r="D24" s="137" t="str">
+      <c r="D24" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x32F</v>
       </c>
-      <c r="E24" s="135" t="str">
+      <c r="E24" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F24" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="135" t="str">
+      <c r="F24" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR20x32F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H24" s="135" t="str">
+      <c r="H24" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_20x32F</v>
       </c>
-      <c r="I24" s="135" t="str">
+      <c r="I24" s="134" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_20x32F#0000</v>
-      </c>
-      <c r="J24" s="134" t="str">
+        <v>EUR_YC1YRH_20x32F#0002</v>
+      </c>
+      <c r="J24" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
         <v/>
       </c>
-      <c r="K24" s="91"/>
+      <c r="K24" s="90"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="135" t="str">
+      <c r="A25" s="97"/>
+      <c r="B25" s="134" t="str">
         <f t="shared" si="3"/>
         <v>21M</v>
       </c>
-      <c r="C25" s="138">
+      <c r="C25" s="137">
         <v>21</v>
       </c>
-      <c r="D25" s="137" t="str">
+      <c r="D25" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x33F</v>
       </c>
-      <c r="E25" s="135" t="str">
+      <c r="E25" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F25" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="135" t="str">
+      <c r="F25" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR21x33F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H25" s="135" t="str">
+      <c r="H25" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_21x33F</v>
       </c>
-      <c r="I25" s="135" t="str">
+      <c r="I25" s="134" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_21x33F#0000</v>
-      </c>
-      <c r="J25" s="134" t="str">
+        <v>EUR_YC1YRH_21x33F#0002</v>
+      </c>
+      <c r="J25" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
         <v/>
       </c>
-      <c r="K25" s="91"/>
+      <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="135" t="str">
+      <c r="A26" s="97"/>
+      <c r="B26" s="134" t="str">
         <f t="shared" si="3"/>
         <v>22M</v>
       </c>
-      <c r="C26" s="138">
+      <c r="C26" s="137">
         <v>22</v>
       </c>
-      <c r="D26" s="137" t="str">
+      <c r="D26" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x34F</v>
       </c>
-      <c r="E26" s="135" t="str">
+      <c r="E26" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F26" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="135" t="str">
+      <c r="F26" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR22x34F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H26" s="135" t="str">
+      <c r="H26" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_22x34F</v>
       </c>
-      <c r="I26" s="135" t="str">
+      <c r="I26" s="134" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_22x34F#0000</v>
-      </c>
-      <c r="J26" s="134" t="str">
+        <v>EUR_YC1YRH_22x34F#0002</v>
+      </c>
+      <c r="J26" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
         <v/>
       </c>
-      <c r="K26" s="91"/>
+      <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="131" t="str">
+      <c r="A27" s="97"/>
+      <c r="B27" s="130" t="str">
         <f t="shared" si="3"/>
         <v>23M</v>
       </c>
-      <c r="C27" s="133">
+      <c r="C27" s="132">
         <v>23</v>
       </c>
-      <c r="D27" s="93" t="str">
+      <c r="D27" s="92" t="str">
         <f t="shared" si="4"/>
         <v>x35F</v>
       </c>
-      <c r="E27" s="131" t="str">
+      <c r="E27" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F27" s="132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="131" t="str">
+      <c r="F27" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="130" t="str">
         <f t="shared" si="1"/>
         <v>EUR23x35F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H27" s="131" t="str">
+      <c r="H27" s="130" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_23x35F</v>
       </c>
-      <c r="I27" s="131" t="str">
+      <c r="I27" s="130" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_23x35F#0000</v>
-      </c>
-      <c r="J27" s="130" t="str">
+        <v>EUR_YC1YRH_23x35F#0002</v>
+      </c>
+      <c r="J27" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
         <v/>
       </c>
-      <c r="K27" s="91"/>
+      <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="98"/>
-      <c r="B28" s="140" t="str">
+      <c r="A28" s="97"/>
+      <c r="B28" s="139" t="str">
         <f t="shared" si="3"/>
         <v>25M</v>
       </c>
-      <c r="C28" s="143">
+      <c r="C28" s="142">
         <v>25</v>
       </c>
-      <c r="D28" s="142" t="str">
+      <c r="D28" s="141" t="str">
         <f t="shared" si="4"/>
         <v>x37F</v>
       </c>
-      <c r="E28" s="140" t="str">
+      <c r="E28" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F28" s="141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="140" t="str">
+      <c r="F28" s="140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="139" t="str">
         <f t="shared" si="1"/>
         <v>EUR25x37F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H28" s="140" t="str">
+      <c r="H28" s="139" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_25x37F</v>
       </c>
-      <c r="I28" s="140" t="str">
+      <c r="I28" s="139" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_25x37F#0000</v>
-      </c>
-      <c r="J28" s="139" t="str">
+        <v>EUR_YC1YRH_25x37F#0002</v>
+      </c>
+      <c r="J28" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
         <v/>
       </c>
-      <c r="K28" s="91"/>
+      <c r="K28" s="90"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="98"/>
-      <c r="B29" s="135" t="str">
+      <c r="A29" s="97"/>
+      <c r="B29" s="134" t="str">
         <f t="shared" si="3"/>
         <v>26M</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="137">
         <v>26</v>
       </c>
-      <c r="D29" s="137" t="str">
+      <c r="D29" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x38F</v>
       </c>
-      <c r="E29" s="135" t="str">
+      <c r="E29" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F29" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="135" t="str">
+      <c r="F29" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR26x38F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H29" s="135" t="str">
+      <c r="H29" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_26x38F</v>
       </c>
-      <c r="I29" s="135" t="str">
+      <c r="I29" s="134" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_26x38F#0000</v>
-      </c>
-      <c r="J29" s="134" t="str">
+        <v>EUR_YC1YRH_26x38F#0002</v>
+      </c>
+      <c r="J29" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
         <v/>
       </c>
-      <c r="K29" s="91"/>
+      <c r="K29" s="90"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
-      <c r="B30" s="135" t="str">
+      <c r="A30" s="97"/>
+      <c r="B30" s="134" t="str">
         <f t="shared" si="3"/>
         <v>27M</v>
       </c>
-      <c r="C30" s="138">
+      <c r="C30" s="137">
         <v>27</v>
       </c>
-      <c r="D30" s="137" t="str">
+      <c r="D30" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x39F</v>
       </c>
-      <c r="E30" s="135" t="str">
+      <c r="E30" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F30" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="135" t="str">
+      <c r="F30" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR27x39F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H30" s="135" t="str">
+      <c r="H30" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_27x39F</v>
       </c>
-      <c r="I30" s="135" t="str">
+      <c r="I30" s="134" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_27x39F#0000</v>
-      </c>
-      <c r="J30" s="134" t="str">
+        <v>EUR_YC1YRH_27x39F#0002</v>
+      </c>
+      <c r="J30" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
         <v/>
       </c>
-      <c r="K30" s="91"/>
+      <c r="K30" s="90"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="98"/>
-      <c r="B31" s="135" t="str">
+      <c r="A31" s="97"/>
+      <c r="B31" s="134" t="str">
         <f t="shared" si="3"/>
         <v>28M</v>
       </c>
-      <c r="C31" s="138">
+      <c r="C31" s="137">
         <v>28</v>
       </c>
-      <c r="D31" s="137" t="str">
+      <c r="D31" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x40F</v>
       </c>
-      <c r="E31" s="135" t="str">
+      <c r="E31" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F31" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="135" t="str">
+      <c r="F31" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR28x40F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H31" s="135" t="str">
+      <c r="H31" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_28x40F</v>
       </c>
-      <c r="I31" s="135" t="str">
+      <c r="I31" s="134" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_28x40F#0000</v>
-      </c>
-      <c r="J31" s="134" t="str">
+        <v>EUR_YC1YRH_28x40F#0002</v>
+      </c>
+      <c r="J31" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
         <v/>
       </c>
-      <c r="K31" s="91"/>
+      <c r="K31" s="90"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="98"/>
-      <c r="B32" s="135" t="str">
+      <c r="A32" s="97"/>
+      <c r="B32" s="134" t="str">
         <f t="shared" si="3"/>
         <v>29M</v>
       </c>
-      <c r="C32" s="138">
+      <c r="C32" s="137">
         <v>29</v>
       </c>
-      <c r="D32" s="137" t="str">
+      <c r="D32" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x41F</v>
       </c>
-      <c r="E32" s="135" t="str">
+      <c r="E32" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F32" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="135" t="str">
+      <c r="F32" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR29x41F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H32" s="135" t="str">
+      <c r="H32" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_29x41F</v>
       </c>
-      <c r="I32" s="135" t="str">
+      <c r="I32" s="134" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_29x41F#0000</v>
-      </c>
-      <c r="J32" s="134" t="str">
+        <v>EUR_YC1YRH_29x41F#0002</v>
+      </c>
+      <c r="J32" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
         <v/>
       </c>
-      <c r="K32" s="91"/>
+      <c r="K32" s="90"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="98"/>
-      <c r="B33" s="135" t="str">
+      <c r="A33" s="97"/>
+      <c r="B33" s="134" t="str">
         <f t="shared" si="3"/>
         <v>30M</v>
       </c>
-      <c r="C33" s="138">
+      <c r="C33" s="137">
         <v>30</v>
       </c>
-      <c r="D33" s="137" t="str">
+      <c r="D33" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x42F</v>
       </c>
-      <c r="E33" s="135" t="str">
+      <c r="E33" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F33" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="135" t="str">
+      <c r="F33" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR30x42F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H33" s="135" t="str">
+      <c r="H33" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_30x42F</v>
       </c>
-      <c r="I33" s="135" t="str">
+      <c r="I33" s="134" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_30x42F#0000</v>
-      </c>
-      <c r="J33" s="134" t="str">
+        <v>EUR_YC1YRH_30x42F#0002</v>
+      </c>
+      <c r="J33" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
         <v/>
       </c>
-      <c r="K33" s="91"/>
+      <c r="K33" s="90"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="135" t="str">
+      <c r="A34" s="97"/>
+      <c r="B34" s="134" t="str">
         <f t="shared" si="3"/>
         <v>31M</v>
       </c>
-      <c r="C34" s="138">
+      <c r="C34" s="137">
         <v>31</v>
       </c>
-      <c r="D34" s="137" t="str">
+      <c r="D34" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x43F</v>
       </c>
-      <c r="E34" s="135" t="str">
+      <c r="E34" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F34" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="135" t="str">
+      <c r="F34" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR31x43F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H34" s="135" t="str">
+      <c r="H34" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_31x43F</v>
       </c>
-      <c r="I34" s="135" t="str">
+      <c r="I34" s="134" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_31x43F#0000</v>
-      </c>
-      <c r="J34" s="134" t="str">
+        <v>EUR_YC1YRH_31x43F#0002</v>
+      </c>
+      <c r="J34" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
         <v/>
       </c>
-      <c r="K34" s="91"/>
+      <c r="K34" s="90"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="135" t="str">
+      <c r="A35" s="97"/>
+      <c r="B35" s="134" t="str">
         <f t="shared" si="3"/>
         <v>32M</v>
       </c>
-      <c r="C35" s="138">
+      <c r="C35" s="137">
         <v>32</v>
       </c>
-      <c r="D35" s="137" t="str">
+      <c r="D35" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x44F</v>
       </c>
-      <c r="E35" s="135" t="str">
+      <c r="E35" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F35" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="135" t="str">
+      <c r="F35" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR32x44F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H35" s="135" t="str">
+      <c r="H35" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_32x44F</v>
       </c>
-      <c r="I35" s="135" t="str">
+      <c r="I35" s="134" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_32x44F#0000</v>
-      </c>
-      <c r="J35" s="134" t="str">
+        <v>EUR_YC1YRH_32x44F#0002</v>
+      </c>
+      <c r="J35" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
         <v/>
       </c>
-      <c r="K35" s="91"/>
+      <c r="K35" s="90"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="135" t="str">
+      <c r="A36" s="97"/>
+      <c r="B36" s="134" t="str">
         <f t="shared" si="3"/>
         <v>33M</v>
       </c>
-      <c r="C36" s="138">
+      <c r="C36" s="137">
         <v>33</v>
       </c>
-      <c r="D36" s="137" t="str">
+      <c r="D36" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x45F</v>
       </c>
-      <c r="E36" s="135" t="str">
+      <c r="E36" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F36" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="135" t="str">
+      <c r="F36" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR33x45F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H36" s="135" t="str">
+      <c r="H36" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_33x45F</v>
       </c>
-      <c r="I36" s="135" t="str">
+      <c r="I36" s="134" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_33x45F#0000</v>
-      </c>
-      <c r="J36" s="134" t="str">
+        <v>EUR_YC1YRH_33x45F#0002</v>
+      </c>
+      <c r="J36" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
         <v/>
       </c>
-      <c r="K36" s="91"/>
+      <c r="K36" s="90"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="135" t="str">
+      <c r="A37" s="97"/>
+      <c r="B37" s="134" t="str">
         <f t="shared" si="3"/>
         <v>34M</v>
       </c>
-      <c r="C37" s="138">
+      <c r="C37" s="137">
         <v>34</v>
       </c>
-      <c r="D37" s="137" t="str">
+      <c r="D37" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x46F</v>
       </c>
-      <c r="E37" s="135" t="str">
+      <c r="E37" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F37" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="135" t="str">
+      <c r="F37" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR34x46F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H37" s="135" t="str">
+      <c r="H37" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_34x46F</v>
       </c>
-      <c r="I37" s="135" t="str">
+      <c r="I37" s="134" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_34x46F#0000</v>
-      </c>
-      <c r="J37" s="134" t="str">
+        <v>EUR_YC1YRH_34x46F#0002</v>
+      </c>
+      <c r="J37" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
         <v/>
       </c>
-      <c r="K37" s="91"/>
+      <c r="K37" s="90"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="131" t="str">
+      <c r="A38" s="97"/>
+      <c r="B38" s="130" t="str">
         <f t="shared" si="3"/>
         <v>35M</v>
       </c>
-      <c r="C38" s="133">
+      <c r="C38" s="132">
         <v>35</v>
       </c>
-      <c r="D38" s="93" t="str">
+      <c r="D38" s="92" t="str">
         <f t="shared" si="4"/>
         <v>x47F</v>
       </c>
-      <c r="E38" s="131" t="str">
+      <c r="E38" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F38" s="132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="131" t="str">
+      <c r="F38" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="130" t="str">
         <f t="shared" si="1"/>
         <v>EUR35x47F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H38" s="131" t="str">
+      <c r="H38" s="130" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_35x47F</v>
       </c>
-      <c r="I38" s="131" t="str">
+      <c r="I38" s="130" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_35x47F#0000</v>
-      </c>
-      <c r="J38" s="130" t="str">
+        <v>EUR_YC1YRH_35x47F#0002</v>
+      </c>
+      <c r="J38" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
         <v/>
       </c>
-      <c r="K38" s="91"/>
+      <c r="K38" s="90"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="135" t="str">
+      <c r="A39" s="97"/>
+      <c r="B39" s="134" t="str">
         <f t="shared" si="3"/>
         <v>37M</v>
       </c>
-      <c r="C39" s="138">
+      <c r="C39" s="137">
         <v>37</v>
       </c>
-      <c r="D39" s="137" t="str">
+      <c r="D39" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x49F</v>
       </c>
-      <c r="E39" s="135" t="str">
+      <c r="E39" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F39" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="135" t="str">
+      <c r="F39" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR37x49F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H39" s="135" t="str">
+      <c r="H39" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_37x49F</v>
       </c>
-      <c r="I39" s="135" t="str">
+      <c r="I39" s="134" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_37x49F#0000</v>
-      </c>
-      <c r="J39" s="134" t="str">
+        <v>EUR_YC1YRH_37x49F#0002</v>
+      </c>
+      <c r="J39" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
-      <c r="K39" s="91"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="135" t="str">
+      <c r="A40" s="97"/>
+      <c r="B40" s="134" t="str">
         <f t="shared" si="3"/>
         <v>38M</v>
       </c>
-      <c r="C40" s="138">
+      <c r="C40" s="137">
         <v>38</v>
       </c>
-      <c r="D40" s="137" t="str">
+      <c r="D40" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x50F</v>
       </c>
-      <c r="E40" s="135" t="str">
+      <c r="E40" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F40" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="135" t="str">
+      <c r="F40" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR38x50F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H40" s="135" t="str">
+      <c r="H40" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_38x50F</v>
       </c>
-      <c r="I40" s="135" t="str">
+      <c r="I40" s="134" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_38x50F#0000</v>
-      </c>
-      <c r="J40" s="134" t="str">
+        <v>EUR_YC1YRH_38x50F#0002</v>
+      </c>
+      <c r="J40" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
         <v/>
       </c>
-      <c r="K40" s="91"/>
+      <c r="K40" s="90"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
-      <c r="B41" s="135" t="str">
+      <c r="A41" s="97"/>
+      <c r="B41" s="134" t="str">
         <f t="shared" si="3"/>
         <v>39M</v>
       </c>
-      <c r="C41" s="138">
+      <c r="C41" s="137">
         <v>39</v>
       </c>
-      <c r="D41" s="137" t="str">
+      <c r="D41" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x51F</v>
       </c>
-      <c r="E41" s="135" t="str">
+      <c r="E41" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F41" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="135" t="str">
+      <c r="F41" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR39x51F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H41" s="135" t="str">
+      <c r="H41" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_39x51F</v>
       </c>
-      <c r="I41" s="135" t="str">
+      <c r="I41" s="134" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_39x51F#0000</v>
-      </c>
-      <c r="J41" s="134" t="str">
+        <v>EUR_YC1YRH_39x51F#0002</v>
+      </c>
+      <c r="J41" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
         <v/>
       </c>
-      <c r="K41" s="91"/>
+      <c r="K41" s="90"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="135" t="str">
+      <c r="A42" s="97"/>
+      <c r="B42" s="134" t="str">
         <f t="shared" si="3"/>
         <v>40M</v>
       </c>
-      <c r="C42" s="138">
+      <c r="C42" s="137">
         <v>40</v>
       </c>
-      <c r="D42" s="137" t="str">
+      <c r="D42" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x52F</v>
       </c>
-      <c r="E42" s="135" t="str">
+      <c r="E42" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F42" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="135" t="str">
+      <c r="F42" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR40x52F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H42" s="135" t="str">
+      <c r="H42" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_40x52F</v>
       </c>
-      <c r="I42" s="135" t="str">
+      <c r="I42" s="134" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_40x52F#0000</v>
-      </c>
-      <c r="J42" s="134" t="str">
+        <v>EUR_YC1YRH_40x52F#0002</v>
+      </c>
+      <c r="J42" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
         <v/>
       </c>
-      <c r="K42" s="91"/>
+      <c r="K42" s="90"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="98"/>
-      <c r="B43" s="135" t="str">
+      <c r="A43" s="97"/>
+      <c r="B43" s="134" t="str">
         <f t="shared" si="3"/>
         <v>41M</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="137">
         <v>41</v>
       </c>
-      <c r="D43" s="137" t="str">
+      <c r="D43" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x53F</v>
       </c>
-      <c r="E43" s="135" t="str">
+      <c r="E43" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F43" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="135" t="str">
+      <c r="F43" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR41x53F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H43" s="135" t="str">
+      <c r="H43" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_41x53F</v>
       </c>
-      <c r="I43" s="135" t="str">
+      <c r="I43" s="134" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_41x53F#0000</v>
-      </c>
-      <c r="J43" s="134" t="str">
+        <v>EUR_YC1YRH_41x53F#0002</v>
+      </c>
+      <c r="J43" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
         <v/>
       </c>
-      <c r="K43" s="91"/>
+      <c r="K43" s="90"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="98"/>
-      <c r="B44" s="135" t="str">
+      <c r="A44" s="97"/>
+      <c r="B44" s="134" t="str">
         <f t="shared" si="3"/>
         <v>42M</v>
       </c>
-      <c r="C44" s="138">
+      <c r="C44" s="137">
         <v>42</v>
       </c>
-      <c r="D44" s="137" t="str">
+      <c r="D44" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x54F</v>
       </c>
-      <c r="E44" s="135" t="str">
+      <c r="E44" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F44" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="135" t="str">
+      <c r="F44" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR42x54F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H44" s="135" t="str">
+      <c r="H44" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_42x54F</v>
       </c>
-      <c r="I44" s="135" t="str">
+      <c r="I44" s="134" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_42x54F#0000</v>
-      </c>
-      <c r="J44" s="134" t="str">
+        <v>EUR_YC1YRH_42x54F#0002</v>
+      </c>
+      <c r="J44" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
         <v/>
       </c>
-      <c r="K44" s="91"/>
+      <c r="K44" s="90"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="98"/>
-      <c r="B45" s="135" t="str">
+      <c r="A45" s="97"/>
+      <c r="B45" s="134" t="str">
         <f t="shared" si="3"/>
         <v>43M</v>
       </c>
-      <c r="C45" s="138">
+      <c r="C45" s="137">
         <v>43</v>
       </c>
-      <c r="D45" s="137" t="str">
+      <c r="D45" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x55F</v>
       </c>
-      <c r="E45" s="135" t="str">
+      <c r="E45" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F45" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="135" t="str">
+      <c r="F45" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR43x55F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H45" s="135" t="str">
+      <c r="H45" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_43x55F</v>
       </c>
-      <c r="I45" s="135" t="str">
+      <c r="I45" s="134" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_43x55F#0000</v>
-      </c>
-      <c r="J45" s="134" t="str">
+        <v>EUR_YC1YRH_43x55F#0002</v>
+      </c>
+      <c r="J45" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
         <v/>
       </c>
-      <c r="K45" s="91"/>
+      <c r="K45" s="90"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="98"/>
-      <c r="B46" s="135" t="str">
+      <c r="A46" s="97"/>
+      <c r="B46" s="134" t="str">
         <f t="shared" si="3"/>
         <v>44M</v>
       </c>
-      <c r="C46" s="138">
+      <c r="C46" s="137">
         <v>44</v>
       </c>
-      <c r="D46" s="137" t="str">
+      <c r="D46" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x56F</v>
       </c>
-      <c r="E46" s="135" t="str">
+      <c r="E46" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F46" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="135" t="str">
+      <c r="F46" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR44x56F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H46" s="135" t="str">
+      <c r="H46" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_44x56F</v>
       </c>
-      <c r="I46" s="135" t="str">
+      <c r="I46" s="134" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_44x56F#0000</v>
-      </c>
-      <c r="J46" s="134" t="str">
+        <v>EUR_YC1YRH_44x56F#0002</v>
+      </c>
+      <c r="J46" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
         <v/>
       </c>
-      <c r="K46" s="91"/>
+      <c r="K46" s="90"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
-      <c r="B47" s="135" t="str">
+      <c r="A47" s="97"/>
+      <c r="B47" s="134" t="str">
         <f t="shared" si="3"/>
         <v>45M</v>
       </c>
-      <c r="C47" s="138">
+      <c r="C47" s="137">
         <v>45</v>
       </c>
-      <c r="D47" s="137" t="str">
+      <c r="D47" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x57F</v>
       </c>
-      <c r="E47" s="135" t="str">
+      <c r="E47" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F47" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="135" t="str">
+      <c r="F47" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR45x57F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H47" s="135" t="str">
+      <c r="H47" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_45x57F</v>
       </c>
-      <c r="I47" s="135" t="str">
+      <c r="I47" s="134" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_45x57F#0000</v>
-      </c>
-      <c r="J47" s="134" t="str">
+        <v>EUR_YC1YRH_45x57F#0002</v>
+      </c>
+      <c r="J47" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
         <v/>
       </c>
-      <c r="K47" s="91"/>
+      <c r="K47" s="90"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="135" t="str">
+      <c r="A48" s="97"/>
+      <c r="B48" s="134" t="str">
         <f t="shared" si="3"/>
         <v>46M</v>
       </c>
-      <c r="C48" s="138">
+      <c r="C48" s="137">
         <v>46</v>
       </c>
-      <c r="D48" s="137" t="str">
+      <c r="D48" s="136" t="str">
         <f t="shared" si="4"/>
         <v>x58F</v>
       </c>
-      <c r="E48" s="135" t="str">
+      <c r="E48" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F48" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="135" t="str">
+      <c r="F48" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="134" t="str">
         <f t="shared" si="1"/>
         <v>EUR46x58F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H48" s="135" t="str">
+      <c r="H48" s="134" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_46x58F</v>
       </c>
-      <c r="I48" s="135" t="str">
+      <c r="I48" s="134" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_46x58F#0000</v>
-      </c>
-      <c r="J48" s="134" t="str">
+        <v>EUR_YC1YRH_46x58F#0002</v>
+      </c>
+      <c r="J48" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
         <v/>
       </c>
-      <c r="K48" s="91"/>
+      <c r="K48" s="90"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
-      <c r="B49" s="131" t="str">
+      <c r="A49" s="97"/>
+      <c r="B49" s="130" t="str">
         <f t="shared" si="3"/>
         <v>47M</v>
       </c>
-      <c r="C49" s="133">
+      <c r="C49" s="132">
         <v>47</v>
       </c>
-      <c r="D49" s="93" t="str">
+      <c r="D49" s="92" t="str">
         <f t="shared" si="4"/>
         <v>x59F</v>
       </c>
-      <c r="E49" s="131" t="str">
+      <c r="E49" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Euribor1Y</v>
       </c>
-      <c r="F49" s="132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="131" t="str">
+      <c r="F49" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="130" t="str">
         <f t="shared" si="1"/>
         <v>EUR47x59F_SYNTH1Y_Quote</v>
       </c>
-      <c r="H49" s="131" t="str">
+      <c r="H49" s="130" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC1YRH_47x59F</v>
       </c>
-      <c r="I49" s="131" t="str">
+      <c r="I49" s="130" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_47x59F#0000</v>
-      </c>
-      <c r="J49" s="130" t="str">
+        <v>EUR_YC1YRH_47x59F#0002</v>
+      </c>
+      <c r="J49" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
         <v/>
       </c>
-      <c r="K49" s="91"/>
+      <c r="K49" s="90"/>
     </row>
     <row r="50" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="88"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="87"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="I52" s="106"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="I52" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15537,60 +15546,60 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="106" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="128" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="106" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="106" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="106" customWidth="1"/>
-    <col min="16" max="16" width="4" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="106"/>
+    <col min="1" max="1" width="1.7109375" style="105" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="105" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="127" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="105" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="105" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="105" customWidth="1"/>
+    <col min="16" max="16" width="4" style="105" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="105" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="186"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="185"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="97"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
         <v>36</v>
@@ -15603,1962 +15612,1966 @@
         <f>Discounting</f>
         <v>EurYC</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="165"/>
-    </row>
-    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="105" t="s">
+      <c r="M2" s="107"/>
+      <c r="N2" s="164"/>
+    </row>
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="97"/>
+      <c r="B3" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="185" t="str">
+      <c r="K3" s="184" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1YRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="184">
+      <c r="L3" s="183">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>38</v>
       </c>
-      <c r="M3" s="166" t="str">
+      <c r="M3" s="165" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="165"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="183" t="str">
+      <c r="N3" s="164"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="108"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="182" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS_"&amp;FamilyName&amp;$J$2</f>
         <v>EUR_YC1YRH_AB12EBASIS_ibor1Y</v>
       </c>
-      <c r="L4" s="182" t="str">
+      <c r="L4" s="181" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0000</v>
-      </c>
-      <c r="M4" s="181" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0002</v>
+      </c>
+      <c r="M4" s="180" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="165"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="165"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="180" t="s">
+      <c r="N4" s="164"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="108"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="164"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="180" t="str">
+      <c r="D6" s="179" t="str">
         <f>VLOOKUP(Currency,Swap1YConventions,2)</f>
         <v>AB</v>
       </c>
-      <c r="E6" s="180" t="str">
+      <c r="E6" s="179" t="str">
         <f>VLOOKUP(Currency,Swap1YConventions,3)</f>
         <v>12E</v>
       </c>
-      <c r="F6" s="179" t="str">
+      <c r="F6" s="178" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="179" t="s">
+      <c r="G6" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="179" t="str">
+      <c r="H6" s="178" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I6" s="169">
-        <v>0</v>
-      </c>
-      <c r="J6" s="168" t="str">
+      <c r="I6" s="168">
+        <v>0</v>
+      </c>
+      <c r="J6" s="167" t="str">
         <f t="shared" ref="J6:J42" si="2">Currency&amp;$D6&amp;$E6&amp;"BASIS"&amp;$C6&amp;QuoteSuffix</f>
         <v>EURAB12EBASIS1Y_Quote</v>
       </c>
-      <c r="K6" s="168" t="str">
+      <c r="K6" s="167" t="str">
         <f t="shared" ref="K6:K42" si="3">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS"&amp;$C6</f>
         <v>EUR_YC1YRH_AB12EBASIS1Y</v>
       </c>
-      <c r="L6" s="167" t="str">
+      <c r="L6" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS1Y#0000</v>
-      </c>
-      <c r="M6" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS1Y#0002</v>
+      </c>
+      <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="165"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="146" t="str">
+      <c r="N6" s="164"/>
+      <c r="T6" s="105" t="str">
+        <f>_xll.ohObjectCallerAddress(J6)</f>
+        <v>'[EUR_Market.xlsm]1Y (3)'!R3C10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="145" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
         <v>0D</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="146" t="str">
+      <c r="D7" s="145" t="str">
         <f t="shared" ref="D7:D42" si="5">D6</f>
         <v>AB</v>
       </c>
-      <c r="E7" s="146" t="str">
+      <c r="E7" s="145" t="str">
         <f t="shared" ref="E7:E42" si="6">E6</f>
         <v>12E</v>
       </c>
-      <c r="F7" s="170" t="str">
+      <c r="F7" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="170" t="str">
+      <c r="H7" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I7" s="169">
-        <v>0</v>
-      </c>
-      <c r="J7" s="168" t="str">
+      <c r="I7" s="168">
+        <v>0</v>
+      </c>
+      <c r="J7" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS15M_Quote</v>
       </c>
-      <c r="K7" s="168" t="str">
+      <c r="K7" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS15M</v>
       </c>
-      <c r="L7" s="167" t="str">
+      <c r="L7" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15M#0000</v>
-      </c>
-      <c r="M7" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS15M#0002</v>
+      </c>
+      <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="165"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="146" t="str">
+      <c r="N7" s="164"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="97"/>
+      <c r="B8" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="146" t="str">
+      <c r="D8" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E8" s="146" t="str">
+      <c r="E8" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F8" s="170" t="str">
+      <c r="F8" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="170" t="s">
+      <c r="G8" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="170" t="str">
+      <c r="H8" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I8" s="169">
-        <v>0</v>
-      </c>
-      <c r="J8" s="168" t="str">
+      <c r="I8" s="168">
+        <v>0</v>
+      </c>
+      <c r="J8" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS18M_Quote</v>
       </c>
-      <c r="K8" s="168" t="str">
+      <c r="K8" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS18M</v>
       </c>
-      <c r="L8" s="167" t="str">
+      <c r="L8" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18M#0000</v>
-      </c>
-      <c r="M8" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS18M#0002</v>
+      </c>
+      <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="165"/>
-    </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="146" t="str">
+      <c r="N8" s="164"/>
+    </row>
+    <row r="9" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="146" t="str">
+      <c r="D9" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E9" s="146" t="str">
+      <c r="E9" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F9" s="170" t="str">
+      <c r="F9" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="170" t="s">
+      <c r="G9" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="170" t="str">
+      <c r="H9" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I9" s="169">
-        <v>0</v>
-      </c>
-      <c r="J9" s="168" t="str">
+      <c r="I9" s="168">
+        <v>0</v>
+      </c>
+      <c r="J9" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS21M_Quote</v>
       </c>
-      <c r="K9" s="168" t="str">
+      <c r="K9" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS21M</v>
       </c>
-      <c r="L9" s="167" t="str">
+      <c r="L9" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21M#0000</v>
-      </c>
-      <c r="M9" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS21M#0002</v>
+      </c>
+      <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="165"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="146" t="str">
+      <c r="N9" s="164"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="146" t="str">
+      <c r="D10" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E10" s="146" t="str">
+      <c r="E10" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F10" s="170" t="str">
+      <c r="F10" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="170" t="str">
+      <c r="H10" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I10" s="169">
-        <v>0</v>
-      </c>
-      <c r="J10" s="168" t="str">
+      <c r="I10" s="168">
+        <v>0</v>
+      </c>
+      <c r="J10" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS2Y_Quote</v>
       </c>
-      <c r="K10" s="168" t="str">
+      <c r="K10" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS2Y</v>
       </c>
-      <c r="L10" s="167" t="str">
+      <c r="L10" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS2Y#0000</v>
-      </c>
-      <c r="M10" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS2Y#0002</v>
+      </c>
+      <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="165"/>
-      <c r="P10" s="178" t="s">
+      <c r="N10" s="164"/>
+      <c r="P10" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="159" t="s">
+      <c r="Q10" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="177" t="s">
+      <c r="R10" s="176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="146" t="str">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="146" t="str">
+      <c r="D11" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E11" s="146" t="str">
+      <c r="E11" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F11" s="170" t="str">
+      <c r="F11" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="170" t="s">
+      <c r="G11" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="170" t="str">
+      <c r="H11" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I11" s="169">
-        <v>0</v>
-      </c>
-      <c r="J11" s="168" t="str">
+      <c r="I11" s="168">
+        <v>0</v>
+      </c>
+      <c r="J11" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS3Y_Quote</v>
       </c>
-      <c r="K11" s="168" t="str">
+      <c r="K11" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS3Y</v>
       </c>
-      <c r="L11" s="167" t="str">
+      <c r="L11" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS3Y#0000</v>
-      </c>
-      <c r="M11" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS3Y#0002</v>
+      </c>
+      <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="165"/>
-      <c r="P11" s="176" t="s">
+      <c r="N11" s="164"/>
+      <c r="P11" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="171" t="s">
+      <c r="Q11" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="R11" s="175" t="s">
+      <c r="R11" s="174" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="146" t="str">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="146" t="str">
+      <c r="D12" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E12" s="146" t="str">
+      <c r="E12" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F12" s="170" t="str">
+      <c r="F12" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="170" t="s">
+      <c r="G12" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="170" t="str">
+      <c r="H12" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I12" s="169">
-        <v>0</v>
-      </c>
-      <c r="J12" s="168" t="str">
+      <c r="I12" s="168">
+        <v>0</v>
+      </c>
+      <c r="J12" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS4Y_Quote</v>
       </c>
-      <c r="K12" s="168" t="str">
+      <c r="K12" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS4Y</v>
       </c>
-      <c r="L12" s="167" t="str">
+      <c r="L12" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS4Y#0000</v>
-      </c>
-      <c r="M12" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS4Y#0002</v>
+      </c>
+      <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="165"/>
-      <c r="P12" s="176" t="s">
+      <c r="N12" s="164"/>
+      <c r="P12" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="171" t="s">
+      <c r="Q12" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="R12" s="175" t="s">
+      <c r="R12" s="174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="146" t="str">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="146" t="str">
+      <c r="D13" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E13" s="146" t="str">
+      <c r="E13" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F13" s="170" t="str">
+      <c r="F13" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="170" t="s">
+      <c r="G13" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="170" t="str">
+      <c r="H13" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I13" s="169">
-        <v>0</v>
-      </c>
-      <c r="J13" s="168" t="str">
+      <c r="I13" s="168">
+        <v>0</v>
+      </c>
+      <c r="J13" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS5Y_Quote</v>
       </c>
-      <c r="K13" s="168" t="str">
+      <c r="K13" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS5Y</v>
       </c>
-      <c r="L13" s="167" t="str">
+      <c r="L13" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS5Y#0000</v>
-      </c>
-      <c r="M13" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS5Y#0002</v>
+      </c>
+      <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="165"/>
-      <c r="P13" s="176" t="s">
+      <c r="N13" s="164"/>
+      <c r="P13" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="171" t="s">
+      <c r="Q13" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="R13" s="175" t="s">
+      <c r="R13" s="174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="146" t="str">
+    <row r="14" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="146" t="str">
+      <c r="D14" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E14" s="146" t="str">
+      <c r="E14" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F14" s="170" t="str">
+      <c r="F14" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="170" t="s">
+      <c r="G14" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="170" t="str">
+      <c r="H14" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I14" s="169">
-        <v>0</v>
-      </c>
-      <c r="J14" s="168" t="str">
+      <c r="I14" s="168">
+        <v>0</v>
+      </c>
+      <c r="J14" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS6Y_Quote</v>
       </c>
-      <c r="K14" s="168" t="str">
+      <c r="K14" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS6Y</v>
       </c>
-      <c r="L14" s="167" t="str">
+      <c r="L14" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS6Y#0000</v>
-      </c>
-      <c r="M14" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS6Y#0002</v>
+      </c>
+      <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="165"/>
-      <c r="P14" s="174" t="s">
+      <c r="N14" s="164"/>
+      <c r="P14" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" s="173" t="s">
+      <c r="Q14" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="172" t="s">
+      <c r="R14" s="171" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="146" t="str">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="146" t="str">
+      <c r="D15" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E15" s="146" t="str">
+      <c r="E15" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F15" s="170" t="str">
+      <c r="F15" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="170" t="s">
+      <c r="G15" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="170" t="str">
+      <c r="H15" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I15" s="169">
-        <v>0</v>
-      </c>
-      <c r="J15" s="168" t="str">
+      <c r="I15" s="168">
+        <v>0</v>
+      </c>
+      <c r="J15" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS7Y_Quote</v>
       </c>
-      <c r="K15" s="168" t="str">
+      <c r="K15" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS7Y</v>
       </c>
-      <c r="L15" s="167" t="str">
+      <c r="L15" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS7Y#0000</v>
-      </c>
-      <c r="M15" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS7Y#0002</v>
+      </c>
+      <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="165"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="146" t="str">
+      <c r="N15" s="164"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="146" t="str">
+      <c r="D16" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E16" s="146" t="str">
+      <c r="E16" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F16" s="170" t="str">
+      <c r="F16" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="170" t="str">
+      <c r="H16" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I16" s="169">
-        <v>0</v>
-      </c>
-      <c r="J16" s="168" t="str">
+      <c r="I16" s="168">
+        <v>0</v>
+      </c>
+      <c r="J16" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS8Y_Quote</v>
       </c>
-      <c r="K16" s="168" t="str">
+      <c r="K16" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS8Y</v>
       </c>
-      <c r="L16" s="167" t="str">
+      <c r="L16" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS8Y#0000</v>
-      </c>
-      <c r="M16" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS8Y#0002</v>
+      </c>
+      <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="165"/>
+      <c r="N16" s="164"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="146" t="str">
+      <c r="A17" s="97"/>
+      <c r="B17" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="146" t="str">
+      <c r="D17" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E17" s="146" t="str">
+      <c r="E17" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F17" s="170" t="str">
+      <c r="F17" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="170" t="s">
+      <c r="G17" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="170" t="str">
+      <c r="H17" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I17" s="169">
-        <v>0</v>
-      </c>
-      <c r="J17" s="168" t="str">
+      <c r="I17" s="168">
+        <v>0</v>
+      </c>
+      <c r="J17" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS9Y_Quote</v>
       </c>
-      <c r="K17" s="168" t="str">
+      <c r="K17" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS9Y</v>
       </c>
-      <c r="L17" s="167" t="str">
+      <c r="L17" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS9Y#0000</v>
-      </c>
-      <c r="M17" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS9Y#0002</v>
+      </c>
+      <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="165"/>
+      <c r="N17" s="164"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="146" t="str">
+      <c r="A18" s="97"/>
+      <c r="B18" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="146" t="str">
+      <c r="D18" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E18" s="146" t="str">
+      <c r="E18" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F18" s="170" t="str">
+      <c r="F18" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="170" t="str">
+      <c r="H18" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I18" s="169">
-        <v>0</v>
-      </c>
-      <c r="J18" s="168" t="str">
+      <c r="I18" s="168">
+        <v>0</v>
+      </c>
+      <c r="J18" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS10Y_Quote</v>
       </c>
-      <c r="K18" s="168" t="str">
+      <c r="K18" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS10Y</v>
       </c>
-      <c r="L18" s="167" t="str">
+      <c r="L18" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS10Y#0000</v>
-      </c>
-      <c r="M18" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS10Y#0002</v>
+      </c>
+      <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="165"/>
+      <c r="N18" s="164"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="146" t="str">
+      <c r="A19" s="97"/>
+      <c r="B19" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="146" t="str">
+      <c r="D19" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E19" s="146" t="str">
+      <c r="E19" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F19" s="170" t="str">
+      <c r="F19" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="170" t="s">
+      <c r="G19" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="170" t="str">
+      <c r="H19" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I19" s="169">
-        <v>0</v>
-      </c>
-      <c r="J19" s="168" t="str">
+      <c r="I19" s="168">
+        <v>0</v>
+      </c>
+      <c r="J19" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS11Y_Quote</v>
       </c>
-      <c r="K19" s="168" t="str">
+      <c r="K19" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS11Y</v>
       </c>
-      <c r="L19" s="167" t="str">
+      <c r="L19" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS11Y#0000</v>
-      </c>
-      <c r="M19" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS11Y#0002</v>
+      </c>
+      <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="165"/>
+      <c r="N19" s="164"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="146" t="str">
+      <c r="A20" s="97"/>
+      <c r="B20" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="146" t="str">
+      <c r="D20" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E20" s="146" t="str">
+      <c r="E20" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F20" s="170" t="str">
+      <c r="F20" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="170" t="s">
+      <c r="G20" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="170" t="str">
+      <c r="H20" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I20" s="169">
-        <v>0</v>
-      </c>
-      <c r="J20" s="168" t="str">
+      <c r="I20" s="168">
+        <v>0</v>
+      </c>
+      <c r="J20" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS12Y_Quote</v>
       </c>
-      <c r="K20" s="168" t="str">
+      <c r="K20" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS12Y</v>
       </c>
-      <c r="L20" s="167" t="str">
+      <c r="L20" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS12Y#0000</v>
-      </c>
-      <c r="M20" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS12Y#0002</v>
+      </c>
+      <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="165"/>
+      <c r="N20" s="164"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="146" t="str">
+      <c r="A21" s="97"/>
+      <c r="B21" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="146" t="str">
+      <c r="D21" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E21" s="146" t="str">
+      <c r="E21" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F21" s="170" t="str">
+      <c r="F21" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="170" t="s">
+      <c r="G21" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="170" t="str">
+      <c r="H21" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I21" s="169">
-        <v>0</v>
-      </c>
-      <c r="J21" s="168" t="str">
+      <c r="I21" s="168">
+        <v>0</v>
+      </c>
+      <c r="J21" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS13Y_Quote</v>
       </c>
-      <c r="K21" s="168" t="str">
+      <c r="K21" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS13Y</v>
       </c>
-      <c r="L21" s="167" t="str">
+      <c r="L21" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS13Y#0000</v>
-      </c>
-      <c r="M21" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS13Y#0002</v>
+      </c>
+      <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="165"/>
+      <c r="N21" s="164"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="146" t="str">
+      <c r="A22" s="97"/>
+      <c r="B22" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="146" t="str">
+      <c r="D22" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E22" s="146" t="str">
+      <c r="E22" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F22" s="170" t="str">
+      <c r="F22" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="170" t="s">
+      <c r="G22" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="170" t="str">
+      <c r="H22" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I22" s="169">
-        <v>0</v>
-      </c>
-      <c r="J22" s="168" t="str">
+      <c r="I22" s="168">
+        <v>0</v>
+      </c>
+      <c r="J22" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS14Y_Quote</v>
       </c>
-      <c r="K22" s="168" t="str">
+      <c r="K22" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS14Y</v>
       </c>
-      <c r="L22" s="167" t="str">
+      <c r="L22" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS14Y#0000</v>
-      </c>
-      <c r="M22" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS14Y#0002</v>
+      </c>
+      <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="165"/>
+      <c r="N22" s="164"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="146" t="str">
+      <c r="A23" s="97"/>
+      <c r="B23" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="146" t="str">
+      <c r="D23" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E23" s="146" t="str">
+      <c r="E23" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F23" s="170" t="str">
+      <c r="F23" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="170" t="s">
+      <c r="G23" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="170" t="str">
+      <c r="H23" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I23" s="169">
-        <v>0</v>
-      </c>
-      <c r="J23" s="168" t="str">
+      <c r="I23" s="168">
+        <v>0</v>
+      </c>
+      <c r="J23" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS15Y_Quote</v>
       </c>
-      <c r="K23" s="168" t="str">
+      <c r="K23" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS15Y</v>
       </c>
-      <c r="L23" s="167" t="str">
+      <c r="L23" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15Y#0000</v>
-      </c>
-      <c r="M23" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS15Y#0002</v>
+      </c>
+      <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="165"/>
+      <c r="N23" s="164"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="146" t="str">
+      <c r="A24" s="97"/>
+      <c r="B24" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="146" t="str">
+      <c r="D24" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E24" s="146" t="str">
+      <c r="E24" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F24" s="170" t="str">
+      <c r="F24" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="170" t="s">
+      <c r="G24" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="170" t="str">
+      <c r="H24" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I24" s="169">
-        <v>0</v>
-      </c>
-      <c r="J24" s="168" t="str">
+      <c r="I24" s="168">
+        <v>0</v>
+      </c>
+      <c r="J24" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS16Y_Quote</v>
       </c>
-      <c r="K24" s="168" t="str">
+      <c r="K24" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS16Y</v>
       </c>
-      <c r="L24" s="167" t="str">
+      <c r="L24" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS16Y#0000</v>
-      </c>
-      <c r="M24" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS16Y#0002</v>
+      </c>
+      <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="165"/>
+      <c r="N24" s="164"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="146" t="str">
+      <c r="A25" s="97"/>
+      <c r="B25" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="146" t="str">
+      <c r="D25" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E25" s="146" t="str">
+      <c r="E25" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F25" s="170" t="str">
+      <c r="F25" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="170" t="str">
+      <c r="H25" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I25" s="169">
-        <v>0</v>
-      </c>
-      <c r="J25" s="168" t="str">
+      <c r="I25" s="168">
+        <v>0</v>
+      </c>
+      <c r="J25" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS17Y_Quote</v>
       </c>
-      <c r="K25" s="168" t="str">
+      <c r="K25" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS17Y</v>
       </c>
-      <c r="L25" s="167" t="str">
+      <c r="L25" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS17Y#0000</v>
-      </c>
-      <c r="M25" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS17Y#0002</v>
+      </c>
+      <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="165"/>
+      <c r="N25" s="164"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="146" t="str">
+      <c r="A26" s="97"/>
+      <c r="B26" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="146" t="str">
+      <c r="D26" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E26" s="146" t="str">
+      <c r="E26" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F26" s="170" t="str">
+      <c r="F26" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="170" t="s">
+      <c r="G26" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="170" t="str">
+      <c r="H26" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I26" s="169">
-        <v>0</v>
-      </c>
-      <c r="J26" s="168" t="str">
+      <c r="I26" s="168">
+        <v>0</v>
+      </c>
+      <c r="J26" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS18Y_Quote</v>
       </c>
-      <c r="K26" s="168" t="str">
+      <c r="K26" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS18Y</v>
       </c>
-      <c r="L26" s="167" t="str">
+      <c r="L26" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18Y#0000</v>
-      </c>
-      <c r="M26" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS18Y#0002</v>
+      </c>
+      <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="165"/>
+      <c r="N26" s="164"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="146" t="str">
+      <c r="A27" s="97"/>
+      <c r="B27" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="146" t="str">
+      <c r="D27" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E27" s="146" t="str">
+      <c r="E27" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F27" s="170" t="str">
+      <c r="F27" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="170" t="s">
+      <c r="G27" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="170" t="str">
+      <c r="H27" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I27" s="169">
-        <v>0</v>
-      </c>
-      <c r="J27" s="168" t="str">
+      <c r="I27" s="168">
+        <v>0</v>
+      </c>
+      <c r="J27" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS19Y_Quote</v>
       </c>
-      <c r="K27" s="168" t="str">
+      <c r="K27" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS19Y</v>
       </c>
-      <c r="L27" s="167" t="str">
+      <c r="L27" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS19Y#0000</v>
-      </c>
-      <c r="M27" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS19Y#0002</v>
+      </c>
+      <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="165"/>
+      <c r="N27" s="164"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="98"/>
-      <c r="B28" s="146" t="str">
+      <c r="A28" s="97"/>
+      <c r="B28" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="146" t="str">
+      <c r="D28" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E28" s="146" t="str">
+      <c r="E28" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F28" s="170" t="str">
+      <c r="F28" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="170" t="s">
+      <c r="G28" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="170" t="str">
+      <c r="H28" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I28" s="169">
-        <v>0</v>
-      </c>
-      <c r="J28" s="168" t="str">
+      <c r="I28" s="168">
+        <v>0</v>
+      </c>
+      <c r="J28" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS20Y_Quote</v>
       </c>
-      <c r="K28" s="168" t="str">
+      <c r="K28" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS20Y</v>
       </c>
-      <c r="L28" s="167" t="str">
+      <c r="L28" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS20Y#0000</v>
-      </c>
-      <c r="M28" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS20Y#0002</v>
+      </c>
+      <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="165"/>
+      <c r="N28" s="164"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="98"/>
-      <c r="B29" s="146" t="str">
+      <c r="A29" s="97"/>
+      <c r="B29" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="146" t="str">
+      <c r="D29" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E29" s="146" t="str">
+      <c r="E29" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F29" s="170" t="str">
+      <c r="F29" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="170" t="s">
+      <c r="G29" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="170" t="str">
+      <c r="H29" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I29" s="169">
-        <v>0</v>
-      </c>
-      <c r="J29" s="168" t="str">
+      <c r="I29" s="168">
+        <v>0</v>
+      </c>
+      <c r="J29" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS21Y_Quote</v>
       </c>
-      <c r="K29" s="168" t="str">
+      <c r="K29" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS21Y</v>
       </c>
-      <c r="L29" s="167" t="str">
+      <c r="L29" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21Y#0000</v>
-      </c>
-      <c r="M29" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS21Y#0002</v>
+      </c>
+      <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="165"/>
+      <c r="N29" s="164"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
-      <c r="B30" s="146" t="str">
+      <c r="A30" s="97"/>
+      <c r="B30" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="146" t="str">
+      <c r="D30" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E30" s="146" t="str">
+      <c r="E30" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F30" s="170" t="str">
+      <c r="F30" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="170" t="s">
+      <c r="G30" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="170" t="str">
+      <c r="H30" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I30" s="169">
-        <v>0</v>
-      </c>
-      <c r="J30" s="168" t="str">
+      <c r="I30" s="168">
+        <v>0</v>
+      </c>
+      <c r="J30" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS22Y_Quote</v>
       </c>
-      <c r="K30" s="168" t="str">
+      <c r="K30" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS22Y</v>
       </c>
-      <c r="L30" s="167" t="str">
+      <c r="L30" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS22Y#0000</v>
-      </c>
-      <c r="M30" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS22Y#0002</v>
+      </c>
+      <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="165"/>
+      <c r="N30" s="164"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="98"/>
-      <c r="B31" s="146" t="str">
+      <c r="A31" s="97"/>
+      <c r="B31" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="146" t="str">
+      <c r="D31" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E31" s="146" t="str">
+      <c r="E31" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F31" s="170" t="str">
+      <c r="F31" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="170" t="s">
+      <c r="G31" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H31" s="170" t="str">
+      <c r="H31" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I31" s="169">
-        <v>0</v>
-      </c>
-      <c r="J31" s="168" t="str">
+      <c r="I31" s="168">
+        <v>0</v>
+      </c>
+      <c r="J31" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS23Y_Quote</v>
       </c>
-      <c r="K31" s="168" t="str">
+      <c r="K31" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS23Y</v>
       </c>
-      <c r="L31" s="167" t="str">
+      <c r="L31" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS23Y#0000</v>
-      </c>
-      <c r="M31" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS23Y#0002</v>
+      </c>
+      <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="165"/>
+      <c r="N31" s="164"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="98"/>
-      <c r="B32" s="146" t="str">
+      <c r="A32" s="97"/>
+      <c r="B32" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="146" t="str">
+      <c r="D32" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E32" s="146" t="str">
+      <c r="E32" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F32" s="170" t="str">
+      <c r="F32" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="170" t="s">
+      <c r="G32" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="170" t="str">
+      <c r="H32" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I32" s="169">
-        <v>0</v>
-      </c>
-      <c r="J32" s="168" t="str">
+      <c r="I32" s="168">
+        <v>0</v>
+      </c>
+      <c r="J32" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS24Y_Quote</v>
       </c>
-      <c r="K32" s="168" t="str">
+      <c r="K32" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS24Y</v>
       </c>
-      <c r="L32" s="167" t="str">
+      <c r="L32" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS24Y#0000</v>
-      </c>
-      <c r="M32" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS24Y#0002</v>
+      </c>
+      <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="165"/>
+      <c r="N32" s="164"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="98"/>
-      <c r="B33" s="146" t="str">
+      <c r="A33" s="97"/>
+      <c r="B33" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="146" t="str">
+      <c r="D33" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E33" s="146" t="str">
+      <c r="E33" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F33" s="170" t="str">
+      <c r="F33" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="170" t="s">
+      <c r="G33" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="170" t="str">
+      <c r="H33" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I33" s="169">
-        <v>0</v>
-      </c>
-      <c r="J33" s="168" t="str">
+      <c r="I33" s="168">
+        <v>0</v>
+      </c>
+      <c r="J33" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS25Y_Quote</v>
       </c>
-      <c r="K33" s="168" t="str">
+      <c r="K33" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS25Y</v>
       </c>
-      <c r="L33" s="167" t="str">
+      <c r="L33" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS25Y#0000</v>
-      </c>
-      <c r="M33" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS25Y#0002</v>
+      </c>
+      <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="165"/>
+      <c r="N33" s="164"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="146" t="str">
+      <c r="A34" s="97"/>
+      <c r="B34" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="146" t="str">
+      <c r="D34" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E34" s="146" t="str">
+      <c r="E34" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F34" s="170" t="str">
+      <c r="F34" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="170" t="str">
+      <c r="H34" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I34" s="169">
-        <v>0</v>
-      </c>
-      <c r="J34" s="168" t="str">
+      <c r="I34" s="168">
+        <v>0</v>
+      </c>
+      <c r="J34" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS26Y_Quote</v>
       </c>
-      <c r="K34" s="168" t="str">
+      <c r="K34" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS26Y</v>
       </c>
-      <c r="L34" s="167" t="str">
+      <c r="L34" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS26Y#0000</v>
-      </c>
-      <c r="M34" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS26Y#0002</v>
+      </c>
+      <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="165"/>
+      <c r="N34" s="164"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="146" t="str">
+      <c r="A35" s="97"/>
+      <c r="B35" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="146" t="str">
+      <c r="D35" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E35" s="146" t="str">
+      <c r="E35" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F35" s="170" t="str">
+      <c r="F35" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="170" t="s">
+      <c r="G35" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H35" s="170" t="str">
+      <c r="H35" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I35" s="169">
-        <v>0</v>
-      </c>
-      <c r="J35" s="168" t="str">
+      <c r="I35" s="168">
+        <v>0</v>
+      </c>
+      <c r="J35" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS27Y_Quote</v>
       </c>
-      <c r="K35" s="168" t="str">
+      <c r="K35" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS27Y</v>
       </c>
-      <c r="L35" s="167" t="str">
+      <c r="L35" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS27Y#0000</v>
-      </c>
-      <c r="M35" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS27Y#0002</v>
+      </c>
+      <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="165"/>
+      <c r="N35" s="164"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="146" t="str">
+      <c r="A36" s="97"/>
+      <c r="B36" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C36" s="146" t="s">
+      <c r="C36" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="146" t="str">
+      <c r="D36" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E36" s="146" t="str">
+      <c r="E36" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F36" s="170" t="str">
+      <c r="F36" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="170" t="s">
+      <c r="G36" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="170" t="str">
+      <c r="H36" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I36" s="169">
-        <v>0</v>
-      </c>
-      <c r="J36" s="168" t="str">
+      <c r="I36" s="168">
+        <v>0</v>
+      </c>
+      <c r="J36" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS28Y_Quote</v>
       </c>
-      <c r="K36" s="168" t="str">
+      <c r="K36" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS28Y</v>
       </c>
-      <c r="L36" s="167" t="str">
+      <c r="L36" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS28Y#0000</v>
-      </c>
-      <c r="M36" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS28Y#0002</v>
+      </c>
+      <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="165"/>
+      <c r="N36" s="164"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="146" t="str">
+      <c r="A37" s="97"/>
+      <c r="B37" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="146" t="str">
+      <c r="D37" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E37" s="146" t="str">
+      <c r="E37" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F37" s="170" t="str">
+      <c r="F37" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="170" t="s">
+      <c r="G37" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="170" t="str">
+      <c r="H37" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I37" s="169">
-        <v>0</v>
-      </c>
-      <c r="J37" s="168" t="str">
+      <c r="I37" s="168">
+        <v>0</v>
+      </c>
+      <c r="J37" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS29Y_Quote</v>
       </c>
-      <c r="K37" s="168" t="str">
+      <c r="K37" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS29Y</v>
       </c>
-      <c r="L37" s="167" t="str">
+      <c r="L37" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS29Y#0000</v>
-      </c>
-      <c r="M37" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS29Y#0002</v>
+      </c>
+      <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="165"/>
+      <c r="N37" s="164"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="146" t="str">
+      <c r="A38" s="97"/>
+      <c r="B38" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="146" t="str">
+      <c r="D38" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E38" s="146" t="str">
+      <c r="E38" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F38" s="170" t="str">
+      <c r="F38" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="170" t="s">
+      <c r="G38" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="170" t="str">
+      <c r="H38" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I38" s="169">
-        <v>0</v>
-      </c>
-      <c r="J38" s="168" t="str">
+      <c r="I38" s="168">
+        <v>0</v>
+      </c>
+      <c r="J38" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS30Y_Quote</v>
       </c>
-      <c r="K38" s="168" t="str">
+      <c r="K38" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS30Y</v>
       </c>
-      <c r="L38" s="167" t="str">
+      <c r="L38" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS30Y#0000</v>
-      </c>
-      <c r="M38" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS30Y#0002</v>
+      </c>
+      <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="165"/>
+      <c r="N38" s="164"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="146" t="str">
+      <c r="A39" s="97"/>
+      <c r="B39" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="146" t="str">
+      <c r="D39" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E39" s="146" t="str">
+      <c r="E39" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F39" s="170" t="str">
+      <c r="F39" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="170" t="s">
+      <c r="G39" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="170" t="str">
+      <c r="H39" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I39" s="169">
-        <v>0</v>
-      </c>
-      <c r="J39" s="168" t="str">
+      <c r="I39" s="168">
+        <v>0</v>
+      </c>
+      <c r="J39" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS35Y_Quote</v>
       </c>
-      <c r="K39" s="168" t="str">
+      <c r="K39" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS35Y</v>
       </c>
-      <c r="L39" s="167" t="str">
+      <c r="L39" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS35Y#0000</v>
-      </c>
-      <c r="M39" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS35Y#0002</v>
+      </c>
+      <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="165"/>
+      <c r="N39" s="164"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="146" t="str">
+      <c r="A40" s="97"/>
+      <c r="B40" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="146" t="str">
+      <c r="D40" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E40" s="146" t="str">
+      <c r="E40" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F40" s="170" t="str">
+      <c r="F40" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="170" t="s">
+      <c r="G40" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H40" s="170" t="str">
+      <c r="H40" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I40" s="169">
-        <v>0</v>
-      </c>
-      <c r="J40" s="168" t="str">
+      <c r="I40" s="168">
+        <v>0</v>
+      </c>
+      <c r="J40" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS40Y_Quote</v>
       </c>
-      <c r="K40" s="168" t="str">
+      <c r="K40" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS40Y</v>
       </c>
-      <c r="L40" s="167" t="str">
+      <c r="L40" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS40Y#0000</v>
-      </c>
-      <c r="M40" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS40Y#0002</v>
+      </c>
+      <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="165"/>
+      <c r="N40" s="164"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
-      <c r="B41" s="146" t="str">
+      <c r="A41" s="97"/>
+      <c r="B41" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C41" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="146" t="str">
+      <c r="C41" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E41" s="146" t="str">
+      <c r="E41" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F41" s="170" t="str">
+      <c r="F41" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="170" t="s">
+      <c r="G41" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="170" t="str">
+      <c r="H41" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I41" s="169">
-        <v>0</v>
-      </c>
-      <c r="J41" s="168" t="str">
+      <c r="I41" s="168">
+        <v>0</v>
+      </c>
+      <c r="J41" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS50Y_Quote</v>
       </c>
-      <c r="K41" s="168" t="str">
+      <c r="K41" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS50Y</v>
       </c>
-      <c r="L41" s="167" t="str">
+      <c r="L41" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS50Y#0000</v>
-      </c>
-      <c r="M41" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS50Y#0002</v>
+      </c>
+      <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="165"/>
+      <c r="N41" s="164"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="146" t="str">
+      <c r="A42" s="97"/>
+      <c r="B42" s="145" t="str">
         <f t="shared" si="4"/>
         <v>0D</v>
       </c>
-      <c r="C42" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="146" t="str">
+      <c r="C42" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="145" t="str">
         <f t="shared" si="5"/>
         <v>AB</v>
       </c>
-      <c r="E42" s="146" t="str">
+      <c r="E42" s="145" t="str">
         <f t="shared" si="6"/>
         <v>12E</v>
       </c>
-      <c r="F42" s="170" t="str">
+      <c r="F42" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="170" t="s">
+      <c r="G42" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="170" t="str">
+      <c r="H42" s="169" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I42" s="169">
-        <v>0</v>
-      </c>
-      <c r="J42" s="168" t="str">
+      <c r="I42" s="168">
+        <v>0</v>
+      </c>
+      <c r="J42" s="167" t="str">
         <f t="shared" si="2"/>
         <v>EURAB12EBASIS60Y_Quote</v>
       </c>
-      <c r="K42" s="168" t="str">
+      <c r="K42" s="167" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC1YRH_AB12EBASIS60Y</v>
       </c>
-      <c r="L42" s="167" t="str">
+      <c r="L42" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS60Y#0000</v>
-      </c>
-      <c r="M42" s="166" t="str">
+        <v>EUR_YC1YRH_AB12EBASIS60Y#0002</v>
+      </c>
+      <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="165"/>
+      <c r="N42" s="164"/>
     </row>
     <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="164"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="163"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -16,36 +16,36 @@
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$20</definedName>
-    <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
+    <definedName name="BondBasisDayCounter">'General Settings'!$L$13</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="Discounting">'General Settings'!$M$15</definedName>
-    <definedName name="Discounting2">'General Settings'!$M$16</definedName>
+    <definedName name="Discounting">'General Settings'!$L$15</definedName>
+    <definedName name="Discounting2">'General Settings'!$L$16</definedName>
     <definedName name="DiscountingCurve" localSheetId="5">'1Y_SwapsFromBasis'!$L$2</definedName>
-    <definedName name="FamilyName">'General Settings'!$M$11</definedName>
-    <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
+    <definedName name="FamilyName">'General Settings'!$L$11</definedName>
+    <definedName name="FileOverwrite">'General Settings'!$L$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$22</definedName>
     <definedName name="MinDistance">RateHelpers!$J$2:$J$173</definedName>
-    <definedName name="MoneyMarketDayCounter">'General Settings'!$M$14</definedName>
+    <definedName name="MoneyMarketDayCounter">'General Settings'!$L$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
-    <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
+    <definedName name="QuoteSuffix">'General Settings'!$L$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$173</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$173</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$173</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
-    <definedName name="Serialize">'General Settings'!$M$4</definedName>
+    <definedName name="SerializationPath">'General Settings'!$L$5</definedName>
+    <definedName name="Serialize">'General Settings'!$L$4</definedName>
     <definedName name="Swap1YConventions">'1Y_SwapsFromBasis'!$P$10:$R$14</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
     <definedName name="TraitsID">'General Settings'!$D$21</definedName>
@@ -938,7 +938,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,12 +995,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1407,15 +1413,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1424,31 +1426,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1830,17 +1810,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1885,25 +1865,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,7 +1882,24 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2232,59 +2212,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:N27"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
-    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="187" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="187" customWidth="1"/>
-    <col min="8" max="9" width="8" style="187"/>
-    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="187"/>
+    <col min="1" max="2" width="2.7109375" style="194" customWidth="1"/>
+    <col min="3" max="3" width="18" style="194" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="194" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="194" customWidth="1"/>
+    <col min="7" max="7" width="4" style="194" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="194" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.7109375" style="194" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="194" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="194" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="194" customWidth="1"/>
+    <col min="14" max="16384" width="8" style="194"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="str">
+    <row r="1" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="194" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="196" t="s">
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="J2" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="199"/>
-    </row>
-    <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="205"/>
+    </row>
+    <row r="3" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
       <c r="C3" s="85"/>
       <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-      <c r="K3" s="123"/>
+      <c r="E3" s="57"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="125"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="125"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
       <c r="C4" s="84" t="s">
         <v>115</v>
@@ -2292,22 +2269,21 @@
       <c r="D4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="H4" s="190" t="s">
+      <c r="E4" s="57"/>
+      <c r="G4" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="122" t="s">
+      <c r="H4" s="197"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="M4" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="121"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="121"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="61"/>
       <c r="C5" s="82" t="s">
         <v>113</v>
@@ -2315,25 +2291,24 @@
       <c r="D5" s="62">
         <v>12</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
-      <c r="H5" s="188" t="s">
+      <c r="E5" s="57"/>
+      <c r="G5" s="198" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="189" t="s">
+      <c r="H5" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="122" t="s">
+      <c r="J5" s="123"/>
+      <c r="K5" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="124" t="str">
+      <c r="L5" s="124" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="N5" s="121"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="M5" s="121"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
       <c r="C6" s="82" t="s">
         <v>110</v>
@@ -2342,22 +2317,21 @@
         <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
         <v>1Y</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
-      <c r="H6" s="188" t="s">
+      <c r="E6" s="57"/>
+      <c r="G6" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="122" t="s">
+      <c r="H6" s="199"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="121"/>
-    </row>
-    <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="121"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="82" t="s">
         <v>108</v>
@@ -2366,40 +2340,38 @@
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
         <v>12E</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="H7" s="188" t="s">
+      <c r="E7" s="57"/>
+      <c r="G7" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="189"/>
-      <c r="K7" s="120"/>
+      <c r="H7" s="199"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="118"/>
-    </row>
-    <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="82" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="62" t="str">
-        <f>VLOOKUP(Currency,H4:I8,2)</f>
+        <f>VLOOKUP(Currency,G4:H8,2)</f>
         <v>AB</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
-      <c r="H8" s="192" t="s">
+      <c r="E8" s="57"/>
+      <c r="G8" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="193" t="s">
+      <c r="H8" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="82" t="s">
         <v>103</v>
@@ -2408,16 +2380,15 @@
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>EUR_YC1YRH</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
-      <c r="K9" s="196" t="s">
+      <c r="E9" s="57"/>
+      <c r="J9" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="199"/>
-    </row>
-    <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="205"/>
+    </row>
+    <row r="10" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
       <c r="C10" s="81" t="s">
         <v>102</v>
@@ -2425,33 +2396,31 @@
       <c r="D10" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
-      <c r="K10" s="115"/>
+      <c r="E10" s="57"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="112"/>
-    </row>
-    <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M10" s="112"/>
+    </row>
+    <row r="11" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
       <c r="C11" s="81" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="80">
-        <v>41663.63590277778</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="114" t="s">
+        <v>41684.573217592595</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="116" t="s">
+      <c r="L11" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="112"/>
-    </row>
-    <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
       <c r="C12" s="79" t="s">
         <v>100</v>
@@ -2459,33 +2428,31 @@
       <c r="D12" s="78" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="114" t="s">
+      <c r="E12" s="57"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="113" t="s">
+      <c r="L12" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="112"/>
-    </row>
-    <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M12" s="112"/>
+    </row>
+    <row r="13" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="61"/>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="114" t="s">
+      <c r="E13" s="57"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="L13" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="N13" s="112"/>
-    </row>
-    <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M13" s="112"/>
+    </row>
+    <row r="14" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
       <c r="C14" s="75" t="s">
         <v>99</v>
@@ -2494,18 +2461,17 @@
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
         <v>_EURYC1Y#0002</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="114" t="s">
+      <c r="E14" s="57"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="M14" s="116" t="s">
+      <c r="L14" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="N14" s="112"/>
-    </row>
-    <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M14" s="112"/>
+    </row>
+    <row r="15" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="61"/>
       <c r="C15" s="68" t="s">
         <v>80</v>
@@ -2514,19 +2480,18 @@
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="114" t="s">
+      <c r="E15" s="57"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="M15" s="113" t="str">
+      <c r="L15" s="113" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
         <v>EurYC</v>
       </c>
-      <c r="N15" s="112"/>
-    </row>
-    <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M15" s="112"/>
+    </row>
+    <row r="16" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
       <c r="C16" s="75" t="s">
         <v>98</v>
@@ -2535,19 +2500,18 @@
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_EURYC1Y</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="114" t="s">
+      <c r="E16" s="57"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="113" t="str">
+      <c r="L16" s="113" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
         <v>EurYCSTD</v>
       </c>
-      <c r="N16" s="112"/>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="112"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61"/>
       <c r="C17" s="70" t="s">
         <v>97</v>
@@ -2555,14 +2519,13 @@
       <c r="D17" s="73">
         <v>2</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
-      <c r="K17" s="111"/>
+      <c r="E17" s="57"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="109"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="109"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
       <c r="C18" s="70" t="s">
         <v>96</v>
@@ -2570,19 +2533,17 @@
       <c r="D18" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="72"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="61"/>
       <c r="C20" s="70" t="s">
         <v>93</v>
@@ -2591,10 +2552,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="70" t="s">
         <v>92</v>
@@ -2602,10 +2562,9 @@
       <c r="D21" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="57"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="61"/>
       <c r="C22" s="68" t="s">
         <v>90</v>
@@ -2613,43 +2572,39 @@
       <c r="D22" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
       <c r="C24" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="D24" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
         <v>1</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="D25" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18144476455874109</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0.18144476455568445</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="61"/>
       <c r="C26" s="60" t="s">
         <v>80</v>
@@ -2658,45 +2613,43 @@
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-    </row>
-    <row r="27" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="57"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="56"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22 IZ22 SV22 ACR22 AMN22 AWJ22 BGF22 BQB22 BZX22 CJT22 CTP22 DDL22 DNH22 DXD22 EGZ22 EQV22 FAR22 FKN22 FUJ22 GEF22 GOB22 GXX22 HHT22 HRP22 IBL22 ILH22 IVD22 JEZ22 JOV22 JYR22 KIN22 KSJ22 LCF22 LMB22 LVX22 MFT22 MPP22 MZL22 NJH22 NTD22 OCZ22 OMV22 OWR22 PGN22 PQJ22 QAF22 QKB22 QTX22 RDT22 RNP22 RXL22 SHH22 SRD22 TAZ22 TKV22 TUR22 UEN22 UOJ22 UYF22 VIB22 VRX22 WBT22 WLP22 WVL22 D65558 IZ65558 SV65558 ACR65558 AMN65558 AWJ65558 BGF65558 BQB65558 BZX65558 CJT65558 CTP65558 DDL65558 DNH65558 DXD65558 EGZ65558 EQV65558 FAR65558 FKN65558 FUJ65558 GEF65558 GOB65558 GXX65558 HHT65558 HRP65558 IBL65558 ILH65558 IVD65558 JEZ65558 JOV65558 JYR65558 KIN65558 KSJ65558 LCF65558 LMB65558 LVX65558 MFT65558 MPP65558 MZL65558 NJH65558 NTD65558 OCZ65558 OMV65558 OWR65558 PGN65558 PQJ65558 QAF65558 QKB65558 QTX65558 RDT65558 RNP65558 RXL65558 SHH65558 SRD65558 TAZ65558 TKV65558 TUR65558 UEN65558 UOJ65558 UYF65558 VIB65558 VRX65558 WBT65558 WLP65558 WVL65558 D131094 IZ131094 SV131094 ACR131094 AMN131094 AWJ131094 BGF131094 BQB131094 BZX131094 CJT131094 CTP131094 DDL131094 DNH131094 DXD131094 EGZ131094 EQV131094 FAR131094 FKN131094 FUJ131094 GEF131094 GOB131094 GXX131094 HHT131094 HRP131094 IBL131094 ILH131094 IVD131094 JEZ131094 JOV131094 JYR131094 KIN131094 KSJ131094 LCF131094 LMB131094 LVX131094 MFT131094 MPP131094 MZL131094 NJH131094 NTD131094 OCZ131094 OMV131094 OWR131094 PGN131094 PQJ131094 QAF131094 QKB131094 QTX131094 RDT131094 RNP131094 RXL131094 SHH131094 SRD131094 TAZ131094 TKV131094 TUR131094 UEN131094 UOJ131094 UYF131094 VIB131094 VRX131094 WBT131094 WLP131094 WVL131094 D196630 IZ196630 SV196630 ACR196630 AMN196630 AWJ196630 BGF196630 BQB196630 BZX196630 CJT196630 CTP196630 DDL196630 DNH196630 DXD196630 EGZ196630 EQV196630 FAR196630 FKN196630 FUJ196630 GEF196630 GOB196630 GXX196630 HHT196630 HRP196630 IBL196630 ILH196630 IVD196630 JEZ196630 JOV196630 JYR196630 KIN196630 KSJ196630 LCF196630 LMB196630 LVX196630 MFT196630 MPP196630 MZL196630 NJH196630 NTD196630 OCZ196630 OMV196630 OWR196630 PGN196630 PQJ196630 QAF196630 QKB196630 QTX196630 RDT196630 RNP196630 RXL196630 SHH196630 SRD196630 TAZ196630 TKV196630 TUR196630 UEN196630 UOJ196630 UYF196630 VIB196630 VRX196630 WBT196630 WLP196630 WVL196630 D262166 IZ262166 SV262166 ACR262166 AMN262166 AWJ262166 BGF262166 BQB262166 BZX262166 CJT262166 CTP262166 DDL262166 DNH262166 DXD262166 EGZ262166 EQV262166 FAR262166 FKN262166 FUJ262166 GEF262166 GOB262166 GXX262166 HHT262166 HRP262166 IBL262166 ILH262166 IVD262166 JEZ262166 JOV262166 JYR262166 KIN262166 KSJ262166 LCF262166 LMB262166 LVX262166 MFT262166 MPP262166 MZL262166 NJH262166 NTD262166 OCZ262166 OMV262166 OWR262166 PGN262166 PQJ262166 QAF262166 QKB262166 QTX262166 RDT262166 RNP262166 RXL262166 SHH262166 SRD262166 TAZ262166 TKV262166 TUR262166 UEN262166 UOJ262166 UYF262166 VIB262166 VRX262166 WBT262166 WLP262166 WVL262166 D327702 IZ327702 SV327702 ACR327702 AMN327702 AWJ327702 BGF327702 BQB327702 BZX327702 CJT327702 CTP327702 DDL327702 DNH327702 DXD327702 EGZ327702 EQV327702 FAR327702 FKN327702 FUJ327702 GEF327702 GOB327702 GXX327702 HHT327702 HRP327702 IBL327702 ILH327702 IVD327702 JEZ327702 JOV327702 JYR327702 KIN327702 KSJ327702 LCF327702 LMB327702 LVX327702 MFT327702 MPP327702 MZL327702 NJH327702 NTD327702 OCZ327702 OMV327702 OWR327702 PGN327702 PQJ327702 QAF327702 QKB327702 QTX327702 RDT327702 RNP327702 RXL327702 SHH327702 SRD327702 TAZ327702 TKV327702 TUR327702 UEN327702 UOJ327702 UYF327702 VIB327702 VRX327702 WBT327702 WLP327702 WVL327702 D393238 IZ393238 SV393238 ACR393238 AMN393238 AWJ393238 BGF393238 BQB393238 BZX393238 CJT393238 CTP393238 DDL393238 DNH393238 DXD393238 EGZ393238 EQV393238 FAR393238 FKN393238 FUJ393238 GEF393238 GOB393238 GXX393238 HHT393238 HRP393238 IBL393238 ILH393238 IVD393238 JEZ393238 JOV393238 JYR393238 KIN393238 KSJ393238 LCF393238 LMB393238 LVX393238 MFT393238 MPP393238 MZL393238 NJH393238 NTD393238 OCZ393238 OMV393238 OWR393238 PGN393238 PQJ393238 QAF393238 QKB393238 QTX393238 RDT393238 RNP393238 RXL393238 SHH393238 SRD393238 TAZ393238 TKV393238 TUR393238 UEN393238 UOJ393238 UYF393238 VIB393238 VRX393238 WBT393238 WLP393238 WVL393238 D458774 IZ458774 SV458774 ACR458774 AMN458774 AWJ458774 BGF458774 BQB458774 BZX458774 CJT458774 CTP458774 DDL458774 DNH458774 DXD458774 EGZ458774 EQV458774 FAR458774 FKN458774 FUJ458774 GEF458774 GOB458774 GXX458774 HHT458774 HRP458774 IBL458774 ILH458774 IVD458774 JEZ458774 JOV458774 JYR458774 KIN458774 KSJ458774 LCF458774 LMB458774 LVX458774 MFT458774 MPP458774 MZL458774 NJH458774 NTD458774 OCZ458774 OMV458774 OWR458774 PGN458774 PQJ458774 QAF458774 QKB458774 QTX458774 RDT458774 RNP458774 RXL458774 SHH458774 SRD458774 TAZ458774 TKV458774 TUR458774 UEN458774 UOJ458774 UYF458774 VIB458774 VRX458774 WBT458774 WLP458774 WVL458774 D524310 IZ524310 SV524310 ACR524310 AMN524310 AWJ524310 BGF524310 BQB524310 BZX524310 CJT524310 CTP524310 DDL524310 DNH524310 DXD524310 EGZ524310 EQV524310 FAR524310 FKN524310 FUJ524310 GEF524310 GOB524310 GXX524310 HHT524310 HRP524310 IBL524310 ILH524310 IVD524310 JEZ524310 JOV524310 JYR524310 KIN524310 KSJ524310 LCF524310 LMB524310 LVX524310 MFT524310 MPP524310 MZL524310 NJH524310 NTD524310 OCZ524310 OMV524310 OWR524310 PGN524310 PQJ524310 QAF524310 QKB524310 QTX524310 RDT524310 RNP524310 RXL524310 SHH524310 SRD524310 TAZ524310 TKV524310 TUR524310 UEN524310 UOJ524310 UYF524310 VIB524310 VRX524310 WBT524310 WLP524310 WVL524310 D589846 IZ589846 SV589846 ACR589846 AMN589846 AWJ589846 BGF589846 BQB589846 BZX589846 CJT589846 CTP589846 DDL589846 DNH589846 DXD589846 EGZ589846 EQV589846 FAR589846 FKN589846 FUJ589846 GEF589846 GOB589846 GXX589846 HHT589846 HRP589846 IBL589846 ILH589846 IVD589846 JEZ589846 JOV589846 JYR589846 KIN589846 KSJ589846 LCF589846 LMB589846 LVX589846 MFT589846 MPP589846 MZL589846 NJH589846 NTD589846 OCZ589846 OMV589846 OWR589846 PGN589846 PQJ589846 QAF589846 QKB589846 QTX589846 RDT589846 RNP589846 RXL589846 SHH589846 SRD589846 TAZ589846 TKV589846 TUR589846 UEN589846 UOJ589846 UYF589846 VIB589846 VRX589846 WBT589846 WLP589846 WVL589846 D655382 IZ655382 SV655382 ACR655382 AMN655382 AWJ655382 BGF655382 BQB655382 BZX655382 CJT655382 CTP655382 DDL655382 DNH655382 DXD655382 EGZ655382 EQV655382 FAR655382 FKN655382 FUJ655382 GEF655382 GOB655382 GXX655382 HHT655382 HRP655382 IBL655382 ILH655382 IVD655382 JEZ655382 JOV655382 JYR655382 KIN655382 KSJ655382 LCF655382 LMB655382 LVX655382 MFT655382 MPP655382 MZL655382 NJH655382 NTD655382 OCZ655382 OMV655382 OWR655382 PGN655382 PQJ655382 QAF655382 QKB655382 QTX655382 RDT655382 RNP655382 RXL655382 SHH655382 SRD655382 TAZ655382 TKV655382 TUR655382 UEN655382 UOJ655382 UYF655382 VIB655382 VRX655382 WBT655382 WLP655382 WVL655382 D720918 IZ720918 SV720918 ACR720918 AMN720918 AWJ720918 BGF720918 BQB720918 BZX720918 CJT720918 CTP720918 DDL720918 DNH720918 DXD720918 EGZ720918 EQV720918 FAR720918 FKN720918 FUJ720918 GEF720918 GOB720918 GXX720918 HHT720918 HRP720918 IBL720918 ILH720918 IVD720918 JEZ720918 JOV720918 JYR720918 KIN720918 KSJ720918 LCF720918 LMB720918 LVX720918 MFT720918 MPP720918 MZL720918 NJH720918 NTD720918 OCZ720918 OMV720918 OWR720918 PGN720918 PQJ720918 QAF720918 QKB720918 QTX720918 RDT720918 RNP720918 RXL720918 SHH720918 SRD720918 TAZ720918 TKV720918 TUR720918 UEN720918 UOJ720918 UYF720918 VIB720918 VRX720918 WBT720918 WLP720918 WVL720918 D786454 IZ786454 SV786454 ACR786454 AMN786454 AWJ786454 BGF786454 BQB786454 BZX786454 CJT786454 CTP786454 DDL786454 DNH786454 DXD786454 EGZ786454 EQV786454 FAR786454 FKN786454 FUJ786454 GEF786454 GOB786454 GXX786454 HHT786454 HRP786454 IBL786454 ILH786454 IVD786454 JEZ786454 JOV786454 JYR786454 KIN786454 KSJ786454 LCF786454 LMB786454 LVX786454 MFT786454 MPP786454 MZL786454 NJH786454 NTD786454 OCZ786454 OMV786454 OWR786454 PGN786454 PQJ786454 QAF786454 QKB786454 QTX786454 RDT786454 RNP786454 RXL786454 SHH786454 SRD786454 TAZ786454 TKV786454 TUR786454 UEN786454 UOJ786454 UYF786454 VIB786454 VRX786454 WBT786454 WLP786454 WVL786454 D851990 IZ851990 SV851990 ACR851990 AMN851990 AWJ851990 BGF851990 BQB851990 BZX851990 CJT851990 CTP851990 DDL851990 DNH851990 DXD851990 EGZ851990 EQV851990 FAR851990 FKN851990 FUJ851990 GEF851990 GOB851990 GXX851990 HHT851990 HRP851990 IBL851990 ILH851990 IVD851990 JEZ851990 JOV851990 JYR851990 KIN851990 KSJ851990 LCF851990 LMB851990 LVX851990 MFT851990 MPP851990 MZL851990 NJH851990 NTD851990 OCZ851990 OMV851990 OWR851990 PGN851990 PQJ851990 QAF851990 QKB851990 QTX851990 RDT851990 RNP851990 RXL851990 SHH851990 SRD851990 TAZ851990 TKV851990 TUR851990 UEN851990 UOJ851990 UYF851990 VIB851990 VRX851990 WBT851990 WLP851990 WVL851990 D917526 IZ917526 SV917526 ACR917526 AMN917526 AWJ917526 BGF917526 BQB917526 BZX917526 CJT917526 CTP917526 DDL917526 DNH917526 DXD917526 EGZ917526 EQV917526 FAR917526 FKN917526 FUJ917526 GEF917526 GOB917526 GXX917526 HHT917526 HRP917526 IBL917526 ILH917526 IVD917526 JEZ917526 JOV917526 JYR917526 KIN917526 KSJ917526 LCF917526 LMB917526 LVX917526 MFT917526 MPP917526 MZL917526 NJH917526 NTD917526 OCZ917526 OMV917526 OWR917526 PGN917526 PQJ917526 QAF917526 QKB917526 QTX917526 RDT917526 RNP917526 RXL917526 SHH917526 SRD917526 TAZ917526 TKV917526 TUR917526 UEN917526 UOJ917526 UYF917526 VIB917526 VRX917526 WBT917526 WLP917526 WVL917526 D983062 IZ983062 SV983062 ACR983062 AMN983062 AWJ983062 BGF983062 BQB983062 BZX983062 CJT983062 CTP983062 DDL983062 DNH983062 DXD983062 EGZ983062 EQV983062 FAR983062 FKN983062 FUJ983062 GEF983062 GOB983062 GXX983062 HHT983062 HRP983062 IBL983062 ILH983062 IVD983062 JEZ983062 JOV983062 JYR983062 KIN983062 KSJ983062 LCF983062 LMB983062 LVX983062 MFT983062 MPP983062 MZL983062 NJH983062 NTD983062 OCZ983062 OMV983062 OWR983062 PGN983062 PQJ983062 QAF983062 QKB983062 QTX983062 RDT983062 RNP983062 RXL983062 SHH983062 SRD983062 TAZ983062 TKV983062 TUR983062 UEN983062 UOJ983062 UYF983062 VIB983062 VRX983062 WBT983062 WLP983062 WVL983062">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22 IY22 SU22 ACQ22 AMM22 AWI22 BGE22 BQA22 BZW22 CJS22 CTO22 DDK22 DNG22 DXC22 EGY22 EQU22 FAQ22 FKM22 FUI22 GEE22 GOA22 GXW22 HHS22 HRO22 IBK22 ILG22 IVC22 JEY22 JOU22 JYQ22 KIM22 KSI22 LCE22 LMA22 LVW22 MFS22 MPO22 MZK22 NJG22 NTC22 OCY22 OMU22 OWQ22 PGM22 PQI22 QAE22 QKA22 QTW22 RDS22 RNO22 RXK22 SHG22 SRC22 TAY22 TKU22 TUQ22 UEM22 UOI22 UYE22 VIA22 VRW22 WBS22 WLO22 WVK22 D65558 IY65558 SU65558 ACQ65558 AMM65558 AWI65558 BGE65558 BQA65558 BZW65558 CJS65558 CTO65558 DDK65558 DNG65558 DXC65558 EGY65558 EQU65558 FAQ65558 FKM65558 FUI65558 GEE65558 GOA65558 GXW65558 HHS65558 HRO65558 IBK65558 ILG65558 IVC65558 JEY65558 JOU65558 JYQ65558 KIM65558 KSI65558 LCE65558 LMA65558 LVW65558 MFS65558 MPO65558 MZK65558 NJG65558 NTC65558 OCY65558 OMU65558 OWQ65558 PGM65558 PQI65558 QAE65558 QKA65558 QTW65558 RDS65558 RNO65558 RXK65558 SHG65558 SRC65558 TAY65558 TKU65558 TUQ65558 UEM65558 UOI65558 UYE65558 VIA65558 VRW65558 WBS65558 WLO65558 WVK65558 D131094 IY131094 SU131094 ACQ131094 AMM131094 AWI131094 BGE131094 BQA131094 BZW131094 CJS131094 CTO131094 DDK131094 DNG131094 DXC131094 EGY131094 EQU131094 FAQ131094 FKM131094 FUI131094 GEE131094 GOA131094 GXW131094 HHS131094 HRO131094 IBK131094 ILG131094 IVC131094 JEY131094 JOU131094 JYQ131094 KIM131094 KSI131094 LCE131094 LMA131094 LVW131094 MFS131094 MPO131094 MZK131094 NJG131094 NTC131094 OCY131094 OMU131094 OWQ131094 PGM131094 PQI131094 QAE131094 QKA131094 QTW131094 RDS131094 RNO131094 RXK131094 SHG131094 SRC131094 TAY131094 TKU131094 TUQ131094 UEM131094 UOI131094 UYE131094 VIA131094 VRW131094 WBS131094 WLO131094 WVK131094 D196630 IY196630 SU196630 ACQ196630 AMM196630 AWI196630 BGE196630 BQA196630 BZW196630 CJS196630 CTO196630 DDK196630 DNG196630 DXC196630 EGY196630 EQU196630 FAQ196630 FKM196630 FUI196630 GEE196630 GOA196630 GXW196630 HHS196630 HRO196630 IBK196630 ILG196630 IVC196630 JEY196630 JOU196630 JYQ196630 KIM196630 KSI196630 LCE196630 LMA196630 LVW196630 MFS196630 MPO196630 MZK196630 NJG196630 NTC196630 OCY196630 OMU196630 OWQ196630 PGM196630 PQI196630 QAE196630 QKA196630 QTW196630 RDS196630 RNO196630 RXK196630 SHG196630 SRC196630 TAY196630 TKU196630 TUQ196630 UEM196630 UOI196630 UYE196630 VIA196630 VRW196630 WBS196630 WLO196630 WVK196630 D262166 IY262166 SU262166 ACQ262166 AMM262166 AWI262166 BGE262166 BQA262166 BZW262166 CJS262166 CTO262166 DDK262166 DNG262166 DXC262166 EGY262166 EQU262166 FAQ262166 FKM262166 FUI262166 GEE262166 GOA262166 GXW262166 HHS262166 HRO262166 IBK262166 ILG262166 IVC262166 JEY262166 JOU262166 JYQ262166 KIM262166 KSI262166 LCE262166 LMA262166 LVW262166 MFS262166 MPO262166 MZK262166 NJG262166 NTC262166 OCY262166 OMU262166 OWQ262166 PGM262166 PQI262166 QAE262166 QKA262166 QTW262166 RDS262166 RNO262166 RXK262166 SHG262166 SRC262166 TAY262166 TKU262166 TUQ262166 UEM262166 UOI262166 UYE262166 VIA262166 VRW262166 WBS262166 WLO262166 WVK262166 D327702 IY327702 SU327702 ACQ327702 AMM327702 AWI327702 BGE327702 BQA327702 BZW327702 CJS327702 CTO327702 DDK327702 DNG327702 DXC327702 EGY327702 EQU327702 FAQ327702 FKM327702 FUI327702 GEE327702 GOA327702 GXW327702 HHS327702 HRO327702 IBK327702 ILG327702 IVC327702 JEY327702 JOU327702 JYQ327702 KIM327702 KSI327702 LCE327702 LMA327702 LVW327702 MFS327702 MPO327702 MZK327702 NJG327702 NTC327702 OCY327702 OMU327702 OWQ327702 PGM327702 PQI327702 QAE327702 QKA327702 QTW327702 RDS327702 RNO327702 RXK327702 SHG327702 SRC327702 TAY327702 TKU327702 TUQ327702 UEM327702 UOI327702 UYE327702 VIA327702 VRW327702 WBS327702 WLO327702 WVK327702 D393238 IY393238 SU393238 ACQ393238 AMM393238 AWI393238 BGE393238 BQA393238 BZW393238 CJS393238 CTO393238 DDK393238 DNG393238 DXC393238 EGY393238 EQU393238 FAQ393238 FKM393238 FUI393238 GEE393238 GOA393238 GXW393238 HHS393238 HRO393238 IBK393238 ILG393238 IVC393238 JEY393238 JOU393238 JYQ393238 KIM393238 KSI393238 LCE393238 LMA393238 LVW393238 MFS393238 MPO393238 MZK393238 NJG393238 NTC393238 OCY393238 OMU393238 OWQ393238 PGM393238 PQI393238 QAE393238 QKA393238 QTW393238 RDS393238 RNO393238 RXK393238 SHG393238 SRC393238 TAY393238 TKU393238 TUQ393238 UEM393238 UOI393238 UYE393238 VIA393238 VRW393238 WBS393238 WLO393238 WVK393238 D458774 IY458774 SU458774 ACQ458774 AMM458774 AWI458774 BGE458774 BQA458774 BZW458774 CJS458774 CTO458774 DDK458774 DNG458774 DXC458774 EGY458774 EQU458774 FAQ458774 FKM458774 FUI458774 GEE458774 GOA458774 GXW458774 HHS458774 HRO458774 IBK458774 ILG458774 IVC458774 JEY458774 JOU458774 JYQ458774 KIM458774 KSI458774 LCE458774 LMA458774 LVW458774 MFS458774 MPO458774 MZK458774 NJG458774 NTC458774 OCY458774 OMU458774 OWQ458774 PGM458774 PQI458774 QAE458774 QKA458774 QTW458774 RDS458774 RNO458774 RXK458774 SHG458774 SRC458774 TAY458774 TKU458774 TUQ458774 UEM458774 UOI458774 UYE458774 VIA458774 VRW458774 WBS458774 WLO458774 WVK458774 D524310 IY524310 SU524310 ACQ524310 AMM524310 AWI524310 BGE524310 BQA524310 BZW524310 CJS524310 CTO524310 DDK524310 DNG524310 DXC524310 EGY524310 EQU524310 FAQ524310 FKM524310 FUI524310 GEE524310 GOA524310 GXW524310 HHS524310 HRO524310 IBK524310 ILG524310 IVC524310 JEY524310 JOU524310 JYQ524310 KIM524310 KSI524310 LCE524310 LMA524310 LVW524310 MFS524310 MPO524310 MZK524310 NJG524310 NTC524310 OCY524310 OMU524310 OWQ524310 PGM524310 PQI524310 QAE524310 QKA524310 QTW524310 RDS524310 RNO524310 RXK524310 SHG524310 SRC524310 TAY524310 TKU524310 TUQ524310 UEM524310 UOI524310 UYE524310 VIA524310 VRW524310 WBS524310 WLO524310 WVK524310 D589846 IY589846 SU589846 ACQ589846 AMM589846 AWI589846 BGE589846 BQA589846 BZW589846 CJS589846 CTO589846 DDK589846 DNG589846 DXC589846 EGY589846 EQU589846 FAQ589846 FKM589846 FUI589846 GEE589846 GOA589846 GXW589846 HHS589846 HRO589846 IBK589846 ILG589846 IVC589846 JEY589846 JOU589846 JYQ589846 KIM589846 KSI589846 LCE589846 LMA589846 LVW589846 MFS589846 MPO589846 MZK589846 NJG589846 NTC589846 OCY589846 OMU589846 OWQ589846 PGM589846 PQI589846 QAE589846 QKA589846 QTW589846 RDS589846 RNO589846 RXK589846 SHG589846 SRC589846 TAY589846 TKU589846 TUQ589846 UEM589846 UOI589846 UYE589846 VIA589846 VRW589846 WBS589846 WLO589846 WVK589846 D655382 IY655382 SU655382 ACQ655382 AMM655382 AWI655382 BGE655382 BQA655382 BZW655382 CJS655382 CTO655382 DDK655382 DNG655382 DXC655382 EGY655382 EQU655382 FAQ655382 FKM655382 FUI655382 GEE655382 GOA655382 GXW655382 HHS655382 HRO655382 IBK655382 ILG655382 IVC655382 JEY655382 JOU655382 JYQ655382 KIM655382 KSI655382 LCE655382 LMA655382 LVW655382 MFS655382 MPO655382 MZK655382 NJG655382 NTC655382 OCY655382 OMU655382 OWQ655382 PGM655382 PQI655382 QAE655382 QKA655382 QTW655382 RDS655382 RNO655382 RXK655382 SHG655382 SRC655382 TAY655382 TKU655382 TUQ655382 UEM655382 UOI655382 UYE655382 VIA655382 VRW655382 WBS655382 WLO655382 WVK655382 D720918 IY720918 SU720918 ACQ720918 AMM720918 AWI720918 BGE720918 BQA720918 BZW720918 CJS720918 CTO720918 DDK720918 DNG720918 DXC720918 EGY720918 EQU720918 FAQ720918 FKM720918 FUI720918 GEE720918 GOA720918 GXW720918 HHS720918 HRO720918 IBK720918 ILG720918 IVC720918 JEY720918 JOU720918 JYQ720918 KIM720918 KSI720918 LCE720918 LMA720918 LVW720918 MFS720918 MPO720918 MZK720918 NJG720918 NTC720918 OCY720918 OMU720918 OWQ720918 PGM720918 PQI720918 QAE720918 QKA720918 QTW720918 RDS720918 RNO720918 RXK720918 SHG720918 SRC720918 TAY720918 TKU720918 TUQ720918 UEM720918 UOI720918 UYE720918 VIA720918 VRW720918 WBS720918 WLO720918 WVK720918 D786454 IY786454 SU786454 ACQ786454 AMM786454 AWI786454 BGE786454 BQA786454 BZW786454 CJS786454 CTO786454 DDK786454 DNG786454 DXC786454 EGY786454 EQU786454 FAQ786454 FKM786454 FUI786454 GEE786454 GOA786454 GXW786454 HHS786454 HRO786454 IBK786454 ILG786454 IVC786454 JEY786454 JOU786454 JYQ786454 KIM786454 KSI786454 LCE786454 LMA786454 LVW786454 MFS786454 MPO786454 MZK786454 NJG786454 NTC786454 OCY786454 OMU786454 OWQ786454 PGM786454 PQI786454 QAE786454 QKA786454 QTW786454 RDS786454 RNO786454 RXK786454 SHG786454 SRC786454 TAY786454 TKU786454 TUQ786454 UEM786454 UOI786454 UYE786454 VIA786454 VRW786454 WBS786454 WLO786454 WVK786454 D851990 IY851990 SU851990 ACQ851990 AMM851990 AWI851990 BGE851990 BQA851990 BZW851990 CJS851990 CTO851990 DDK851990 DNG851990 DXC851990 EGY851990 EQU851990 FAQ851990 FKM851990 FUI851990 GEE851990 GOA851990 GXW851990 HHS851990 HRO851990 IBK851990 ILG851990 IVC851990 JEY851990 JOU851990 JYQ851990 KIM851990 KSI851990 LCE851990 LMA851990 LVW851990 MFS851990 MPO851990 MZK851990 NJG851990 NTC851990 OCY851990 OMU851990 OWQ851990 PGM851990 PQI851990 QAE851990 QKA851990 QTW851990 RDS851990 RNO851990 RXK851990 SHG851990 SRC851990 TAY851990 TKU851990 TUQ851990 UEM851990 UOI851990 UYE851990 VIA851990 VRW851990 WBS851990 WLO851990 WVK851990 D917526 IY917526 SU917526 ACQ917526 AMM917526 AWI917526 BGE917526 BQA917526 BZW917526 CJS917526 CTO917526 DDK917526 DNG917526 DXC917526 EGY917526 EQU917526 FAQ917526 FKM917526 FUI917526 GEE917526 GOA917526 GXW917526 HHS917526 HRO917526 IBK917526 ILG917526 IVC917526 JEY917526 JOU917526 JYQ917526 KIM917526 KSI917526 LCE917526 LMA917526 LVW917526 MFS917526 MPO917526 MZK917526 NJG917526 NTC917526 OCY917526 OMU917526 OWQ917526 PGM917526 PQI917526 QAE917526 QKA917526 QTW917526 RDS917526 RNO917526 RXK917526 SHG917526 SRC917526 TAY917526 TKU917526 TUQ917526 UEM917526 UOI917526 UYE917526 VIA917526 VRW917526 WBS917526 WLO917526 WVK917526 D983062 IY983062 SU983062 ACQ983062 AMM983062 AWI983062 BGE983062 BQA983062 BZW983062 CJS983062 CTO983062 DDK983062 DNG983062 DXC983062 EGY983062 EQU983062 FAQ983062 FKM983062 FUI983062 GEE983062 GOA983062 GXW983062 HHS983062 HRO983062 IBK983062 ILG983062 IVC983062 JEY983062 JOU983062 JYQ983062 KIM983062 KSI983062 LCE983062 LMA983062 LVW983062 MFS983062 MPO983062 MZK983062 NJG983062 NTC983062 OCY983062 OMU983062 OWQ983062 PGM983062 PQI983062 QAE983062 QKA983062 QTW983062 RDS983062 RNO983062 RXK983062 SHG983062 SRC983062 TAY983062 TKU983062 TUQ983062 UEM983062 UOI983062 UYE983062 VIA983062 VRW983062 WBS983062 WLO983062 WVK983062">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 IZ6 SV6 ACR6 AMN6 AWJ6 BGF6 BQB6 BZX6 CJT6 CTP6 DDL6 DNH6 DXD6 EGZ6 EQV6 FAR6 FKN6 FUJ6 GEF6 GOB6 GXX6 HHT6 HRP6 IBL6 ILH6 IVD6 JEZ6 JOV6 JYR6 KIN6 KSJ6 LCF6 LMB6 LVX6 MFT6 MPP6 MZL6 NJH6 NTD6 OCZ6 OMV6 OWR6 PGN6 PQJ6 QAF6 QKB6 QTX6 RDT6 RNP6 RXL6 SHH6 SRD6 TAZ6 TKV6 TUR6 UEN6 UOJ6 UYF6 VIB6 VRX6 WBT6 WLP6 WVL6 D65542 IZ65542 SV65542 ACR65542 AMN65542 AWJ65542 BGF65542 BQB65542 BZX65542 CJT65542 CTP65542 DDL65542 DNH65542 DXD65542 EGZ65542 EQV65542 FAR65542 FKN65542 FUJ65542 GEF65542 GOB65542 GXX65542 HHT65542 HRP65542 IBL65542 ILH65542 IVD65542 JEZ65542 JOV65542 JYR65542 KIN65542 KSJ65542 LCF65542 LMB65542 LVX65542 MFT65542 MPP65542 MZL65542 NJH65542 NTD65542 OCZ65542 OMV65542 OWR65542 PGN65542 PQJ65542 QAF65542 QKB65542 QTX65542 RDT65542 RNP65542 RXL65542 SHH65542 SRD65542 TAZ65542 TKV65542 TUR65542 UEN65542 UOJ65542 UYF65542 VIB65542 VRX65542 WBT65542 WLP65542 WVL65542 D131078 IZ131078 SV131078 ACR131078 AMN131078 AWJ131078 BGF131078 BQB131078 BZX131078 CJT131078 CTP131078 DDL131078 DNH131078 DXD131078 EGZ131078 EQV131078 FAR131078 FKN131078 FUJ131078 GEF131078 GOB131078 GXX131078 HHT131078 HRP131078 IBL131078 ILH131078 IVD131078 JEZ131078 JOV131078 JYR131078 KIN131078 KSJ131078 LCF131078 LMB131078 LVX131078 MFT131078 MPP131078 MZL131078 NJH131078 NTD131078 OCZ131078 OMV131078 OWR131078 PGN131078 PQJ131078 QAF131078 QKB131078 QTX131078 RDT131078 RNP131078 RXL131078 SHH131078 SRD131078 TAZ131078 TKV131078 TUR131078 UEN131078 UOJ131078 UYF131078 VIB131078 VRX131078 WBT131078 WLP131078 WVL131078 D196614 IZ196614 SV196614 ACR196614 AMN196614 AWJ196614 BGF196614 BQB196614 BZX196614 CJT196614 CTP196614 DDL196614 DNH196614 DXD196614 EGZ196614 EQV196614 FAR196614 FKN196614 FUJ196614 GEF196614 GOB196614 GXX196614 HHT196614 HRP196614 IBL196614 ILH196614 IVD196614 JEZ196614 JOV196614 JYR196614 KIN196614 KSJ196614 LCF196614 LMB196614 LVX196614 MFT196614 MPP196614 MZL196614 NJH196614 NTD196614 OCZ196614 OMV196614 OWR196614 PGN196614 PQJ196614 QAF196614 QKB196614 QTX196614 RDT196614 RNP196614 RXL196614 SHH196614 SRD196614 TAZ196614 TKV196614 TUR196614 UEN196614 UOJ196614 UYF196614 VIB196614 VRX196614 WBT196614 WLP196614 WVL196614 D262150 IZ262150 SV262150 ACR262150 AMN262150 AWJ262150 BGF262150 BQB262150 BZX262150 CJT262150 CTP262150 DDL262150 DNH262150 DXD262150 EGZ262150 EQV262150 FAR262150 FKN262150 FUJ262150 GEF262150 GOB262150 GXX262150 HHT262150 HRP262150 IBL262150 ILH262150 IVD262150 JEZ262150 JOV262150 JYR262150 KIN262150 KSJ262150 LCF262150 LMB262150 LVX262150 MFT262150 MPP262150 MZL262150 NJH262150 NTD262150 OCZ262150 OMV262150 OWR262150 PGN262150 PQJ262150 QAF262150 QKB262150 QTX262150 RDT262150 RNP262150 RXL262150 SHH262150 SRD262150 TAZ262150 TKV262150 TUR262150 UEN262150 UOJ262150 UYF262150 VIB262150 VRX262150 WBT262150 WLP262150 WVL262150 D327686 IZ327686 SV327686 ACR327686 AMN327686 AWJ327686 BGF327686 BQB327686 BZX327686 CJT327686 CTP327686 DDL327686 DNH327686 DXD327686 EGZ327686 EQV327686 FAR327686 FKN327686 FUJ327686 GEF327686 GOB327686 GXX327686 HHT327686 HRP327686 IBL327686 ILH327686 IVD327686 JEZ327686 JOV327686 JYR327686 KIN327686 KSJ327686 LCF327686 LMB327686 LVX327686 MFT327686 MPP327686 MZL327686 NJH327686 NTD327686 OCZ327686 OMV327686 OWR327686 PGN327686 PQJ327686 QAF327686 QKB327686 QTX327686 RDT327686 RNP327686 RXL327686 SHH327686 SRD327686 TAZ327686 TKV327686 TUR327686 UEN327686 UOJ327686 UYF327686 VIB327686 VRX327686 WBT327686 WLP327686 WVL327686 D393222 IZ393222 SV393222 ACR393222 AMN393222 AWJ393222 BGF393222 BQB393222 BZX393222 CJT393222 CTP393222 DDL393222 DNH393222 DXD393222 EGZ393222 EQV393222 FAR393222 FKN393222 FUJ393222 GEF393222 GOB393222 GXX393222 HHT393222 HRP393222 IBL393222 ILH393222 IVD393222 JEZ393222 JOV393222 JYR393222 KIN393222 KSJ393222 LCF393222 LMB393222 LVX393222 MFT393222 MPP393222 MZL393222 NJH393222 NTD393222 OCZ393222 OMV393222 OWR393222 PGN393222 PQJ393222 QAF393222 QKB393222 QTX393222 RDT393222 RNP393222 RXL393222 SHH393222 SRD393222 TAZ393222 TKV393222 TUR393222 UEN393222 UOJ393222 UYF393222 VIB393222 VRX393222 WBT393222 WLP393222 WVL393222 D458758 IZ458758 SV458758 ACR458758 AMN458758 AWJ458758 BGF458758 BQB458758 BZX458758 CJT458758 CTP458758 DDL458758 DNH458758 DXD458758 EGZ458758 EQV458758 FAR458758 FKN458758 FUJ458758 GEF458758 GOB458758 GXX458758 HHT458758 HRP458758 IBL458758 ILH458758 IVD458758 JEZ458758 JOV458758 JYR458758 KIN458758 KSJ458758 LCF458758 LMB458758 LVX458758 MFT458758 MPP458758 MZL458758 NJH458758 NTD458758 OCZ458758 OMV458758 OWR458758 PGN458758 PQJ458758 QAF458758 QKB458758 QTX458758 RDT458758 RNP458758 RXL458758 SHH458758 SRD458758 TAZ458758 TKV458758 TUR458758 UEN458758 UOJ458758 UYF458758 VIB458758 VRX458758 WBT458758 WLP458758 WVL458758 D524294 IZ524294 SV524294 ACR524294 AMN524294 AWJ524294 BGF524294 BQB524294 BZX524294 CJT524294 CTP524294 DDL524294 DNH524294 DXD524294 EGZ524294 EQV524294 FAR524294 FKN524294 FUJ524294 GEF524294 GOB524294 GXX524294 HHT524294 HRP524294 IBL524294 ILH524294 IVD524294 JEZ524294 JOV524294 JYR524294 KIN524294 KSJ524294 LCF524294 LMB524294 LVX524294 MFT524294 MPP524294 MZL524294 NJH524294 NTD524294 OCZ524294 OMV524294 OWR524294 PGN524294 PQJ524294 QAF524294 QKB524294 QTX524294 RDT524294 RNP524294 RXL524294 SHH524294 SRD524294 TAZ524294 TKV524294 TUR524294 UEN524294 UOJ524294 UYF524294 VIB524294 VRX524294 WBT524294 WLP524294 WVL524294 D589830 IZ589830 SV589830 ACR589830 AMN589830 AWJ589830 BGF589830 BQB589830 BZX589830 CJT589830 CTP589830 DDL589830 DNH589830 DXD589830 EGZ589830 EQV589830 FAR589830 FKN589830 FUJ589830 GEF589830 GOB589830 GXX589830 HHT589830 HRP589830 IBL589830 ILH589830 IVD589830 JEZ589830 JOV589830 JYR589830 KIN589830 KSJ589830 LCF589830 LMB589830 LVX589830 MFT589830 MPP589830 MZL589830 NJH589830 NTD589830 OCZ589830 OMV589830 OWR589830 PGN589830 PQJ589830 QAF589830 QKB589830 QTX589830 RDT589830 RNP589830 RXL589830 SHH589830 SRD589830 TAZ589830 TKV589830 TUR589830 UEN589830 UOJ589830 UYF589830 VIB589830 VRX589830 WBT589830 WLP589830 WVL589830 D655366 IZ655366 SV655366 ACR655366 AMN655366 AWJ655366 BGF655366 BQB655366 BZX655366 CJT655366 CTP655366 DDL655366 DNH655366 DXD655366 EGZ655366 EQV655366 FAR655366 FKN655366 FUJ655366 GEF655366 GOB655366 GXX655366 HHT655366 HRP655366 IBL655366 ILH655366 IVD655366 JEZ655366 JOV655366 JYR655366 KIN655366 KSJ655366 LCF655366 LMB655366 LVX655366 MFT655366 MPP655366 MZL655366 NJH655366 NTD655366 OCZ655366 OMV655366 OWR655366 PGN655366 PQJ655366 QAF655366 QKB655366 QTX655366 RDT655366 RNP655366 RXL655366 SHH655366 SRD655366 TAZ655366 TKV655366 TUR655366 UEN655366 UOJ655366 UYF655366 VIB655366 VRX655366 WBT655366 WLP655366 WVL655366 D720902 IZ720902 SV720902 ACR720902 AMN720902 AWJ720902 BGF720902 BQB720902 BZX720902 CJT720902 CTP720902 DDL720902 DNH720902 DXD720902 EGZ720902 EQV720902 FAR720902 FKN720902 FUJ720902 GEF720902 GOB720902 GXX720902 HHT720902 HRP720902 IBL720902 ILH720902 IVD720902 JEZ720902 JOV720902 JYR720902 KIN720902 KSJ720902 LCF720902 LMB720902 LVX720902 MFT720902 MPP720902 MZL720902 NJH720902 NTD720902 OCZ720902 OMV720902 OWR720902 PGN720902 PQJ720902 QAF720902 QKB720902 QTX720902 RDT720902 RNP720902 RXL720902 SHH720902 SRD720902 TAZ720902 TKV720902 TUR720902 UEN720902 UOJ720902 UYF720902 VIB720902 VRX720902 WBT720902 WLP720902 WVL720902 D786438 IZ786438 SV786438 ACR786438 AMN786438 AWJ786438 BGF786438 BQB786438 BZX786438 CJT786438 CTP786438 DDL786438 DNH786438 DXD786438 EGZ786438 EQV786438 FAR786438 FKN786438 FUJ786438 GEF786438 GOB786438 GXX786438 HHT786438 HRP786438 IBL786438 ILH786438 IVD786438 JEZ786438 JOV786438 JYR786438 KIN786438 KSJ786438 LCF786438 LMB786438 LVX786438 MFT786438 MPP786438 MZL786438 NJH786438 NTD786438 OCZ786438 OMV786438 OWR786438 PGN786438 PQJ786438 QAF786438 QKB786438 QTX786438 RDT786438 RNP786438 RXL786438 SHH786438 SRD786438 TAZ786438 TKV786438 TUR786438 UEN786438 UOJ786438 UYF786438 VIB786438 VRX786438 WBT786438 WLP786438 WVL786438 D851974 IZ851974 SV851974 ACR851974 AMN851974 AWJ851974 BGF851974 BQB851974 BZX851974 CJT851974 CTP851974 DDL851974 DNH851974 DXD851974 EGZ851974 EQV851974 FAR851974 FKN851974 FUJ851974 GEF851974 GOB851974 GXX851974 HHT851974 HRP851974 IBL851974 ILH851974 IVD851974 JEZ851974 JOV851974 JYR851974 KIN851974 KSJ851974 LCF851974 LMB851974 LVX851974 MFT851974 MPP851974 MZL851974 NJH851974 NTD851974 OCZ851974 OMV851974 OWR851974 PGN851974 PQJ851974 QAF851974 QKB851974 QTX851974 RDT851974 RNP851974 RXL851974 SHH851974 SRD851974 TAZ851974 TKV851974 TUR851974 UEN851974 UOJ851974 UYF851974 VIB851974 VRX851974 WBT851974 WLP851974 WVL851974 D917510 IZ917510 SV917510 ACR917510 AMN917510 AWJ917510 BGF917510 BQB917510 BZX917510 CJT917510 CTP917510 DDL917510 DNH917510 DXD917510 EGZ917510 EQV917510 FAR917510 FKN917510 FUJ917510 GEF917510 GOB917510 GXX917510 HHT917510 HRP917510 IBL917510 ILH917510 IVD917510 JEZ917510 JOV917510 JYR917510 KIN917510 KSJ917510 LCF917510 LMB917510 LVX917510 MFT917510 MPP917510 MZL917510 NJH917510 NTD917510 OCZ917510 OMV917510 OWR917510 PGN917510 PQJ917510 QAF917510 QKB917510 QTX917510 RDT917510 RNP917510 RXL917510 SHH917510 SRD917510 TAZ917510 TKV917510 TUR917510 UEN917510 UOJ917510 UYF917510 VIB917510 VRX917510 WBT917510 WLP917510 WVL917510 D983046 IZ983046 SV983046 ACR983046 AMN983046 AWJ983046 BGF983046 BQB983046 BZX983046 CJT983046 CTP983046 DDL983046 DNH983046 DXD983046 EGZ983046 EQV983046 FAR983046 FKN983046 FUJ983046 GEF983046 GOB983046 GXX983046 HHT983046 HRP983046 IBL983046 ILH983046 IVD983046 JEZ983046 JOV983046 JYR983046 KIN983046 KSJ983046 LCF983046 LMB983046 LVX983046 MFT983046 MPP983046 MZL983046 NJH983046 NTD983046 OCZ983046 OMV983046 OWR983046 PGN983046 PQJ983046 QAF983046 QKB983046 QTX983046 RDT983046 RNP983046 RXL983046 SHH983046 SRD983046 TAZ983046 TKV983046 TUR983046 UEN983046 UOJ983046 UYF983046 VIB983046 VRX983046 WBT983046 WLP983046 WVL983046">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 IY6 SU6 ACQ6 AMM6 AWI6 BGE6 BQA6 BZW6 CJS6 CTO6 DDK6 DNG6 DXC6 EGY6 EQU6 FAQ6 FKM6 FUI6 GEE6 GOA6 GXW6 HHS6 HRO6 IBK6 ILG6 IVC6 JEY6 JOU6 JYQ6 KIM6 KSI6 LCE6 LMA6 LVW6 MFS6 MPO6 MZK6 NJG6 NTC6 OCY6 OMU6 OWQ6 PGM6 PQI6 QAE6 QKA6 QTW6 RDS6 RNO6 RXK6 SHG6 SRC6 TAY6 TKU6 TUQ6 UEM6 UOI6 UYE6 VIA6 VRW6 WBS6 WLO6 WVK6 D65542 IY65542 SU65542 ACQ65542 AMM65542 AWI65542 BGE65542 BQA65542 BZW65542 CJS65542 CTO65542 DDK65542 DNG65542 DXC65542 EGY65542 EQU65542 FAQ65542 FKM65542 FUI65542 GEE65542 GOA65542 GXW65542 HHS65542 HRO65542 IBK65542 ILG65542 IVC65542 JEY65542 JOU65542 JYQ65542 KIM65542 KSI65542 LCE65542 LMA65542 LVW65542 MFS65542 MPO65542 MZK65542 NJG65542 NTC65542 OCY65542 OMU65542 OWQ65542 PGM65542 PQI65542 QAE65542 QKA65542 QTW65542 RDS65542 RNO65542 RXK65542 SHG65542 SRC65542 TAY65542 TKU65542 TUQ65542 UEM65542 UOI65542 UYE65542 VIA65542 VRW65542 WBS65542 WLO65542 WVK65542 D131078 IY131078 SU131078 ACQ131078 AMM131078 AWI131078 BGE131078 BQA131078 BZW131078 CJS131078 CTO131078 DDK131078 DNG131078 DXC131078 EGY131078 EQU131078 FAQ131078 FKM131078 FUI131078 GEE131078 GOA131078 GXW131078 HHS131078 HRO131078 IBK131078 ILG131078 IVC131078 JEY131078 JOU131078 JYQ131078 KIM131078 KSI131078 LCE131078 LMA131078 LVW131078 MFS131078 MPO131078 MZK131078 NJG131078 NTC131078 OCY131078 OMU131078 OWQ131078 PGM131078 PQI131078 QAE131078 QKA131078 QTW131078 RDS131078 RNO131078 RXK131078 SHG131078 SRC131078 TAY131078 TKU131078 TUQ131078 UEM131078 UOI131078 UYE131078 VIA131078 VRW131078 WBS131078 WLO131078 WVK131078 D196614 IY196614 SU196614 ACQ196614 AMM196614 AWI196614 BGE196614 BQA196614 BZW196614 CJS196614 CTO196614 DDK196614 DNG196614 DXC196614 EGY196614 EQU196614 FAQ196614 FKM196614 FUI196614 GEE196614 GOA196614 GXW196614 HHS196614 HRO196614 IBK196614 ILG196614 IVC196614 JEY196614 JOU196614 JYQ196614 KIM196614 KSI196614 LCE196614 LMA196614 LVW196614 MFS196614 MPO196614 MZK196614 NJG196614 NTC196614 OCY196614 OMU196614 OWQ196614 PGM196614 PQI196614 QAE196614 QKA196614 QTW196614 RDS196614 RNO196614 RXK196614 SHG196614 SRC196614 TAY196614 TKU196614 TUQ196614 UEM196614 UOI196614 UYE196614 VIA196614 VRW196614 WBS196614 WLO196614 WVK196614 D262150 IY262150 SU262150 ACQ262150 AMM262150 AWI262150 BGE262150 BQA262150 BZW262150 CJS262150 CTO262150 DDK262150 DNG262150 DXC262150 EGY262150 EQU262150 FAQ262150 FKM262150 FUI262150 GEE262150 GOA262150 GXW262150 HHS262150 HRO262150 IBK262150 ILG262150 IVC262150 JEY262150 JOU262150 JYQ262150 KIM262150 KSI262150 LCE262150 LMA262150 LVW262150 MFS262150 MPO262150 MZK262150 NJG262150 NTC262150 OCY262150 OMU262150 OWQ262150 PGM262150 PQI262150 QAE262150 QKA262150 QTW262150 RDS262150 RNO262150 RXK262150 SHG262150 SRC262150 TAY262150 TKU262150 TUQ262150 UEM262150 UOI262150 UYE262150 VIA262150 VRW262150 WBS262150 WLO262150 WVK262150 D327686 IY327686 SU327686 ACQ327686 AMM327686 AWI327686 BGE327686 BQA327686 BZW327686 CJS327686 CTO327686 DDK327686 DNG327686 DXC327686 EGY327686 EQU327686 FAQ327686 FKM327686 FUI327686 GEE327686 GOA327686 GXW327686 HHS327686 HRO327686 IBK327686 ILG327686 IVC327686 JEY327686 JOU327686 JYQ327686 KIM327686 KSI327686 LCE327686 LMA327686 LVW327686 MFS327686 MPO327686 MZK327686 NJG327686 NTC327686 OCY327686 OMU327686 OWQ327686 PGM327686 PQI327686 QAE327686 QKA327686 QTW327686 RDS327686 RNO327686 RXK327686 SHG327686 SRC327686 TAY327686 TKU327686 TUQ327686 UEM327686 UOI327686 UYE327686 VIA327686 VRW327686 WBS327686 WLO327686 WVK327686 D393222 IY393222 SU393222 ACQ393222 AMM393222 AWI393222 BGE393222 BQA393222 BZW393222 CJS393222 CTO393222 DDK393222 DNG393222 DXC393222 EGY393222 EQU393222 FAQ393222 FKM393222 FUI393222 GEE393222 GOA393222 GXW393222 HHS393222 HRO393222 IBK393222 ILG393222 IVC393222 JEY393222 JOU393222 JYQ393222 KIM393222 KSI393222 LCE393222 LMA393222 LVW393222 MFS393222 MPO393222 MZK393222 NJG393222 NTC393222 OCY393222 OMU393222 OWQ393222 PGM393222 PQI393222 QAE393222 QKA393222 QTW393222 RDS393222 RNO393222 RXK393222 SHG393222 SRC393222 TAY393222 TKU393222 TUQ393222 UEM393222 UOI393222 UYE393222 VIA393222 VRW393222 WBS393222 WLO393222 WVK393222 D458758 IY458758 SU458758 ACQ458758 AMM458758 AWI458758 BGE458758 BQA458758 BZW458758 CJS458758 CTO458758 DDK458758 DNG458758 DXC458758 EGY458758 EQU458758 FAQ458758 FKM458758 FUI458758 GEE458758 GOA458758 GXW458758 HHS458758 HRO458758 IBK458758 ILG458758 IVC458758 JEY458758 JOU458758 JYQ458758 KIM458758 KSI458758 LCE458758 LMA458758 LVW458758 MFS458758 MPO458758 MZK458758 NJG458758 NTC458758 OCY458758 OMU458758 OWQ458758 PGM458758 PQI458758 QAE458758 QKA458758 QTW458758 RDS458758 RNO458758 RXK458758 SHG458758 SRC458758 TAY458758 TKU458758 TUQ458758 UEM458758 UOI458758 UYE458758 VIA458758 VRW458758 WBS458758 WLO458758 WVK458758 D524294 IY524294 SU524294 ACQ524294 AMM524294 AWI524294 BGE524294 BQA524294 BZW524294 CJS524294 CTO524294 DDK524294 DNG524294 DXC524294 EGY524294 EQU524294 FAQ524294 FKM524294 FUI524294 GEE524294 GOA524294 GXW524294 HHS524294 HRO524294 IBK524294 ILG524294 IVC524294 JEY524294 JOU524294 JYQ524294 KIM524294 KSI524294 LCE524294 LMA524294 LVW524294 MFS524294 MPO524294 MZK524294 NJG524294 NTC524294 OCY524294 OMU524294 OWQ524294 PGM524294 PQI524294 QAE524294 QKA524294 QTW524294 RDS524294 RNO524294 RXK524294 SHG524294 SRC524294 TAY524294 TKU524294 TUQ524294 UEM524294 UOI524294 UYE524294 VIA524294 VRW524294 WBS524294 WLO524294 WVK524294 D589830 IY589830 SU589830 ACQ589830 AMM589830 AWI589830 BGE589830 BQA589830 BZW589830 CJS589830 CTO589830 DDK589830 DNG589830 DXC589830 EGY589830 EQU589830 FAQ589830 FKM589830 FUI589830 GEE589830 GOA589830 GXW589830 HHS589830 HRO589830 IBK589830 ILG589830 IVC589830 JEY589830 JOU589830 JYQ589830 KIM589830 KSI589830 LCE589830 LMA589830 LVW589830 MFS589830 MPO589830 MZK589830 NJG589830 NTC589830 OCY589830 OMU589830 OWQ589830 PGM589830 PQI589830 QAE589830 QKA589830 QTW589830 RDS589830 RNO589830 RXK589830 SHG589830 SRC589830 TAY589830 TKU589830 TUQ589830 UEM589830 UOI589830 UYE589830 VIA589830 VRW589830 WBS589830 WLO589830 WVK589830 D655366 IY655366 SU655366 ACQ655366 AMM655366 AWI655366 BGE655366 BQA655366 BZW655366 CJS655366 CTO655366 DDK655366 DNG655366 DXC655366 EGY655366 EQU655366 FAQ655366 FKM655366 FUI655366 GEE655366 GOA655366 GXW655366 HHS655366 HRO655366 IBK655366 ILG655366 IVC655366 JEY655366 JOU655366 JYQ655366 KIM655366 KSI655366 LCE655366 LMA655366 LVW655366 MFS655366 MPO655366 MZK655366 NJG655366 NTC655366 OCY655366 OMU655366 OWQ655366 PGM655366 PQI655366 QAE655366 QKA655366 QTW655366 RDS655366 RNO655366 RXK655366 SHG655366 SRC655366 TAY655366 TKU655366 TUQ655366 UEM655366 UOI655366 UYE655366 VIA655366 VRW655366 WBS655366 WLO655366 WVK655366 D720902 IY720902 SU720902 ACQ720902 AMM720902 AWI720902 BGE720902 BQA720902 BZW720902 CJS720902 CTO720902 DDK720902 DNG720902 DXC720902 EGY720902 EQU720902 FAQ720902 FKM720902 FUI720902 GEE720902 GOA720902 GXW720902 HHS720902 HRO720902 IBK720902 ILG720902 IVC720902 JEY720902 JOU720902 JYQ720902 KIM720902 KSI720902 LCE720902 LMA720902 LVW720902 MFS720902 MPO720902 MZK720902 NJG720902 NTC720902 OCY720902 OMU720902 OWQ720902 PGM720902 PQI720902 QAE720902 QKA720902 QTW720902 RDS720902 RNO720902 RXK720902 SHG720902 SRC720902 TAY720902 TKU720902 TUQ720902 UEM720902 UOI720902 UYE720902 VIA720902 VRW720902 WBS720902 WLO720902 WVK720902 D786438 IY786438 SU786438 ACQ786438 AMM786438 AWI786438 BGE786438 BQA786438 BZW786438 CJS786438 CTO786438 DDK786438 DNG786438 DXC786438 EGY786438 EQU786438 FAQ786438 FKM786438 FUI786438 GEE786438 GOA786438 GXW786438 HHS786438 HRO786438 IBK786438 ILG786438 IVC786438 JEY786438 JOU786438 JYQ786438 KIM786438 KSI786438 LCE786438 LMA786438 LVW786438 MFS786438 MPO786438 MZK786438 NJG786438 NTC786438 OCY786438 OMU786438 OWQ786438 PGM786438 PQI786438 QAE786438 QKA786438 QTW786438 RDS786438 RNO786438 RXK786438 SHG786438 SRC786438 TAY786438 TKU786438 TUQ786438 UEM786438 UOI786438 UYE786438 VIA786438 VRW786438 WBS786438 WLO786438 WVK786438 D851974 IY851974 SU851974 ACQ851974 AMM851974 AWI851974 BGE851974 BQA851974 BZW851974 CJS851974 CTO851974 DDK851974 DNG851974 DXC851974 EGY851974 EQU851974 FAQ851974 FKM851974 FUI851974 GEE851974 GOA851974 GXW851974 HHS851974 HRO851974 IBK851974 ILG851974 IVC851974 JEY851974 JOU851974 JYQ851974 KIM851974 KSI851974 LCE851974 LMA851974 LVW851974 MFS851974 MPO851974 MZK851974 NJG851974 NTC851974 OCY851974 OMU851974 OWQ851974 PGM851974 PQI851974 QAE851974 QKA851974 QTW851974 RDS851974 RNO851974 RXK851974 SHG851974 SRC851974 TAY851974 TKU851974 TUQ851974 UEM851974 UOI851974 UYE851974 VIA851974 VRW851974 WBS851974 WLO851974 WVK851974 D917510 IY917510 SU917510 ACQ917510 AMM917510 AWI917510 BGE917510 BQA917510 BZW917510 CJS917510 CTO917510 DDK917510 DNG917510 DXC917510 EGY917510 EQU917510 FAQ917510 FKM917510 FUI917510 GEE917510 GOA917510 GXW917510 HHS917510 HRO917510 IBK917510 ILG917510 IVC917510 JEY917510 JOU917510 JYQ917510 KIM917510 KSI917510 LCE917510 LMA917510 LVW917510 MFS917510 MPO917510 MZK917510 NJG917510 NTC917510 OCY917510 OMU917510 OWQ917510 PGM917510 PQI917510 QAE917510 QKA917510 QTW917510 RDS917510 RNO917510 RXK917510 SHG917510 SRC917510 TAY917510 TKU917510 TUQ917510 UEM917510 UOI917510 UYE917510 VIA917510 VRW917510 WBS917510 WLO917510 WVK917510 D983046 IY983046 SU983046 ACQ983046 AMM983046 AWI983046 BGE983046 BQA983046 BZW983046 CJS983046 CTO983046 DDK983046 DNG983046 DXC983046 EGY983046 EQU983046 FAQ983046 FKM983046 FUI983046 GEE983046 GOA983046 GXW983046 HHS983046 HRO983046 IBK983046 ILG983046 IVC983046 JEY983046 JOU983046 JYQ983046 KIM983046 KSI983046 LCE983046 LMA983046 LVW983046 MFS983046 MPO983046 MZK983046 NJG983046 NTC983046 OCY983046 OMU983046 OWQ983046 PGM983046 PQI983046 QAE983046 QKA983046 QTW983046 RDS983046 RNO983046 RXK983046 SHG983046 SRC983046 TAY983046 TKU983046 TUQ983046 UEM983046 UOI983046 UYE983046 VIA983046 VRW983046 WBS983046 WLO983046 WVK983046">
       <formula1>"1D,1W,1M,2M,3M,6M,1Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 IZ21 SV21 ACR21 AMN21 AWJ21 BGF21 BQB21 BZX21 CJT21 CTP21 DDL21 DNH21 DXD21 EGZ21 EQV21 FAR21 FKN21 FUJ21 GEF21 GOB21 GXX21 HHT21 HRP21 IBL21 ILH21 IVD21 JEZ21 JOV21 JYR21 KIN21 KSJ21 LCF21 LMB21 LVX21 MFT21 MPP21 MZL21 NJH21 NTD21 OCZ21 OMV21 OWR21 PGN21 PQJ21 QAF21 QKB21 QTX21 RDT21 RNP21 RXL21 SHH21 SRD21 TAZ21 TKV21 TUR21 UEN21 UOJ21 UYF21 VIB21 VRX21 WBT21 WLP21 WVL21 D65557 IZ65557 SV65557 ACR65557 AMN65557 AWJ65557 BGF65557 BQB65557 BZX65557 CJT65557 CTP65557 DDL65557 DNH65557 DXD65557 EGZ65557 EQV65557 FAR65557 FKN65557 FUJ65557 GEF65557 GOB65557 GXX65557 HHT65557 HRP65557 IBL65557 ILH65557 IVD65557 JEZ65557 JOV65557 JYR65557 KIN65557 KSJ65557 LCF65557 LMB65557 LVX65557 MFT65557 MPP65557 MZL65557 NJH65557 NTD65557 OCZ65557 OMV65557 OWR65557 PGN65557 PQJ65557 QAF65557 QKB65557 QTX65557 RDT65557 RNP65557 RXL65557 SHH65557 SRD65557 TAZ65557 TKV65557 TUR65557 UEN65557 UOJ65557 UYF65557 VIB65557 VRX65557 WBT65557 WLP65557 WVL65557 D131093 IZ131093 SV131093 ACR131093 AMN131093 AWJ131093 BGF131093 BQB131093 BZX131093 CJT131093 CTP131093 DDL131093 DNH131093 DXD131093 EGZ131093 EQV131093 FAR131093 FKN131093 FUJ131093 GEF131093 GOB131093 GXX131093 HHT131093 HRP131093 IBL131093 ILH131093 IVD131093 JEZ131093 JOV131093 JYR131093 KIN131093 KSJ131093 LCF131093 LMB131093 LVX131093 MFT131093 MPP131093 MZL131093 NJH131093 NTD131093 OCZ131093 OMV131093 OWR131093 PGN131093 PQJ131093 QAF131093 QKB131093 QTX131093 RDT131093 RNP131093 RXL131093 SHH131093 SRD131093 TAZ131093 TKV131093 TUR131093 UEN131093 UOJ131093 UYF131093 VIB131093 VRX131093 WBT131093 WLP131093 WVL131093 D196629 IZ196629 SV196629 ACR196629 AMN196629 AWJ196629 BGF196629 BQB196629 BZX196629 CJT196629 CTP196629 DDL196629 DNH196629 DXD196629 EGZ196629 EQV196629 FAR196629 FKN196629 FUJ196629 GEF196629 GOB196629 GXX196629 HHT196629 HRP196629 IBL196629 ILH196629 IVD196629 JEZ196629 JOV196629 JYR196629 KIN196629 KSJ196629 LCF196629 LMB196629 LVX196629 MFT196629 MPP196629 MZL196629 NJH196629 NTD196629 OCZ196629 OMV196629 OWR196629 PGN196629 PQJ196629 QAF196629 QKB196629 QTX196629 RDT196629 RNP196629 RXL196629 SHH196629 SRD196629 TAZ196629 TKV196629 TUR196629 UEN196629 UOJ196629 UYF196629 VIB196629 VRX196629 WBT196629 WLP196629 WVL196629 D262165 IZ262165 SV262165 ACR262165 AMN262165 AWJ262165 BGF262165 BQB262165 BZX262165 CJT262165 CTP262165 DDL262165 DNH262165 DXD262165 EGZ262165 EQV262165 FAR262165 FKN262165 FUJ262165 GEF262165 GOB262165 GXX262165 HHT262165 HRP262165 IBL262165 ILH262165 IVD262165 JEZ262165 JOV262165 JYR262165 KIN262165 KSJ262165 LCF262165 LMB262165 LVX262165 MFT262165 MPP262165 MZL262165 NJH262165 NTD262165 OCZ262165 OMV262165 OWR262165 PGN262165 PQJ262165 QAF262165 QKB262165 QTX262165 RDT262165 RNP262165 RXL262165 SHH262165 SRD262165 TAZ262165 TKV262165 TUR262165 UEN262165 UOJ262165 UYF262165 VIB262165 VRX262165 WBT262165 WLP262165 WVL262165 D327701 IZ327701 SV327701 ACR327701 AMN327701 AWJ327701 BGF327701 BQB327701 BZX327701 CJT327701 CTP327701 DDL327701 DNH327701 DXD327701 EGZ327701 EQV327701 FAR327701 FKN327701 FUJ327701 GEF327701 GOB327701 GXX327701 HHT327701 HRP327701 IBL327701 ILH327701 IVD327701 JEZ327701 JOV327701 JYR327701 KIN327701 KSJ327701 LCF327701 LMB327701 LVX327701 MFT327701 MPP327701 MZL327701 NJH327701 NTD327701 OCZ327701 OMV327701 OWR327701 PGN327701 PQJ327701 QAF327701 QKB327701 QTX327701 RDT327701 RNP327701 RXL327701 SHH327701 SRD327701 TAZ327701 TKV327701 TUR327701 UEN327701 UOJ327701 UYF327701 VIB327701 VRX327701 WBT327701 WLP327701 WVL327701 D393237 IZ393237 SV393237 ACR393237 AMN393237 AWJ393237 BGF393237 BQB393237 BZX393237 CJT393237 CTP393237 DDL393237 DNH393237 DXD393237 EGZ393237 EQV393237 FAR393237 FKN393237 FUJ393237 GEF393237 GOB393237 GXX393237 HHT393237 HRP393237 IBL393237 ILH393237 IVD393237 JEZ393237 JOV393237 JYR393237 KIN393237 KSJ393237 LCF393237 LMB393237 LVX393237 MFT393237 MPP393237 MZL393237 NJH393237 NTD393237 OCZ393237 OMV393237 OWR393237 PGN393237 PQJ393237 QAF393237 QKB393237 QTX393237 RDT393237 RNP393237 RXL393237 SHH393237 SRD393237 TAZ393237 TKV393237 TUR393237 UEN393237 UOJ393237 UYF393237 VIB393237 VRX393237 WBT393237 WLP393237 WVL393237 D458773 IZ458773 SV458773 ACR458773 AMN458773 AWJ458773 BGF458773 BQB458773 BZX458773 CJT458773 CTP458773 DDL458773 DNH458773 DXD458773 EGZ458773 EQV458773 FAR458773 FKN458773 FUJ458773 GEF458773 GOB458773 GXX458773 HHT458773 HRP458773 IBL458773 ILH458773 IVD458773 JEZ458773 JOV458773 JYR458773 KIN458773 KSJ458773 LCF458773 LMB458773 LVX458773 MFT458773 MPP458773 MZL458773 NJH458773 NTD458773 OCZ458773 OMV458773 OWR458773 PGN458773 PQJ458773 QAF458773 QKB458773 QTX458773 RDT458773 RNP458773 RXL458773 SHH458773 SRD458773 TAZ458773 TKV458773 TUR458773 UEN458773 UOJ458773 UYF458773 VIB458773 VRX458773 WBT458773 WLP458773 WVL458773 D524309 IZ524309 SV524309 ACR524309 AMN524309 AWJ524309 BGF524309 BQB524309 BZX524309 CJT524309 CTP524309 DDL524309 DNH524309 DXD524309 EGZ524309 EQV524309 FAR524309 FKN524309 FUJ524309 GEF524309 GOB524309 GXX524309 HHT524309 HRP524309 IBL524309 ILH524309 IVD524309 JEZ524309 JOV524309 JYR524309 KIN524309 KSJ524309 LCF524309 LMB524309 LVX524309 MFT524309 MPP524309 MZL524309 NJH524309 NTD524309 OCZ524309 OMV524309 OWR524309 PGN524309 PQJ524309 QAF524309 QKB524309 QTX524309 RDT524309 RNP524309 RXL524309 SHH524309 SRD524309 TAZ524309 TKV524309 TUR524309 UEN524309 UOJ524309 UYF524309 VIB524309 VRX524309 WBT524309 WLP524309 WVL524309 D589845 IZ589845 SV589845 ACR589845 AMN589845 AWJ589845 BGF589845 BQB589845 BZX589845 CJT589845 CTP589845 DDL589845 DNH589845 DXD589845 EGZ589845 EQV589845 FAR589845 FKN589845 FUJ589845 GEF589845 GOB589845 GXX589845 HHT589845 HRP589845 IBL589845 ILH589845 IVD589845 JEZ589845 JOV589845 JYR589845 KIN589845 KSJ589845 LCF589845 LMB589845 LVX589845 MFT589845 MPP589845 MZL589845 NJH589845 NTD589845 OCZ589845 OMV589845 OWR589845 PGN589845 PQJ589845 QAF589845 QKB589845 QTX589845 RDT589845 RNP589845 RXL589845 SHH589845 SRD589845 TAZ589845 TKV589845 TUR589845 UEN589845 UOJ589845 UYF589845 VIB589845 VRX589845 WBT589845 WLP589845 WVL589845 D655381 IZ655381 SV655381 ACR655381 AMN655381 AWJ655381 BGF655381 BQB655381 BZX655381 CJT655381 CTP655381 DDL655381 DNH655381 DXD655381 EGZ655381 EQV655381 FAR655381 FKN655381 FUJ655381 GEF655381 GOB655381 GXX655381 HHT655381 HRP655381 IBL655381 ILH655381 IVD655381 JEZ655381 JOV655381 JYR655381 KIN655381 KSJ655381 LCF655381 LMB655381 LVX655381 MFT655381 MPP655381 MZL655381 NJH655381 NTD655381 OCZ655381 OMV655381 OWR655381 PGN655381 PQJ655381 QAF655381 QKB655381 QTX655381 RDT655381 RNP655381 RXL655381 SHH655381 SRD655381 TAZ655381 TKV655381 TUR655381 UEN655381 UOJ655381 UYF655381 VIB655381 VRX655381 WBT655381 WLP655381 WVL655381 D720917 IZ720917 SV720917 ACR720917 AMN720917 AWJ720917 BGF720917 BQB720917 BZX720917 CJT720917 CTP720917 DDL720917 DNH720917 DXD720917 EGZ720917 EQV720917 FAR720917 FKN720917 FUJ720917 GEF720917 GOB720917 GXX720917 HHT720917 HRP720917 IBL720917 ILH720917 IVD720917 JEZ720917 JOV720917 JYR720917 KIN720917 KSJ720917 LCF720917 LMB720917 LVX720917 MFT720917 MPP720917 MZL720917 NJH720917 NTD720917 OCZ720917 OMV720917 OWR720917 PGN720917 PQJ720917 QAF720917 QKB720917 QTX720917 RDT720917 RNP720917 RXL720917 SHH720917 SRD720917 TAZ720917 TKV720917 TUR720917 UEN720917 UOJ720917 UYF720917 VIB720917 VRX720917 WBT720917 WLP720917 WVL720917 D786453 IZ786453 SV786453 ACR786453 AMN786453 AWJ786453 BGF786453 BQB786453 BZX786453 CJT786453 CTP786453 DDL786453 DNH786453 DXD786453 EGZ786453 EQV786453 FAR786453 FKN786453 FUJ786453 GEF786453 GOB786453 GXX786453 HHT786453 HRP786453 IBL786453 ILH786453 IVD786453 JEZ786453 JOV786453 JYR786453 KIN786453 KSJ786453 LCF786453 LMB786453 LVX786453 MFT786453 MPP786453 MZL786453 NJH786453 NTD786453 OCZ786453 OMV786453 OWR786453 PGN786453 PQJ786453 QAF786453 QKB786453 QTX786453 RDT786453 RNP786453 RXL786453 SHH786453 SRD786453 TAZ786453 TKV786453 TUR786453 UEN786453 UOJ786453 UYF786453 VIB786453 VRX786453 WBT786453 WLP786453 WVL786453 D851989 IZ851989 SV851989 ACR851989 AMN851989 AWJ851989 BGF851989 BQB851989 BZX851989 CJT851989 CTP851989 DDL851989 DNH851989 DXD851989 EGZ851989 EQV851989 FAR851989 FKN851989 FUJ851989 GEF851989 GOB851989 GXX851989 HHT851989 HRP851989 IBL851989 ILH851989 IVD851989 JEZ851989 JOV851989 JYR851989 KIN851989 KSJ851989 LCF851989 LMB851989 LVX851989 MFT851989 MPP851989 MZL851989 NJH851989 NTD851989 OCZ851989 OMV851989 OWR851989 PGN851989 PQJ851989 QAF851989 QKB851989 QTX851989 RDT851989 RNP851989 RXL851989 SHH851989 SRD851989 TAZ851989 TKV851989 TUR851989 UEN851989 UOJ851989 UYF851989 VIB851989 VRX851989 WBT851989 WLP851989 WVL851989 D917525 IZ917525 SV917525 ACR917525 AMN917525 AWJ917525 BGF917525 BQB917525 BZX917525 CJT917525 CTP917525 DDL917525 DNH917525 DXD917525 EGZ917525 EQV917525 FAR917525 FKN917525 FUJ917525 GEF917525 GOB917525 GXX917525 HHT917525 HRP917525 IBL917525 ILH917525 IVD917525 JEZ917525 JOV917525 JYR917525 KIN917525 KSJ917525 LCF917525 LMB917525 LVX917525 MFT917525 MPP917525 MZL917525 NJH917525 NTD917525 OCZ917525 OMV917525 OWR917525 PGN917525 PQJ917525 QAF917525 QKB917525 QTX917525 RDT917525 RNP917525 RXL917525 SHH917525 SRD917525 TAZ917525 TKV917525 TUR917525 UEN917525 UOJ917525 UYF917525 VIB917525 VRX917525 WBT917525 WLP917525 WVL917525 D983061 IZ983061 SV983061 ACR983061 AMN983061 AWJ983061 BGF983061 BQB983061 BZX983061 CJT983061 CTP983061 DDL983061 DNH983061 DXD983061 EGZ983061 EQV983061 FAR983061 FKN983061 FUJ983061 GEF983061 GOB983061 GXX983061 HHT983061 HRP983061 IBL983061 ILH983061 IVD983061 JEZ983061 JOV983061 JYR983061 KIN983061 KSJ983061 LCF983061 LMB983061 LVX983061 MFT983061 MPP983061 MZL983061 NJH983061 NTD983061 OCZ983061 OMV983061 OWR983061 PGN983061 PQJ983061 QAF983061 QKB983061 QTX983061 RDT983061 RNP983061 RXL983061 SHH983061 SRD983061 TAZ983061 TKV983061 TUR983061 UEN983061 UOJ983061 UYF983061 VIB983061 VRX983061 WBT983061 WLP983061 WVL983061">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 IY21 SU21 ACQ21 AMM21 AWI21 BGE21 BQA21 BZW21 CJS21 CTO21 DDK21 DNG21 DXC21 EGY21 EQU21 FAQ21 FKM21 FUI21 GEE21 GOA21 GXW21 HHS21 HRO21 IBK21 ILG21 IVC21 JEY21 JOU21 JYQ21 KIM21 KSI21 LCE21 LMA21 LVW21 MFS21 MPO21 MZK21 NJG21 NTC21 OCY21 OMU21 OWQ21 PGM21 PQI21 QAE21 QKA21 QTW21 RDS21 RNO21 RXK21 SHG21 SRC21 TAY21 TKU21 TUQ21 UEM21 UOI21 UYE21 VIA21 VRW21 WBS21 WLO21 WVK21 D65557 IY65557 SU65557 ACQ65557 AMM65557 AWI65557 BGE65557 BQA65557 BZW65557 CJS65557 CTO65557 DDK65557 DNG65557 DXC65557 EGY65557 EQU65557 FAQ65557 FKM65557 FUI65557 GEE65557 GOA65557 GXW65557 HHS65557 HRO65557 IBK65557 ILG65557 IVC65557 JEY65557 JOU65557 JYQ65557 KIM65557 KSI65557 LCE65557 LMA65557 LVW65557 MFS65557 MPO65557 MZK65557 NJG65557 NTC65557 OCY65557 OMU65557 OWQ65557 PGM65557 PQI65557 QAE65557 QKA65557 QTW65557 RDS65557 RNO65557 RXK65557 SHG65557 SRC65557 TAY65557 TKU65557 TUQ65557 UEM65557 UOI65557 UYE65557 VIA65557 VRW65557 WBS65557 WLO65557 WVK65557 D131093 IY131093 SU131093 ACQ131093 AMM131093 AWI131093 BGE131093 BQA131093 BZW131093 CJS131093 CTO131093 DDK131093 DNG131093 DXC131093 EGY131093 EQU131093 FAQ131093 FKM131093 FUI131093 GEE131093 GOA131093 GXW131093 HHS131093 HRO131093 IBK131093 ILG131093 IVC131093 JEY131093 JOU131093 JYQ131093 KIM131093 KSI131093 LCE131093 LMA131093 LVW131093 MFS131093 MPO131093 MZK131093 NJG131093 NTC131093 OCY131093 OMU131093 OWQ131093 PGM131093 PQI131093 QAE131093 QKA131093 QTW131093 RDS131093 RNO131093 RXK131093 SHG131093 SRC131093 TAY131093 TKU131093 TUQ131093 UEM131093 UOI131093 UYE131093 VIA131093 VRW131093 WBS131093 WLO131093 WVK131093 D196629 IY196629 SU196629 ACQ196629 AMM196629 AWI196629 BGE196629 BQA196629 BZW196629 CJS196629 CTO196629 DDK196629 DNG196629 DXC196629 EGY196629 EQU196629 FAQ196629 FKM196629 FUI196629 GEE196629 GOA196629 GXW196629 HHS196629 HRO196629 IBK196629 ILG196629 IVC196629 JEY196629 JOU196629 JYQ196629 KIM196629 KSI196629 LCE196629 LMA196629 LVW196629 MFS196629 MPO196629 MZK196629 NJG196629 NTC196629 OCY196629 OMU196629 OWQ196629 PGM196629 PQI196629 QAE196629 QKA196629 QTW196629 RDS196629 RNO196629 RXK196629 SHG196629 SRC196629 TAY196629 TKU196629 TUQ196629 UEM196629 UOI196629 UYE196629 VIA196629 VRW196629 WBS196629 WLO196629 WVK196629 D262165 IY262165 SU262165 ACQ262165 AMM262165 AWI262165 BGE262165 BQA262165 BZW262165 CJS262165 CTO262165 DDK262165 DNG262165 DXC262165 EGY262165 EQU262165 FAQ262165 FKM262165 FUI262165 GEE262165 GOA262165 GXW262165 HHS262165 HRO262165 IBK262165 ILG262165 IVC262165 JEY262165 JOU262165 JYQ262165 KIM262165 KSI262165 LCE262165 LMA262165 LVW262165 MFS262165 MPO262165 MZK262165 NJG262165 NTC262165 OCY262165 OMU262165 OWQ262165 PGM262165 PQI262165 QAE262165 QKA262165 QTW262165 RDS262165 RNO262165 RXK262165 SHG262165 SRC262165 TAY262165 TKU262165 TUQ262165 UEM262165 UOI262165 UYE262165 VIA262165 VRW262165 WBS262165 WLO262165 WVK262165 D327701 IY327701 SU327701 ACQ327701 AMM327701 AWI327701 BGE327701 BQA327701 BZW327701 CJS327701 CTO327701 DDK327701 DNG327701 DXC327701 EGY327701 EQU327701 FAQ327701 FKM327701 FUI327701 GEE327701 GOA327701 GXW327701 HHS327701 HRO327701 IBK327701 ILG327701 IVC327701 JEY327701 JOU327701 JYQ327701 KIM327701 KSI327701 LCE327701 LMA327701 LVW327701 MFS327701 MPO327701 MZK327701 NJG327701 NTC327701 OCY327701 OMU327701 OWQ327701 PGM327701 PQI327701 QAE327701 QKA327701 QTW327701 RDS327701 RNO327701 RXK327701 SHG327701 SRC327701 TAY327701 TKU327701 TUQ327701 UEM327701 UOI327701 UYE327701 VIA327701 VRW327701 WBS327701 WLO327701 WVK327701 D393237 IY393237 SU393237 ACQ393237 AMM393237 AWI393237 BGE393237 BQA393237 BZW393237 CJS393237 CTO393237 DDK393237 DNG393237 DXC393237 EGY393237 EQU393237 FAQ393237 FKM393237 FUI393237 GEE393237 GOA393237 GXW393237 HHS393237 HRO393237 IBK393237 ILG393237 IVC393237 JEY393237 JOU393237 JYQ393237 KIM393237 KSI393237 LCE393237 LMA393237 LVW393237 MFS393237 MPO393237 MZK393237 NJG393237 NTC393237 OCY393237 OMU393237 OWQ393237 PGM393237 PQI393237 QAE393237 QKA393237 QTW393237 RDS393237 RNO393237 RXK393237 SHG393237 SRC393237 TAY393237 TKU393237 TUQ393237 UEM393237 UOI393237 UYE393237 VIA393237 VRW393237 WBS393237 WLO393237 WVK393237 D458773 IY458773 SU458773 ACQ458773 AMM458773 AWI458773 BGE458773 BQA458773 BZW458773 CJS458773 CTO458773 DDK458773 DNG458773 DXC458773 EGY458773 EQU458773 FAQ458773 FKM458773 FUI458773 GEE458773 GOA458773 GXW458773 HHS458773 HRO458773 IBK458773 ILG458773 IVC458773 JEY458773 JOU458773 JYQ458773 KIM458773 KSI458773 LCE458773 LMA458773 LVW458773 MFS458773 MPO458773 MZK458773 NJG458773 NTC458773 OCY458773 OMU458773 OWQ458773 PGM458773 PQI458773 QAE458773 QKA458773 QTW458773 RDS458773 RNO458773 RXK458773 SHG458773 SRC458773 TAY458773 TKU458773 TUQ458773 UEM458773 UOI458773 UYE458773 VIA458773 VRW458773 WBS458773 WLO458773 WVK458773 D524309 IY524309 SU524309 ACQ524309 AMM524309 AWI524309 BGE524309 BQA524309 BZW524309 CJS524309 CTO524309 DDK524309 DNG524309 DXC524309 EGY524309 EQU524309 FAQ524309 FKM524309 FUI524309 GEE524309 GOA524309 GXW524309 HHS524309 HRO524309 IBK524309 ILG524309 IVC524309 JEY524309 JOU524309 JYQ524309 KIM524309 KSI524309 LCE524309 LMA524309 LVW524309 MFS524309 MPO524309 MZK524309 NJG524309 NTC524309 OCY524309 OMU524309 OWQ524309 PGM524309 PQI524309 QAE524309 QKA524309 QTW524309 RDS524309 RNO524309 RXK524309 SHG524309 SRC524309 TAY524309 TKU524309 TUQ524309 UEM524309 UOI524309 UYE524309 VIA524309 VRW524309 WBS524309 WLO524309 WVK524309 D589845 IY589845 SU589845 ACQ589845 AMM589845 AWI589845 BGE589845 BQA589845 BZW589845 CJS589845 CTO589845 DDK589845 DNG589845 DXC589845 EGY589845 EQU589845 FAQ589845 FKM589845 FUI589845 GEE589845 GOA589845 GXW589845 HHS589845 HRO589845 IBK589845 ILG589845 IVC589845 JEY589845 JOU589845 JYQ589845 KIM589845 KSI589845 LCE589845 LMA589845 LVW589845 MFS589845 MPO589845 MZK589845 NJG589845 NTC589845 OCY589845 OMU589845 OWQ589845 PGM589845 PQI589845 QAE589845 QKA589845 QTW589845 RDS589845 RNO589845 RXK589845 SHG589845 SRC589845 TAY589845 TKU589845 TUQ589845 UEM589845 UOI589845 UYE589845 VIA589845 VRW589845 WBS589845 WLO589845 WVK589845 D655381 IY655381 SU655381 ACQ655381 AMM655381 AWI655381 BGE655381 BQA655381 BZW655381 CJS655381 CTO655381 DDK655381 DNG655381 DXC655381 EGY655381 EQU655381 FAQ655381 FKM655381 FUI655381 GEE655381 GOA655381 GXW655381 HHS655381 HRO655381 IBK655381 ILG655381 IVC655381 JEY655381 JOU655381 JYQ655381 KIM655381 KSI655381 LCE655381 LMA655381 LVW655381 MFS655381 MPO655381 MZK655381 NJG655381 NTC655381 OCY655381 OMU655381 OWQ655381 PGM655381 PQI655381 QAE655381 QKA655381 QTW655381 RDS655381 RNO655381 RXK655381 SHG655381 SRC655381 TAY655381 TKU655381 TUQ655381 UEM655381 UOI655381 UYE655381 VIA655381 VRW655381 WBS655381 WLO655381 WVK655381 D720917 IY720917 SU720917 ACQ720917 AMM720917 AWI720917 BGE720917 BQA720917 BZW720917 CJS720917 CTO720917 DDK720917 DNG720917 DXC720917 EGY720917 EQU720917 FAQ720917 FKM720917 FUI720917 GEE720917 GOA720917 GXW720917 HHS720917 HRO720917 IBK720917 ILG720917 IVC720917 JEY720917 JOU720917 JYQ720917 KIM720917 KSI720917 LCE720917 LMA720917 LVW720917 MFS720917 MPO720917 MZK720917 NJG720917 NTC720917 OCY720917 OMU720917 OWQ720917 PGM720917 PQI720917 QAE720917 QKA720917 QTW720917 RDS720917 RNO720917 RXK720917 SHG720917 SRC720917 TAY720917 TKU720917 TUQ720917 UEM720917 UOI720917 UYE720917 VIA720917 VRW720917 WBS720917 WLO720917 WVK720917 D786453 IY786453 SU786453 ACQ786453 AMM786453 AWI786453 BGE786453 BQA786453 BZW786453 CJS786453 CTO786453 DDK786453 DNG786453 DXC786453 EGY786453 EQU786453 FAQ786453 FKM786453 FUI786453 GEE786453 GOA786453 GXW786453 HHS786453 HRO786453 IBK786453 ILG786453 IVC786453 JEY786453 JOU786453 JYQ786453 KIM786453 KSI786453 LCE786453 LMA786453 LVW786453 MFS786453 MPO786453 MZK786453 NJG786453 NTC786453 OCY786453 OMU786453 OWQ786453 PGM786453 PQI786453 QAE786453 QKA786453 QTW786453 RDS786453 RNO786453 RXK786453 SHG786453 SRC786453 TAY786453 TKU786453 TUQ786453 UEM786453 UOI786453 UYE786453 VIA786453 VRW786453 WBS786453 WLO786453 WVK786453 D851989 IY851989 SU851989 ACQ851989 AMM851989 AWI851989 BGE851989 BQA851989 BZW851989 CJS851989 CTO851989 DDK851989 DNG851989 DXC851989 EGY851989 EQU851989 FAQ851989 FKM851989 FUI851989 GEE851989 GOA851989 GXW851989 HHS851989 HRO851989 IBK851989 ILG851989 IVC851989 JEY851989 JOU851989 JYQ851989 KIM851989 KSI851989 LCE851989 LMA851989 LVW851989 MFS851989 MPO851989 MZK851989 NJG851989 NTC851989 OCY851989 OMU851989 OWQ851989 PGM851989 PQI851989 QAE851989 QKA851989 QTW851989 RDS851989 RNO851989 RXK851989 SHG851989 SRC851989 TAY851989 TKU851989 TUQ851989 UEM851989 UOI851989 UYE851989 VIA851989 VRW851989 WBS851989 WLO851989 WVK851989 D917525 IY917525 SU917525 ACQ917525 AMM917525 AWI917525 BGE917525 BQA917525 BZW917525 CJS917525 CTO917525 DDK917525 DNG917525 DXC917525 EGY917525 EQU917525 FAQ917525 FKM917525 FUI917525 GEE917525 GOA917525 GXW917525 HHS917525 HRO917525 IBK917525 ILG917525 IVC917525 JEY917525 JOU917525 JYQ917525 KIM917525 KSI917525 LCE917525 LMA917525 LVW917525 MFS917525 MPO917525 MZK917525 NJG917525 NTC917525 OCY917525 OMU917525 OWQ917525 PGM917525 PQI917525 QAE917525 QKA917525 QTW917525 RDS917525 RNO917525 RXK917525 SHG917525 SRC917525 TAY917525 TKU917525 TUQ917525 UEM917525 UOI917525 UYE917525 VIA917525 VRW917525 WBS917525 WLO917525 WVK917525 D983061 IY983061 SU983061 ACQ983061 AMM983061 AWI983061 BGE983061 BQA983061 BZW983061 CJS983061 CTO983061 DDK983061 DNG983061 DXC983061 EGY983061 EQU983061 FAQ983061 FKM983061 FUI983061 GEE983061 GOA983061 GXW983061 HHS983061 HRO983061 IBK983061 ILG983061 IVC983061 JEY983061 JOU983061 JYQ983061 KIM983061 KSI983061 LCE983061 LMA983061 LVW983061 MFS983061 MPO983061 MZK983061 NJG983061 NTC983061 OCY983061 OMU983061 OWQ983061 PGM983061 PQI983061 QAE983061 QKA983061 QTW983061 RDS983061 RNO983061 RXK983061 SHG983061 SRC983061 TAY983061 TKU983061 TUQ983061 UEM983061 UOI983061 UYE983061 VIA983061 VRW983061 WBS983061 WLO983061 WVK983061">
       <formula1>"Discount,ZeroYield,ForwardRate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 IZ19 SV19 ACR19 AMN19 AWJ19 BGF19 BQB19 BZX19 CJT19 CTP19 DDL19 DNH19 DXD19 EGZ19 EQV19 FAR19 FKN19 FUJ19 GEF19 GOB19 GXX19 HHT19 HRP19 IBL19 ILH19 IVD19 JEZ19 JOV19 JYR19 KIN19 KSJ19 LCF19 LMB19 LVX19 MFT19 MPP19 MZL19 NJH19 NTD19 OCZ19 OMV19 OWR19 PGN19 PQJ19 QAF19 QKB19 QTX19 RDT19 RNP19 RXL19 SHH19 SRD19 TAZ19 TKV19 TUR19 UEN19 UOJ19 UYF19 VIB19 VRX19 WBT19 WLP19 WVL19 D65555 IZ65555 SV65555 ACR65555 AMN65555 AWJ65555 BGF65555 BQB65555 BZX65555 CJT65555 CTP65555 DDL65555 DNH65555 DXD65555 EGZ65555 EQV65555 FAR65555 FKN65555 FUJ65555 GEF65555 GOB65555 GXX65555 HHT65555 HRP65555 IBL65555 ILH65555 IVD65555 JEZ65555 JOV65555 JYR65555 KIN65555 KSJ65555 LCF65555 LMB65555 LVX65555 MFT65555 MPP65555 MZL65555 NJH65555 NTD65555 OCZ65555 OMV65555 OWR65555 PGN65555 PQJ65555 QAF65555 QKB65555 QTX65555 RDT65555 RNP65555 RXL65555 SHH65555 SRD65555 TAZ65555 TKV65555 TUR65555 UEN65555 UOJ65555 UYF65555 VIB65555 VRX65555 WBT65555 WLP65555 WVL65555 D131091 IZ131091 SV131091 ACR131091 AMN131091 AWJ131091 BGF131091 BQB131091 BZX131091 CJT131091 CTP131091 DDL131091 DNH131091 DXD131091 EGZ131091 EQV131091 FAR131091 FKN131091 FUJ131091 GEF131091 GOB131091 GXX131091 HHT131091 HRP131091 IBL131091 ILH131091 IVD131091 JEZ131091 JOV131091 JYR131091 KIN131091 KSJ131091 LCF131091 LMB131091 LVX131091 MFT131091 MPP131091 MZL131091 NJH131091 NTD131091 OCZ131091 OMV131091 OWR131091 PGN131091 PQJ131091 QAF131091 QKB131091 QTX131091 RDT131091 RNP131091 RXL131091 SHH131091 SRD131091 TAZ131091 TKV131091 TUR131091 UEN131091 UOJ131091 UYF131091 VIB131091 VRX131091 WBT131091 WLP131091 WVL131091 D196627 IZ196627 SV196627 ACR196627 AMN196627 AWJ196627 BGF196627 BQB196627 BZX196627 CJT196627 CTP196627 DDL196627 DNH196627 DXD196627 EGZ196627 EQV196627 FAR196627 FKN196627 FUJ196627 GEF196627 GOB196627 GXX196627 HHT196627 HRP196627 IBL196627 ILH196627 IVD196627 JEZ196627 JOV196627 JYR196627 KIN196627 KSJ196627 LCF196627 LMB196627 LVX196627 MFT196627 MPP196627 MZL196627 NJH196627 NTD196627 OCZ196627 OMV196627 OWR196627 PGN196627 PQJ196627 QAF196627 QKB196627 QTX196627 RDT196627 RNP196627 RXL196627 SHH196627 SRD196627 TAZ196627 TKV196627 TUR196627 UEN196627 UOJ196627 UYF196627 VIB196627 VRX196627 WBT196627 WLP196627 WVL196627 D262163 IZ262163 SV262163 ACR262163 AMN262163 AWJ262163 BGF262163 BQB262163 BZX262163 CJT262163 CTP262163 DDL262163 DNH262163 DXD262163 EGZ262163 EQV262163 FAR262163 FKN262163 FUJ262163 GEF262163 GOB262163 GXX262163 HHT262163 HRP262163 IBL262163 ILH262163 IVD262163 JEZ262163 JOV262163 JYR262163 KIN262163 KSJ262163 LCF262163 LMB262163 LVX262163 MFT262163 MPP262163 MZL262163 NJH262163 NTD262163 OCZ262163 OMV262163 OWR262163 PGN262163 PQJ262163 QAF262163 QKB262163 QTX262163 RDT262163 RNP262163 RXL262163 SHH262163 SRD262163 TAZ262163 TKV262163 TUR262163 UEN262163 UOJ262163 UYF262163 VIB262163 VRX262163 WBT262163 WLP262163 WVL262163 D327699 IZ327699 SV327699 ACR327699 AMN327699 AWJ327699 BGF327699 BQB327699 BZX327699 CJT327699 CTP327699 DDL327699 DNH327699 DXD327699 EGZ327699 EQV327699 FAR327699 FKN327699 FUJ327699 GEF327699 GOB327699 GXX327699 HHT327699 HRP327699 IBL327699 ILH327699 IVD327699 JEZ327699 JOV327699 JYR327699 KIN327699 KSJ327699 LCF327699 LMB327699 LVX327699 MFT327699 MPP327699 MZL327699 NJH327699 NTD327699 OCZ327699 OMV327699 OWR327699 PGN327699 PQJ327699 QAF327699 QKB327699 QTX327699 RDT327699 RNP327699 RXL327699 SHH327699 SRD327699 TAZ327699 TKV327699 TUR327699 UEN327699 UOJ327699 UYF327699 VIB327699 VRX327699 WBT327699 WLP327699 WVL327699 D393235 IZ393235 SV393235 ACR393235 AMN393235 AWJ393235 BGF393235 BQB393235 BZX393235 CJT393235 CTP393235 DDL393235 DNH393235 DXD393235 EGZ393235 EQV393235 FAR393235 FKN393235 FUJ393235 GEF393235 GOB393235 GXX393235 HHT393235 HRP393235 IBL393235 ILH393235 IVD393235 JEZ393235 JOV393235 JYR393235 KIN393235 KSJ393235 LCF393235 LMB393235 LVX393235 MFT393235 MPP393235 MZL393235 NJH393235 NTD393235 OCZ393235 OMV393235 OWR393235 PGN393235 PQJ393235 QAF393235 QKB393235 QTX393235 RDT393235 RNP393235 RXL393235 SHH393235 SRD393235 TAZ393235 TKV393235 TUR393235 UEN393235 UOJ393235 UYF393235 VIB393235 VRX393235 WBT393235 WLP393235 WVL393235 D458771 IZ458771 SV458771 ACR458771 AMN458771 AWJ458771 BGF458771 BQB458771 BZX458771 CJT458771 CTP458771 DDL458771 DNH458771 DXD458771 EGZ458771 EQV458771 FAR458771 FKN458771 FUJ458771 GEF458771 GOB458771 GXX458771 HHT458771 HRP458771 IBL458771 ILH458771 IVD458771 JEZ458771 JOV458771 JYR458771 KIN458771 KSJ458771 LCF458771 LMB458771 LVX458771 MFT458771 MPP458771 MZL458771 NJH458771 NTD458771 OCZ458771 OMV458771 OWR458771 PGN458771 PQJ458771 QAF458771 QKB458771 QTX458771 RDT458771 RNP458771 RXL458771 SHH458771 SRD458771 TAZ458771 TKV458771 TUR458771 UEN458771 UOJ458771 UYF458771 VIB458771 VRX458771 WBT458771 WLP458771 WVL458771 D524307 IZ524307 SV524307 ACR524307 AMN524307 AWJ524307 BGF524307 BQB524307 BZX524307 CJT524307 CTP524307 DDL524307 DNH524307 DXD524307 EGZ524307 EQV524307 FAR524307 FKN524307 FUJ524307 GEF524307 GOB524307 GXX524307 HHT524307 HRP524307 IBL524307 ILH524307 IVD524307 JEZ524307 JOV524307 JYR524307 KIN524307 KSJ524307 LCF524307 LMB524307 LVX524307 MFT524307 MPP524307 MZL524307 NJH524307 NTD524307 OCZ524307 OMV524307 OWR524307 PGN524307 PQJ524307 QAF524307 QKB524307 QTX524307 RDT524307 RNP524307 RXL524307 SHH524307 SRD524307 TAZ524307 TKV524307 TUR524307 UEN524307 UOJ524307 UYF524307 VIB524307 VRX524307 WBT524307 WLP524307 WVL524307 D589843 IZ589843 SV589843 ACR589843 AMN589843 AWJ589843 BGF589843 BQB589843 BZX589843 CJT589843 CTP589843 DDL589843 DNH589843 DXD589843 EGZ589843 EQV589843 FAR589843 FKN589843 FUJ589843 GEF589843 GOB589843 GXX589843 HHT589843 HRP589843 IBL589843 ILH589843 IVD589843 JEZ589843 JOV589843 JYR589843 KIN589843 KSJ589843 LCF589843 LMB589843 LVX589843 MFT589843 MPP589843 MZL589843 NJH589843 NTD589843 OCZ589843 OMV589843 OWR589843 PGN589843 PQJ589843 QAF589843 QKB589843 QTX589843 RDT589843 RNP589843 RXL589843 SHH589843 SRD589843 TAZ589843 TKV589843 TUR589843 UEN589843 UOJ589843 UYF589843 VIB589843 VRX589843 WBT589843 WLP589843 WVL589843 D655379 IZ655379 SV655379 ACR655379 AMN655379 AWJ655379 BGF655379 BQB655379 BZX655379 CJT655379 CTP655379 DDL655379 DNH655379 DXD655379 EGZ655379 EQV655379 FAR655379 FKN655379 FUJ655379 GEF655379 GOB655379 GXX655379 HHT655379 HRP655379 IBL655379 ILH655379 IVD655379 JEZ655379 JOV655379 JYR655379 KIN655379 KSJ655379 LCF655379 LMB655379 LVX655379 MFT655379 MPP655379 MZL655379 NJH655379 NTD655379 OCZ655379 OMV655379 OWR655379 PGN655379 PQJ655379 QAF655379 QKB655379 QTX655379 RDT655379 RNP655379 RXL655379 SHH655379 SRD655379 TAZ655379 TKV655379 TUR655379 UEN655379 UOJ655379 UYF655379 VIB655379 VRX655379 WBT655379 WLP655379 WVL655379 D720915 IZ720915 SV720915 ACR720915 AMN720915 AWJ720915 BGF720915 BQB720915 BZX720915 CJT720915 CTP720915 DDL720915 DNH720915 DXD720915 EGZ720915 EQV720915 FAR720915 FKN720915 FUJ720915 GEF720915 GOB720915 GXX720915 HHT720915 HRP720915 IBL720915 ILH720915 IVD720915 JEZ720915 JOV720915 JYR720915 KIN720915 KSJ720915 LCF720915 LMB720915 LVX720915 MFT720915 MPP720915 MZL720915 NJH720915 NTD720915 OCZ720915 OMV720915 OWR720915 PGN720915 PQJ720915 QAF720915 QKB720915 QTX720915 RDT720915 RNP720915 RXL720915 SHH720915 SRD720915 TAZ720915 TKV720915 TUR720915 UEN720915 UOJ720915 UYF720915 VIB720915 VRX720915 WBT720915 WLP720915 WVL720915 D786451 IZ786451 SV786451 ACR786451 AMN786451 AWJ786451 BGF786451 BQB786451 BZX786451 CJT786451 CTP786451 DDL786451 DNH786451 DXD786451 EGZ786451 EQV786451 FAR786451 FKN786451 FUJ786451 GEF786451 GOB786451 GXX786451 HHT786451 HRP786451 IBL786451 ILH786451 IVD786451 JEZ786451 JOV786451 JYR786451 KIN786451 KSJ786451 LCF786451 LMB786451 LVX786451 MFT786451 MPP786451 MZL786451 NJH786451 NTD786451 OCZ786451 OMV786451 OWR786451 PGN786451 PQJ786451 QAF786451 QKB786451 QTX786451 RDT786451 RNP786451 RXL786451 SHH786451 SRD786451 TAZ786451 TKV786451 TUR786451 UEN786451 UOJ786451 UYF786451 VIB786451 VRX786451 WBT786451 WLP786451 WVL786451 D851987 IZ851987 SV851987 ACR851987 AMN851987 AWJ851987 BGF851987 BQB851987 BZX851987 CJT851987 CTP851987 DDL851987 DNH851987 DXD851987 EGZ851987 EQV851987 FAR851987 FKN851987 FUJ851987 GEF851987 GOB851987 GXX851987 HHT851987 HRP851987 IBL851987 ILH851987 IVD851987 JEZ851987 JOV851987 JYR851987 KIN851987 KSJ851987 LCF851987 LMB851987 LVX851987 MFT851987 MPP851987 MZL851987 NJH851987 NTD851987 OCZ851987 OMV851987 OWR851987 PGN851987 PQJ851987 QAF851987 QKB851987 QTX851987 RDT851987 RNP851987 RXL851987 SHH851987 SRD851987 TAZ851987 TKV851987 TUR851987 UEN851987 UOJ851987 UYF851987 VIB851987 VRX851987 WBT851987 WLP851987 WVL851987 D917523 IZ917523 SV917523 ACR917523 AMN917523 AWJ917523 BGF917523 BQB917523 BZX917523 CJT917523 CTP917523 DDL917523 DNH917523 DXD917523 EGZ917523 EQV917523 FAR917523 FKN917523 FUJ917523 GEF917523 GOB917523 GXX917523 HHT917523 HRP917523 IBL917523 ILH917523 IVD917523 JEZ917523 JOV917523 JYR917523 KIN917523 KSJ917523 LCF917523 LMB917523 LVX917523 MFT917523 MPP917523 MZL917523 NJH917523 NTD917523 OCZ917523 OMV917523 OWR917523 PGN917523 PQJ917523 QAF917523 QKB917523 QTX917523 RDT917523 RNP917523 RXL917523 SHH917523 SRD917523 TAZ917523 TKV917523 TUR917523 UEN917523 UOJ917523 UYF917523 VIB917523 VRX917523 WBT917523 WLP917523 WVL917523 D983059 IZ983059 SV983059 ACR983059 AMN983059 AWJ983059 BGF983059 BQB983059 BZX983059 CJT983059 CTP983059 DDL983059 DNH983059 DXD983059 EGZ983059 EQV983059 FAR983059 FKN983059 FUJ983059 GEF983059 GOB983059 GXX983059 HHT983059 HRP983059 IBL983059 ILH983059 IVD983059 JEZ983059 JOV983059 JYR983059 KIN983059 KSJ983059 LCF983059 LMB983059 LVX983059 MFT983059 MPP983059 MZL983059 NJH983059 NTD983059 OCZ983059 OMV983059 OWR983059 PGN983059 PQJ983059 QAF983059 QKB983059 QTX983059 RDT983059 RNP983059 RXL983059 SHH983059 SRD983059 TAZ983059 TKV983059 TUR983059 UEN983059 UOJ983059 UYF983059 VIB983059 VRX983059 WBT983059 WLP983059 WVL983059">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 IY19 SU19 ACQ19 AMM19 AWI19 BGE19 BQA19 BZW19 CJS19 CTO19 DDK19 DNG19 DXC19 EGY19 EQU19 FAQ19 FKM19 FUI19 GEE19 GOA19 GXW19 HHS19 HRO19 IBK19 ILG19 IVC19 JEY19 JOU19 JYQ19 KIM19 KSI19 LCE19 LMA19 LVW19 MFS19 MPO19 MZK19 NJG19 NTC19 OCY19 OMU19 OWQ19 PGM19 PQI19 QAE19 QKA19 QTW19 RDS19 RNO19 RXK19 SHG19 SRC19 TAY19 TKU19 TUQ19 UEM19 UOI19 UYE19 VIA19 VRW19 WBS19 WLO19 WVK19 D65555 IY65555 SU65555 ACQ65555 AMM65555 AWI65555 BGE65555 BQA65555 BZW65555 CJS65555 CTO65555 DDK65555 DNG65555 DXC65555 EGY65555 EQU65555 FAQ65555 FKM65555 FUI65555 GEE65555 GOA65555 GXW65555 HHS65555 HRO65555 IBK65555 ILG65555 IVC65555 JEY65555 JOU65555 JYQ65555 KIM65555 KSI65555 LCE65555 LMA65555 LVW65555 MFS65555 MPO65555 MZK65555 NJG65555 NTC65555 OCY65555 OMU65555 OWQ65555 PGM65555 PQI65555 QAE65555 QKA65555 QTW65555 RDS65555 RNO65555 RXK65555 SHG65555 SRC65555 TAY65555 TKU65555 TUQ65555 UEM65555 UOI65555 UYE65555 VIA65555 VRW65555 WBS65555 WLO65555 WVK65555 D131091 IY131091 SU131091 ACQ131091 AMM131091 AWI131091 BGE131091 BQA131091 BZW131091 CJS131091 CTO131091 DDK131091 DNG131091 DXC131091 EGY131091 EQU131091 FAQ131091 FKM131091 FUI131091 GEE131091 GOA131091 GXW131091 HHS131091 HRO131091 IBK131091 ILG131091 IVC131091 JEY131091 JOU131091 JYQ131091 KIM131091 KSI131091 LCE131091 LMA131091 LVW131091 MFS131091 MPO131091 MZK131091 NJG131091 NTC131091 OCY131091 OMU131091 OWQ131091 PGM131091 PQI131091 QAE131091 QKA131091 QTW131091 RDS131091 RNO131091 RXK131091 SHG131091 SRC131091 TAY131091 TKU131091 TUQ131091 UEM131091 UOI131091 UYE131091 VIA131091 VRW131091 WBS131091 WLO131091 WVK131091 D196627 IY196627 SU196627 ACQ196627 AMM196627 AWI196627 BGE196627 BQA196627 BZW196627 CJS196627 CTO196627 DDK196627 DNG196627 DXC196627 EGY196627 EQU196627 FAQ196627 FKM196627 FUI196627 GEE196627 GOA196627 GXW196627 HHS196627 HRO196627 IBK196627 ILG196627 IVC196627 JEY196627 JOU196627 JYQ196627 KIM196627 KSI196627 LCE196627 LMA196627 LVW196627 MFS196627 MPO196627 MZK196627 NJG196627 NTC196627 OCY196627 OMU196627 OWQ196627 PGM196627 PQI196627 QAE196627 QKA196627 QTW196627 RDS196627 RNO196627 RXK196627 SHG196627 SRC196627 TAY196627 TKU196627 TUQ196627 UEM196627 UOI196627 UYE196627 VIA196627 VRW196627 WBS196627 WLO196627 WVK196627 D262163 IY262163 SU262163 ACQ262163 AMM262163 AWI262163 BGE262163 BQA262163 BZW262163 CJS262163 CTO262163 DDK262163 DNG262163 DXC262163 EGY262163 EQU262163 FAQ262163 FKM262163 FUI262163 GEE262163 GOA262163 GXW262163 HHS262163 HRO262163 IBK262163 ILG262163 IVC262163 JEY262163 JOU262163 JYQ262163 KIM262163 KSI262163 LCE262163 LMA262163 LVW262163 MFS262163 MPO262163 MZK262163 NJG262163 NTC262163 OCY262163 OMU262163 OWQ262163 PGM262163 PQI262163 QAE262163 QKA262163 QTW262163 RDS262163 RNO262163 RXK262163 SHG262163 SRC262163 TAY262163 TKU262163 TUQ262163 UEM262163 UOI262163 UYE262163 VIA262163 VRW262163 WBS262163 WLO262163 WVK262163 D327699 IY327699 SU327699 ACQ327699 AMM327699 AWI327699 BGE327699 BQA327699 BZW327699 CJS327699 CTO327699 DDK327699 DNG327699 DXC327699 EGY327699 EQU327699 FAQ327699 FKM327699 FUI327699 GEE327699 GOA327699 GXW327699 HHS327699 HRO327699 IBK327699 ILG327699 IVC327699 JEY327699 JOU327699 JYQ327699 KIM327699 KSI327699 LCE327699 LMA327699 LVW327699 MFS327699 MPO327699 MZK327699 NJG327699 NTC327699 OCY327699 OMU327699 OWQ327699 PGM327699 PQI327699 QAE327699 QKA327699 QTW327699 RDS327699 RNO327699 RXK327699 SHG327699 SRC327699 TAY327699 TKU327699 TUQ327699 UEM327699 UOI327699 UYE327699 VIA327699 VRW327699 WBS327699 WLO327699 WVK327699 D393235 IY393235 SU393235 ACQ393235 AMM393235 AWI393235 BGE393235 BQA393235 BZW393235 CJS393235 CTO393235 DDK393235 DNG393235 DXC393235 EGY393235 EQU393235 FAQ393235 FKM393235 FUI393235 GEE393235 GOA393235 GXW393235 HHS393235 HRO393235 IBK393235 ILG393235 IVC393235 JEY393235 JOU393235 JYQ393235 KIM393235 KSI393235 LCE393235 LMA393235 LVW393235 MFS393235 MPO393235 MZK393235 NJG393235 NTC393235 OCY393235 OMU393235 OWQ393235 PGM393235 PQI393235 QAE393235 QKA393235 QTW393235 RDS393235 RNO393235 RXK393235 SHG393235 SRC393235 TAY393235 TKU393235 TUQ393235 UEM393235 UOI393235 UYE393235 VIA393235 VRW393235 WBS393235 WLO393235 WVK393235 D458771 IY458771 SU458771 ACQ458771 AMM458771 AWI458771 BGE458771 BQA458771 BZW458771 CJS458771 CTO458771 DDK458771 DNG458771 DXC458771 EGY458771 EQU458771 FAQ458771 FKM458771 FUI458771 GEE458771 GOA458771 GXW458771 HHS458771 HRO458771 IBK458771 ILG458771 IVC458771 JEY458771 JOU458771 JYQ458771 KIM458771 KSI458771 LCE458771 LMA458771 LVW458771 MFS458771 MPO458771 MZK458771 NJG458771 NTC458771 OCY458771 OMU458771 OWQ458771 PGM458771 PQI458771 QAE458771 QKA458771 QTW458771 RDS458771 RNO458771 RXK458771 SHG458771 SRC458771 TAY458771 TKU458771 TUQ458771 UEM458771 UOI458771 UYE458771 VIA458771 VRW458771 WBS458771 WLO458771 WVK458771 D524307 IY524307 SU524307 ACQ524307 AMM524307 AWI524307 BGE524307 BQA524307 BZW524307 CJS524307 CTO524307 DDK524307 DNG524307 DXC524307 EGY524307 EQU524307 FAQ524307 FKM524307 FUI524307 GEE524307 GOA524307 GXW524307 HHS524307 HRO524307 IBK524307 ILG524307 IVC524307 JEY524307 JOU524307 JYQ524307 KIM524307 KSI524307 LCE524307 LMA524307 LVW524307 MFS524307 MPO524307 MZK524307 NJG524307 NTC524307 OCY524307 OMU524307 OWQ524307 PGM524307 PQI524307 QAE524307 QKA524307 QTW524307 RDS524307 RNO524307 RXK524307 SHG524307 SRC524307 TAY524307 TKU524307 TUQ524307 UEM524307 UOI524307 UYE524307 VIA524307 VRW524307 WBS524307 WLO524307 WVK524307 D589843 IY589843 SU589843 ACQ589843 AMM589843 AWI589843 BGE589843 BQA589843 BZW589843 CJS589843 CTO589843 DDK589843 DNG589843 DXC589843 EGY589843 EQU589843 FAQ589843 FKM589843 FUI589843 GEE589843 GOA589843 GXW589843 HHS589843 HRO589843 IBK589843 ILG589843 IVC589843 JEY589843 JOU589843 JYQ589843 KIM589843 KSI589843 LCE589843 LMA589843 LVW589843 MFS589843 MPO589843 MZK589843 NJG589843 NTC589843 OCY589843 OMU589843 OWQ589843 PGM589843 PQI589843 QAE589843 QKA589843 QTW589843 RDS589843 RNO589843 RXK589843 SHG589843 SRC589843 TAY589843 TKU589843 TUQ589843 UEM589843 UOI589843 UYE589843 VIA589843 VRW589843 WBS589843 WLO589843 WVK589843 D655379 IY655379 SU655379 ACQ655379 AMM655379 AWI655379 BGE655379 BQA655379 BZW655379 CJS655379 CTO655379 DDK655379 DNG655379 DXC655379 EGY655379 EQU655379 FAQ655379 FKM655379 FUI655379 GEE655379 GOA655379 GXW655379 HHS655379 HRO655379 IBK655379 ILG655379 IVC655379 JEY655379 JOU655379 JYQ655379 KIM655379 KSI655379 LCE655379 LMA655379 LVW655379 MFS655379 MPO655379 MZK655379 NJG655379 NTC655379 OCY655379 OMU655379 OWQ655379 PGM655379 PQI655379 QAE655379 QKA655379 QTW655379 RDS655379 RNO655379 RXK655379 SHG655379 SRC655379 TAY655379 TKU655379 TUQ655379 UEM655379 UOI655379 UYE655379 VIA655379 VRW655379 WBS655379 WLO655379 WVK655379 D720915 IY720915 SU720915 ACQ720915 AMM720915 AWI720915 BGE720915 BQA720915 BZW720915 CJS720915 CTO720915 DDK720915 DNG720915 DXC720915 EGY720915 EQU720915 FAQ720915 FKM720915 FUI720915 GEE720915 GOA720915 GXW720915 HHS720915 HRO720915 IBK720915 ILG720915 IVC720915 JEY720915 JOU720915 JYQ720915 KIM720915 KSI720915 LCE720915 LMA720915 LVW720915 MFS720915 MPO720915 MZK720915 NJG720915 NTC720915 OCY720915 OMU720915 OWQ720915 PGM720915 PQI720915 QAE720915 QKA720915 QTW720915 RDS720915 RNO720915 RXK720915 SHG720915 SRC720915 TAY720915 TKU720915 TUQ720915 UEM720915 UOI720915 UYE720915 VIA720915 VRW720915 WBS720915 WLO720915 WVK720915 D786451 IY786451 SU786451 ACQ786451 AMM786451 AWI786451 BGE786451 BQA786451 BZW786451 CJS786451 CTO786451 DDK786451 DNG786451 DXC786451 EGY786451 EQU786451 FAQ786451 FKM786451 FUI786451 GEE786451 GOA786451 GXW786451 HHS786451 HRO786451 IBK786451 ILG786451 IVC786451 JEY786451 JOU786451 JYQ786451 KIM786451 KSI786451 LCE786451 LMA786451 LVW786451 MFS786451 MPO786451 MZK786451 NJG786451 NTC786451 OCY786451 OMU786451 OWQ786451 PGM786451 PQI786451 QAE786451 QKA786451 QTW786451 RDS786451 RNO786451 RXK786451 SHG786451 SRC786451 TAY786451 TKU786451 TUQ786451 UEM786451 UOI786451 UYE786451 VIA786451 VRW786451 WBS786451 WLO786451 WVK786451 D851987 IY851987 SU851987 ACQ851987 AMM851987 AWI851987 BGE851987 BQA851987 BZW851987 CJS851987 CTO851987 DDK851987 DNG851987 DXC851987 EGY851987 EQU851987 FAQ851987 FKM851987 FUI851987 GEE851987 GOA851987 GXW851987 HHS851987 HRO851987 IBK851987 ILG851987 IVC851987 JEY851987 JOU851987 JYQ851987 KIM851987 KSI851987 LCE851987 LMA851987 LVW851987 MFS851987 MPO851987 MZK851987 NJG851987 NTC851987 OCY851987 OMU851987 OWQ851987 PGM851987 PQI851987 QAE851987 QKA851987 QTW851987 RDS851987 RNO851987 RXK851987 SHG851987 SRC851987 TAY851987 TKU851987 TUQ851987 UEM851987 UOI851987 UYE851987 VIA851987 VRW851987 WBS851987 WLO851987 WVK851987 D917523 IY917523 SU917523 ACQ917523 AMM917523 AWI917523 BGE917523 BQA917523 BZW917523 CJS917523 CTO917523 DDK917523 DNG917523 DXC917523 EGY917523 EQU917523 FAQ917523 FKM917523 FUI917523 GEE917523 GOA917523 GXW917523 HHS917523 HRO917523 IBK917523 ILG917523 IVC917523 JEY917523 JOU917523 JYQ917523 KIM917523 KSI917523 LCE917523 LMA917523 LVW917523 MFS917523 MPO917523 MZK917523 NJG917523 NTC917523 OCY917523 OMU917523 OWQ917523 PGM917523 PQI917523 QAE917523 QKA917523 QTW917523 RDS917523 RNO917523 RXK917523 SHG917523 SRC917523 TAY917523 TKU917523 TUQ917523 UEM917523 UOI917523 UYE917523 VIA917523 VRW917523 WBS917523 WLO917523 WVK917523 D983059 IY983059 SU983059 ACQ983059 AMM983059 AWI983059 BGE983059 BQA983059 BZW983059 CJS983059 CTO983059 DDK983059 DNG983059 DXC983059 EGY983059 EQU983059 FAQ983059 FKM983059 FUI983059 GEE983059 GOA983059 GXW983059 HHS983059 HRO983059 IBK983059 ILG983059 IVC983059 JEY983059 JOU983059 JYQ983059 KIM983059 KSI983059 LCE983059 LMA983059 LVW983059 MFS983059 MPO983059 MZK983059 NJG983059 NTC983059 OCY983059 OMU983059 OWQ983059 PGM983059 PQI983059 QAE983059 QKA983059 QTW983059 RDS983059 RNO983059 RXK983059 SHG983059 SRC983059 TAY983059 TKU983059 TUQ983059 UEM983059 UOI983059 UYE983059 VIA983059 VRW983059 WBS983059 WLO983059 WVK983059">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 IZ4 SV4 ACR4 AMN4 AWJ4 BGF4 BQB4 BZX4 CJT4 CTP4 DDL4 DNH4 DXD4 EGZ4 EQV4 FAR4 FKN4 FUJ4 GEF4 GOB4 GXX4 HHT4 HRP4 IBL4 ILH4 IVD4 JEZ4 JOV4 JYR4 KIN4 KSJ4 LCF4 LMB4 LVX4 MFT4 MPP4 MZL4 NJH4 NTD4 OCZ4 OMV4 OWR4 PGN4 PQJ4 QAF4 QKB4 QTX4 RDT4 RNP4 RXL4 SHH4 SRD4 TAZ4 TKV4 TUR4 UEN4 UOJ4 UYF4 VIB4 VRX4 WBT4 WLP4 WVL4 D65540 IZ65540 SV65540 ACR65540 AMN65540 AWJ65540 BGF65540 BQB65540 BZX65540 CJT65540 CTP65540 DDL65540 DNH65540 DXD65540 EGZ65540 EQV65540 FAR65540 FKN65540 FUJ65540 GEF65540 GOB65540 GXX65540 HHT65540 HRP65540 IBL65540 ILH65540 IVD65540 JEZ65540 JOV65540 JYR65540 KIN65540 KSJ65540 LCF65540 LMB65540 LVX65540 MFT65540 MPP65540 MZL65540 NJH65540 NTD65540 OCZ65540 OMV65540 OWR65540 PGN65540 PQJ65540 QAF65540 QKB65540 QTX65540 RDT65540 RNP65540 RXL65540 SHH65540 SRD65540 TAZ65540 TKV65540 TUR65540 UEN65540 UOJ65540 UYF65540 VIB65540 VRX65540 WBT65540 WLP65540 WVL65540 D131076 IZ131076 SV131076 ACR131076 AMN131076 AWJ131076 BGF131076 BQB131076 BZX131076 CJT131076 CTP131076 DDL131076 DNH131076 DXD131076 EGZ131076 EQV131076 FAR131076 FKN131076 FUJ131076 GEF131076 GOB131076 GXX131076 HHT131076 HRP131076 IBL131076 ILH131076 IVD131076 JEZ131076 JOV131076 JYR131076 KIN131076 KSJ131076 LCF131076 LMB131076 LVX131076 MFT131076 MPP131076 MZL131076 NJH131076 NTD131076 OCZ131076 OMV131076 OWR131076 PGN131076 PQJ131076 QAF131076 QKB131076 QTX131076 RDT131076 RNP131076 RXL131076 SHH131076 SRD131076 TAZ131076 TKV131076 TUR131076 UEN131076 UOJ131076 UYF131076 VIB131076 VRX131076 WBT131076 WLP131076 WVL131076 D196612 IZ196612 SV196612 ACR196612 AMN196612 AWJ196612 BGF196612 BQB196612 BZX196612 CJT196612 CTP196612 DDL196612 DNH196612 DXD196612 EGZ196612 EQV196612 FAR196612 FKN196612 FUJ196612 GEF196612 GOB196612 GXX196612 HHT196612 HRP196612 IBL196612 ILH196612 IVD196612 JEZ196612 JOV196612 JYR196612 KIN196612 KSJ196612 LCF196612 LMB196612 LVX196612 MFT196612 MPP196612 MZL196612 NJH196612 NTD196612 OCZ196612 OMV196612 OWR196612 PGN196612 PQJ196612 QAF196612 QKB196612 QTX196612 RDT196612 RNP196612 RXL196612 SHH196612 SRD196612 TAZ196612 TKV196612 TUR196612 UEN196612 UOJ196612 UYF196612 VIB196612 VRX196612 WBT196612 WLP196612 WVL196612 D262148 IZ262148 SV262148 ACR262148 AMN262148 AWJ262148 BGF262148 BQB262148 BZX262148 CJT262148 CTP262148 DDL262148 DNH262148 DXD262148 EGZ262148 EQV262148 FAR262148 FKN262148 FUJ262148 GEF262148 GOB262148 GXX262148 HHT262148 HRP262148 IBL262148 ILH262148 IVD262148 JEZ262148 JOV262148 JYR262148 KIN262148 KSJ262148 LCF262148 LMB262148 LVX262148 MFT262148 MPP262148 MZL262148 NJH262148 NTD262148 OCZ262148 OMV262148 OWR262148 PGN262148 PQJ262148 QAF262148 QKB262148 QTX262148 RDT262148 RNP262148 RXL262148 SHH262148 SRD262148 TAZ262148 TKV262148 TUR262148 UEN262148 UOJ262148 UYF262148 VIB262148 VRX262148 WBT262148 WLP262148 WVL262148 D327684 IZ327684 SV327684 ACR327684 AMN327684 AWJ327684 BGF327684 BQB327684 BZX327684 CJT327684 CTP327684 DDL327684 DNH327684 DXD327684 EGZ327684 EQV327684 FAR327684 FKN327684 FUJ327684 GEF327684 GOB327684 GXX327684 HHT327684 HRP327684 IBL327684 ILH327684 IVD327684 JEZ327684 JOV327684 JYR327684 KIN327684 KSJ327684 LCF327684 LMB327684 LVX327684 MFT327684 MPP327684 MZL327684 NJH327684 NTD327684 OCZ327684 OMV327684 OWR327684 PGN327684 PQJ327684 QAF327684 QKB327684 QTX327684 RDT327684 RNP327684 RXL327684 SHH327684 SRD327684 TAZ327684 TKV327684 TUR327684 UEN327684 UOJ327684 UYF327684 VIB327684 VRX327684 WBT327684 WLP327684 WVL327684 D393220 IZ393220 SV393220 ACR393220 AMN393220 AWJ393220 BGF393220 BQB393220 BZX393220 CJT393220 CTP393220 DDL393220 DNH393220 DXD393220 EGZ393220 EQV393220 FAR393220 FKN393220 FUJ393220 GEF393220 GOB393220 GXX393220 HHT393220 HRP393220 IBL393220 ILH393220 IVD393220 JEZ393220 JOV393220 JYR393220 KIN393220 KSJ393220 LCF393220 LMB393220 LVX393220 MFT393220 MPP393220 MZL393220 NJH393220 NTD393220 OCZ393220 OMV393220 OWR393220 PGN393220 PQJ393220 QAF393220 QKB393220 QTX393220 RDT393220 RNP393220 RXL393220 SHH393220 SRD393220 TAZ393220 TKV393220 TUR393220 UEN393220 UOJ393220 UYF393220 VIB393220 VRX393220 WBT393220 WLP393220 WVL393220 D458756 IZ458756 SV458756 ACR458756 AMN458756 AWJ458756 BGF458756 BQB458756 BZX458756 CJT458756 CTP458756 DDL458756 DNH458756 DXD458756 EGZ458756 EQV458756 FAR458756 FKN458756 FUJ458756 GEF458756 GOB458756 GXX458756 HHT458756 HRP458756 IBL458756 ILH458756 IVD458756 JEZ458756 JOV458756 JYR458756 KIN458756 KSJ458756 LCF458756 LMB458756 LVX458756 MFT458756 MPP458756 MZL458756 NJH458756 NTD458756 OCZ458756 OMV458756 OWR458756 PGN458756 PQJ458756 QAF458756 QKB458756 QTX458756 RDT458756 RNP458756 RXL458756 SHH458756 SRD458756 TAZ458756 TKV458756 TUR458756 UEN458756 UOJ458756 UYF458756 VIB458756 VRX458756 WBT458756 WLP458756 WVL458756 D524292 IZ524292 SV524292 ACR524292 AMN524292 AWJ524292 BGF524292 BQB524292 BZX524292 CJT524292 CTP524292 DDL524292 DNH524292 DXD524292 EGZ524292 EQV524292 FAR524292 FKN524292 FUJ524292 GEF524292 GOB524292 GXX524292 HHT524292 HRP524292 IBL524292 ILH524292 IVD524292 JEZ524292 JOV524292 JYR524292 KIN524292 KSJ524292 LCF524292 LMB524292 LVX524292 MFT524292 MPP524292 MZL524292 NJH524292 NTD524292 OCZ524292 OMV524292 OWR524292 PGN524292 PQJ524292 QAF524292 QKB524292 QTX524292 RDT524292 RNP524292 RXL524292 SHH524292 SRD524292 TAZ524292 TKV524292 TUR524292 UEN524292 UOJ524292 UYF524292 VIB524292 VRX524292 WBT524292 WLP524292 WVL524292 D589828 IZ589828 SV589828 ACR589828 AMN589828 AWJ589828 BGF589828 BQB589828 BZX589828 CJT589828 CTP589828 DDL589828 DNH589828 DXD589828 EGZ589828 EQV589828 FAR589828 FKN589828 FUJ589828 GEF589828 GOB589828 GXX589828 HHT589828 HRP589828 IBL589828 ILH589828 IVD589828 JEZ589828 JOV589828 JYR589828 KIN589828 KSJ589828 LCF589828 LMB589828 LVX589828 MFT589828 MPP589828 MZL589828 NJH589828 NTD589828 OCZ589828 OMV589828 OWR589828 PGN589828 PQJ589828 QAF589828 QKB589828 QTX589828 RDT589828 RNP589828 RXL589828 SHH589828 SRD589828 TAZ589828 TKV589828 TUR589828 UEN589828 UOJ589828 UYF589828 VIB589828 VRX589828 WBT589828 WLP589828 WVL589828 D655364 IZ655364 SV655364 ACR655364 AMN655364 AWJ655364 BGF655364 BQB655364 BZX655364 CJT655364 CTP655364 DDL655364 DNH655364 DXD655364 EGZ655364 EQV655364 FAR655364 FKN655364 FUJ655364 GEF655364 GOB655364 GXX655364 HHT655364 HRP655364 IBL655364 ILH655364 IVD655364 JEZ655364 JOV655364 JYR655364 KIN655364 KSJ655364 LCF655364 LMB655364 LVX655364 MFT655364 MPP655364 MZL655364 NJH655364 NTD655364 OCZ655364 OMV655364 OWR655364 PGN655364 PQJ655364 QAF655364 QKB655364 QTX655364 RDT655364 RNP655364 RXL655364 SHH655364 SRD655364 TAZ655364 TKV655364 TUR655364 UEN655364 UOJ655364 UYF655364 VIB655364 VRX655364 WBT655364 WLP655364 WVL655364 D720900 IZ720900 SV720900 ACR720900 AMN720900 AWJ720900 BGF720900 BQB720900 BZX720900 CJT720900 CTP720900 DDL720900 DNH720900 DXD720900 EGZ720900 EQV720900 FAR720900 FKN720900 FUJ720900 GEF720900 GOB720900 GXX720900 HHT720900 HRP720900 IBL720900 ILH720900 IVD720900 JEZ720900 JOV720900 JYR720900 KIN720900 KSJ720900 LCF720900 LMB720900 LVX720900 MFT720900 MPP720900 MZL720900 NJH720900 NTD720900 OCZ720900 OMV720900 OWR720900 PGN720900 PQJ720900 QAF720900 QKB720900 QTX720900 RDT720900 RNP720900 RXL720900 SHH720900 SRD720900 TAZ720900 TKV720900 TUR720900 UEN720900 UOJ720900 UYF720900 VIB720900 VRX720900 WBT720900 WLP720900 WVL720900 D786436 IZ786436 SV786436 ACR786436 AMN786436 AWJ786436 BGF786436 BQB786436 BZX786436 CJT786436 CTP786436 DDL786436 DNH786436 DXD786436 EGZ786436 EQV786436 FAR786436 FKN786436 FUJ786436 GEF786436 GOB786436 GXX786436 HHT786436 HRP786436 IBL786436 ILH786436 IVD786436 JEZ786436 JOV786436 JYR786436 KIN786436 KSJ786436 LCF786436 LMB786436 LVX786436 MFT786436 MPP786436 MZL786436 NJH786436 NTD786436 OCZ786436 OMV786436 OWR786436 PGN786436 PQJ786436 QAF786436 QKB786436 QTX786436 RDT786436 RNP786436 RXL786436 SHH786436 SRD786436 TAZ786436 TKV786436 TUR786436 UEN786436 UOJ786436 UYF786436 VIB786436 VRX786436 WBT786436 WLP786436 WVL786436 D851972 IZ851972 SV851972 ACR851972 AMN851972 AWJ851972 BGF851972 BQB851972 BZX851972 CJT851972 CTP851972 DDL851972 DNH851972 DXD851972 EGZ851972 EQV851972 FAR851972 FKN851972 FUJ851972 GEF851972 GOB851972 GXX851972 HHT851972 HRP851972 IBL851972 ILH851972 IVD851972 JEZ851972 JOV851972 JYR851972 KIN851972 KSJ851972 LCF851972 LMB851972 LVX851972 MFT851972 MPP851972 MZL851972 NJH851972 NTD851972 OCZ851972 OMV851972 OWR851972 PGN851972 PQJ851972 QAF851972 QKB851972 QTX851972 RDT851972 RNP851972 RXL851972 SHH851972 SRD851972 TAZ851972 TKV851972 TUR851972 UEN851972 UOJ851972 UYF851972 VIB851972 VRX851972 WBT851972 WLP851972 WVL851972 D917508 IZ917508 SV917508 ACR917508 AMN917508 AWJ917508 BGF917508 BQB917508 BZX917508 CJT917508 CTP917508 DDL917508 DNH917508 DXD917508 EGZ917508 EQV917508 FAR917508 FKN917508 FUJ917508 GEF917508 GOB917508 GXX917508 HHT917508 HRP917508 IBL917508 ILH917508 IVD917508 JEZ917508 JOV917508 JYR917508 KIN917508 KSJ917508 LCF917508 LMB917508 LVX917508 MFT917508 MPP917508 MZL917508 NJH917508 NTD917508 OCZ917508 OMV917508 OWR917508 PGN917508 PQJ917508 QAF917508 QKB917508 QTX917508 RDT917508 RNP917508 RXL917508 SHH917508 SRD917508 TAZ917508 TKV917508 TUR917508 UEN917508 UOJ917508 UYF917508 VIB917508 VRX917508 WBT917508 WLP917508 WVL917508 D983044 IZ983044 SV983044 ACR983044 AMN983044 AWJ983044 BGF983044 BQB983044 BZX983044 CJT983044 CTP983044 DDL983044 DNH983044 DXD983044 EGZ983044 EQV983044 FAR983044 FKN983044 FUJ983044 GEF983044 GOB983044 GXX983044 HHT983044 HRP983044 IBL983044 ILH983044 IVD983044 JEZ983044 JOV983044 JYR983044 KIN983044 KSJ983044 LCF983044 LMB983044 LVX983044 MFT983044 MPP983044 MZL983044 NJH983044 NTD983044 OCZ983044 OMV983044 OWR983044 PGN983044 PQJ983044 QAF983044 QKB983044 QTX983044 RDT983044 RNP983044 RXL983044 SHH983044 SRD983044 TAZ983044 TKV983044 TUR983044 UEN983044 UOJ983044 UYF983044 VIB983044 VRX983044 WBT983044 WLP983044 WVL983044">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 IY4 SU4 ACQ4 AMM4 AWI4 BGE4 BQA4 BZW4 CJS4 CTO4 DDK4 DNG4 DXC4 EGY4 EQU4 FAQ4 FKM4 FUI4 GEE4 GOA4 GXW4 HHS4 HRO4 IBK4 ILG4 IVC4 JEY4 JOU4 JYQ4 KIM4 KSI4 LCE4 LMA4 LVW4 MFS4 MPO4 MZK4 NJG4 NTC4 OCY4 OMU4 OWQ4 PGM4 PQI4 QAE4 QKA4 QTW4 RDS4 RNO4 RXK4 SHG4 SRC4 TAY4 TKU4 TUQ4 UEM4 UOI4 UYE4 VIA4 VRW4 WBS4 WLO4 WVK4 D65540 IY65540 SU65540 ACQ65540 AMM65540 AWI65540 BGE65540 BQA65540 BZW65540 CJS65540 CTO65540 DDK65540 DNG65540 DXC65540 EGY65540 EQU65540 FAQ65540 FKM65540 FUI65540 GEE65540 GOA65540 GXW65540 HHS65540 HRO65540 IBK65540 ILG65540 IVC65540 JEY65540 JOU65540 JYQ65540 KIM65540 KSI65540 LCE65540 LMA65540 LVW65540 MFS65540 MPO65540 MZK65540 NJG65540 NTC65540 OCY65540 OMU65540 OWQ65540 PGM65540 PQI65540 QAE65540 QKA65540 QTW65540 RDS65540 RNO65540 RXK65540 SHG65540 SRC65540 TAY65540 TKU65540 TUQ65540 UEM65540 UOI65540 UYE65540 VIA65540 VRW65540 WBS65540 WLO65540 WVK65540 D131076 IY131076 SU131076 ACQ131076 AMM131076 AWI131076 BGE131076 BQA131076 BZW131076 CJS131076 CTO131076 DDK131076 DNG131076 DXC131076 EGY131076 EQU131076 FAQ131076 FKM131076 FUI131076 GEE131076 GOA131076 GXW131076 HHS131076 HRO131076 IBK131076 ILG131076 IVC131076 JEY131076 JOU131076 JYQ131076 KIM131076 KSI131076 LCE131076 LMA131076 LVW131076 MFS131076 MPO131076 MZK131076 NJG131076 NTC131076 OCY131076 OMU131076 OWQ131076 PGM131076 PQI131076 QAE131076 QKA131076 QTW131076 RDS131076 RNO131076 RXK131076 SHG131076 SRC131076 TAY131076 TKU131076 TUQ131076 UEM131076 UOI131076 UYE131076 VIA131076 VRW131076 WBS131076 WLO131076 WVK131076 D196612 IY196612 SU196612 ACQ196612 AMM196612 AWI196612 BGE196612 BQA196612 BZW196612 CJS196612 CTO196612 DDK196612 DNG196612 DXC196612 EGY196612 EQU196612 FAQ196612 FKM196612 FUI196612 GEE196612 GOA196612 GXW196612 HHS196612 HRO196612 IBK196612 ILG196612 IVC196612 JEY196612 JOU196612 JYQ196612 KIM196612 KSI196612 LCE196612 LMA196612 LVW196612 MFS196612 MPO196612 MZK196612 NJG196612 NTC196612 OCY196612 OMU196612 OWQ196612 PGM196612 PQI196612 QAE196612 QKA196612 QTW196612 RDS196612 RNO196612 RXK196612 SHG196612 SRC196612 TAY196612 TKU196612 TUQ196612 UEM196612 UOI196612 UYE196612 VIA196612 VRW196612 WBS196612 WLO196612 WVK196612 D262148 IY262148 SU262148 ACQ262148 AMM262148 AWI262148 BGE262148 BQA262148 BZW262148 CJS262148 CTO262148 DDK262148 DNG262148 DXC262148 EGY262148 EQU262148 FAQ262148 FKM262148 FUI262148 GEE262148 GOA262148 GXW262148 HHS262148 HRO262148 IBK262148 ILG262148 IVC262148 JEY262148 JOU262148 JYQ262148 KIM262148 KSI262148 LCE262148 LMA262148 LVW262148 MFS262148 MPO262148 MZK262148 NJG262148 NTC262148 OCY262148 OMU262148 OWQ262148 PGM262148 PQI262148 QAE262148 QKA262148 QTW262148 RDS262148 RNO262148 RXK262148 SHG262148 SRC262148 TAY262148 TKU262148 TUQ262148 UEM262148 UOI262148 UYE262148 VIA262148 VRW262148 WBS262148 WLO262148 WVK262148 D327684 IY327684 SU327684 ACQ327684 AMM327684 AWI327684 BGE327684 BQA327684 BZW327684 CJS327684 CTO327684 DDK327684 DNG327684 DXC327684 EGY327684 EQU327684 FAQ327684 FKM327684 FUI327684 GEE327684 GOA327684 GXW327684 HHS327684 HRO327684 IBK327684 ILG327684 IVC327684 JEY327684 JOU327684 JYQ327684 KIM327684 KSI327684 LCE327684 LMA327684 LVW327684 MFS327684 MPO327684 MZK327684 NJG327684 NTC327684 OCY327684 OMU327684 OWQ327684 PGM327684 PQI327684 QAE327684 QKA327684 QTW327684 RDS327684 RNO327684 RXK327684 SHG327684 SRC327684 TAY327684 TKU327684 TUQ327684 UEM327684 UOI327684 UYE327684 VIA327684 VRW327684 WBS327684 WLO327684 WVK327684 D393220 IY393220 SU393220 ACQ393220 AMM393220 AWI393220 BGE393220 BQA393220 BZW393220 CJS393220 CTO393220 DDK393220 DNG393220 DXC393220 EGY393220 EQU393220 FAQ393220 FKM393220 FUI393220 GEE393220 GOA393220 GXW393220 HHS393220 HRO393220 IBK393220 ILG393220 IVC393220 JEY393220 JOU393220 JYQ393220 KIM393220 KSI393220 LCE393220 LMA393220 LVW393220 MFS393220 MPO393220 MZK393220 NJG393220 NTC393220 OCY393220 OMU393220 OWQ393220 PGM393220 PQI393220 QAE393220 QKA393220 QTW393220 RDS393220 RNO393220 RXK393220 SHG393220 SRC393220 TAY393220 TKU393220 TUQ393220 UEM393220 UOI393220 UYE393220 VIA393220 VRW393220 WBS393220 WLO393220 WVK393220 D458756 IY458756 SU458756 ACQ458756 AMM458756 AWI458756 BGE458756 BQA458756 BZW458756 CJS458756 CTO458756 DDK458756 DNG458756 DXC458756 EGY458756 EQU458756 FAQ458756 FKM458756 FUI458756 GEE458756 GOA458756 GXW458756 HHS458756 HRO458756 IBK458756 ILG458756 IVC458756 JEY458756 JOU458756 JYQ458756 KIM458756 KSI458756 LCE458756 LMA458756 LVW458756 MFS458756 MPO458756 MZK458756 NJG458756 NTC458756 OCY458756 OMU458756 OWQ458756 PGM458756 PQI458756 QAE458756 QKA458756 QTW458756 RDS458756 RNO458756 RXK458756 SHG458756 SRC458756 TAY458756 TKU458756 TUQ458756 UEM458756 UOI458756 UYE458756 VIA458756 VRW458756 WBS458756 WLO458756 WVK458756 D524292 IY524292 SU524292 ACQ524292 AMM524292 AWI524292 BGE524292 BQA524292 BZW524292 CJS524292 CTO524292 DDK524292 DNG524292 DXC524292 EGY524292 EQU524292 FAQ524292 FKM524292 FUI524292 GEE524292 GOA524292 GXW524292 HHS524292 HRO524292 IBK524292 ILG524292 IVC524292 JEY524292 JOU524292 JYQ524292 KIM524292 KSI524292 LCE524292 LMA524292 LVW524292 MFS524292 MPO524292 MZK524292 NJG524292 NTC524292 OCY524292 OMU524292 OWQ524292 PGM524292 PQI524292 QAE524292 QKA524292 QTW524292 RDS524292 RNO524292 RXK524292 SHG524292 SRC524292 TAY524292 TKU524292 TUQ524292 UEM524292 UOI524292 UYE524292 VIA524292 VRW524292 WBS524292 WLO524292 WVK524292 D589828 IY589828 SU589828 ACQ589828 AMM589828 AWI589828 BGE589828 BQA589828 BZW589828 CJS589828 CTO589828 DDK589828 DNG589828 DXC589828 EGY589828 EQU589828 FAQ589828 FKM589828 FUI589828 GEE589828 GOA589828 GXW589828 HHS589828 HRO589828 IBK589828 ILG589828 IVC589828 JEY589828 JOU589828 JYQ589828 KIM589828 KSI589828 LCE589828 LMA589828 LVW589828 MFS589828 MPO589828 MZK589828 NJG589828 NTC589828 OCY589828 OMU589828 OWQ589828 PGM589828 PQI589828 QAE589828 QKA589828 QTW589828 RDS589828 RNO589828 RXK589828 SHG589828 SRC589828 TAY589828 TKU589828 TUQ589828 UEM589828 UOI589828 UYE589828 VIA589828 VRW589828 WBS589828 WLO589828 WVK589828 D655364 IY655364 SU655364 ACQ655364 AMM655364 AWI655364 BGE655364 BQA655364 BZW655364 CJS655364 CTO655364 DDK655364 DNG655364 DXC655364 EGY655364 EQU655364 FAQ655364 FKM655364 FUI655364 GEE655364 GOA655364 GXW655364 HHS655364 HRO655364 IBK655364 ILG655364 IVC655364 JEY655364 JOU655364 JYQ655364 KIM655364 KSI655364 LCE655364 LMA655364 LVW655364 MFS655364 MPO655364 MZK655364 NJG655364 NTC655364 OCY655364 OMU655364 OWQ655364 PGM655364 PQI655364 QAE655364 QKA655364 QTW655364 RDS655364 RNO655364 RXK655364 SHG655364 SRC655364 TAY655364 TKU655364 TUQ655364 UEM655364 UOI655364 UYE655364 VIA655364 VRW655364 WBS655364 WLO655364 WVK655364 D720900 IY720900 SU720900 ACQ720900 AMM720900 AWI720900 BGE720900 BQA720900 BZW720900 CJS720900 CTO720900 DDK720900 DNG720900 DXC720900 EGY720900 EQU720900 FAQ720900 FKM720900 FUI720900 GEE720900 GOA720900 GXW720900 HHS720900 HRO720900 IBK720900 ILG720900 IVC720900 JEY720900 JOU720900 JYQ720900 KIM720900 KSI720900 LCE720900 LMA720900 LVW720900 MFS720900 MPO720900 MZK720900 NJG720900 NTC720900 OCY720900 OMU720900 OWQ720900 PGM720900 PQI720900 QAE720900 QKA720900 QTW720900 RDS720900 RNO720900 RXK720900 SHG720900 SRC720900 TAY720900 TKU720900 TUQ720900 UEM720900 UOI720900 UYE720900 VIA720900 VRW720900 WBS720900 WLO720900 WVK720900 D786436 IY786436 SU786436 ACQ786436 AMM786436 AWI786436 BGE786436 BQA786436 BZW786436 CJS786436 CTO786436 DDK786436 DNG786436 DXC786436 EGY786436 EQU786436 FAQ786436 FKM786436 FUI786436 GEE786436 GOA786436 GXW786436 HHS786436 HRO786436 IBK786436 ILG786436 IVC786436 JEY786436 JOU786436 JYQ786436 KIM786436 KSI786436 LCE786436 LMA786436 LVW786436 MFS786436 MPO786436 MZK786436 NJG786436 NTC786436 OCY786436 OMU786436 OWQ786436 PGM786436 PQI786436 QAE786436 QKA786436 QTW786436 RDS786436 RNO786436 RXK786436 SHG786436 SRC786436 TAY786436 TKU786436 TUQ786436 UEM786436 UOI786436 UYE786436 VIA786436 VRW786436 WBS786436 WLO786436 WVK786436 D851972 IY851972 SU851972 ACQ851972 AMM851972 AWI851972 BGE851972 BQA851972 BZW851972 CJS851972 CTO851972 DDK851972 DNG851972 DXC851972 EGY851972 EQU851972 FAQ851972 FKM851972 FUI851972 GEE851972 GOA851972 GXW851972 HHS851972 HRO851972 IBK851972 ILG851972 IVC851972 JEY851972 JOU851972 JYQ851972 KIM851972 KSI851972 LCE851972 LMA851972 LVW851972 MFS851972 MPO851972 MZK851972 NJG851972 NTC851972 OCY851972 OMU851972 OWQ851972 PGM851972 PQI851972 QAE851972 QKA851972 QTW851972 RDS851972 RNO851972 RXK851972 SHG851972 SRC851972 TAY851972 TKU851972 TUQ851972 UEM851972 UOI851972 UYE851972 VIA851972 VRW851972 WBS851972 WLO851972 WVK851972 D917508 IY917508 SU917508 ACQ917508 AMM917508 AWI917508 BGE917508 BQA917508 BZW917508 CJS917508 CTO917508 DDK917508 DNG917508 DXC917508 EGY917508 EQU917508 FAQ917508 FKM917508 FUI917508 GEE917508 GOA917508 GXW917508 HHS917508 HRO917508 IBK917508 ILG917508 IVC917508 JEY917508 JOU917508 JYQ917508 KIM917508 KSI917508 LCE917508 LMA917508 LVW917508 MFS917508 MPO917508 MZK917508 NJG917508 NTC917508 OCY917508 OMU917508 OWQ917508 PGM917508 PQI917508 QAE917508 QKA917508 QTW917508 RDS917508 RNO917508 RXK917508 SHG917508 SRC917508 TAY917508 TKU917508 TUQ917508 UEM917508 UOI917508 UYE917508 VIA917508 VRW917508 WBS917508 WLO917508 WVK917508 D983044 IY983044 SU983044 ACQ983044 AMM983044 AWI983044 BGE983044 BQA983044 BZW983044 CJS983044 CTO983044 DDK983044 DNG983044 DXC983044 EGY983044 EQU983044 FAQ983044 FKM983044 FUI983044 GEE983044 GOA983044 GXW983044 HHS983044 HRO983044 IBK983044 ILG983044 IVC983044 JEY983044 JOU983044 JYQ983044 KIM983044 KSI983044 LCE983044 LMA983044 LVW983044 MFS983044 MPO983044 MZK983044 NJG983044 NTC983044 OCY983044 OMU983044 OWQ983044 PGM983044 PQI983044 QAE983044 QKA983044 QTW983044 RDS983044 RNO983044 RXK983044 SHG983044 SRC983044 TAY983044 TKU983044 TUQ983044 UEM983044 UOI983044 UYE983044 VIA983044 VRW983044 WBS983044 WLO983044 WVK983044">
       <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 IZ18 SV18 ACR18 AMN18 AWJ18 BGF18 BQB18 BZX18 CJT18 CTP18 DDL18 DNH18 DXD18 EGZ18 EQV18 FAR18 FKN18 FUJ18 GEF18 GOB18 GXX18 HHT18 HRP18 IBL18 ILH18 IVD18 JEZ18 JOV18 JYR18 KIN18 KSJ18 LCF18 LMB18 LVX18 MFT18 MPP18 MZL18 NJH18 NTD18 OCZ18 OMV18 OWR18 PGN18 PQJ18 QAF18 QKB18 QTX18 RDT18 RNP18 RXL18 SHH18 SRD18 TAZ18 TKV18 TUR18 UEN18 UOJ18 UYF18 VIB18 VRX18 WBT18 WLP18 WVL18 D65554 IZ65554 SV65554 ACR65554 AMN65554 AWJ65554 BGF65554 BQB65554 BZX65554 CJT65554 CTP65554 DDL65554 DNH65554 DXD65554 EGZ65554 EQV65554 FAR65554 FKN65554 FUJ65554 GEF65554 GOB65554 GXX65554 HHT65554 HRP65554 IBL65554 ILH65554 IVD65554 JEZ65554 JOV65554 JYR65554 KIN65554 KSJ65554 LCF65554 LMB65554 LVX65554 MFT65554 MPP65554 MZL65554 NJH65554 NTD65554 OCZ65554 OMV65554 OWR65554 PGN65554 PQJ65554 QAF65554 QKB65554 QTX65554 RDT65554 RNP65554 RXL65554 SHH65554 SRD65554 TAZ65554 TKV65554 TUR65554 UEN65554 UOJ65554 UYF65554 VIB65554 VRX65554 WBT65554 WLP65554 WVL65554 D131090 IZ131090 SV131090 ACR131090 AMN131090 AWJ131090 BGF131090 BQB131090 BZX131090 CJT131090 CTP131090 DDL131090 DNH131090 DXD131090 EGZ131090 EQV131090 FAR131090 FKN131090 FUJ131090 GEF131090 GOB131090 GXX131090 HHT131090 HRP131090 IBL131090 ILH131090 IVD131090 JEZ131090 JOV131090 JYR131090 KIN131090 KSJ131090 LCF131090 LMB131090 LVX131090 MFT131090 MPP131090 MZL131090 NJH131090 NTD131090 OCZ131090 OMV131090 OWR131090 PGN131090 PQJ131090 QAF131090 QKB131090 QTX131090 RDT131090 RNP131090 RXL131090 SHH131090 SRD131090 TAZ131090 TKV131090 TUR131090 UEN131090 UOJ131090 UYF131090 VIB131090 VRX131090 WBT131090 WLP131090 WVL131090 D196626 IZ196626 SV196626 ACR196626 AMN196626 AWJ196626 BGF196626 BQB196626 BZX196626 CJT196626 CTP196626 DDL196626 DNH196626 DXD196626 EGZ196626 EQV196626 FAR196626 FKN196626 FUJ196626 GEF196626 GOB196626 GXX196626 HHT196626 HRP196626 IBL196626 ILH196626 IVD196626 JEZ196626 JOV196626 JYR196626 KIN196626 KSJ196626 LCF196626 LMB196626 LVX196626 MFT196626 MPP196626 MZL196626 NJH196626 NTD196626 OCZ196626 OMV196626 OWR196626 PGN196626 PQJ196626 QAF196626 QKB196626 QTX196626 RDT196626 RNP196626 RXL196626 SHH196626 SRD196626 TAZ196626 TKV196626 TUR196626 UEN196626 UOJ196626 UYF196626 VIB196626 VRX196626 WBT196626 WLP196626 WVL196626 D262162 IZ262162 SV262162 ACR262162 AMN262162 AWJ262162 BGF262162 BQB262162 BZX262162 CJT262162 CTP262162 DDL262162 DNH262162 DXD262162 EGZ262162 EQV262162 FAR262162 FKN262162 FUJ262162 GEF262162 GOB262162 GXX262162 HHT262162 HRP262162 IBL262162 ILH262162 IVD262162 JEZ262162 JOV262162 JYR262162 KIN262162 KSJ262162 LCF262162 LMB262162 LVX262162 MFT262162 MPP262162 MZL262162 NJH262162 NTD262162 OCZ262162 OMV262162 OWR262162 PGN262162 PQJ262162 QAF262162 QKB262162 QTX262162 RDT262162 RNP262162 RXL262162 SHH262162 SRD262162 TAZ262162 TKV262162 TUR262162 UEN262162 UOJ262162 UYF262162 VIB262162 VRX262162 WBT262162 WLP262162 WVL262162 D327698 IZ327698 SV327698 ACR327698 AMN327698 AWJ327698 BGF327698 BQB327698 BZX327698 CJT327698 CTP327698 DDL327698 DNH327698 DXD327698 EGZ327698 EQV327698 FAR327698 FKN327698 FUJ327698 GEF327698 GOB327698 GXX327698 HHT327698 HRP327698 IBL327698 ILH327698 IVD327698 JEZ327698 JOV327698 JYR327698 KIN327698 KSJ327698 LCF327698 LMB327698 LVX327698 MFT327698 MPP327698 MZL327698 NJH327698 NTD327698 OCZ327698 OMV327698 OWR327698 PGN327698 PQJ327698 QAF327698 QKB327698 QTX327698 RDT327698 RNP327698 RXL327698 SHH327698 SRD327698 TAZ327698 TKV327698 TUR327698 UEN327698 UOJ327698 UYF327698 VIB327698 VRX327698 WBT327698 WLP327698 WVL327698 D393234 IZ393234 SV393234 ACR393234 AMN393234 AWJ393234 BGF393234 BQB393234 BZX393234 CJT393234 CTP393234 DDL393234 DNH393234 DXD393234 EGZ393234 EQV393234 FAR393234 FKN393234 FUJ393234 GEF393234 GOB393234 GXX393234 HHT393234 HRP393234 IBL393234 ILH393234 IVD393234 JEZ393234 JOV393234 JYR393234 KIN393234 KSJ393234 LCF393234 LMB393234 LVX393234 MFT393234 MPP393234 MZL393234 NJH393234 NTD393234 OCZ393234 OMV393234 OWR393234 PGN393234 PQJ393234 QAF393234 QKB393234 QTX393234 RDT393234 RNP393234 RXL393234 SHH393234 SRD393234 TAZ393234 TKV393234 TUR393234 UEN393234 UOJ393234 UYF393234 VIB393234 VRX393234 WBT393234 WLP393234 WVL393234 D458770 IZ458770 SV458770 ACR458770 AMN458770 AWJ458770 BGF458770 BQB458770 BZX458770 CJT458770 CTP458770 DDL458770 DNH458770 DXD458770 EGZ458770 EQV458770 FAR458770 FKN458770 FUJ458770 GEF458770 GOB458770 GXX458770 HHT458770 HRP458770 IBL458770 ILH458770 IVD458770 JEZ458770 JOV458770 JYR458770 KIN458770 KSJ458770 LCF458770 LMB458770 LVX458770 MFT458770 MPP458770 MZL458770 NJH458770 NTD458770 OCZ458770 OMV458770 OWR458770 PGN458770 PQJ458770 QAF458770 QKB458770 QTX458770 RDT458770 RNP458770 RXL458770 SHH458770 SRD458770 TAZ458770 TKV458770 TUR458770 UEN458770 UOJ458770 UYF458770 VIB458770 VRX458770 WBT458770 WLP458770 WVL458770 D524306 IZ524306 SV524306 ACR524306 AMN524306 AWJ524306 BGF524306 BQB524306 BZX524306 CJT524306 CTP524306 DDL524306 DNH524306 DXD524306 EGZ524306 EQV524306 FAR524306 FKN524306 FUJ524306 GEF524306 GOB524306 GXX524306 HHT524306 HRP524306 IBL524306 ILH524306 IVD524306 JEZ524306 JOV524306 JYR524306 KIN524306 KSJ524306 LCF524306 LMB524306 LVX524306 MFT524306 MPP524306 MZL524306 NJH524306 NTD524306 OCZ524306 OMV524306 OWR524306 PGN524306 PQJ524306 QAF524306 QKB524306 QTX524306 RDT524306 RNP524306 RXL524306 SHH524306 SRD524306 TAZ524306 TKV524306 TUR524306 UEN524306 UOJ524306 UYF524306 VIB524306 VRX524306 WBT524306 WLP524306 WVL524306 D589842 IZ589842 SV589842 ACR589842 AMN589842 AWJ589842 BGF589842 BQB589842 BZX589842 CJT589842 CTP589842 DDL589842 DNH589842 DXD589842 EGZ589842 EQV589842 FAR589842 FKN589842 FUJ589842 GEF589842 GOB589842 GXX589842 HHT589842 HRP589842 IBL589842 ILH589842 IVD589842 JEZ589842 JOV589842 JYR589842 KIN589842 KSJ589842 LCF589842 LMB589842 LVX589842 MFT589842 MPP589842 MZL589842 NJH589842 NTD589842 OCZ589842 OMV589842 OWR589842 PGN589842 PQJ589842 QAF589842 QKB589842 QTX589842 RDT589842 RNP589842 RXL589842 SHH589842 SRD589842 TAZ589842 TKV589842 TUR589842 UEN589842 UOJ589842 UYF589842 VIB589842 VRX589842 WBT589842 WLP589842 WVL589842 D655378 IZ655378 SV655378 ACR655378 AMN655378 AWJ655378 BGF655378 BQB655378 BZX655378 CJT655378 CTP655378 DDL655378 DNH655378 DXD655378 EGZ655378 EQV655378 FAR655378 FKN655378 FUJ655378 GEF655378 GOB655378 GXX655378 HHT655378 HRP655378 IBL655378 ILH655378 IVD655378 JEZ655378 JOV655378 JYR655378 KIN655378 KSJ655378 LCF655378 LMB655378 LVX655378 MFT655378 MPP655378 MZL655378 NJH655378 NTD655378 OCZ655378 OMV655378 OWR655378 PGN655378 PQJ655378 QAF655378 QKB655378 QTX655378 RDT655378 RNP655378 RXL655378 SHH655378 SRD655378 TAZ655378 TKV655378 TUR655378 UEN655378 UOJ655378 UYF655378 VIB655378 VRX655378 WBT655378 WLP655378 WVL655378 D720914 IZ720914 SV720914 ACR720914 AMN720914 AWJ720914 BGF720914 BQB720914 BZX720914 CJT720914 CTP720914 DDL720914 DNH720914 DXD720914 EGZ720914 EQV720914 FAR720914 FKN720914 FUJ720914 GEF720914 GOB720914 GXX720914 HHT720914 HRP720914 IBL720914 ILH720914 IVD720914 JEZ720914 JOV720914 JYR720914 KIN720914 KSJ720914 LCF720914 LMB720914 LVX720914 MFT720914 MPP720914 MZL720914 NJH720914 NTD720914 OCZ720914 OMV720914 OWR720914 PGN720914 PQJ720914 QAF720914 QKB720914 QTX720914 RDT720914 RNP720914 RXL720914 SHH720914 SRD720914 TAZ720914 TKV720914 TUR720914 UEN720914 UOJ720914 UYF720914 VIB720914 VRX720914 WBT720914 WLP720914 WVL720914 D786450 IZ786450 SV786450 ACR786450 AMN786450 AWJ786450 BGF786450 BQB786450 BZX786450 CJT786450 CTP786450 DDL786450 DNH786450 DXD786450 EGZ786450 EQV786450 FAR786450 FKN786450 FUJ786450 GEF786450 GOB786450 GXX786450 HHT786450 HRP786450 IBL786450 ILH786450 IVD786450 JEZ786450 JOV786450 JYR786450 KIN786450 KSJ786450 LCF786450 LMB786450 LVX786450 MFT786450 MPP786450 MZL786450 NJH786450 NTD786450 OCZ786450 OMV786450 OWR786450 PGN786450 PQJ786450 QAF786450 QKB786450 QTX786450 RDT786450 RNP786450 RXL786450 SHH786450 SRD786450 TAZ786450 TKV786450 TUR786450 UEN786450 UOJ786450 UYF786450 VIB786450 VRX786450 WBT786450 WLP786450 WVL786450 D851986 IZ851986 SV851986 ACR851986 AMN851986 AWJ851986 BGF851986 BQB851986 BZX851986 CJT851986 CTP851986 DDL851986 DNH851986 DXD851986 EGZ851986 EQV851986 FAR851986 FKN851986 FUJ851986 GEF851986 GOB851986 GXX851986 HHT851986 HRP851986 IBL851986 ILH851986 IVD851986 JEZ851986 JOV851986 JYR851986 KIN851986 KSJ851986 LCF851986 LMB851986 LVX851986 MFT851986 MPP851986 MZL851986 NJH851986 NTD851986 OCZ851986 OMV851986 OWR851986 PGN851986 PQJ851986 QAF851986 QKB851986 QTX851986 RDT851986 RNP851986 RXL851986 SHH851986 SRD851986 TAZ851986 TKV851986 TUR851986 UEN851986 UOJ851986 UYF851986 VIB851986 VRX851986 WBT851986 WLP851986 WVL851986 D917522 IZ917522 SV917522 ACR917522 AMN917522 AWJ917522 BGF917522 BQB917522 BZX917522 CJT917522 CTP917522 DDL917522 DNH917522 DXD917522 EGZ917522 EQV917522 FAR917522 FKN917522 FUJ917522 GEF917522 GOB917522 GXX917522 HHT917522 HRP917522 IBL917522 ILH917522 IVD917522 JEZ917522 JOV917522 JYR917522 KIN917522 KSJ917522 LCF917522 LMB917522 LVX917522 MFT917522 MPP917522 MZL917522 NJH917522 NTD917522 OCZ917522 OMV917522 OWR917522 PGN917522 PQJ917522 QAF917522 QKB917522 QTX917522 RDT917522 RNP917522 RXL917522 SHH917522 SRD917522 TAZ917522 TKV917522 TUR917522 UEN917522 UOJ917522 UYF917522 VIB917522 VRX917522 WBT917522 WLP917522 WVL917522 D983058 IZ983058 SV983058 ACR983058 AMN983058 AWJ983058 BGF983058 BQB983058 BZX983058 CJT983058 CTP983058 DDL983058 DNH983058 DXD983058 EGZ983058 EQV983058 FAR983058 FKN983058 FUJ983058 GEF983058 GOB983058 GXX983058 HHT983058 HRP983058 IBL983058 ILH983058 IVD983058 JEZ983058 JOV983058 JYR983058 KIN983058 KSJ983058 LCF983058 LMB983058 LVX983058 MFT983058 MPP983058 MZL983058 NJH983058 NTD983058 OCZ983058 OMV983058 OWR983058 PGN983058 PQJ983058 QAF983058 QKB983058 QTX983058 RDT983058 RNP983058 RXL983058 SHH983058 SRD983058 TAZ983058 TKV983058 TUR983058 UEN983058 UOJ983058 UYF983058 VIB983058 VRX983058 WBT983058 WLP983058 WVL983058">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 IY18 SU18 ACQ18 AMM18 AWI18 BGE18 BQA18 BZW18 CJS18 CTO18 DDK18 DNG18 DXC18 EGY18 EQU18 FAQ18 FKM18 FUI18 GEE18 GOA18 GXW18 HHS18 HRO18 IBK18 ILG18 IVC18 JEY18 JOU18 JYQ18 KIM18 KSI18 LCE18 LMA18 LVW18 MFS18 MPO18 MZK18 NJG18 NTC18 OCY18 OMU18 OWQ18 PGM18 PQI18 QAE18 QKA18 QTW18 RDS18 RNO18 RXK18 SHG18 SRC18 TAY18 TKU18 TUQ18 UEM18 UOI18 UYE18 VIA18 VRW18 WBS18 WLO18 WVK18 D65554 IY65554 SU65554 ACQ65554 AMM65554 AWI65554 BGE65554 BQA65554 BZW65554 CJS65554 CTO65554 DDK65554 DNG65554 DXC65554 EGY65554 EQU65554 FAQ65554 FKM65554 FUI65554 GEE65554 GOA65554 GXW65554 HHS65554 HRO65554 IBK65554 ILG65554 IVC65554 JEY65554 JOU65554 JYQ65554 KIM65554 KSI65554 LCE65554 LMA65554 LVW65554 MFS65554 MPO65554 MZK65554 NJG65554 NTC65554 OCY65554 OMU65554 OWQ65554 PGM65554 PQI65554 QAE65554 QKA65554 QTW65554 RDS65554 RNO65554 RXK65554 SHG65554 SRC65554 TAY65554 TKU65554 TUQ65554 UEM65554 UOI65554 UYE65554 VIA65554 VRW65554 WBS65554 WLO65554 WVK65554 D131090 IY131090 SU131090 ACQ131090 AMM131090 AWI131090 BGE131090 BQA131090 BZW131090 CJS131090 CTO131090 DDK131090 DNG131090 DXC131090 EGY131090 EQU131090 FAQ131090 FKM131090 FUI131090 GEE131090 GOA131090 GXW131090 HHS131090 HRO131090 IBK131090 ILG131090 IVC131090 JEY131090 JOU131090 JYQ131090 KIM131090 KSI131090 LCE131090 LMA131090 LVW131090 MFS131090 MPO131090 MZK131090 NJG131090 NTC131090 OCY131090 OMU131090 OWQ131090 PGM131090 PQI131090 QAE131090 QKA131090 QTW131090 RDS131090 RNO131090 RXK131090 SHG131090 SRC131090 TAY131090 TKU131090 TUQ131090 UEM131090 UOI131090 UYE131090 VIA131090 VRW131090 WBS131090 WLO131090 WVK131090 D196626 IY196626 SU196626 ACQ196626 AMM196626 AWI196626 BGE196626 BQA196626 BZW196626 CJS196626 CTO196626 DDK196626 DNG196626 DXC196626 EGY196626 EQU196626 FAQ196626 FKM196626 FUI196626 GEE196626 GOA196626 GXW196626 HHS196626 HRO196626 IBK196626 ILG196626 IVC196626 JEY196626 JOU196626 JYQ196626 KIM196626 KSI196626 LCE196626 LMA196626 LVW196626 MFS196626 MPO196626 MZK196626 NJG196626 NTC196626 OCY196626 OMU196626 OWQ196626 PGM196626 PQI196626 QAE196626 QKA196626 QTW196626 RDS196626 RNO196626 RXK196626 SHG196626 SRC196626 TAY196626 TKU196626 TUQ196626 UEM196626 UOI196626 UYE196626 VIA196626 VRW196626 WBS196626 WLO196626 WVK196626 D262162 IY262162 SU262162 ACQ262162 AMM262162 AWI262162 BGE262162 BQA262162 BZW262162 CJS262162 CTO262162 DDK262162 DNG262162 DXC262162 EGY262162 EQU262162 FAQ262162 FKM262162 FUI262162 GEE262162 GOA262162 GXW262162 HHS262162 HRO262162 IBK262162 ILG262162 IVC262162 JEY262162 JOU262162 JYQ262162 KIM262162 KSI262162 LCE262162 LMA262162 LVW262162 MFS262162 MPO262162 MZK262162 NJG262162 NTC262162 OCY262162 OMU262162 OWQ262162 PGM262162 PQI262162 QAE262162 QKA262162 QTW262162 RDS262162 RNO262162 RXK262162 SHG262162 SRC262162 TAY262162 TKU262162 TUQ262162 UEM262162 UOI262162 UYE262162 VIA262162 VRW262162 WBS262162 WLO262162 WVK262162 D327698 IY327698 SU327698 ACQ327698 AMM327698 AWI327698 BGE327698 BQA327698 BZW327698 CJS327698 CTO327698 DDK327698 DNG327698 DXC327698 EGY327698 EQU327698 FAQ327698 FKM327698 FUI327698 GEE327698 GOA327698 GXW327698 HHS327698 HRO327698 IBK327698 ILG327698 IVC327698 JEY327698 JOU327698 JYQ327698 KIM327698 KSI327698 LCE327698 LMA327698 LVW327698 MFS327698 MPO327698 MZK327698 NJG327698 NTC327698 OCY327698 OMU327698 OWQ327698 PGM327698 PQI327698 QAE327698 QKA327698 QTW327698 RDS327698 RNO327698 RXK327698 SHG327698 SRC327698 TAY327698 TKU327698 TUQ327698 UEM327698 UOI327698 UYE327698 VIA327698 VRW327698 WBS327698 WLO327698 WVK327698 D393234 IY393234 SU393234 ACQ393234 AMM393234 AWI393234 BGE393234 BQA393234 BZW393234 CJS393234 CTO393234 DDK393234 DNG393234 DXC393234 EGY393234 EQU393234 FAQ393234 FKM393234 FUI393234 GEE393234 GOA393234 GXW393234 HHS393234 HRO393234 IBK393234 ILG393234 IVC393234 JEY393234 JOU393234 JYQ393234 KIM393234 KSI393234 LCE393234 LMA393234 LVW393234 MFS393234 MPO393234 MZK393234 NJG393234 NTC393234 OCY393234 OMU393234 OWQ393234 PGM393234 PQI393234 QAE393234 QKA393234 QTW393234 RDS393234 RNO393234 RXK393234 SHG393234 SRC393234 TAY393234 TKU393234 TUQ393234 UEM393234 UOI393234 UYE393234 VIA393234 VRW393234 WBS393234 WLO393234 WVK393234 D458770 IY458770 SU458770 ACQ458770 AMM458770 AWI458770 BGE458770 BQA458770 BZW458770 CJS458770 CTO458770 DDK458770 DNG458770 DXC458770 EGY458770 EQU458770 FAQ458770 FKM458770 FUI458770 GEE458770 GOA458770 GXW458770 HHS458770 HRO458770 IBK458770 ILG458770 IVC458770 JEY458770 JOU458770 JYQ458770 KIM458770 KSI458770 LCE458770 LMA458770 LVW458770 MFS458770 MPO458770 MZK458770 NJG458770 NTC458770 OCY458770 OMU458770 OWQ458770 PGM458770 PQI458770 QAE458770 QKA458770 QTW458770 RDS458770 RNO458770 RXK458770 SHG458770 SRC458770 TAY458770 TKU458770 TUQ458770 UEM458770 UOI458770 UYE458770 VIA458770 VRW458770 WBS458770 WLO458770 WVK458770 D524306 IY524306 SU524306 ACQ524306 AMM524306 AWI524306 BGE524306 BQA524306 BZW524306 CJS524306 CTO524306 DDK524306 DNG524306 DXC524306 EGY524306 EQU524306 FAQ524306 FKM524306 FUI524306 GEE524306 GOA524306 GXW524306 HHS524306 HRO524306 IBK524306 ILG524306 IVC524306 JEY524306 JOU524306 JYQ524306 KIM524306 KSI524306 LCE524306 LMA524306 LVW524306 MFS524306 MPO524306 MZK524306 NJG524306 NTC524306 OCY524306 OMU524306 OWQ524306 PGM524306 PQI524306 QAE524306 QKA524306 QTW524306 RDS524306 RNO524306 RXK524306 SHG524306 SRC524306 TAY524306 TKU524306 TUQ524306 UEM524306 UOI524306 UYE524306 VIA524306 VRW524306 WBS524306 WLO524306 WVK524306 D589842 IY589842 SU589842 ACQ589842 AMM589842 AWI589842 BGE589842 BQA589842 BZW589842 CJS589842 CTO589842 DDK589842 DNG589842 DXC589842 EGY589842 EQU589842 FAQ589842 FKM589842 FUI589842 GEE589842 GOA589842 GXW589842 HHS589842 HRO589842 IBK589842 ILG589842 IVC589842 JEY589842 JOU589842 JYQ589842 KIM589842 KSI589842 LCE589842 LMA589842 LVW589842 MFS589842 MPO589842 MZK589842 NJG589842 NTC589842 OCY589842 OMU589842 OWQ589842 PGM589842 PQI589842 QAE589842 QKA589842 QTW589842 RDS589842 RNO589842 RXK589842 SHG589842 SRC589842 TAY589842 TKU589842 TUQ589842 UEM589842 UOI589842 UYE589842 VIA589842 VRW589842 WBS589842 WLO589842 WVK589842 D655378 IY655378 SU655378 ACQ655378 AMM655378 AWI655378 BGE655378 BQA655378 BZW655378 CJS655378 CTO655378 DDK655378 DNG655378 DXC655378 EGY655378 EQU655378 FAQ655378 FKM655378 FUI655378 GEE655378 GOA655378 GXW655378 HHS655378 HRO655378 IBK655378 ILG655378 IVC655378 JEY655378 JOU655378 JYQ655378 KIM655378 KSI655378 LCE655378 LMA655378 LVW655378 MFS655378 MPO655378 MZK655378 NJG655378 NTC655378 OCY655378 OMU655378 OWQ655378 PGM655378 PQI655378 QAE655378 QKA655378 QTW655378 RDS655378 RNO655378 RXK655378 SHG655378 SRC655378 TAY655378 TKU655378 TUQ655378 UEM655378 UOI655378 UYE655378 VIA655378 VRW655378 WBS655378 WLO655378 WVK655378 D720914 IY720914 SU720914 ACQ720914 AMM720914 AWI720914 BGE720914 BQA720914 BZW720914 CJS720914 CTO720914 DDK720914 DNG720914 DXC720914 EGY720914 EQU720914 FAQ720914 FKM720914 FUI720914 GEE720914 GOA720914 GXW720914 HHS720914 HRO720914 IBK720914 ILG720914 IVC720914 JEY720914 JOU720914 JYQ720914 KIM720914 KSI720914 LCE720914 LMA720914 LVW720914 MFS720914 MPO720914 MZK720914 NJG720914 NTC720914 OCY720914 OMU720914 OWQ720914 PGM720914 PQI720914 QAE720914 QKA720914 QTW720914 RDS720914 RNO720914 RXK720914 SHG720914 SRC720914 TAY720914 TKU720914 TUQ720914 UEM720914 UOI720914 UYE720914 VIA720914 VRW720914 WBS720914 WLO720914 WVK720914 D786450 IY786450 SU786450 ACQ786450 AMM786450 AWI786450 BGE786450 BQA786450 BZW786450 CJS786450 CTO786450 DDK786450 DNG786450 DXC786450 EGY786450 EQU786450 FAQ786450 FKM786450 FUI786450 GEE786450 GOA786450 GXW786450 HHS786450 HRO786450 IBK786450 ILG786450 IVC786450 JEY786450 JOU786450 JYQ786450 KIM786450 KSI786450 LCE786450 LMA786450 LVW786450 MFS786450 MPO786450 MZK786450 NJG786450 NTC786450 OCY786450 OMU786450 OWQ786450 PGM786450 PQI786450 QAE786450 QKA786450 QTW786450 RDS786450 RNO786450 RXK786450 SHG786450 SRC786450 TAY786450 TKU786450 TUQ786450 UEM786450 UOI786450 UYE786450 VIA786450 VRW786450 WBS786450 WLO786450 WVK786450 D851986 IY851986 SU851986 ACQ851986 AMM851986 AWI851986 BGE851986 BQA851986 BZW851986 CJS851986 CTO851986 DDK851986 DNG851986 DXC851986 EGY851986 EQU851986 FAQ851986 FKM851986 FUI851986 GEE851986 GOA851986 GXW851986 HHS851986 HRO851986 IBK851986 ILG851986 IVC851986 JEY851986 JOU851986 JYQ851986 KIM851986 KSI851986 LCE851986 LMA851986 LVW851986 MFS851986 MPO851986 MZK851986 NJG851986 NTC851986 OCY851986 OMU851986 OWQ851986 PGM851986 PQI851986 QAE851986 QKA851986 QTW851986 RDS851986 RNO851986 RXK851986 SHG851986 SRC851986 TAY851986 TKU851986 TUQ851986 UEM851986 UOI851986 UYE851986 VIA851986 VRW851986 WBS851986 WLO851986 WVK851986 D917522 IY917522 SU917522 ACQ917522 AMM917522 AWI917522 BGE917522 BQA917522 BZW917522 CJS917522 CTO917522 DDK917522 DNG917522 DXC917522 EGY917522 EQU917522 FAQ917522 FKM917522 FUI917522 GEE917522 GOA917522 GXW917522 HHS917522 HRO917522 IBK917522 ILG917522 IVC917522 JEY917522 JOU917522 JYQ917522 KIM917522 KSI917522 LCE917522 LMA917522 LVW917522 MFS917522 MPO917522 MZK917522 NJG917522 NTC917522 OCY917522 OMU917522 OWQ917522 PGM917522 PQI917522 QAE917522 QKA917522 QTW917522 RDS917522 RNO917522 RXK917522 SHG917522 SRC917522 TAY917522 TKU917522 TUQ917522 UEM917522 UOI917522 UYE917522 VIA917522 VRW917522 WBS917522 WLO917522 WVK917522 D983058 IY983058 SU983058 ACQ983058 AMM983058 AWI983058 BGE983058 BQA983058 BZW983058 CJS983058 CTO983058 DDK983058 DNG983058 DXC983058 EGY983058 EQU983058 FAQ983058 FKM983058 FUI983058 GEE983058 GOA983058 GXW983058 HHS983058 HRO983058 IBK983058 ILG983058 IVC983058 JEY983058 JOU983058 JYQ983058 KIM983058 KSI983058 LCE983058 LMA983058 LVW983058 MFS983058 MPO983058 MZK983058 NJG983058 NTC983058 OCY983058 OMU983058 OWQ983058 PGM983058 PQI983058 QAE983058 QKA983058 QTW983058 RDS983058 RNO983058 RXK983058 SHG983058 SRC983058 TAY983058 TKU983058 TUQ983058 UEM983058 UOI983058 UYE983058 VIA983058 VRW983058 WBS983058 WLO983058 WVK983058">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L11">
       <formula1>"Libor,ibor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13:L14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2735,11 +2688,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="202"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -2869,11 +2822,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2908,11 +2861,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2947,11 +2900,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2986,11 +2939,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3025,11 +2978,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3064,11 +3017,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3097,11 +3050,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3130,11 +3083,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="M11" s="1">
         <v>7</v>
@@ -3166,11 +3119,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3199,11 +3152,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3232,11 +3185,11 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3265,11 +3218,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3298,11 +3251,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3331,11 +3284,11 @@
       </c>
       <c r="K17" s="11">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L17" s="10">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3364,11 +3317,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3397,11 +3350,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3435,11 +3388,11 @@
       </c>
       <c r="K20" s="19">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L20" s="18">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3473,11 +3426,11 @@
       </c>
       <c r="K21" s="4">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="L21" s="3">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42026</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3511,11 +3464,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3549,11 +3502,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42086</v>
+        <v>42116</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3587,11 +3540,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42116</v>
+        <v>42143</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3625,11 +3578,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3663,11 +3616,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42178</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3701,11 +3654,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3739,11 +3692,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42237</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3777,11 +3730,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42269</v>
+        <v>42297</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3815,11 +3768,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3853,11 +3806,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42331</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3891,11 +3844,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42360</v>
+        <v>42388</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3929,11 +3882,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3967,11 +3920,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42423</v>
+        <v>42447</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4005,11 +3958,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42452</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4043,11 +3996,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42481</v>
+        <v>42508</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4081,11 +4034,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42513</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4119,11 +4072,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42543</v>
+        <v>42571</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4157,11 +4110,11 @@
       </c>
       <c r="K39" s="4">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42572</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8353,11 +8306,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8395,11 +8348,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8437,11 +8390,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8479,11 +8432,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8521,11 +8474,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8563,11 +8516,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8605,11 +8558,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8647,11 +8600,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8689,11 +8642,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8731,11 +8684,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8773,11 +8726,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8815,11 +8768,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8857,11 +8810,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8899,11 +8852,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8941,11 +8894,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8983,11 +8936,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9025,11 +8978,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9067,11 +9020,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9109,11 +9062,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9151,11 +9104,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9193,11 +9146,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9235,11 +9188,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9277,11 +9230,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9319,11 +9272,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9361,11 +9314,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9403,11 +9356,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9445,11 +9398,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9487,11 +9440,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9529,11 +9482,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9571,11 +9524,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9613,11 +9566,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9655,11 +9608,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9697,11 +9650,11 @@
       </c>
       <c r="K169" s="11">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L169" s="10">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9739,11 +9692,11 @@
       </c>
       <c r="K170" s="11">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L170" s="10">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9781,11 +9734,11 @@
       </c>
       <c r="K171" s="11">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L171" s="10">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -9823,11 +9776,11 @@
       </c>
       <c r="K172" s="11">
         <f>_xll.qlRateHelperEarliestDate($E172,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L172" s="10">
         <f>_xll.qlRateHelperLatestDate($E172,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.2">
@@ -9865,11 +9818,11 @@
       </c>
       <c r="K173" s="4">
         <f>_xll.qlRateHelperEarliestDate($E173,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L173" s="3">
         <f>_xll.qlRateHelperLatestDate($E173,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
     </row>
   </sheetData>
@@ -9904,15 +9857,15 @@
     <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="32" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="188" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="193"/>
       <c r="D1" s="53" t="s">
         <v>87</v>
       </c>
@@ -9952,19 +9905,19 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99949332074290109</v>
-      </c>
-      <c r="K2" s="195" t="s">
+        <v>0.99954233177833063</v>
+      </c>
+      <c r="K2" s="187" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="205">
+      <c r="L2" s="188">
         <v>5.8869999999999999E-3</v>
       </c>
     </row>
@@ -9988,19 +9941,19 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99852217331513005</v>
-      </c>
-      <c r="K3" s="195" t="s">
+        <v>0.99853838943246809</v>
+      </c>
+      <c r="K3" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="205">
+      <c r="L3" s="188">
         <v>5.855E-3</v>
       </c>
     </row>
@@ -10024,19 +9977,19 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99711786128943303</v>
-      </c>
-      <c r="K4" s="195" t="s">
+        <v>0.99711786128943314</v>
+      </c>
+      <c r="K4" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="205">
+      <c r="L4" s="188">
         <v>5.7489999999999998E-3</v>
       </c>
     </row>
@@ -10060,19 +10013,19 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="I5" s="34">
         <v>0.99569234450739386</v>
       </c>
-      <c r="K5" s="195" t="s">
+      <c r="K5" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="205">
+      <c r="L5" s="188">
         <v>5.705E-3</v>
       </c>
     </row>
@@ -10097,19 +10050,19 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="I6" s="34">
         <v>0.99425404019271957</v>
       </c>
-      <c r="K6" s="195" t="s">
+      <c r="K6" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="205">
+      <c r="L6" s="188">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
@@ -10135,19 +10088,19 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42116</v>
+        <v>42143</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99279471303798339</v>
-      </c>
-      <c r="K7" s="195" t="s">
+        <v>0.99281083614069399</v>
+      </c>
+      <c r="K7" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="205">
+      <c r="L7" s="188">
         <v>5.6899999999999997E-3</v>
       </c>
     </row>
@@ -10165,19 +10118,19 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99124956747849724</v>
-      </c>
-      <c r="K8" s="195" t="s">
+        <v>0.99124956747849813</v>
+      </c>
+      <c r="K8" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="205">
+      <c r="L8" s="188">
         <v>5.8389999999999996E-3</v>
       </c>
     </row>
@@ -10195,19 +10148,19 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="I9" s="34">
         <v>0.98950032632669438</v>
       </c>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="187" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="205">
+      <c r="L9" s="188">
         <v>6.1720000000000004E-3</v>
       </c>
     </row>
@@ -10225,19 +10178,19 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="I10" s="34">
         <v>0.9875058095204936</v>
       </c>
-      <c r="K10" s="195" t="s">
+      <c r="K10" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="205">
+      <c r="L10" s="188">
         <v>6.7400000000000003E-3</v>
       </c>
     </row>
@@ -10255,19 +10208,19 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42481</v>
+        <v>42508</v>
       </c>
       <c r="I11" s="34">
-        <v>0.98529531120414693</v>
-      </c>
-      <c r="K11" s="195" t="s">
+        <v>0.98531129822262042</v>
+      </c>
+      <c r="K11" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="205">
+      <c r="L11" s="188">
         <v>7.5030000000000001E-3</v>
       </c>
     </row>
@@ -10285,19 +10238,19 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42572</v>
+        <v>42600</v>
       </c>
       <c r="I12" s="34">
-        <v>0.9827212504084526</v>
-      </c>
-      <c r="K12" s="195" t="s">
+        <v>0.98272125040845359</v>
+      </c>
+      <c r="K12" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="205">
+      <c r="L12" s="188">
         <v>8.5360000000000002E-3</v>
       </c>
     </row>
@@ -10315,19 +10268,19 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="I13" s="34">
         <v>0.97632159145442765</v>
       </c>
-      <c r="K13" s="195" t="s">
+      <c r="K13" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="205">
+      <c r="L13" s="188">
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
@@ -10345,19 +10298,19 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="I14" s="34">
         <v>0.95973569259205038</v>
       </c>
-      <c r="K14" s="195" t="s">
+      <c r="K14" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="205">
+      <c r="L14" s="188">
         <v>1.027E-2</v>
       </c>
     </row>
@@ -10375,19 +10328,19 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="I15" s="34">
         <v>0.93875670708534265</v>
       </c>
-      <c r="K15" s="195" t="s">
+      <c r="K15" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="205">
+      <c r="L15" s="188">
         <v>1.261E-2</v>
       </c>
     </row>
@@ -10405,19 +10358,19 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="I16" s="34">
         <v>0.91464150040818726</v>
       </c>
-      <c r="K16" s="195" t="s">
+      <c r="K16" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="205">
+      <c r="L16" s="188">
         <v>1.4789999999999999E-2</v>
       </c>
     </row>
@@ -10435,19 +10388,19 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="I17" s="34">
         <v>0.88831711813212222</v>
       </c>
-      <c r="K17" s="195" t="s">
+      <c r="K17" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="205">
+      <c r="L17" s="188">
         <v>1.677E-2</v>
       </c>
     </row>
@@ -10465,19 +10418,19 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="I18" s="34">
         <v>0.86057442951446128</v>
       </c>
-      <c r="K18" s="195" t="s">
+      <c r="K18" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="205">
+      <c r="L18" s="188">
         <v>1.8540000000000001E-2</v>
       </c>
     </row>
@@ -10495,19 +10448,19 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="I19" s="34">
         <v>0.83194427941853755</v>
       </c>
-      <c r="K19" s="195" t="s">
+      <c r="K19" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="205">
+      <c r="L19" s="188">
         <v>2.0109999999999999E-2</v>
       </c>
     </row>
@@ -10525,19 +10478,19 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="I20" s="34">
         <v>0.80337837827113301</v>
       </c>
-      <c r="K20" s="195" t="s">
+      <c r="K20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="205">
+      <c r="L20" s="188">
         <v>2.147E-2</v>
       </c>
     </row>
@@ -10555,19 +10508,19 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="I21" s="34">
-        <v>0.74756039279109254</v>
-      </c>
-      <c r="K21" s="195" t="s">
+        <v>0.74756039277880337</v>
+      </c>
+      <c r="K21" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="205">
+      <c r="L21" s="188">
         <v>2.3640000000000001E-2</v>
       </c>
     </row>
@@ -10585,19 +10538,19 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="I22" s="34">
-        <v>0.67134728871348237</v>
-      </c>
-      <c r="K22" s="195" t="s">
+        <v>0.67134728871161886</v>
+      </c>
+      <c r="K22" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="205">
+      <c r="L22" s="188">
         <v>2.5739999999999999E-2</v>
       </c>
     </row>
@@ -10615,19 +10568,19 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="I23" s="34">
-        <v>0.57111895972384097</v>
-      </c>
-      <c r="K23" s="195" t="s">
+        <v>0.57111895971306614</v>
+      </c>
+      <c r="K23" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="205">
+      <c r="L23" s="188">
         <v>2.7119999999999998E-2</v>
       </c>
     </row>
@@ -10645,19 +10598,19 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="I24" s="34">
-        <v>0.49431460686813716</v>
-      </c>
-      <c r="K24" s="195" t="s">
+        <v>0.49431460686077139</v>
+      </c>
+      <c r="K24" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="205">
+      <c r="L24" s="188">
         <v>2.7439999999999999E-2</v>
       </c>
     </row>
@@ -10675,19 +10628,19 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="I25" s="34">
-        <v>0.43270532318276994</v>
-      </c>
-      <c r="K25" s="195" t="s">
+        <v>0.43270532317582572</v>
+      </c>
+      <c r="K25" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="L25" s="205">
+      <c r="L25" s="188">
         <v>2.7390000000000001E-2</v>
       </c>
     </row>
@@ -10705,19 +10658,19 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="I26" s="34">
-        <v>0.37630612437389549</v>
-      </c>
-      <c r="K26" s="195" t="s">
+        <v>0.37630612436793942</v>
+      </c>
+      <c r="K26" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="205">
+      <c r="L26" s="188">
         <v>2.7470000000000001E-2</v>
       </c>
     </row>
@@ -10735,19 +10688,19 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="I27" s="34">
-        <v>0.32501075414799202</v>
-      </c>
-      <c r="K27" s="195" t="s">
+        <v>0.32501075414272979</v>
+      </c>
+      <c r="K27" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="205">
+      <c r="L27" s="188">
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
@@ -10765,19 +10718,19 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="I28" s="34">
-        <v>0.2430595474612193</v>
-      </c>
-      <c r="K28" s="195" t="s">
+        <v>0.24305954745722594</v>
+      </c>
+      <c r="K28" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="205">
+      <c r="L28" s="188">
         <v>2.7820000000000001E-2</v>
       </c>
     </row>
@@ -10795,19 +10748,19 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="I29" s="34">
-        <v>0.18144476455874109</v>
-      </c>
-      <c r="K29" s="195" t="s">
+        <v>0.18144476455568445</v>
+      </c>
+      <c r="K29" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="L29" s="205">
+      <c r="L29" s="188">
         <v>2.7949999999999999E-2</v>
       </c>
     </row>
@@ -13231,7 +13184,7 @@
       </c>
       <c r="F3" s="98" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0002</v>
+        <v>EUR_YC1YRH_SND#0003</v>
       </c>
       <c r="G3" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13258,7 +13211,7 @@
       </c>
       <c r="F4" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0002</v>
+        <v>EUR_YC1YRH_SWD#0003</v>
       </c>
       <c r="G4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13285,7 +13238,7 @@
       </c>
       <c r="F5" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0002</v>
+        <v>EUR_YC1YRH_2WD#0003</v>
       </c>
       <c r="G5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13312,7 +13265,7 @@
       </c>
       <c r="F6" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3WD#0002</v>
+        <v>EUR_YC1YRH_3WD#0003</v>
       </c>
       <c r="G6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13339,7 +13292,7 @@
       </c>
       <c r="F7" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0002</v>
+        <v>EUR_YC1YRH_1MD#0003</v>
       </c>
       <c r="G7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13366,7 +13319,7 @@
       </c>
       <c r="F8" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0002</v>
+        <v>EUR_YC1YRH_2MD#0003</v>
       </c>
       <c r="G8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13393,7 +13346,7 @@
       </c>
       <c r="F9" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0002</v>
+        <v>EUR_YC1YRH_3MD#0003</v>
       </c>
       <c r="G9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13420,7 +13373,7 @@
       </c>
       <c r="F10" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4MD#0002</v>
+        <v>EUR_YC1YRH_4MD#0003</v>
       </c>
       <c r="G10" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13447,7 +13400,7 @@
       </c>
       <c r="F11" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5MD#0002</v>
+        <v>EUR_YC1YRH_5MD#0003</v>
       </c>
       <c r="G11" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13474,7 +13427,7 @@
       </c>
       <c r="F12" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0002</v>
+        <v>EUR_YC1YRH_6MD#0003</v>
       </c>
       <c r="G12" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13501,7 +13454,7 @@
       </c>
       <c r="F13" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7MD#0002</v>
+        <v>EUR_YC1YRH_7MD#0003</v>
       </c>
       <c r="G13" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13528,7 +13481,7 @@
       </c>
       <c r="F14" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8MD#0002</v>
+        <v>EUR_YC1YRH_8MD#0003</v>
       </c>
       <c r="G14" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13555,7 +13508,7 @@
       </c>
       <c r="F15" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0002</v>
+        <v>EUR_YC1YRH_9MD#0003</v>
       </c>
       <c r="G15" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13582,7 +13535,7 @@
       </c>
       <c r="F16" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10MD#0002</v>
+        <v>EUR_YC1YRH_10MD#0003</v>
       </c>
       <c r="G16" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13609,7 +13562,7 @@
       </c>
       <c r="F17" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11MD#0002</v>
+        <v>EUR_YC1YRH_11MD#0003</v>
       </c>
       <c r="G17" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13636,7 +13589,7 @@
       </c>
       <c r="F18" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0002</v>
+        <v>EUR_YC1YRH_1YD#0003</v>
       </c>
       <c r="G18" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -13762,7 +13715,7 @@
       </c>
       <c r="I3" s="139" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_T12F1#0002</v>
+        <v>EUR_YC1YRH_T12F1#0003</v>
       </c>
       <c r="J3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13799,7 +13752,7 @@
       </c>
       <c r="I4" s="130" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_TOM12F1#0002</v>
+        <v>EUR_YC1YRH_TOM12F1#0003</v>
       </c>
       <c r="J4" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13837,7 +13790,7 @@
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1x13F#0002</v>
+        <v>EUR_YC1YRH_1x13F#0003</v>
       </c>
       <c r="J5" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13875,7 +13828,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2x14F#0002</v>
+        <v>EUR_YC1YRH_2x14F#0003</v>
       </c>
       <c r="J6" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13913,7 +13866,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3x15F#0002</v>
+        <v>EUR_YC1YRH_3x15F#0003</v>
       </c>
       <c r="J7" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13951,7 +13904,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4x16F#0002</v>
+        <v>EUR_YC1YRH_4x16F#0003</v>
       </c>
       <c r="J8" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13989,7 +13942,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5x17F#0002</v>
+        <v>EUR_YC1YRH_5x17F#0003</v>
       </c>
       <c r="J9" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14027,7 +13980,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6x18F#0002</v>
+        <v>EUR_YC1YRH_6x18F#0003</v>
       </c>
       <c r="J10" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14065,7 +14018,7 @@
       </c>
       <c r="I11" s="134" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7x19F#0002</v>
+        <v>EUR_YC1YRH_7x19F#0003</v>
       </c>
       <c r="J11" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14103,7 +14056,7 @@
       </c>
       <c r="I12" s="134" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8x20F#0002</v>
+        <v>EUR_YC1YRH_8x20F#0003</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14141,7 +14094,7 @@
       </c>
       <c r="I13" s="134" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9x21F#0002</v>
+        <v>EUR_YC1YRH_9x21F#0003</v>
       </c>
       <c r="J13" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14179,7 +14132,7 @@
       </c>
       <c r="I14" s="134" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10x22F#0002</v>
+        <v>EUR_YC1YRH_10x22F#0003</v>
       </c>
       <c r="J14" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14217,7 +14170,7 @@
       </c>
       <c r="I15" s="134" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11x23F#0002</v>
+        <v>EUR_YC1YRH_11x23F#0003</v>
       </c>
       <c r="J15" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14255,7 +14208,7 @@
       </c>
       <c r="I16" s="144" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_12x24F#0002</v>
+        <v>EUR_YC1YRH_12x24F#0003</v>
       </c>
       <c r="J16" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14293,7 +14246,7 @@
       </c>
       <c r="I17" s="139" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_13x25F#0002</v>
+        <v>EUR_YC1YRH_13x25F#0003</v>
       </c>
       <c r="J17" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14331,7 +14284,7 @@
       </c>
       <c r="I18" s="134" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_14x26F#0002</v>
+        <v>EUR_YC1YRH_14x26F#0003</v>
       </c>
       <c r="J18" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14369,7 +14322,7 @@
       </c>
       <c r="I19" s="134" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_15x27F#0002</v>
+        <v>EUR_YC1YRH_15x27F#0003</v>
       </c>
       <c r="J19" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14407,7 +14360,7 @@
       </c>
       <c r="I20" s="134" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_16x28F#0002</v>
+        <v>EUR_YC1YRH_16x28F#0003</v>
       </c>
       <c r="J20" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14445,7 +14398,7 @@
       </c>
       <c r="I21" s="134" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_17x29F#0002</v>
+        <v>EUR_YC1YRH_17x29F#0003</v>
       </c>
       <c r="J21" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14483,7 +14436,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_18x30F#0002</v>
+        <v>EUR_YC1YRH_18x30F#0003</v>
       </c>
       <c r="J22" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14521,7 +14474,7 @@
       </c>
       <c r="I23" s="134" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_19x31F#0002</v>
+        <v>EUR_YC1YRH_19x31F#0003</v>
       </c>
       <c r="J23" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14559,7 +14512,7 @@
       </c>
       <c r="I24" s="134" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_20x32F#0002</v>
+        <v>EUR_YC1YRH_20x32F#0003</v>
       </c>
       <c r="J24" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14597,7 +14550,7 @@
       </c>
       <c r="I25" s="134" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_21x33F#0002</v>
+        <v>EUR_YC1YRH_21x33F#0003</v>
       </c>
       <c r="J25" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14635,7 +14588,7 @@
       </c>
       <c r="I26" s="134" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_22x34F#0002</v>
+        <v>EUR_YC1YRH_22x34F#0003</v>
       </c>
       <c r="J26" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14673,7 +14626,7 @@
       </c>
       <c r="I27" s="130" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_23x35F#0002</v>
+        <v>EUR_YC1YRH_23x35F#0003</v>
       </c>
       <c r="J27" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14711,7 +14664,7 @@
       </c>
       <c r="I28" s="139" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_25x37F#0002</v>
+        <v>EUR_YC1YRH_25x37F#0003</v>
       </c>
       <c r="J28" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14749,7 +14702,7 @@
       </c>
       <c r="I29" s="134" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_26x38F#0002</v>
+        <v>EUR_YC1YRH_26x38F#0003</v>
       </c>
       <c r="J29" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14787,7 +14740,7 @@
       </c>
       <c r="I30" s="134" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_27x39F#0002</v>
+        <v>EUR_YC1YRH_27x39F#0003</v>
       </c>
       <c r="J30" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14825,7 +14778,7 @@
       </c>
       <c r="I31" s="134" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_28x40F#0002</v>
+        <v>EUR_YC1YRH_28x40F#0003</v>
       </c>
       <c r="J31" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14863,7 +14816,7 @@
       </c>
       <c r="I32" s="134" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_29x41F#0002</v>
+        <v>EUR_YC1YRH_29x41F#0003</v>
       </c>
       <c r="J32" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14901,7 +14854,7 @@
       </c>
       <c r="I33" s="134" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_30x42F#0002</v>
+        <v>EUR_YC1YRH_30x42F#0003</v>
       </c>
       <c r="J33" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14939,7 +14892,7 @@
       </c>
       <c r="I34" s="134" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_31x43F#0002</v>
+        <v>EUR_YC1YRH_31x43F#0003</v>
       </c>
       <c r="J34" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14977,7 +14930,7 @@
       </c>
       <c r="I35" s="134" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_32x44F#0002</v>
+        <v>EUR_YC1YRH_32x44F#0003</v>
       </c>
       <c r="J35" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15015,7 +14968,7 @@
       </c>
       <c r="I36" s="134" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_33x45F#0002</v>
+        <v>EUR_YC1YRH_33x45F#0003</v>
       </c>
       <c r="J36" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15053,7 +15006,7 @@
       </c>
       <c r="I37" s="134" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_34x46F#0002</v>
+        <v>EUR_YC1YRH_34x46F#0003</v>
       </c>
       <c r="J37" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15091,7 +15044,7 @@
       </c>
       <c r="I38" s="130" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_35x47F#0002</v>
+        <v>EUR_YC1YRH_35x47F#0003</v>
       </c>
       <c r="J38" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15129,7 +15082,7 @@
       </c>
       <c r="I39" s="134" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_37x49F#0002</v>
+        <v>EUR_YC1YRH_37x49F#0003</v>
       </c>
       <c r="J39" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15167,7 +15120,7 @@
       </c>
       <c r="I40" s="134" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_38x50F#0002</v>
+        <v>EUR_YC1YRH_38x50F#0003</v>
       </c>
       <c r="J40" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15205,7 +15158,7 @@
       </c>
       <c r="I41" s="134" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_39x51F#0002</v>
+        <v>EUR_YC1YRH_39x51F#0003</v>
       </c>
       <c r="J41" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15243,7 +15196,7 @@
       </c>
       <c r="I42" s="134" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_40x52F#0002</v>
+        <v>EUR_YC1YRH_40x52F#0003</v>
       </c>
       <c r="J42" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15281,7 +15234,7 @@
       </c>
       <c r="I43" s="134" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_41x53F#0002</v>
+        <v>EUR_YC1YRH_41x53F#0003</v>
       </c>
       <c r="J43" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15319,7 +15272,7 @@
       </c>
       <c r="I44" s="134" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_42x54F#0002</v>
+        <v>EUR_YC1YRH_42x54F#0003</v>
       </c>
       <c r="J44" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15357,7 +15310,7 @@
       </c>
       <c r="I45" s="134" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_43x55F#0002</v>
+        <v>EUR_YC1YRH_43x55F#0003</v>
       </c>
       <c r="J45" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -15395,7 +15348,7 @@
       </c>
       <c r="I46" s="134" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_44x56F#0002</v>
+        <v>EUR_YC1YRH_44x56F#0003</v>
       </c>
       <c r="J46" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -15433,7 +15386,7 @@
       </c>
       <c r="I47" s="134" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_45x57F#0002</v>
+        <v>EUR_YC1YRH_45x57F#0003</v>
       </c>
       <c r="J47" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -15471,7 +15424,7 @@
       </c>
       <c r="I48" s="134" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_46x58F#0002</v>
+        <v>EUR_YC1YRH_46x58F#0003</v>
       </c>
       <c r="J48" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -15509,7 +15462,7 @@
       </c>
       <c r="I49" s="130" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_47x59F#0002</v>
+        <v>EUR_YC1YRH_47x59F#0003</v>
       </c>
       <c r="J49" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -15669,7 +15622,7 @@
       </c>
       <c r="L4" s="181" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0003</v>
       </c>
       <c r="M4" s="180" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15733,7 +15686,7 @@
       </c>
       <c r="L6" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS1Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS1Y#0003</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15786,7 +15739,7 @@
       </c>
       <c r="L7" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15M#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS15M#0003</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15835,7 +15788,7 @@
       </c>
       <c r="L8" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18M#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS18M#0003</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15884,7 +15837,7 @@
       </c>
       <c r="L9" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21M#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS21M#0003</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15933,7 +15886,7 @@
       </c>
       <c r="L10" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS2Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS2Y#0003</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15991,7 +15944,7 @@
       </c>
       <c r="L11" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS3Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS3Y#0003</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16049,7 +16002,7 @@
       </c>
       <c r="L12" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS4Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS4Y#0003</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16107,7 +16060,7 @@
       </c>
       <c r="L13" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS5Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS5Y#0003</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16165,7 +16118,7 @@
       </c>
       <c r="L14" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS6Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS6Y#0003</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16223,7 +16176,7 @@
       </c>
       <c r="L15" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS7Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS7Y#0003</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16275,7 +16228,7 @@
       </c>
       <c r="L16" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS8Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS8Y#0003</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16324,7 +16277,7 @@
       </c>
       <c r="L17" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS9Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS9Y#0003</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16373,7 +16326,7 @@
       </c>
       <c r="L18" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS10Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS10Y#0003</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16422,7 +16375,7 @@
       </c>
       <c r="L19" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS11Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS11Y#0003</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16471,7 +16424,7 @@
       </c>
       <c r="L20" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS12Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS12Y#0003</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16520,7 +16473,7 @@
       </c>
       <c r="L21" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS13Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS13Y#0003</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16569,7 +16522,7 @@
       </c>
       <c r="L22" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS14Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS14Y#0003</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16618,7 +16571,7 @@
       </c>
       <c r="L23" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS15Y#0003</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16667,7 +16620,7 @@
       </c>
       <c r="L24" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS16Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS16Y#0003</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16716,7 +16669,7 @@
       </c>
       <c r="L25" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS17Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS17Y#0003</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16765,7 +16718,7 @@
       </c>
       <c r="L26" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS18Y#0003</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16814,7 +16767,7 @@
       </c>
       <c r="L27" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS19Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS19Y#0003</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16863,7 +16816,7 @@
       </c>
       <c r="L28" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS20Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS20Y#0003</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16912,7 +16865,7 @@
       </c>
       <c r="L29" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS21Y#0003</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16961,7 +16914,7 @@
       </c>
       <c r="L30" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS22Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS22Y#0003</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -17010,7 +16963,7 @@
       </c>
       <c r="L31" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS23Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS23Y#0003</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17059,7 +17012,7 @@
       </c>
       <c r="L32" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS24Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS24Y#0003</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17108,7 +17061,7 @@
       </c>
       <c r="L33" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS25Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS25Y#0003</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17157,7 +17110,7 @@
       </c>
       <c r="L34" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS26Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS26Y#0003</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17206,7 +17159,7 @@
       </c>
       <c r="L35" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS27Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS27Y#0003</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17255,7 +17208,7 @@
       </c>
       <c r="L36" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS28Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS28Y#0003</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17304,7 +17257,7 @@
       </c>
       <c r="L37" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS29Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS29Y#0003</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17353,7 +17306,7 @@
       </c>
       <c r="L38" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS30Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS30Y#0003</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17402,7 +17355,7 @@
       </c>
       <c r="L39" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS35Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS35Y#0003</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17451,7 +17404,7 @@
       </c>
       <c r="L40" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS40Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS40Y#0003</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17500,7 +17453,7 @@
       </c>
       <c r="L41" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS50Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS50Y#0003</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17549,7 +17502,7 @@
       </c>
       <c r="L42" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS60Y#0002</v>
+        <v>EUR_YC1YRH_AB12EBASIS60Y#0003</v>
       </c>
       <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!$L$15</definedName>
-    <definedName name="Discounting2">'General Settings'!$L$16</definedName>
+    <definedName name="Discounting2">'General Settings'!#REF!</definedName>
     <definedName name="DiscountingCurve" localSheetId="5">'1Y_SwapsFromBasis'!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$L$11</definedName>
     <definedName name="FileOverwrite">'General Settings'!$L$6</definedName>
@@ -768,9 +768,6 @@
     <t>Fwd start</t>
   </si>
   <si>
-    <t>Discounting2</t>
-  </si>
-  <si>
     <t>Discounting</t>
   </si>
   <si>
@@ -793,6 +790,9 @@
   </si>
   <si>
     <t>EUR_YCRH_SwapsFromBasis</t>
+  </si>
+  <si>
+    <t>EUR1Y</t>
   </si>
 </sst>
 </file>
@@ -1867,21 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1899,6 +1884,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2214,42 +2214,44 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="194" customWidth="1"/>
-    <col min="3" max="3" width="18" style="194" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="194" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" style="194" customWidth="1"/>
-    <col min="7" max="7" width="4" style="194" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="194" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.7109375" style="194" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="194" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.7109375" style="194" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="194" customWidth="1"/>
-    <col min="14" max="16384" width="8" style="194"/>
+    <col min="1" max="2" width="2.7109375" style="189" customWidth="1"/>
+    <col min="3" max="3" width="18" style="189" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="189" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="189" customWidth="1"/>
+    <col min="7" max="7" width="4" style="189" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="189" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.7109375" style="189" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="189" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="189" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="189" customWidth="1"/>
+    <col min="14" max="16384" width="8" style="189"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="str">
+      <c r="B1" s="189" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="204"/>
-      <c r="J2" s="202" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="205"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="200"/>
     </row>
     <row r="3" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2270,10 +2272,10 @@
         <v>112</v>
       </c>
       <c r="E4" s="57"/>
-      <c r="G4" s="196" t="s">
+      <c r="G4" s="191" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="197"/>
+      <c r="H4" s="192"/>
       <c r="J4" s="123"/>
       <c r="K4" s="122" t="s">
         <v>169</v>
@@ -2292,10 +2294,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="57"/>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="194" t="s">
         <v>111</v>
       </c>
       <c r="J5" s="123"/>
@@ -2304,7 +2306,7 @@
       </c>
       <c r="L5" s="124" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="M5" s="121"/>
     </row>
@@ -2318,10 +2320,10 @@
         <v>1Y</v>
       </c>
       <c r="E6" s="57"/>
-      <c r="G6" s="198" t="s">
+      <c r="G6" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="199"/>
+      <c r="H6" s="194"/>
       <c r="J6" s="123"/>
       <c r="K6" s="122" t="s">
         <v>167</v>
@@ -2341,10 +2343,10 @@
         <v>12E</v>
       </c>
       <c r="E7" s="57"/>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="199"/>
+      <c r="H7" s="194"/>
       <c r="J7" s="120"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
@@ -2360,16 +2362,16 @@
         <v>AB</v>
       </c>
       <c r="E8" s="57"/>
-      <c r="G8" s="200" t="s">
+      <c r="G8" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="201" t="s">
+      <c r="H8" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2381,12 +2383,12 @@
         <v>EUR_YC1YRH</v>
       </c>
       <c r="E9" s="57"/>
-      <c r="J9" s="202" t="s">
+      <c r="J9" s="197" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="205"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="200"/>
     </row>
     <row r="10" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2408,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="80">
-        <v>41684.573217592595</v>
+        <v>41702.442187499997</v>
       </c>
       <c r="E11" s="57"/>
       <c r="J11" s="115"/>
@@ -2445,10 +2447,10 @@
       <c r="E13" s="57"/>
       <c r="J13" s="115"/>
       <c r="K13" s="114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13" s="116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" s="112"/>
     </row>
@@ -2459,15 +2461,15 @@
       </c>
       <c r="D14" s="77" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC1Y#0002</v>
+        <v>_EURYC1Y#0001</v>
       </c>
       <c r="E14" s="57"/>
       <c r="J14" s="115"/>
       <c r="K14" s="114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L14" s="116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14" s="112"/>
     </row>
@@ -2483,15 +2485,15 @@
       <c r="E15" s="57"/>
       <c r="J15" s="115"/>
       <c r="K15" s="114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L15" s="113" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>EurYC</v>
+        <f>PROPER(Currency)&amp;"ON"</f>
+        <v>EurON</v>
       </c>
       <c r="M15" s="112"/>
     </row>
-    <row r="16" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="61"/>
       <c r="C16" s="75" t="s">
         <v>98</v>
@@ -2501,17 +2503,12 @@
         <v>_EURYC1Y</v>
       </c>
       <c r="E16" s="57"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="L16" s="113" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>EurYCSTD</v>
-      </c>
-      <c r="M16" s="112"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="111"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="109"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="61"/>
       <c r="C17" s="70" t="s">
         <v>97</v>
@@ -2520,12 +2517,8 @@
         <v>2</v>
       </c>
       <c r="E17" s="57"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="109"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
       <c r="C18" s="70" t="s">
         <v>96</v>
@@ -2535,7 +2528,7 @@
       </c>
       <c r="E18" s="57"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="70" t="s">
         <v>94</v>
@@ -2543,7 +2536,7 @@
       <c r="D19" s="72"/>
       <c r="E19" s="57"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="61"/>
       <c r="C20" s="70" t="s">
         <v>93</v>
@@ -2554,7 +2547,7 @@
       </c>
       <c r="E20" s="57"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="70" t="s">
         <v>92</v>
@@ -2564,7 +2557,7 @@
       </c>
       <c r="E21" s="57"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="61"/>
       <c r="C22" s="68" t="s">
         <v>90</v>
@@ -2574,17 +2567,17 @@
       </c>
       <c r="E22" s="57"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
       <c r="C24" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="D24" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2592,19 +2585,19 @@
       </c>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63604</v>
+        <v>63619</v>
       </c>
       <c r="D25" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18144476455568445</v>
+        <v>0.20316032572374745</v>
       </c>
       <c r="E25" s="57"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="61"/>
       <c r="C26" s="60" t="s">
         <v>80</v>
@@ -2615,10 +2608,15 @@
       </c>
       <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="2:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="55" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C27,YieldCurve)</f>
+        <v>1</v>
+      </c>
       <c r="E27" s="54"/>
     </row>
   </sheetData>
@@ -2688,11 +2686,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -2822,11 +2820,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41689</v>
+        <v>41705</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2861,11 +2859,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41695</v>
+        <v>41711</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2900,11 +2898,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41702</v>
+        <v>41718</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2939,11 +2937,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41709</v>
+        <v>41725</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -2978,11 +2976,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41716</v>
+        <v>41736</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3017,11 +3015,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41751</v>
+        <v>41765</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3050,11 +3048,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41778</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3083,11 +3081,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41808</v>
+        <v>41827</v>
       </c>
       <c r="M11" s="1">
         <v>7</v>
@@ -3119,11 +3117,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41838</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3152,11 +3150,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41869</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3185,11 +3183,11 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41900</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3218,11 +3216,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41932</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3251,11 +3249,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41961</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3284,11 +3282,11 @@
       </c>
       <c r="K17" s="11">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L17" s="10">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41991</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3317,11 +3315,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42023</v>
+        <v>42041</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3350,11 +3348,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3388,11 +3386,11 @@
       </c>
       <c r="K20" s="19">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L20" s="18">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3426,11 +3424,11 @@
       </c>
       <c r="K21" s="4">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41689</v>
+        <v>41705</v>
       </c>
       <c r="L21" s="3">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42054</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3464,11 +3462,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41716</v>
+        <v>41736</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42081</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3502,11 +3500,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41751</v>
+        <v>41765</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42116</v>
+        <v>42130</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3540,11 +3538,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41778</v>
+        <v>41796</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42143</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3578,11 +3576,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41808</v>
+        <v>41827</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42173</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3616,11 +3614,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41838</v>
+        <v>41857</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42205</v>
+        <v>42222</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3654,11 +3652,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41869</v>
+        <v>41890</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42234</v>
+        <v>42255</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3692,11 +3690,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41900</v>
+        <v>41918</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42265</v>
+        <v>42283</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3730,11 +3728,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41932</v>
+        <v>41949</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42297</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3768,11 +3766,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41961</v>
+        <v>41981</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42326</v>
+        <v>42346</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3806,11 +3804,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41991</v>
+        <v>42010</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42356</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3844,11 +3842,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42023</v>
+        <v>42041</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42388</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3868,7 +3866,7 @@
       </c>
       <c r="F33" s="13">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>6.7400000000000003E-3</v>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="b">
@@ -3882,11 +3880,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42418</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3920,11 +3918,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42081</v>
+        <v>42101</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42447</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3958,11 +3956,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42114</v>
+        <v>42130</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42480</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3996,11 +3994,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42142</v>
+        <v>42163</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42508</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4034,11 +4032,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42173</v>
+        <v>42191</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42541</v>
+        <v>42557</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4072,11 +4070,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42205</v>
+        <v>42222</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42571</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4110,11 +4108,11 @@
       </c>
       <c r="K39" s="4">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42234</v>
+        <v>42254</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42600</v>
+        <v>42620</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4128,11 +4126,11 @@
       </c>
       <c r="D40" s="14" t="str">
         <f t="array" ref="D40:D81">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A40:$A81)</f>
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YG4</v>
+        <v>EUR_YC1YRH_FUT1YH4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4170,11 +4168,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YH4</v>
+        <v>EUR_YC1YRH_FUT1YJ4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4212,11 +4210,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YJ4</v>
+        <v>EUR_YC1YRH_FUT1YK4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4254,11 +4252,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YK4</v>
+        <v>EUR_YC1YRH_FUT1YM4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4296,11 +4294,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YM4</v>
+        <v>EUR_YC1YRH_FUT1YN4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4338,11 +4336,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YN4</v>
+        <v>EUR_YC1YRH_FUT1YQ4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4380,11 +4378,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YQ4</v>
+        <v>EUR_YC1YRH_FUT1YU4</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4422,11 +4420,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YU4</v>
+        <v>EUR_YC1YRH_FUT1YV4</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4464,11 +4462,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YV4</v>
+        <v>EUR_YC1YRH_FUT1YX4</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4506,11 +4504,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YX4</v>
+        <v>EUR_YC1YRH_FUT1YZ4</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4548,11 +4546,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YZ4</v>
+        <v>EUR_YC1YRH_FUT1YF5</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4590,11 +4588,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YF5</v>
+        <v>EUR_YC1YRH_FUT1YG5</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -8289,7 +8287,7 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>5.7800000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8306,11 +8304,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8331,7 +8329,7 @@
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>5.5640000000000004E-3</v>
+        <v>5.3790000000000001E-3</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8348,11 +8346,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42142</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8373,7 +8371,7 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>5.8820000000000001E-3</v>
+        <v>5.7210000000000004E-3</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8390,11 +8388,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42234</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8415,7 +8413,7 @@
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>5.8760000000000001E-3</v>
+        <v>5.6559999999999996E-3</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8432,11 +8430,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42326</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8457,7 +8455,7 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>6.3E-3</v>
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8474,11 +8472,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>42418</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8499,7 +8497,7 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>7.9900000000000006E-3</v>
+        <v>7.4800000000000005E-3</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8516,11 +8514,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>42786</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8541,7 +8539,7 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>1.027E-2</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8558,11 +8556,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43150</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8583,7 +8581,7 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.2610000000000001E-2</v>
+        <v>1.149E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8600,11 +8598,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>43514</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8625,7 +8623,7 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.4789999999999999E-2</v>
+        <v>1.345E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8642,11 +8640,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>43879</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8667,7 +8665,7 @@
       </c>
       <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>1.677E-2</v>
+        <v>1.5269999999999999E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8684,11 +8682,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>44245</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8709,7 +8707,7 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>1.8540000000000001E-2</v>
+        <v>1.6910000000000001E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8726,11 +8724,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>44610</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8751,7 +8749,7 @@
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.0110000000000003E-2</v>
+        <v>1.8380000000000001E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8768,11 +8766,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>44977</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8793,7 +8791,7 @@
       </c>
       <c r="F149" s="13">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.147E-2</v>
+        <v>1.9700000000000002E-2</v>
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8810,11 +8808,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>45341</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8835,7 +8833,7 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.2639999999999997E-2</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8852,11 +8850,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>45706</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8877,7 +8875,7 @@
       </c>
       <c r="F151" s="13">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.3640000000000001E-2</v>
+        <v>2.1789999999999997E-2</v>
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8894,11 +8892,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46071</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8919,7 +8917,7 @@
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.4482E-2</v>
+        <v>2.2615E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8936,11 +8934,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>46436</v>
+        <v>46454</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8961,7 +8959,7 @@
       </c>
       <c r="F153" s="13">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.5179E-2</v>
+        <v>2.3309999999999997E-2</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -8978,11 +8976,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>46801</v>
+        <v>46818</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9003,7 +9001,7 @@
       </c>
       <c r="F154" s="13">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.5740000000000002E-2</v>
+        <v>2.3869999999999999E-2</v>
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9020,11 +9018,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47168</v>
+        <v>47183</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9045,7 +9043,7 @@
       </c>
       <c r="F155" s="13">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.6185999999999997E-2</v>
+        <v>2.4315E-2</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9062,11 +9060,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>47532</v>
+        <v>47548</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9087,7 +9085,7 @@
       </c>
       <c r="F156" s="13">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.6527000000000002E-2</v>
+        <v>2.4664000000000002E-2</v>
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9104,11 +9102,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>47897</v>
+        <v>47913</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9129,7 +9127,7 @@
       </c>
       <c r="F157" s="13">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.6781000000000003E-2</v>
+        <v>2.4936E-2</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9146,11 +9144,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>48262</v>
+        <v>48281</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9171,7 +9169,7 @@
       </c>
       <c r="F158" s="13">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.6979E-2</v>
+        <v>2.5131999999999998E-2</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9188,11 +9186,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>48628</v>
+        <v>48645</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9213,7 +9211,7 @@
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.7120000000000002E-2</v>
+        <v>2.528E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9230,11 +9228,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>48995</v>
+        <v>49009</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9255,7 +9253,7 @@
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.7243E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9272,11 +9270,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>49359</v>
+        <v>49374</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9297,7 +9295,7 @@
       </c>
       <c r="F161" s="13">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.7318000000000002E-2</v>
+        <v>2.5503000000000001E-2</v>
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9314,11 +9312,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>49723</v>
+        <v>49740</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9339,7 +9337,7 @@
       </c>
       <c r="F162" s="13">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.7384000000000002E-2</v>
+        <v>2.5566999999999999E-2</v>
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9356,11 +9354,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50089</v>
+        <v>50105</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9381,7 +9379,7 @@
       </c>
       <c r="F163" s="13">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>2.7421999999999998E-2</v>
+        <v>2.5623E-2</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9398,11 +9396,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>50454</v>
+        <v>50472</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9423,7 +9421,7 @@
       </c>
       <c r="F164" s="13">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>2.7440000000000003E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9440,11 +9438,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>50819</v>
+        <v>50836</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9465,7 +9463,7 @@
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.7439000000000002E-2</v>
+        <v>2.5669000000000001E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9482,11 +9480,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>51186</v>
+        <v>51201</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9507,7 +9505,7 @@
       </c>
       <c r="F166" s="13">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>2.7438999999999998E-2</v>
+        <v>2.5668E-2</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9524,11 +9522,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>51550</v>
+        <v>51566</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9549,7 +9547,7 @@
       </c>
       <c r="F167" s="13">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>2.7419000000000002E-2</v>
+        <v>2.5668E-2</v>
       </c>
       <c r="G167" s="13">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9566,11 +9564,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>51915</v>
+        <v>51931</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9591,7 +9589,7 @@
       </c>
       <c r="F168" s="13">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>2.7399000000000003E-2</v>
+        <v>2.5659000000000001E-2</v>
       </c>
       <c r="G168" s="13">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9608,11 +9606,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>52280</v>
+        <v>52296</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9633,7 +9631,7 @@
       </c>
       <c r="F169" s="13">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>2.7390000000000001E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="G169" s="13">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9650,11 +9648,11 @@
       </c>
       <c r="K169" s="11">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L169" s="10">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>52645</v>
+        <v>52663</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9675,7 +9673,7 @@
       </c>
       <c r="F170" s="13">
         <f>_xll.qlRateHelperQuoteValue($E170,Trigger)</f>
-        <v>2.7470000000000001E-2</v>
+        <v>2.5730000000000003E-2</v>
       </c>
       <c r="G170" s="13">
         <f>_xll.qlSwapRateHelperSpread($E170,Trigger)</f>
@@ -9692,11 +9690,11 @@
       </c>
       <c r="K170" s="11">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L170" s="10">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>54472</v>
+        <v>54490</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9717,7 +9715,7 @@
       </c>
       <c r="F171" s="13">
         <f>_xll.qlRateHelperQuoteValue($E171,Trigger)</f>
-        <v>2.7630000000000002E-2</v>
+        <v>2.5860000000000001E-2</v>
       </c>
       <c r="G171" s="13">
         <f>_xll.qlSwapRateHelperSpread($E171,Trigger)</f>
@@ -9734,11 +9732,11 @@
       </c>
       <c r="K171" s="11">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L171" s="10">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>56298</v>
+        <v>56314</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -9759,7 +9757,7 @@
       </c>
       <c r="F172" s="13">
         <f>_xll.qlRateHelperQuoteValue($E172,Trigger)</f>
-        <v>2.7819999999999998E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="G172" s="13">
         <f>_xll.qlSwapRateHelperSpread($E172,Trigger)</f>
@@ -9776,11 +9774,11 @@
       </c>
       <c r="K172" s="11">
         <f>_xll.qlRateHelperEarliestDate($E172,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L172" s="10">
         <f>_xll.qlRateHelperLatestDate($E172,Trigger)</f>
-        <v>59950</v>
+        <v>59967</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.2">
@@ -9801,7 +9799,7 @@
       </c>
       <c r="F173" s="6">
         <f>_xll.qlRateHelperQuoteValue($E173,Trigger)</f>
-        <v>2.7950000000000003E-2</v>
+        <v>2.613E-2</v>
       </c>
       <c r="G173" s="6">
         <f>_xll.qlSwapRateHelperSpread($E173,Trigger)</f>
@@ -9818,11 +9816,11 @@
       </c>
       <c r="K173" s="4">
         <f>_xll.qlRateHelperEarliestDate($E173,Trigger)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="L173" s="3">
         <f>_xll.qlRateHelperLatestDate($E173,Trigger)</f>
-        <v>63604</v>
+        <v>63619</v>
       </c>
     </row>
   </sheetData>
@@ -9841,8 +9839,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9862,10 +9860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="205"/>
       <c r="D1" s="53" t="s">
         <v>87</v>
       </c>
@@ -9905,14 +9903,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41716</v>
+        <v>41736</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99954233177833063</v>
+        <v>0.99947698479915448</v>
       </c>
       <c r="K2" s="187" t="s">
         <v>117</v>
@@ -9941,14 +9939,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41778</v>
+        <v>41796</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99853838943246809</v>
+        <v>0.99850595772447803</v>
       </c>
       <c r="K3" s="187" t="s">
         <v>118</v>
@@ -9977,14 +9975,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41869</v>
+        <v>41890</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99711786128943314</v>
+        <v>0.9970384799855907</v>
       </c>
       <c r="K4" s="187" t="s">
         <v>119</v>
@@ -10013,14 +10011,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41961</v>
+        <v>41981</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99569234450739386</v>
+        <v>0.995629504523456</v>
       </c>
       <c r="K5" s="187" t="s">
         <v>120</v>
@@ -10050,11 +10048,11 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
       <c r="I6" s="34">
         <v>0.99425404019271957</v>
@@ -10069,7 +10067,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_RateHelpersSelected#0002</v>
+        <v>EUR_YC1YRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10088,14 +10086,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41778</v>
+        <v>41796</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42143</v>
+        <v>42163</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99281083614069399</v>
+        <v>0.99274738861523393</v>
       </c>
       <c r="K7" s="187" t="s">
         <v>122</v>
@@ -10118,14 +10116,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41869</v>
+        <v>41890</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42234</v>
+        <v>42255</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99124956747849813</v>
+        <v>0.99117065335394594</v>
       </c>
       <c r="K8" s="187" t="s">
         <v>123</v>
@@ -10148,14 +10146,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41961</v>
+        <v>41981</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42326</v>
+        <v>42346</v>
       </c>
       <c r="I9" s="34">
-        <v>0.98950032632669438</v>
+        <v>0.98943787713245912</v>
       </c>
       <c r="K9" s="187" t="s">
         <v>124</v>
@@ -10170,7 +10168,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.7400000000000003E-3</v>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10178,14 +10176,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42053</v>
+        <v>42069</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42418</v>
+        <v>42436</v>
       </c>
       <c r="I10" s="34">
-        <v>0.9875058095204936</v>
+        <v>0.98781913936415011</v>
       </c>
       <c r="K10" s="187" t="s">
         <v>125</v>
@@ -10208,14 +10206,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42142</v>
+        <v>42163</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42508</v>
+        <v>42529</v>
       </c>
       <c r="I11" s="34">
-        <v>0.98531129822262042</v>
+        <v>0.98523198973592874</v>
       </c>
       <c r="K11" s="187" t="s">
         <v>126</v>
@@ -10238,14 +10236,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42234</v>
+        <v>42254</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42600</v>
+        <v>42620</v>
       </c>
       <c r="I12" s="34">
-        <v>0.98272125040845359</v>
+        <v>0.98266154729473021</v>
       </c>
       <c r="K12" s="187" t="s">
         <v>127</v>
@@ -10260,7 +10258,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>7.9900000000000006E-3</v>
+        <v>7.4800000000000005E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10268,14 +10266,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42786</v>
+        <v>42800</v>
       </c>
       <c r="I13" s="34">
-        <v>0.97632159145442765</v>
+        <v>0.97767938874527982</v>
       </c>
       <c r="K13" s="187" t="s">
         <v>128</v>
@@ -10290,7 +10288,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.027E-2</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10298,14 +10296,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43150</v>
+        <v>43165</v>
       </c>
       <c r="I14" s="34">
-        <v>0.95973569259205038</v>
+        <v>0.96275062727104432</v>
       </c>
       <c r="K14" s="187" t="s">
         <v>129</v>
@@ -10320,7 +10318,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.2610000000000001E-2</v>
+        <v>1.149E-2</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10328,14 +10326,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43514</v>
+        <v>43530</v>
       </c>
       <c r="I15" s="34">
-        <v>0.93875670708534265</v>
+        <v>0.9439032153491268</v>
       </c>
       <c r="K15" s="187" t="s">
         <v>130</v>
@@ -10350,7 +10348,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.4789999999999999E-2</v>
+        <v>1.345E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10358,14 +10356,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43879</v>
+        <v>43896</v>
       </c>
       <c r="I16" s="34">
-        <v>0.91464150040818726</v>
+        <v>0.92196457997770997</v>
       </c>
       <c r="K16" s="187" t="s">
         <v>131</v>
@@ -10380,7 +10378,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.677E-2</v>
+        <v>1.5269999999999999E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10388,14 +10386,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44245</v>
+        <v>44263</v>
       </c>
       <c r="I17" s="34">
-        <v>0.88831711813212222</v>
+        <v>0.89764648139807868</v>
       </c>
       <c r="K17" s="187" t="s">
         <v>132</v>
@@ -10410,7 +10408,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.8540000000000001E-2</v>
+        <v>1.6910000000000001E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10418,14 +10416,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44610</v>
+        <v>44627</v>
       </c>
       <c r="I18" s="34">
-        <v>0.86057442951446128</v>
+        <v>0.87196914802988867</v>
       </c>
       <c r="K18" s="187" t="s">
         <v>133</v>
@@ -10440,7 +10438,7 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.0110000000000003E-2</v>
+        <v>1.8380000000000001E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10448,14 +10446,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="I19" s="34">
-        <v>0.83194427941853755</v>
+        <v>0.84536052986764443</v>
       </c>
       <c r="K19" s="187" t="s">
         <v>134</v>
@@ -10470,7 +10468,7 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.147E-2</v>
+        <v>1.9700000000000002E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10478,14 +10476,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45341</v>
+        <v>45357</v>
       </c>
       <c r="I20" s="34">
-        <v>0.80337837827113301</v>
+        <v>0.81815022907220014</v>
       </c>
       <c r="K20" s="187" t="s">
         <v>135</v>
@@ -10500,7 +10498,7 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.3640000000000001E-2</v>
+        <v>2.1789999999999997E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10508,14 +10506,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46071</v>
+        <v>46087</v>
       </c>
       <c r="I21" s="34">
-        <v>0.74756039277880337</v>
+        <v>0.76496611703926243</v>
       </c>
       <c r="K21" s="187" t="s">
         <v>136</v>
@@ -10530,7 +10528,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.5740000000000002E-2</v>
+        <v>2.3869999999999999E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10538,14 +10536,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47168</v>
+        <v>47183</v>
       </c>
       <c r="I22" s="34">
-        <v>0.67134728871161886</v>
+        <v>0.69133742715415136</v>
       </c>
       <c r="K22" s="187" t="s">
         <v>137</v>
@@ -10560,7 +10558,7 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.7120000000000002E-2</v>
+        <v>2.528E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10568,14 +10566,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>48995</v>
+        <v>49009</v>
       </c>
       <c r="I23" s="34">
-        <v>0.57111895971306614</v>
+        <v>0.59343592249700805</v>
       </c>
       <c r="K23" s="187" t="s">
         <v>138</v>
@@ -10590,7 +10588,7 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.7440000000000003E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10598,14 +10596,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>50819</v>
+        <v>50836</v>
       </c>
       <c r="I24" s="34">
-        <v>0.49431460686077139</v>
+        <v>0.51738052442685156</v>
       </c>
       <c r="K24" s="187" t="s">
         <v>139</v>
@@ -10620,7 +10618,7 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.7390000000000001E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10628,14 +10626,14 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52645</v>
+        <v>52663</v>
       </c>
       <c r="I25" s="34">
-        <v>0.43270532317582572</v>
+        <v>0.45585545726629456</v>
       </c>
       <c r="K25" s="187" t="s">
         <v>140</v>
@@ -10650,7 +10648,7 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.7470000000000001E-2</v>
+        <v>2.5730000000000003E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10658,14 +10656,14 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>54472</v>
+        <v>54490</v>
       </c>
       <c r="I26" s="34">
-        <v>0.37630612436793942</v>
+        <v>0.39984856952769215</v>
       </c>
       <c r="K26" s="187" t="s">
         <v>141</v>
@@ -10680,7 +10678,7 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.7630000000000002E-2</v>
+        <v>2.5860000000000001E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10688,14 +10686,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56298</v>
+        <v>56314</v>
       </c>
       <c r="I27" s="34">
-        <v>0.32501075414272979</v>
+        <v>0.34916867556882936</v>
       </c>
       <c r="K27" s="187" t="s">
         <v>142</v>
@@ -10710,7 +10708,7 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.7819999999999998E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10718,14 +10716,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>59950</v>
+        <v>59967</v>
       </c>
       <c r="I28" s="34">
-        <v>0.24305954745722594</v>
+        <v>0.26708061740853006</v>
       </c>
       <c r="K28" s="187" t="s">
         <v>143</v>
@@ -10740,7 +10738,7 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.7950000000000003E-2</v>
+        <v>2.613E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10748,14 +10746,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41688</v>
+        <v>41704</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>63604</v>
+        <v>63619</v>
       </c>
       <c r="I29" s="34">
-        <v>0.18144476455568445</v>
+        <v>0.20316032572374745</v>
       </c>
       <c r="K29" s="187" t="s">
         <v>144</v>
@@ -13130,7 +13128,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -13184,7 +13182,7 @@
       </c>
       <c r="F3" s="98" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0003</v>
+        <v>EUR_YC1YRH_SND#0001</v>
       </c>
       <c r="G3" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13211,7 +13209,7 @@
       </c>
       <c r="F4" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0003</v>
+        <v>EUR_YC1YRH_SWD#0001</v>
       </c>
       <c r="G4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13238,7 +13236,7 @@
       </c>
       <c r="F5" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0003</v>
+        <v>EUR_YC1YRH_2WD#0001</v>
       </c>
       <c r="G5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13265,7 +13263,7 @@
       </c>
       <c r="F6" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3WD#0003</v>
+        <v>EUR_YC1YRH_3WD#0001</v>
       </c>
       <c r="G6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13292,7 +13290,7 @@
       </c>
       <c r="F7" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0003</v>
+        <v>EUR_YC1YRH_1MD#0001</v>
       </c>
       <c r="G7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13319,7 +13317,7 @@
       </c>
       <c r="F8" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0003</v>
+        <v>EUR_YC1YRH_2MD#0001</v>
       </c>
       <c r="G8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13346,7 +13344,7 @@
       </c>
       <c r="F9" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0003</v>
+        <v>EUR_YC1YRH_3MD#0001</v>
       </c>
       <c r="G9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13373,7 +13371,7 @@
       </c>
       <c r="F10" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4MD#0003</v>
+        <v>EUR_YC1YRH_4MD#0001</v>
       </c>
       <c r="G10" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13400,7 +13398,7 @@
       </c>
       <c r="F11" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5MD#0003</v>
+        <v>EUR_YC1YRH_5MD#0001</v>
       </c>
       <c r="G11" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13427,7 +13425,7 @@
       </c>
       <c r="F12" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0003</v>
+        <v>EUR_YC1YRH_6MD#0001</v>
       </c>
       <c r="G12" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13454,7 +13452,7 @@
       </c>
       <c r="F13" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7MD#0003</v>
+        <v>EUR_YC1YRH_7MD#0001</v>
       </c>
       <c r="G13" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13481,7 +13479,7 @@
       </c>
       <c r="F14" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8MD#0003</v>
+        <v>EUR_YC1YRH_8MD#0001</v>
       </c>
       <c r="G14" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13508,7 +13506,7 @@
       </c>
       <c r="F15" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0003</v>
+        <v>EUR_YC1YRH_9MD#0001</v>
       </c>
       <c r="G15" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13535,7 +13533,7 @@
       </c>
       <c r="F16" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10MD#0003</v>
+        <v>EUR_YC1YRH_10MD#0001</v>
       </c>
       <c r="G16" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13562,7 +13560,7 @@
       </c>
       <c r="F17" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11MD#0003</v>
+        <v>EUR_YC1YRH_11MD#0001</v>
       </c>
       <c r="G17" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13589,7 +13587,7 @@
       </c>
       <c r="F18" s="92" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0003</v>
+        <v>EUR_YC1YRH_1YD#0001</v>
       </c>
       <c r="G18" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -13638,7 +13636,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="162"/>
@@ -13715,7 +13713,7 @@
       </c>
       <c r="I3" s="139" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_T12F1#0003</v>
+        <v>EUR_YC1YRH_T12F1#0001</v>
       </c>
       <c r="J3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13752,7 +13750,7 @@
       </c>
       <c r="I4" s="130" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_TOM12F1#0003</v>
+        <v>EUR_YC1YRH_TOM12F1#0001</v>
       </c>
       <c r="J4" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13790,7 +13788,7 @@
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1x13F#0003</v>
+        <v>EUR_YC1YRH_1x13F#0001</v>
       </c>
       <c r="J5" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13828,7 +13826,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2x14F#0003</v>
+        <v>EUR_YC1YRH_2x14F#0001</v>
       </c>
       <c r="J6" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13866,7 +13864,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3x15F#0003</v>
+        <v>EUR_YC1YRH_3x15F#0001</v>
       </c>
       <c r="J7" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13904,7 +13902,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_4x16F#0003</v>
+        <v>EUR_YC1YRH_4x16F#0001</v>
       </c>
       <c r="J8" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13942,7 +13940,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_5x17F#0003</v>
+        <v>EUR_YC1YRH_5x17F#0001</v>
       </c>
       <c r="J9" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13980,7 +13978,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6x18F#0003</v>
+        <v>EUR_YC1YRH_6x18F#0001</v>
       </c>
       <c r="J10" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14018,7 +14016,7 @@
       </c>
       <c r="I11" s="134" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_7x19F#0003</v>
+        <v>EUR_YC1YRH_7x19F#0001</v>
       </c>
       <c r="J11" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14056,7 +14054,7 @@
       </c>
       <c r="I12" s="134" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_8x20F#0003</v>
+        <v>EUR_YC1YRH_8x20F#0001</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14094,7 +14092,7 @@
       </c>
       <c r="I13" s="134" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9x21F#0003</v>
+        <v>EUR_YC1YRH_9x21F#0001</v>
       </c>
       <c r="J13" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14132,7 +14130,7 @@
       </c>
       <c r="I14" s="134" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_10x22F#0003</v>
+        <v>EUR_YC1YRH_10x22F#0001</v>
       </c>
       <c r="J14" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14170,7 +14168,7 @@
       </c>
       <c r="I15" s="134" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_11x23F#0003</v>
+        <v>EUR_YC1YRH_11x23F#0001</v>
       </c>
       <c r="J15" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14208,7 +14206,7 @@
       </c>
       <c r="I16" s="144" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_12x24F#0003</v>
+        <v>EUR_YC1YRH_12x24F#0001</v>
       </c>
       <c r="J16" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14246,7 +14244,7 @@
       </c>
       <c r="I17" s="139" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_13x25F#0003</v>
+        <v>EUR_YC1YRH_13x25F#0001</v>
       </c>
       <c r="J17" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14284,7 +14282,7 @@
       </c>
       <c r="I18" s="134" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_14x26F#0003</v>
+        <v>EUR_YC1YRH_14x26F#0001</v>
       </c>
       <c r="J18" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14322,7 +14320,7 @@
       </c>
       <c r="I19" s="134" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_15x27F#0003</v>
+        <v>EUR_YC1YRH_15x27F#0001</v>
       </c>
       <c r="J19" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14360,7 +14358,7 @@
       </c>
       <c r="I20" s="134" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_16x28F#0003</v>
+        <v>EUR_YC1YRH_16x28F#0001</v>
       </c>
       <c r="J20" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14398,7 +14396,7 @@
       </c>
       <c r="I21" s="134" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_17x29F#0003</v>
+        <v>EUR_YC1YRH_17x29F#0001</v>
       </c>
       <c r="J21" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14436,7 +14434,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_18x30F#0003</v>
+        <v>EUR_YC1YRH_18x30F#0001</v>
       </c>
       <c r="J22" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14474,7 +14472,7 @@
       </c>
       <c r="I23" s="134" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_19x31F#0003</v>
+        <v>EUR_YC1YRH_19x31F#0001</v>
       </c>
       <c r="J23" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14512,7 +14510,7 @@
       </c>
       <c r="I24" s="134" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_20x32F#0003</v>
+        <v>EUR_YC1YRH_20x32F#0001</v>
       </c>
       <c r="J24" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14550,7 +14548,7 @@
       </c>
       <c r="I25" s="134" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_21x33F#0003</v>
+        <v>EUR_YC1YRH_21x33F#0001</v>
       </c>
       <c r="J25" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14588,7 +14586,7 @@
       </c>
       <c r="I26" s="134" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_22x34F#0003</v>
+        <v>EUR_YC1YRH_22x34F#0001</v>
       </c>
       <c r="J26" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14626,7 +14624,7 @@
       </c>
       <c r="I27" s="130" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_23x35F#0003</v>
+        <v>EUR_YC1YRH_23x35F#0001</v>
       </c>
       <c r="J27" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14664,7 +14662,7 @@
       </c>
       <c r="I28" s="139" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_25x37F#0003</v>
+        <v>EUR_YC1YRH_25x37F#0001</v>
       </c>
       <c r="J28" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14702,7 +14700,7 @@
       </c>
       <c r="I29" s="134" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_26x38F#0003</v>
+        <v>EUR_YC1YRH_26x38F#0001</v>
       </c>
       <c r="J29" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14740,7 +14738,7 @@
       </c>
       <c r="I30" s="134" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_27x39F#0003</v>
+        <v>EUR_YC1YRH_27x39F#0001</v>
       </c>
       <c r="J30" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14778,7 +14776,7 @@
       </c>
       <c r="I31" s="134" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_28x40F#0003</v>
+        <v>EUR_YC1YRH_28x40F#0001</v>
       </c>
       <c r="J31" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14816,7 +14814,7 @@
       </c>
       <c r="I32" s="134" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_29x41F#0003</v>
+        <v>EUR_YC1YRH_29x41F#0001</v>
       </c>
       <c r="J32" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14854,7 +14852,7 @@
       </c>
       <c r="I33" s="134" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_30x42F#0003</v>
+        <v>EUR_YC1YRH_30x42F#0001</v>
       </c>
       <c r="J33" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14892,7 +14890,7 @@
       </c>
       <c r="I34" s="134" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_31x43F#0003</v>
+        <v>EUR_YC1YRH_31x43F#0001</v>
       </c>
       <c r="J34" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14930,7 +14928,7 @@
       </c>
       <c r="I35" s="134" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_32x44F#0003</v>
+        <v>EUR_YC1YRH_32x44F#0001</v>
       </c>
       <c r="J35" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14968,7 +14966,7 @@
       </c>
       <c r="I36" s="134" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_33x45F#0003</v>
+        <v>EUR_YC1YRH_33x45F#0001</v>
       </c>
       <c r="J36" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15006,7 +15004,7 @@
       </c>
       <c r="I37" s="134" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_34x46F#0003</v>
+        <v>EUR_YC1YRH_34x46F#0001</v>
       </c>
       <c r="J37" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15044,7 +15042,7 @@
       </c>
       <c r="I38" s="130" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_35x47F#0003</v>
+        <v>EUR_YC1YRH_35x47F#0001</v>
       </c>
       <c r="J38" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15082,7 +15080,7 @@
       </c>
       <c r="I39" s="134" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_37x49F#0003</v>
+        <v>EUR_YC1YRH_37x49F#0001</v>
       </c>
       <c r="J39" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15120,7 +15118,7 @@
       </c>
       <c r="I40" s="134" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_38x50F#0003</v>
+        <v>EUR_YC1YRH_38x50F#0001</v>
       </c>
       <c r="J40" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15158,7 +15156,7 @@
       </c>
       <c r="I41" s="134" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_39x51F#0003</v>
+        <v>EUR_YC1YRH_39x51F#0001</v>
       </c>
       <c r="J41" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15196,7 +15194,7 @@
       </c>
       <c r="I42" s="134" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_40x52F#0003</v>
+        <v>EUR_YC1YRH_40x52F#0001</v>
       </c>
       <c r="J42" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15234,7 +15232,7 @@
       </c>
       <c r="I43" s="134" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_41x53F#0003</v>
+        <v>EUR_YC1YRH_41x53F#0001</v>
       </c>
       <c r="J43" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15272,7 +15270,7 @@
       </c>
       <c r="I44" s="134" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_42x54F#0003</v>
+        <v>EUR_YC1YRH_42x54F#0001</v>
       </c>
       <c r="J44" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15310,7 +15308,7 @@
       </c>
       <c r="I45" s="134" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_43x55F#0003</v>
+        <v>EUR_YC1YRH_43x55F#0001</v>
       </c>
       <c r="J45" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -15348,7 +15346,7 @@
       </c>
       <c r="I46" s="134" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_44x56F#0003</v>
+        <v>EUR_YC1YRH_44x56F#0001</v>
       </c>
       <c r="J46" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -15386,7 +15384,7 @@
       </c>
       <c r="I47" s="134" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_45x57F#0003</v>
+        <v>EUR_YC1YRH_45x57F#0001</v>
       </c>
       <c r="J47" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -15424,7 +15422,7 @@
       </c>
       <c r="I48" s="134" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_46x58F#0003</v>
+        <v>EUR_YC1YRH_46x58F#0001</v>
       </c>
       <c r="J48" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -15462,7 +15460,7 @@
       </c>
       <c r="I49" s="130" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_47x59F#0003</v>
+        <v>EUR_YC1YRH_47x59F#0001</v>
       </c>
       <c r="J49" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -15528,7 +15526,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
@@ -15563,7 +15561,7 @@
       </c>
       <c r="L2" s="12" t="str">
         <f>Discounting</f>
-        <v>EurYC</v>
+        <v>EurON</v>
       </c>
       <c r="M2" s="107"/>
       <c r="N2" s="164"/>
@@ -15622,7 +15620,7 @@
       </c>
       <c r="L4" s="181" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS_ibor1Y#0001</v>
       </c>
       <c r="M4" s="180" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15686,7 +15684,7 @@
       </c>
       <c r="L6" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS1Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS1Y#0002</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15739,7 +15737,7 @@
       </c>
       <c r="L7" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15M#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS15M#0002</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15788,7 +15786,7 @@
       </c>
       <c r="L8" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18M#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS18M#0002</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15837,7 +15835,7 @@
       </c>
       <c r="L9" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21M#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS21M#0002</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15886,7 +15884,7 @@
       </c>
       <c r="L10" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS2Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS2Y#0002</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15944,7 +15942,7 @@
       </c>
       <c r="L11" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS3Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS3Y#0002</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16002,7 +16000,7 @@
       </c>
       <c r="L12" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS4Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS4Y#0002</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16060,7 +16058,7 @@
       </c>
       <c r="L13" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS5Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS5Y#0002</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16118,7 +16116,7 @@
       </c>
       <c r="L14" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS6Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS6Y#0002</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16176,7 +16174,7 @@
       </c>
       <c r="L15" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS7Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS7Y#0002</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16228,7 +16226,7 @@
       </c>
       <c r="L16" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS8Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS8Y#0002</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16277,7 +16275,7 @@
       </c>
       <c r="L17" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS9Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS9Y#0002</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16326,7 +16324,7 @@
       </c>
       <c r="L18" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS10Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS10Y#0002</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16375,7 +16373,7 @@
       </c>
       <c r="L19" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS11Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS11Y#0002</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16424,7 +16422,7 @@
       </c>
       <c r="L20" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS12Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS12Y#0002</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16473,7 +16471,7 @@
       </c>
       <c r="L21" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS13Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS13Y#0002</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16522,7 +16520,7 @@
       </c>
       <c r="L22" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS14Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS14Y#0002</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16571,7 +16569,7 @@
       </c>
       <c r="L23" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS15Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS15Y#0002</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16620,7 +16618,7 @@
       </c>
       <c r="L24" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS16Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS16Y#0002</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16669,7 +16667,7 @@
       </c>
       <c r="L25" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS17Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS17Y#0002</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16718,7 +16716,7 @@
       </c>
       <c r="L26" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS18Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS18Y#0002</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16767,7 +16765,7 @@
       </c>
       <c r="L27" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS19Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS19Y#0002</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16816,7 +16814,7 @@
       </c>
       <c r="L28" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS20Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS20Y#0002</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16865,7 +16863,7 @@
       </c>
       <c r="L29" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS21Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS21Y#0002</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16914,7 +16912,7 @@
       </c>
       <c r="L30" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS22Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS22Y#0002</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16963,7 +16961,7 @@
       </c>
       <c r="L31" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS23Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS23Y#0002</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17012,7 +17010,7 @@
       </c>
       <c r="L32" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS24Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS24Y#0002</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17061,7 +17059,7 @@
       </c>
       <c r="L33" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS25Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS25Y#0002</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17110,7 +17108,7 @@
       </c>
       <c r="L34" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS26Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS26Y#0002</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17159,7 +17157,7 @@
       </c>
       <c r="L35" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS27Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS27Y#0002</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17208,7 +17206,7 @@
       </c>
       <c r="L36" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS28Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS28Y#0002</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17257,7 +17255,7 @@
       </c>
       <c r="L37" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS29Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS29Y#0002</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17306,7 +17304,7 @@
       </c>
       <c r="L38" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS30Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS30Y#0002</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17355,7 +17353,7 @@
       </c>
       <c r="L39" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS35Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS35Y#0002</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17404,7 +17402,7 @@
       </c>
       <c r="L40" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS40Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS40Y#0002</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17453,7 +17451,7 @@
       </c>
       <c r="L41" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS50Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS50Y#0002</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17502,7 +17500,7 @@
       </c>
       <c r="L42" s="166" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_AB12EBASIS60Y#0003</v>
+        <v>EUR_YC1YRH_AB12EBASIS60Y#0002</v>
       </c>
       <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="157">
   <si>
     <t>60Y</t>
   </si>
@@ -569,28 +569,10 @@
     <t>General Settings</t>
   </si>
   <si>
-    <t>11M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
     <t>9M</t>
   </si>
   <si>
-    <t>8M</t>
-  </si>
-  <si>
-    <t>7M</t>
-  </si>
-  <si>
     <t>6M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>4M</t>
   </si>
   <si>
     <t>3M</t>
@@ -600,9 +582,6 @@
   </si>
   <si>
     <t>1M</t>
-  </si>
-  <si>
-    <t>3W</t>
   </si>
   <si>
     <t>2W</t>
@@ -1796,6 +1775,19 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,19 +1813,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2147,8 +2126,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2173,18 +2152,18 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195"/>
-      <c r="J2" s="193" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="196"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="202"/>
+      <c r="J2" s="200" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="203"/>
     </row>
     <row r="3" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2211,10 +2190,10 @@
       <c r="H4" s="188"/>
       <c r="J4" s="121"/>
       <c r="K4" s="120" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L4" s="114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="119"/>
     </row>
@@ -2235,12 +2214,9 @@
       </c>
       <c r="J5" s="121"/>
       <c r="K5" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="122" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="L5" s="122"/>
       <c r="M5" s="119"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -2259,7 +2235,7 @@
       <c r="H6" s="190"/>
       <c r="J6" s="121"/>
       <c r="K6" s="120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L6" s="111" t="b">
         <v>1</v>
@@ -2316,12 +2292,12 @@
         <v>EUR_YC1YRH</v>
       </c>
       <c r="E9" s="57"/>
-      <c r="J9" s="193" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="196"/>
+      <c r="J9" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="203"/>
     </row>
     <row r="10" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2342,16 +2318,14 @@
       <c r="C11" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="78">
-        <v>41733.640439814815</v>
-      </c>
+      <c r="D11" s="78"/>
       <c r="E11" s="57"/>
       <c r="J11" s="113"/>
       <c r="K11" s="112" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L11" s="114" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M11" s="110"/>
     </row>
@@ -2366,10 +2340,10 @@
       <c r="E12" s="57"/>
       <c r="J12" s="113"/>
       <c r="K12" s="112" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L12" s="111" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M12" s="110"/>
     </row>
@@ -2380,10 +2354,10 @@
       <c r="E13" s="57"/>
       <c r="J13" s="113"/>
       <c r="K13" s="112" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L13" s="114" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" s="110"/>
     </row>
@@ -2394,15 +2368,15 @@
       </c>
       <c r="D14" s="75" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC1Y#0002</v>
+        <v>_EURYC1Y#0001</v>
       </c>
       <c r="E14" s="57"/>
       <c r="J14" s="113"/>
       <c r="K14" s="112" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L14" s="114" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M14" s="110"/>
     </row>
@@ -2418,7 +2392,7 @@
       <c r="E15" s="57"/>
       <c r="J15" s="113"/>
       <c r="K15" s="112" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L15" s="111" t="str">
         <f>PROPER(Currency)&amp;"ON"</f>
@@ -2510,7 +2484,7 @@
       <c r="B24" s="59"/>
       <c r="C24" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D24" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2522,38 +2496,38 @@
       <c r="B25" s="59"/>
       <c r="C25" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="D25" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.20240164581738126</v>
+        <v>0.2014805156807872</v>
       </c>
       <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="59"/>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="203" t="str">
+      <c r="D26" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="206"/>
-      <c r="C27" s="204" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="205" t="b">
+      <c r="B27" s="197"/>
+      <c r="C27" s="195" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="196" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C27,YieldCurve)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="207"/>
+      <c r="E27" s="198"/>
     </row>
     <row r="28" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="208"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="56"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -2603,7 +2577,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2626,11 +2602,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
       <c r="E1" s="31" t="s">
         <v>78</v>
       </c>
@@ -2746,7 +2722,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>7.0699999999999999E-3</v>
+        <v>7.0790000000000002E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2760,11 +2736,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2785,7 +2761,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>6.7689999999999998E-3</v>
+        <v>6.6470000000000001E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2799,11 +2775,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2824,7 +2800,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>6.9280000000000001E-3</v>
+        <v>6.7860000000000004E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2838,11 +2814,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2902,7 +2878,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>6.7759999999999999E-3</v>
+        <v>6.6709999999999998E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2916,11 +2892,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -2941,7 +2917,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>6.5310000000000003E-3</v>
+        <v>6.5240000000000003E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -2955,11 +2931,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -2974,7 +2950,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>6.4270000000000004E-3</v>
+        <v>6.417E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -2988,11 +2964,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3076,7 +3052,7 @@
       </c>
       <c r="F13" s="13">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>6.2350000000000001E-3</v>
+        <v>6.1840000000000003E-3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="b">
@@ -3090,11 +3066,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3175,7 +3151,7 @@
       </c>
       <c r="F16" s="13">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.1019999999999998E-3</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12" t="b">
@@ -3189,11 +3165,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3274,7 +3250,7 @@
       </c>
       <c r="F19" s="6">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>6.0299999999999998E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="b">
@@ -3288,11 +3264,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3326,11 +3302,11 @@
       </c>
       <c r="K20" s="19">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L20" s="18">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3364,11 +3340,11 @@
       </c>
       <c r="K21" s="4">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="L21" s="3">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3388,7 +3364,7 @@
       </c>
       <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>5.9490000000000003E-3</v>
+        <v>5.9160000000000003E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3402,11 +3378,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42132</v>
+        <v>42136</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3426,7 +3402,7 @@
       </c>
       <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>5.9109999999999996E-3</v>
+        <v>5.8780000000000004E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3440,11 +3416,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42164</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3464,7 +3440,7 @@
       </c>
       <c r="F24" s="13">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>5.8910000000000004E-3</v>
+        <v>5.8589999999999996E-3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="12" t="b">
@@ -3478,11 +3454,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3502,7 +3478,7 @@
       </c>
       <c r="F25" s="13">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>5.8840000000000003E-3</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="12" t="b">
@@ -3516,11 +3492,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42226</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3540,7 +3516,7 @@
       </c>
       <c r="F26" s="13">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>5.8919999999999997E-3</v>
+        <v>5.8820000000000001E-3</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="b">
@@ -3554,11 +3530,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3592,11 +3568,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3616,7 +3592,7 @@
       </c>
       <c r="F28" s="13">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>5.9839999999999997E-3</v>
+        <v>5.9849999999999999E-3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="b">
@@ -3654,7 +3630,7 @@
       </c>
       <c r="F29" s="13">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>6.0540000000000004E-3</v>
+        <v>6.0639999999999999E-3</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="b">
@@ -3668,11 +3644,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42346</v>
+        <v>42348</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3692,7 +3668,7 @@
       </c>
       <c r="F30" s="13">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>6.1390000000000004E-3</v>
+        <v>6.1570000000000001E-3</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="b">
@@ -3706,11 +3682,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42377</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3730,7 +3706,7 @@
       </c>
       <c r="F31" s="13">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>6.2579999999999997E-3</v>
+        <v>6.2589999999999998E-3</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="b">
@@ -3744,11 +3720,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42409</v>
+        <v>42410</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3768,7 +3744,7 @@
       </c>
       <c r="F32" s="13">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>6.3829999999999998E-3</v>
+        <v>6.3709999999999999E-3</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12" t="b">
@@ -3782,11 +3758,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42438</v>
+        <v>42439</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3806,7 +3782,7 @@
       </c>
       <c r="F33" s="13">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>6.5300000000000002E-3</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="b">
@@ -3820,11 +3796,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3844,7 +3820,7 @@
       </c>
       <c r="F34" s="13">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>6.6990000000000001E-3</v>
+        <v>6.6660000000000001E-3</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="b">
@@ -3858,11 +3834,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42499</v>
+        <v>42501</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3882,7 +3858,7 @@
       </c>
       <c r="F35" s="13">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>6.8890000000000002E-3</v>
+        <v>6.842E-3</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="12" t="b">
@@ -3896,11 +3872,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42529</v>
+        <v>42531</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3920,7 +3896,7 @@
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>7.0980000000000001E-3</v>
+        <v>7.0419999999999996E-3</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="12" t="b">
@@ -3934,11 +3910,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42559</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3958,7 +3934,7 @@
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>7.352E-3</v>
+        <v>7.2639999999999996E-3</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="12" t="b">
@@ -3996,7 +3972,7 @@
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>7.5950000000000002E-3</v>
+        <v>7.5180000000000004E-3</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="12" t="b">
@@ -4010,11 +3986,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42621</v>
+        <v>42625</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4034,7 +4010,7 @@
       </c>
       <c r="F39" s="6">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>7.8729999999999998E-3</v>
+        <v>7.7809999999999997E-3</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="5" t="b">
@@ -4048,11 +4024,11 @@
       </c>
       <c r="K39" s="4">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42653</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8227,7 +8203,7 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>6.11E-3</v>
+        <v>6.0600000000000003E-3</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8244,11 +8220,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8269,7 +8245,7 @@
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>5.8640000000000012E-3</v>
+        <v>5.8079999999999998E-3</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8286,11 +8262,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8311,7 +8287,7 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>6.1330000000000004E-3</v>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8328,11 +8304,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8353,7 +8329,7 @@
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>6.0630000000000007E-3</v>
+        <v>6.0330000000000002E-3</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8370,11 +8346,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8395,7 +8371,7 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>6.3600000000000002E-3</v>
+        <v>6.3400000000000001E-3</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8412,11 +8388,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8437,7 +8413,7 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>7.5700000000000003E-3</v>
+        <v>7.4799999999999997E-3</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8454,7 +8430,7 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
@@ -8479,7 +8455,7 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>9.3200000000000002E-3</v>
+        <v>9.1400000000000006E-3</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8496,11 +8472,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8521,7 +8497,7 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.12E-2</v>
+        <v>1.0969999999999999E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8538,11 +8514,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8563,7 +8539,7 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.307E-2</v>
+        <v>1.2820000000000002E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8580,11 +8556,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8605,7 +8581,7 @@
       </c>
       <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>1.4870000000000001E-2</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8622,11 +8598,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8647,7 +8623,7 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>1.651E-2</v>
+        <v>1.6230000000000001E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8664,11 +8640,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8689,7 +8665,7 @@
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>1.8010000000000002E-2</v>
+        <v>1.771E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8706,7 +8682,7 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
@@ -8731,7 +8707,7 @@
       </c>
       <c r="F149" s="13">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>1.934E-2</v>
+        <v>1.9030000000000002E-2</v>
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8748,11 +8724,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8773,7 +8749,7 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.0500000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8790,11 +8766,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8815,7 +8791,7 @@
       </c>
       <c r="F151" s="13">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.1489999999999999E-2</v>
+        <v>2.1199999999999997E-2</v>
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8832,11 +8808,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8857,7 +8833,7 @@
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.2332999999999999E-2</v>
+        <v>2.2053999999999997E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8874,11 +8850,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8899,7 +8875,7 @@
       </c>
       <c r="F153" s="13">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.3044000000000002E-2</v>
+        <v>2.2783999999999999E-2</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -8916,7 +8892,7 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
@@ -8941,7 +8917,7 @@
       </c>
       <c r="F154" s="13">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.3639999999999998E-2</v>
+        <v>2.3379999999999998E-2</v>
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -8958,11 +8934,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -8983,7 +8959,7 @@
       </c>
       <c r="F155" s="13">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.4112000000000001E-2</v>
+        <v>2.3869999999999999E-2</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9000,11 +8976,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9025,7 +9001,7 @@
       </c>
       <c r="F156" s="13">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4499E-2</v>
+        <v>2.4254999999999999E-2</v>
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9042,11 +9018,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9067,7 +9043,7 @@
       </c>
       <c r="F157" s="13">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.4573000000000001E-2</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9084,11 +9060,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9109,7 +9085,7 @@
       </c>
       <c r="F158" s="13">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.5034000000000001E-2</v>
+        <v>2.4814999999999997E-2</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9126,11 +9102,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9151,7 +9127,7 @@
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.5220000000000003E-2</v>
+        <v>2.5010000000000001E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9168,7 +9144,7 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
@@ -9193,7 +9169,7 @@
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.5366999999999997E-2</v>
+        <v>2.5167999999999999E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9210,11 +9186,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9235,7 +9211,7 @@
       </c>
       <c r="F161" s="13">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.5475000000000001E-2</v>
+        <v>2.5298999999999999E-2</v>
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9252,11 +9228,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9277,7 +9253,7 @@
       </c>
       <c r="F162" s="13">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.5554999999999998E-2</v>
+        <v>2.5391000000000004E-2</v>
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9294,11 +9270,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9319,7 +9295,7 @@
       </c>
       <c r="F163" s="13">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>2.5617000000000001E-2</v>
+        <v>2.5465000000000002E-2</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9336,11 +9312,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9361,7 +9337,7 @@
       </c>
       <c r="F164" s="13">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>2.5659999999999999E-2</v>
+        <v>2.5520000000000004E-2</v>
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9378,7 +9354,7 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
@@ -9403,7 +9379,7 @@
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.5684999999999999E-2</v>
+        <v>2.5555000000000001E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9420,11 +9396,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9445,7 +9421,7 @@
       </c>
       <c r="F166" s="13">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>2.5702000000000003E-2</v>
+        <v>2.5579999999999999E-2</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9462,11 +9438,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9487,7 +9463,7 @@
       </c>
       <c r="F167" s="13">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>2.5710999999999998E-2</v>
+        <v>2.5596000000000001E-2</v>
       </c>
       <c r="G167" s="13">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9504,11 +9480,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9529,7 +9505,7 @@
       </c>
       <c r="F168" s="13">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>2.572E-2</v>
+        <v>2.5613E-2</v>
       </c>
       <c r="G168" s="13">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9546,11 +9522,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9571,7 +9547,7 @@
       </c>
       <c r="F169" s="13">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>2.572E-2</v>
+        <v>2.562E-2</v>
       </c>
       <c r="G169" s="13">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9588,11 +9564,11 @@
       </c>
       <c r="K169" s="11">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L169" s="10">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9613,7 +9589,7 @@
       </c>
       <c r="F170" s="13">
         <f>_xll.qlRateHelperQuoteValue($E170,Trigger)</f>
-        <v>2.5810000000000003E-2</v>
+        <v>2.5769999999999998E-2</v>
       </c>
       <c r="G170" s="13">
         <f>_xll.qlSwapRateHelperSpread($E170,Trigger)</f>
@@ -9630,11 +9606,11 @@
       </c>
       <c r="K170" s="11">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L170" s="10">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9655,7 +9631,7 @@
       </c>
       <c r="F171" s="13">
         <f>_xll.qlRateHelperQuoteValue($E171,Trigger)</f>
-        <v>2.5970000000000003E-2</v>
+        <v>2.5950000000000001E-2</v>
       </c>
       <c r="G171" s="13">
         <f>_xll.qlSwapRateHelperSpread($E171,Trigger)</f>
@@ -9672,11 +9648,11 @@
       </c>
       <c r="K171" s="11">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L171" s="10">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -9697,7 +9673,7 @@
       </c>
       <c r="F172" s="13">
         <f>_xll.qlRateHelperQuoteValue($E172,Trigger)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>2.6110000000000001E-2</v>
       </c>
       <c r="G172" s="13">
         <f>_xll.qlSwapRateHelperSpread($E172,Trigger)</f>
@@ -9714,11 +9690,11 @@
       </c>
       <c r="K172" s="11">
         <f>_xll.qlRateHelperEarliestDate($E172,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L172" s="10">
         <f>_xll.qlRateHelperLatestDate($E172,Trigger)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.2">
@@ -9739,7 +9715,7 @@
       </c>
       <c r="F173" s="6">
         <f>_xll.qlRateHelperQuoteValue($E173,Trigger)</f>
-        <v>2.623E-2</v>
+        <v>2.6239999999999999E-2</v>
       </c>
       <c r="G173" s="6">
         <f>_xll.qlSwapRateHelperSpread($E173,Trigger)</f>
@@ -9756,11 +9732,11 @@
       </c>
       <c r="K173" s="4">
         <f>_xll.qlRateHelperEarliestDate($E173,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L173" s="3">
         <f>_xll.qlRateHelperLatestDate($E173,Trigger)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
     </row>
   </sheetData>
@@ -9779,8 +9755,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9798,10 +9774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="208"/>
       <c r="D1" s="53" t="s">
         <v>87</v>
       </c>
@@ -9833,7 +9809,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>6.7759999999999999E-3</v>
+        <v>6.6709999999999998E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9841,14 +9817,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99943565200183626</v>
+        <v>0.99940737363648646</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9863,7 +9839,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>6.4270000000000004E-3</v>
+        <v>6.417E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9871,14 +9847,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99837803227549293</v>
+        <v>0.99838055186633146</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9893,7 +9869,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>6.2350000000000001E-3</v>
+        <v>6.1840000000000003E-3</v>
       </c>
       <c r="F4" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9901,14 +9877,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99684055539469962</v>
+        <v>0.99686631750205501</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9923,7 +9899,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>6.1019999999999998E-3</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="F5" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9931,14 +9907,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="I5" s="34">
-        <v>0.9953603764452944</v>
+        <v>0.99537252969897161</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9954,7 +9930,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>6.0299999999999998E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="F6" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9962,20 +9938,20 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99392340080830821</v>
+        <v>0.99396346659668422</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_RateHelpersSelected#0002</v>
+        <v>EUR_YC1YRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9986,7 +9962,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.8910000000000004E-3</v>
+        <v>5.8589999999999996E-3</v>
       </c>
       <c r="F7" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9994,14 +9970,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99245030579141724</v>
+        <v>0.9924848198545877</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10018,14 +9994,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99089199677743511</v>
+        <v>0.99088520503887423</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -10034,7 +10010,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1390000000000004E-3</v>
+        <v>6.1570000000000001E-3</v>
       </c>
       <c r="F9" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10042,14 +10018,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42377</v>
+        <v>42381</v>
       </c>
       <c r="I9" s="34">
-        <v>0.98920331397937611</v>
+        <v>0.98919745087309885</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -10058,7 +10034,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.5300000000000002E-3</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10066,14 +10042,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="I10" s="34">
-        <v>0.98736842638674871</v>
+        <v>0.98741043496109904</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10082,7 +10058,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.0980000000000001E-3</v>
+        <v>7.0419999999999996E-3</v>
       </c>
       <c r="F11" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10090,14 +10066,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42559</v>
+        <v>42562</v>
       </c>
       <c r="I11" s="34">
-        <v>0.98533979820562612</v>
+        <v>0.98541062812383218</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10106,7 +10082,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.8729999999999998E-3</v>
+        <v>7.7809999999999997E-3</v>
       </c>
       <c r="F12" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10114,14 +10090,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42653</v>
+        <v>42655</v>
       </c>
       <c r="I12" s="34">
-        <v>0.98298100930261256</v>
+        <v>0.98310814779921474</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10130,7 +10106,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>7.5700000000000003E-3</v>
+        <v>7.4799999999999997E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10138,14 +10114,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>42835</v>
       </c>
       <c r="I13" s="34">
-        <v>0.97757796950760534</v>
+        <v>0.9778813228872808</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -10154,7 +10130,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>9.3200000000000002E-3</v>
+        <v>9.1400000000000006E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10162,14 +10138,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="I14" s="34">
-        <v>0.96348626952610972</v>
+        <v>0.96420443238961417</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10178,7 +10154,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.12E-2</v>
+        <v>1.0969999999999999E-2</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10186,14 +10162,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="I15" s="34">
-        <v>0.94563666393888679</v>
+        <v>0.94672883787126982</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10202,7 +10178,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.307E-2</v>
+        <v>1.2820000000000002E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10210,14 +10186,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="I16" s="34">
-        <v>0.92458276589093435</v>
+        <v>0.92585148317661026</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -10226,7 +10202,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4870000000000001E-2</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10234,14 +10210,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="I17" s="34">
-        <v>0.9009335452222238</v>
+        <v>0.90265171247047826</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -10250,7 +10226,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.651E-2</v>
+        <v>1.6230000000000001E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10258,14 +10234,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="I18" s="34">
-        <v>0.87569820835937151</v>
+        <v>0.87765590287706519</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -10274,7 +10250,7 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8010000000000002E-2</v>
+        <v>1.771E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10282,14 +10258,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>45027</v>
       </c>
       <c r="I19" s="34">
-        <v>0.84914691259836494</v>
+        <v>0.8515809327310192</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10298,7 +10274,7 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.934E-2</v>
+        <v>1.9030000000000002E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10306,14 +10282,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I20" s="34">
-        <v>0.82240124891281552</v>
+        <v>0.82502969207841759</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10322,7 +10298,7 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.1489999999999999E-2</v>
+        <v>2.1199999999999997E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10330,14 +10306,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="I21" s="34">
-        <v>0.76934800212783372</v>
+        <v>0.77211221846663936</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10346,7 +10322,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.3639999999999998E-2</v>
+        <v>2.3379999999999998E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10354,14 +10330,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="I22" s="34">
-        <v>0.69557846955458547</v>
+        <v>0.69840926034309425</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10370,7 +10346,7 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.5220000000000003E-2</v>
+        <v>2.5010000000000001E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10378,14 +10354,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>49045</v>
       </c>
       <c r="I23" s="34">
-        <v>0.59560232056118723</v>
+        <v>0.59813871764175208</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10394,7 +10370,7 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.5659999999999999E-2</v>
+        <v>2.5520000000000004E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10402,14 +10378,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>50872</v>
       </c>
       <c r="I24" s="34">
-        <v>0.51834749467981844</v>
+        <v>0.51990235167147369</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10418,7 +10394,7 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.572E-2</v>
+        <v>2.562E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10426,14 +10402,14 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="I25" s="34">
-        <v>0.45565729207876821</v>
+        <v>0.45646367915336195</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10442,7 +10418,7 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.5810000000000003E-2</v>
+        <v>2.5769999999999998E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10450,14 +10426,14 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="I26" s="34">
-        <v>0.3993905465145412</v>
+        <v>0.39899139930384347</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -10466,7 +10442,7 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.5970000000000003E-2</v>
+        <v>2.5950000000000001E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10474,14 +10450,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="I27" s="34">
-        <v>0.34797190482195528</v>
+        <v>0.34727941955927533</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10490,7 +10466,7 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>2.6110000000000001E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10498,14 +10474,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="I28" s="34">
-        <v>0.26622981303601911</v>
+        <v>0.2650315348924806</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10514,7 +10490,7 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.623E-2</v>
+        <v>2.6239999999999999E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10522,14 +10498,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="I29" s="34">
-        <v>0.20240164581738126</v>
+        <v>0.2014805156807872</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -12879,10 +12855,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12900,7 +12876,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="105"/>
@@ -12919,42 +12895,42 @@
       <c r="A2" s="95"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" s="101" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="100" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+      <c r="F2" s="100" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="G2" s="99" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <v/>
       </c>
       <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="95"/>
       <c r="B3" s="98" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="92" t="str">
-        <f t="shared" ref="D3:D18" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <f t="shared" ref="D3:D11" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>EURSND_SYNTH1Y_Quote</v>
       </c>
       <c r="E3" s="91" t="str">
-        <f t="shared" ref="E3:E18" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <f t="shared" ref="E3:E11" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>EUR_YC1YRH_SND</v>
       </c>
       <c r="F3" s="96" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0001</v>
+        <v>EUR_YC1YRH_SND#0002</v>
       </c>
       <c r="G3" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12965,10 +12941,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="95"/>
       <c r="B4" s="94" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C4" s="93" t="str">
-        <f t="shared" ref="C4:C18" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
+        <f t="shared" ref="C4:C11" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
         <v>EuriborSW</v>
       </c>
       <c r="D4" s="92" t="str">
@@ -12981,7 +12957,7 @@
       </c>
       <c r="F4" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0001</v>
+        <v>EUR_YC1YRH_SWD#0002</v>
       </c>
       <c r="G4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12992,7 +12968,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="95"/>
       <c r="B5" s="94" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C5" s="93" t="str">
         <f t="shared" si="2"/>
@@ -13008,7 +12984,7 @@
       </c>
       <c r="F5" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0001</v>
+        <v>EUR_YC1YRH_2WD#0002</v>
       </c>
       <c r="G5" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13019,50 +12995,50 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="95"/>
       <c r="B6" s="94" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor3W</v>
+        <v>Euribor1M</v>
       </c>
       <c r="D6" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR3WD_SYNTH1Y_Quote</v>
+        <v>EUR1MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E6" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_3WD</v>
-      </c>
-      <c r="F6" s="90" t="e">
+        <v>EUR_YC1YRH_1MD</v>
+      </c>
+      <c r="F6" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC1YRH_1MD#0002</v>
       </c>
       <c r="G6" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor3W'</v>
+        <f>_xll.ohRangeRetrieveError(F6)</f>
+        <v/>
       </c>
       <c r="H6" s="88"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="95"/>
       <c r="B7" s="94" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C7" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor1M</v>
+        <v>Euribor2M</v>
       </c>
       <c r="D7" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR1MD_SYNTH1Y_Quote</v>
+        <v>EUR2MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_1MD</v>
+        <v>EUR_YC1YRH_2MD</v>
       </c>
       <c r="F7" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0001</v>
+        <v>EUR_YC1YRH_2MD#0002</v>
       </c>
       <c r="G7" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13073,23 +13049,23 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="95"/>
       <c r="B8" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C8" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor2M</v>
+        <v>Euribor3M</v>
       </c>
       <c r="D8" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR2MD_SYNTH1Y_Quote</v>
+        <v>EUR3MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E8" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_2MD</v>
+        <v>EUR_YC1YRH_3MD</v>
       </c>
       <c r="F8" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0001</v>
+        <v>EUR_YC1YRH_3MD#0002</v>
       </c>
       <c r="G8" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13100,23 +13076,23 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="95"/>
       <c r="B9" s="94" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C9" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor3M</v>
+        <v>Euribor6M</v>
       </c>
       <c r="D9" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR3MD_SYNTH1Y_Quote</v>
+        <v>EUR6MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E9" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_3MD</v>
+        <v>EUR_YC1YRH_6MD</v>
       </c>
       <c r="F9" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0001</v>
+        <v>EUR_YC1YRH_6MD#0002</v>
       </c>
       <c r="G9" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13127,255 +13103,66 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="95"/>
       <c r="B10" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C10" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor4M</v>
+        <v>Euribor9M</v>
       </c>
       <c r="D10" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR4MD_SYNTH1Y_Quote</v>
+        <v>EUR9MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E10" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_4MD</v>
-      </c>
-      <c r="F10" s="90" t="e">
+        <v>EUR_YC1YRH_9MD</v>
+      </c>
+      <c r="F10" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC1YRH_9MD#0002</v>
       </c>
       <c r="G10" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor4M'</v>
+        <f>_xll.ohRangeRetrieveError(F10)</f>
+        <v/>
       </c>
       <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="95"/>
       <c r="B11" s="94" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C11" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor5M</v>
+        <v>Euribor1Y</v>
       </c>
       <c r="D11" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>EUR5MD_SYNTH1Y_Quote</v>
+        <v>EUR1YD_SYNTH1Y_Quote</v>
       </c>
       <c r="E11" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_5MD</v>
-      </c>
-      <c r="F11" s="90" t="e">
+        <v>EUR_YC1YRH_1YD</v>
+      </c>
+      <c r="F11" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC1YRH_1YD#0002</v>
       </c>
       <c r="G11" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor5M'</v>
+        <f>_xll.ohRangeRetrieveError(F11)</f>
+        <v/>
       </c>
       <c r="H11" s="88"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="D12" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR6MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E12" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_6MD</v>
-      </c>
-      <c r="F12" s="90" t="str">
-        <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0001</v>
-      </c>
-      <c r="G12" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor7M</v>
-      </c>
-      <c r="D13" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR7MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E13" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_7MD</v>
-      </c>
-      <c r="F13" s="90" t="e">
-        <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor7M'</v>
-      </c>
-      <c r="H13" s="88"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="95"/>
-      <c r="B14" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor8M</v>
-      </c>
-      <c r="D14" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR8MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E14" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_8MD</v>
-      </c>
-      <c r="F14" s="90" t="e">
-        <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor8M'</v>
-      </c>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor9M</v>
-      </c>
-      <c r="D15" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR9MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E15" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_9MD</v>
-      </c>
-      <c r="F15" s="90" t="str">
-        <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0001</v>
-      </c>
-      <c r="G15" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
-      </c>
-      <c r="H15" s="88"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="95"/>
-      <c r="B16" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor10M</v>
-      </c>
-      <c r="D16" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR10MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E16" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_10MD</v>
-      </c>
-      <c r="F16" s="90" t="e">
-        <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor10M'</v>
-      </c>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="95"/>
-      <c r="B17" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor11M</v>
-      </c>
-      <c r="D17" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR11MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E17" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_11MD</v>
-      </c>
-      <c r="F17" s="90" t="e">
-        <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="89" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Euribor11M'</v>
-      </c>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>Euribor1Y</v>
-      </c>
-      <c r="D18" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR1YD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E18" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>EUR_YC1YRH_1YD</v>
-      </c>
-      <c r="F18" s="90" t="str">
-        <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0001</v>
-      </c>
-      <c r="G18" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="85"/>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13389,7 +13176,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13408,7 +13197,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="184" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -13434,24 +13223,24 @@
       <c r="C2" s="153"/>
       <c r="D2" s="152"/>
       <c r="E2" s="151" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F2" s="151" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G2" s="151" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H2" s="150" t="str">
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="149">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+      <c r="I2" s="149" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="J2" s="148" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <f>_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="88"/>
@@ -13459,7 +13248,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="95"/>
       <c r="B3" s="137" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C3" s="140" t="str">
         <f>"T"&amp;D1</f>
@@ -13496,7 +13285,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="95"/>
       <c r="B4" s="128" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C4" s="130" t="str">
         <f>"TOM"&amp;D1</f>
@@ -15271,7 +15060,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15298,7 +15089,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="184" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="160"/>
@@ -15341,36 +15132,36 @@
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="95"/>
       <c r="B3" s="102" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C3" s="102"/>
       <c r="D3" s="102"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K3" s="182" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC1YRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="181">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+      <c r="L3" s="181" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="M3" s="163" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="162"/>
@@ -15419,7 +15210,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="95"/>
       <c r="B6" s="177" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C6" s="143" t="s">
         <v>36</v>
@@ -15437,7 +15228,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="176" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H6" s="176" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -15490,7 +15281,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H7" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15539,7 +15330,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H8" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15588,7 +15379,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H9" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15637,7 +15428,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H10" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15670,7 +15461,7 @@
         <v>111</v>
       </c>
       <c r="R10" s="174" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -15695,7 +15486,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H11" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15728,7 +15519,7 @@
         <v>111</v>
       </c>
       <c r="R11" s="172" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -15753,7 +15544,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H12" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15783,10 +15574,10 @@
         <v>109</v>
       </c>
       <c r="Q12" s="168" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R12" s="172" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -15811,7 +15602,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H13" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15841,10 +15632,10 @@
         <v>107</v>
       </c>
       <c r="Q13" s="168" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R13" s="172" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -15869,7 +15660,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H14" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15902,7 +15693,7 @@
         <v>104</v>
       </c>
       <c r="R14" s="169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -15927,7 +15718,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H15" s="167" t="str">
         <f t="shared" si="1"/>
@@ -15979,7 +15770,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H16" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16028,7 +15819,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H17" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16077,7 +15868,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H18" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16126,7 +15917,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H19" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16175,7 +15966,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H20" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16224,7 +16015,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H21" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16273,7 +16064,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H22" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16322,7 +16113,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H23" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16371,7 +16162,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H24" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16420,7 +16211,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H25" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16469,7 +16260,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H26" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16518,7 +16309,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H27" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16567,7 +16358,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H28" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16616,7 +16407,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H29" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16665,7 +16456,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H30" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16714,7 +16505,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H31" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16763,7 +16554,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H32" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16812,7 +16603,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H33" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16861,7 +16652,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H34" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16910,7 +16701,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H35" s="167" t="str">
         <f t="shared" si="1"/>
@@ -16959,7 +16750,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H36" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17008,7 +16799,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H37" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17057,7 +16848,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H38" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17106,7 +16897,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H39" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17155,7 +16946,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H40" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17204,7 +16995,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H41" s="167" t="str">
         <f t="shared" si="1"/>
@@ -17253,7 +17044,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="167" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H42" s="167" t="str">
         <f t="shared" si="1"/>

--- a/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC1YBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2148,7 +2148,7 @@
     <row r="1" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="185" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D14" s="75" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(#REF!),NA(),#REF!),IF(ISERROR(#REF!),NA(),#REF!),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC1Y#0001</v>
+        <v>_EURYC1Y#0002</v>
       </c>
       <c r="E14" s="57"/>
       <c r="J14" s="113"/>
@@ -2484,7 +2484,7 @@
       <c r="B24" s="59"/>
       <c r="C24" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41739</v>
+        <v>41752</v>
       </c>
       <c r="D24" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2496,11 +2496,11 @@
       <c r="B25" s="59"/>
       <c r="C25" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="D25" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.2014805156807872</v>
+        <v>0.21116215171174843</v>
       </c>
       <c r="E25" s="57"/>
     </row>
@@ -2578,7 +2578,7 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>7.0790000000000002E-3</v>
+        <v>6.9290000000000003E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>6.6470000000000001E-3</v>
+        <v>6.7419999999999997E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2775,11 +2775,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41746</v>
+        <v>41761</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>6.7860000000000004E-3</v>
+        <v>6.7949999999999998E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2814,11 +2814,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41753</v>
+        <v>41767</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>6.6709999999999998E-3</v>
+        <v>6.6360000000000004E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2892,11 +2892,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>6.5240000000000003E-3</v>
+        <v>6.5120000000000004E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>6.417E-3</v>
+        <v>6.391E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -2964,11 +2964,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F13" s="13">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>6.1840000000000003E-3</v>
+        <v>6.149E-3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="b">
@@ -3066,11 +3066,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F16" s="13">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.0419999999999996E-3</v>
+        <v>6.0299999999999998E-3</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12" t="b">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3264,11 +3264,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3302,11 +3302,11 @@
       </c>
       <c r="K20" s="19">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L20" s="18">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3340,11 +3340,11 @@
       </c>
       <c r="K21" s="4">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="L21" s="3">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42107</v>
+        <v>42121</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>5.9160000000000003E-3</v>
+        <v>5.927E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3378,11 +3378,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42136</v>
+        <v>42150</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>5.8780000000000004E-3</v>
+        <v>5.8890000000000001E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="F24" s="13">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>5.8589999999999996E-3</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="12" t="b">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F25" s="13">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>5.8640000000000003E-3</v>
+        <v>5.8890000000000001E-3</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="12" t="b">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42227</v>
+        <v>42241</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="F26" s="13">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>5.8820000000000001E-3</v>
+        <v>5.9020000000000001E-3</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="b">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="F27" s="13">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>5.921E-3</v>
+        <v>5.9420000000000002E-3</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12" t="b">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="F28" s="13">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>5.9849999999999999E-3</v>
+        <v>6.0039999999999998E-3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="b">
@@ -3606,11 +3606,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42318</v>
+        <v>42332</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F29" s="13">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>6.0639999999999999E-3</v>
+        <v>6.0800000000000003E-3</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="b">
@@ -3644,11 +3644,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42348</v>
+        <v>42362</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="F30" s="13">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>6.1570000000000001E-3</v>
+        <v>6.1789999999999996E-3</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="b">
@@ -3682,11 +3682,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42381</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="F31" s="13">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>6.2589999999999998E-3</v>
+        <v>6.2830000000000004E-3</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="b">
@@ -3720,11 +3720,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42045</v>
+        <v>42059</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42410</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="F32" s="13">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>6.3709999999999999E-3</v>
+        <v>6.3930000000000002E-3</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12" t="b">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42073</v>
+        <v>42087</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42439</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F33" s="13">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>6.5100000000000002E-3</v>
+        <v>6.5400000000000007E-3</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="b">
@@ -3796,11 +3796,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="F34" s="13">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>6.6660000000000001E-3</v>
+        <v>6.6930000000000002E-3</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="b">
@@ -3834,11 +3834,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42501</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="F35" s="13">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>6.842E-3</v>
+        <v>6.8519999999999996E-3</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="12" t="b">
@@ -3872,11 +3872,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42531</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42562</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>7.2639999999999996E-3</v>
+        <v>7.2589999999999998E-3</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="12" t="b">
@@ -3948,11 +3948,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42592</v>
+        <v>42606</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>7.5180000000000004E-3</v>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="12" t="b">
@@ -3986,11 +3986,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42625</v>
+        <v>42639</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="F39" s="6">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>7.7809999999999997E-3</v>
+        <v>7.7409999999999996E-3</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="5" t="b">
@@ -4024,11 +4024,11 @@
       </c>
       <c r="K39" s="4">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42655</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4042,11 +4042,11 @@
       </c>
       <c r="D40" s="14" t="str">
         <f t="array" ref="D40:D81">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A40:$A81)</f>
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YJ4</v>
+        <v>EUR_YC1YRH_FUT1YK4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4084,11 +4084,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YK4</v>
+        <v>EUR_YC1YRH_FUT1YM4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4126,11 +4126,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YM4</v>
+        <v>EUR_YC1YRH_FUT1YN4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4168,11 +4168,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YN4</v>
+        <v>EUR_YC1YRH_FUT1YQ4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4210,11 +4210,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YQ4</v>
+        <v>EUR_YC1YRH_FUT1YU4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4252,11 +4252,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YU4</v>
+        <v>EUR_YC1YRH_FUT1YV4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4294,11 +4294,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YV4</v>
+        <v>EUR_YC1YRH_FUT1YX4</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4336,11 +4336,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YX4</v>
+        <v>EUR_YC1YRH_FUT1YZ4</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4378,11 +4378,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YZ4</v>
+        <v>EUR_YC1YRH_FUT1YF5</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4420,11 +4420,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YF5</v>
+        <v>EUR_YC1YRH_FUT1YG5</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4462,11 +4462,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YG5</v>
+        <v>EUR_YC1YRH_FUT1YH5</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4504,11 +4504,11 @@
         <v>FUT1Y</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC1YRH_FUT1YH5</v>
+        <v>EUR_YC1YRH_FUT1YJ5</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>6.0600000000000003E-3</v>
+        <v>6.0699999999999999E-3</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8220,11 +8220,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8243,9 +8243,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS15M</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>5.8079999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8262,11 +8262,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>6.0999999999999995E-3</v>
+        <v>5.5599999999999998E-3</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8304,11 +8304,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8327,9 +8327,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS21M</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>6.0330000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8346,11 +8346,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>6.3400000000000001E-3</v>
+        <v>6.3599999999999993E-3</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8388,11 +8388,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>7.4799999999999997E-3</v>
+        <v>7.4699999999999992E-3</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8430,11 +8430,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>9.1400000000000006E-3</v>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8472,11 +8472,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.0969999999999999E-2</v>
+        <v>1.1129999999999999E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8514,11 +8514,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.2820000000000002E-2</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8556,11 +8556,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>1.4590000000000001E-2</v>
+        <v>1.4700000000000001E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>1.6230000000000001E-2</v>
+        <v>1.6310000000000002E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8640,11 +8640,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>1.771E-2</v>
+        <v>1.7770000000000001E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8682,11 +8682,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="F149" s="13">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>1.9030000000000002E-2</v>
+        <v>1.908E-2</v>
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8724,11 +8724,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.0199999999999999E-2</v>
+        <v>2.0210000000000002E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8766,11 +8766,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>45757</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="F151" s="13">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.1199999999999997E-2</v>
+        <v>2.1179999999999997E-2</v>
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8808,11 +8808,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8831,9 +8831,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS13Y</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.2053999999999997E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8850,11 +8850,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>46489</v>
+        <v>46503</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8873,9 +8873,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS14Y</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.2783999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -8892,11 +8892,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>46853</v>
+        <v>46867</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="F154" s="13">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.3379999999999998E-2</v>
+        <v>2.3279999999999999E-2</v>
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -8934,11 +8934,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -8957,9 +8957,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS16Y</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.3869999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -8976,11 +8976,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>47583</v>
+        <v>47597</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -8999,9 +8999,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS17Y</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4254999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9018,11 +9018,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>47948</v>
+        <v>47962</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9041,9 +9041,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS18Y</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4573000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9060,11 +9060,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>48316</v>
+        <v>48330</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9083,9 +9083,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS19Y</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.4814999999999997E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>48680</v>
+        <v>48694</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.5010000000000001E-2</v>
+        <v>2.4800000000000003E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9144,11 +9144,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9167,9 +9167,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS21Y</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.5167999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9186,11 +9186,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>49409</v>
+        <v>49423</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9209,9 +9209,9 @@
         <f t="shared" si="9"/>
         <v>EUR_YC1YRH_AB12EBASIS22Y</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.5298999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>49775</v>
+        <v>49789</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9251,9 +9251,9 @@
         <f t="shared" ref="E162:E173" si="12">RateHelperPrefix&amp;"_"&amp;$B162&amp;$C162&amp;$D162</f>
         <v>EUR_YC1YRH_AB12EBASIS23Y</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.5391000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9270,11 +9270,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50140</v>
+        <v>50154</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9293,9 +9293,9 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS24Y</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>2.5465000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9312,11 +9312,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>50507</v>
+        <v>50522</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="F164" s="13">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>2.5520000000000004E-2</v>
+        <v>2.5239999999999999E-2</v>
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9354,11 +9354,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9377,9 +9377,9 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS26Y</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.5555000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9396,11 +9396,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>51236</v>
+        <v>51250</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9419,9 +9419,9 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS27Y</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F166" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>2.5579999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9438,11 +9438,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>51601</v>
+        <v>51615</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9461,9 +9461,9 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS28Y</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>2.5596000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G167" s="13">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>51966</v>
+        <v>51980</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9503,9 +9503,9 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS29Y</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>2.5613E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G168" s="13">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9522,11 +9522,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>52331</v>
+        <v>52345</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="F169" s="13">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>2.562E-2</v>
+        <v>2.5290000000000003E-2</v>
       </c>
       <c r="G169" s="13">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9564,11 +9564,11 @@
       </c>
       <c r="K169" s="11">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L169" s="10">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9587,16 +9587,16 @@
         <f t="shared" si="12"/>
         <v>EUR_YC1YRH_AB12EBASIS35Y</v>
       </c>
-      <c r="F170" s="13">
+      <c r="F170" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E170,Trigger)</f>
-        <v>2.5769999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G170" s="13">
         <f>_xll.qlSwapRateHelperSpread($E170,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H170" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" s="12">
         <v>40</v>
@@ -9606,11 +9606,11 @@
       </c>
       <c r="K170" s="11">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L170" s="10">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>54525</v>
+        <v>54539</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="F171" s="13">
         <f>_xll.qlRateHelperQuoteValue($E171,Trigger)</f>
-        <v>2.5950000000000001E-2</v>
+        <v>2.547E-2</v>
       </c>
       <c r="G171" s="13">
         <f>_xll.qlSwapRateHelperSpread($E171,Trigger)</f>
@@ -9648,11 +9648,11 @@
       </c>
       <c r="K171" s="11">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L171" s="10">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>56349</v>
+        <v>56363</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="F172" s="13">
         <f>_xll.qlRateHelperQuoteValue($E172,Trigger)</f>
-        <v>2.6110000000000001E-2</v>
+        <v>2.5539999999999997E-2</v>
       </c>
       <c r="G172" s="13">
         <f>_xll.qlSwapRateHelperSpread($E172,Trigger)</f>
@@ -9690,11 +9690,11 @@
       </c>
       <c r="K172" s="11">
         <f>_xll.qlRateHelperEarliestDate($E172,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L172" s="10">
         <f>_xll.qlRateHelperLatestDate($E172,Trigger)</f>
-        <v>60002</v>
+        <v>60016</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.2">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="F173" s="6">
         <f>_xll.qlRateHelperQuoteValue($E173,Trigger)</f>
-        <v>2.6239999999999999E-2</v>
+        <v>2.5640000000000003E-2</v>
       </c>
       <c r="G173" s="6">
         <f>_xll.qlSwapRateHelperSpread($E173,Trigger)</f>
@@ -9732,11 +9732,11 @@
       </c>
       <c r="K173" s="4">
         <f>_xll.qlRateHelperEarliestDate($E173,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L173" s="3">
         <f>_xll.qlRateHelperLatestDate($E173,Trigger)</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
     </row>
   </sheetData>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>6.6709999999999998E-3</v>
+        <v>6.6360000000000004E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9817,14 +9817,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99940737363648646</v>
+        <v>0.9993918900339398</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>6.417E-3</v>
+        <v>6.391E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9847,14 +9847,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99838055186633146</v>
+        <v>0.99836853086199262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>6.1840000000000003E-3</v>
+        <v>6.149E-3</v>
       </c>
       <c r="F4" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9877,14 +9877,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99686631750205501</v>
+        <v>0.99686545411019645</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>6.0419999999999996E-3</v>
+        <v>6.0299999999999998E-3</v>
       </c>
       <c r="F5" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9907,14 +9907,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99537252969897161</v>
+        <v>0.9953631617670361</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9938,20 +9938,20 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99396346659668422</v>
+        <v>0.99394497688539574</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_RateHelpersSelected#0001</v>
+        <v>EUR_YC1YRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.8589999999999996E-3</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="F7" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9970,14 +9970,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="I7" s="34">
-        <v>0.9924848198545877</v>
+        <v>0.99245186366809135</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.921E-3</v>
+        <v>5.9420000000000002E-3</v>
       </c>
       <c r="F8" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9994,14 +9994,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99088520503887423</v>
+        <v>0.99086326137113312</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1570000000000001E-3</v>
+        <v>6.1789999999999996E-3</v>
       </c>
       <c r="F9" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10018,14 +10018,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42381</v>
+        <v>42395</v>
       </c>
       <c r="I9" s="34">
-        <v>0.98919745087309885</v>
+        <v>0.9891662140355586</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.5100000000000002E-3</v>
+        <v>6.5400000000000007E-3</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10042,14 +10042,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="I10" s="34">
-        <v>0.98741043496109904</v>
+        <v>0.98736206940863547</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10066,14 +10066,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42562</v>
+        <v>42576</v>
       </c>
       <c r="I11" s="34">
-        <v>0.98541062812383218</v>
+        <v>0.98537790684106152</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.7809999999999997E-3</v>
+        <v>7.7409999999999996E-3</v>
       </c>
       <c r="F12" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10090,14 +10090,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42655</v>
+        <v>42669</v>
       </c>
       <c r="I12" s="34">
-        <v>0.98310814779921474</v>
+        <v>0.9831260430274098</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>7.4799999999999997E-3</v>
+        <v>7.4699999999999992E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10114,14 +10114,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="I13" s="34">
-        <v>0.9778813228872808</v>
+        <v>0.97789233604432491</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>9.1400000000000006E-3</v>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10138,14 +10138,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="I14" s="34">
-        <v>0.96420443238961417</v>
+        <v>0.96387724236697969</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0969999999999999E-2</v>
+        <v>1.1129999999999999E-2</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10162,14 +10162,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
       <c r="I15" s="34">
-        <v>0.94672883787126982</v>
+        <v>0.94594928575289772</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.2820000000000002E-2</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10186,14 +10186,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="I16" s="34">
-        <v>0.92585148317661026</v>
+        <v>0.92518060510554823</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4590000000000001E-2</v>
+        <v>1.4700000000000001E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10210,14 +10210,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="I17" s="34">
-        <v>0.90265171247047826</v>
+        <v>0.90193764808638999</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.6230000000000001E-2</v>
+        <v>1.6310000000000002E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10234,14 +10234,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="I18" s="34">
-        <v>0.87765590287706519</v>
+        <v>0.87708578962446249</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.771E-2</v>
+        <v>1.7770000000000001E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10258,14 +10258,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="I19" s="34">
-        <v>0.8515809327310192</v>
+        <v>0.85116633583907242</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.9030000000000002E-2</v>
+        <v>1.908E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10282,14 +10282,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="I20" s="34">
-        <v>0.82502969207841759</v>
+        <v>0.82463461048044395</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.1199999999999997E-2</v>
+        <v>2.1179999999999997E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10306,14 +10306,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
       <c r="I21" s="34">
-        <v>0.77211221846663936</v>
+        <v>0.77239924014170014</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.3379999999999998E-2</v>
+        <v>2.3279999999999999E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10330,14 +10330,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
       <c r="I22" s="34">
-        <v>0.69840926034309425</v>
+        <v>0.69970909699331596</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.5010000000000001E-2</v>
+        <v>2.4800000000000003E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10354,14 +10354,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
       <c r="I23" s="34">
-        <v>0.59813871764175208</v>
+        <v>0.60126176606801374</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.5520000000000004E-2</v>
+        <v>2.5239999999999999E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10378,14 +10378,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
       <c r="I24" s="34">
-        <v>0.51990235167147369</v>
+        <v>0.52439896198311753</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.562E-2</v>
+        <v>2.5290000000000003E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10402,23 +10402,23 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
       <c r="I25" s="34">
-        <v>0.45646367915336195</v>
+        <v>0.46199453522485001</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="42" t="str">
-        <v>EUR_YC1YRH_AB12EBASIS35Y</v>
+        <v>EUR_YC1YRH_AB12EBASIS40Y</v>
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.5769999999999998E-2</v>
+        <v>2.547E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10426,23 +10426,23 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>54525</v>
+        <v>56363</v>
       </c>
       <c r="I26" s="34">
-        <v>0.39899139930384347</v>
+        <v>0.35597935058342661</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="42" t="str">
-        <v>EUR_YC1YRH_AB12EBASIS40Y</v>
+        <v>EUR_YC1YRH_AB12EBASIS50Y</v>
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.5950000000000001E-2</v>
+        <v>2.5539999999999997E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10450,23 +10450,23 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56349</v>
+        <v>60016</v>
       </c>
       <c r="I27" s="34">
-        <v>0.34727941955927533</v>
+        <v>0.27513197093378672</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" s="42" t="str">
-        <v>EUR_YC1YRH_AB12EBASIS50Y</v>
+        <v>EUR_YC1YRH_AB12EBASIS60Y</v>
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.6110000000000001E-2</v>
+        <v>2.5640000000000003E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10474,38 +10474,38 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>60002</v>
+        <v>63668</v>
       </c>
       <c r="I28" s="34">
-        <v>0.2650315348924806</v>
+        <v>0.21116215171174843</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="42" t="str">
-        <v>EUR_YC1YRH_AB12EBASIS60Y</v>
-      </c>
-      <c r="E29" s="41">
+      <c r="D29" s="42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="41" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.6239999999999999E-2</v>
-      </c>
-      <c r="F29" s="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="40">
+        <v>--</v>
+      </c>
+      <c r="G29" s="40" t="e">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41739</v>
-      </c>
-      <c r="H29" s="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>63654</v>
-      </c>
-      <c r="I29" s="34">
-        <v>0.2014805156807872</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="F3" s="96" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SND#0002</v>
+        <v>EUR_YC1YRH_SND#0001</v>
       </c>
       <c r="G3" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="F4" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_SWD#0002</v>
+        <v>EUR_YC1YRH_SWD#0001</v>
       </c>
       <c r="G4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="F5" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2WD#0002</v>
+        <v>EUR_YC1YRH_2WD#0001</v>
       </c>
       <c r="G5" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="F6" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1MD#0002</v>
+        <v>EUR_YC1YRH_1MD#0001</v>
       </c>
       <c r="G6" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="F7" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_2MD#0002</v>
+        <v>EUR_YC1YRH_2MD#0001</v>
       </c>
       <c r="G7" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="F8" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_3MD#0002</v>
+        <v>EUR_YC1YRH_3MD#0001</v>
       </c>
       <c r="G8" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="F9" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_6MD#0002</v>
+        <v>EUR_YC1YRH_6MD#0001</v>
       </c>
       <c r="G9" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="F10" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_9MD#0002</v>
+        <v>EUR_YC1YRH_9MD#0001</v>
       </c>
       <c r="G10" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="F11" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC1YRH_1YD#0002</v>
+        <v>EUR_YC1YRH_1YD#0001</v>
       </c>
       <c r="G11" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
